--- a/thermax_backend/templates/heating_design_basis_template.xlsx
+++ b/thermax_backend/templates/heating_design_basis_template.xlsx
@@ -5,19 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\abhishekraje30\frappe-bench\apps\thermax_backend\thermax_backend\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC1B7394-1C4E-490F-8E9C-8EAAB61AE15C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6078199B-D0A5-489C-B27E-E9D0067332C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COVER" sheetId="1" r:id="rId1"/>
     <sheet name="Design Basis" sheetId="2" r:id="rId2"/>
-    <sheet name="MCC" sheetId="3" r:id="rId3"/>
-    <sheet name="PCC" sheetId="6" r:id="rId4"/>
-    <sheet name="MCC CUM PLC" sheetId="5" r:id="rId5"/>
+    <sheet name="MCC VTUS88BP" sheetId="3" r:id="rId3"/>
+    <sheet name="PCC VTUS88BP" sheetId="6" r:id="rId4"/>
+    <sheet name="MCC CUM PLC VTUS88BP" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -1796,7 +1796,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1929,9 +1929,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1967,9 +1964,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2002,6 +1996,42 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2053,41 +2083,77 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2101,6 +2167,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2119,81 +2188,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2227,41 +2221,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3406,235 +3400,235 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="116.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="75"/>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="77"/>
+      <c r="A1" s="85"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="87"/>
     </row>
     <row r="2" spans="1:8" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="80"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="90"/>
     </row>
     <row r="3" spans="1:8" ht="23.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="83"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="93"/>
     </row>
     <row r="4" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="86"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="96"/>
     </row>
     <row r="5" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="30"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
       <c r="H5" s="31"/>
     </row>
     <row r="6" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30"/>
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="88"/>
-      <c r="D6" s="89" t="s">
+      <c r="C6" s="98"/>
+      <c r="D6" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="90"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="91"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="101"/>
       <c r="H6" s="31"/>
     </row>
     <row r="7" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="30"/>
-      <c r="B7" s="102" t="s">
+      <c r="B7" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="103"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="96"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="77"/>
       <c r="H7" s="31"/>
     </row>
     <row r="8" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="30"/>
-      <c r="B8" s="92" t="s">
+      <c r="B8" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="93"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="96"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="77"/>
       <c r="H8" s="31"/>
     </row>
     <row r="9" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="30"/>
-      <c r="B9" s="92" t="s">
+      <c r="B9" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="93"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="96"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="77"/>
       <c r="H9" s="31"/>
     </row>
     <row r="10" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30"/>
-      <c r="B10" s="92" t="s">
+      <c r="B10" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="93"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="96"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="77"/>
       <c r="H10" s="31"/>
     </row>
     <row r="11" spans="1:8" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="30"/>
-      <c r="B11" s="97" t="s">
+      <c r="B11" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="98"/>
-      <c r="D11" s="99" t="s">
+      <c r="C11" s="79"/>
+      <c r="D11" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="100"/>
-      <c r="F11" s="100"/>
-      <c r="G11" s="101"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="82"/>
       <c r="H11" s="31"/>
     </row>
     <row r="12" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="30"/>
-      <c r="B12" s="73"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
       <c r="H12" s="31"/>
     </row>
     <row r="13" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="30"/>
-      <c r="B13" s="73"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="74"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
       <c r="H13" s="31"/>
     </row>
     <row r="14" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="30"/>
-      <c r="B14" s="73"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
       <c r="H14" s="31"/>
     </row>
     <row r="15" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="30"/>
-      <c r="B15" s="73"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="74"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
       <c r="H15" s="31"/>
     </row>
     <row r="16" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="30"/>
-      <c r="B16" s="73"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
       <c r="H16" s="31"/>
     </row>
     <row r="17" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="30"/>
-      <c r="B17" s="73"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="74"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
       <c r="H17" s="31"/>
     </row>
     <row r="18" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="30"/>
-      <c r="B18" s="73"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
       <c r="H18" s="31"/>
     </row>
     <row r="19" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="30"/>
-      <c r="B19" s="73"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="74"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="74"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
       <c r="H19" s="31"/>
     </row>
     <row r="20" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="30"/>
-      <c r="B20" s="73"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
       <c r="H20" s="31"/>
     </row>
     <row r="21" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="30"/>
-      <c r="B21" s="73"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="74"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="74"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
       <c r="H21" s="31"/>
     </row>
     <row r="22" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3798,6 +3792,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:G6"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:G10"/>
     <mergeCell ref="B11:C11"/>
@@ -3808,12 +3808,6 @@
     <mergeCell ref="D8:G8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:G9"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:G6"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="74" fitToHeight="100" orientation="portrait" r:id="rId1"/>
@@ -3825,8 +3819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D216"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A184" zoomScale="60" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3839,26 +3833,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="131" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="110"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="133"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="111"/>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="113"/>
+      <c r="A2" s="134"/>
+      <c r="B2" s="135"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="136"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
-      <c r="B3" s="114" t="s">
+      <c r="B3" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="115"/>
-      <c r="D3" s="116"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="106"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
@@ -3867,8 +3861,8 @@
       <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="106"/>
-      <c r="D4" s="107"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="129"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
@@ -3877,8 +3871,8 @@
       <c r="B5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="106"/>
-      <c r="D5" s="107"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="129"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
@@ -3887,8 +3881,8 @@
       <c r="B6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="106"/>
-      <c r="D6" s="107"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="129"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
@@ -3897,8 +3891,8 @@
       <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="106"/>
-      <c r="D7" s="107"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="129"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
@@ -3907,8 +3901,8 @@
       <c r="B8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="104"/>
-      <c r="D8" s="105"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="127"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
@@ -3917,8 +3911,8 @@
       <c r="B9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="106"/>
-      <c r="D9" s="107"/>
+      <c r="C9" s="128"/>
+      <c r="D9" s="129"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
@@ -3927,8 +3921,8 @@
       <c r="B10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="104"/>
-      <c r="D10" s="105"/>
+      <c r="C10" s="126"/>
+      <c r="D10" s="127"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
@@ -3937,8 +3931,8 @@
       <c r="B11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="104"/>
-      <c r="D11" s="105"/>
+      <c r="C11" s="126"/>
+      <c r="D11" s="127"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
@@ -3947,8 +3941,8 @@
       <c r="B12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="104"/>
-      <c r="D12" s="105"/>
+      <c r="C12" s="126"/>
+      <c r="D12" s="127"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
@@ -3957,8 +3951,8 @@
       <c r="B13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="104"/>
-      <c r="D13" s="105"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="127"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
@@ -3967,8 +3961,8 @@
       <c r="B14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="117"/>
-      <c r="D14" s="105"/>
+      <c r="C14" s="130"/>
+      <c r="D14" s="127"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
@@ -3977,8 +3971,8 @@
       <c r="B15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="117"/>
-      <c r="D15" s="105"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="127"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
@@ -3987,8 +3981,8 @@
       <c r="B16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="117"/>
-      <c r="D16" s="105"/>
+      <c r="C16" s="130"/>
+      <c r="D16" s="127"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
@@ -3997,8 +3991,8 @@
       <c r="B17" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="117"/>
-      <c r="D17" s="105"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="127"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
@@ -4007,84 +4001,84 @@
       <c r="B18" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="104"/>
-      <c r="D18" s="105"/>
+      <c r="C18" s="126"/>
+      <c r="D18" s="127"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
-      <c r="B19" s="114" t="s">
+      <c r="B19" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="115"/>
-      <c r="D19" s="116"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="106"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>16</v>
       </c>
-      <c r="B20" s="65" t="s">
+      <c r="B20" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="104"/>
-      <c r="D20" s="105"/>
+      <c r="C20" s="126"/>
+      <c r="D20" s="127"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>17</v>
       </c>
-      <c r="B21" s="65" t="s">
+      <c r="B21" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="106"/>
-      <c r="D21" s="107"/>
+      <c r="C21" s="128"/>
+      <c r="D21" s="129"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>18</v>
       </c>
-      <c r="B22" s="65" t="s">
+      <c r="B22" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="104"/>
-      <c r="D22" s="105"/>
+      <c r="C22" s="126"/>
+      <c r="D22" s="127"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>19</v>
       </c>
-      <c r="B23" s="65" t="s">
+      <c r="B23" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="104"/>
-      <c r="D23" s="105"/>
+      <c r="C23" s="126"/>
+      <c r="D23" s="127"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>20</v>
       </c>
-      <c r="B24" s="65" t="s">
+      <c r="B24" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="106"/>
-      <c r="D24" s="107"/>
+      <c r="C24" s="128"/>
+      <c r="D24" s="129"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
-      <c r="B25" s="114" t="s">
+      <c r="B25" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="115"/>
-      <c r="D25" s="116"/>
+      <c r="C25" s="105"/>
+      <c r="D25" s="106"/>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="28"/>
-      <c r="B26" s="69" t="s">
+      <c r="B26" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="69" t="s">
+      <c r="C26" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="70" t="s">
+      <c r="D26" s="68" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4092,131 +4086,131 @@
       <c r="A27" s="1">
         <v>21</v>
       </c>
-      <c r="B27" s="66" t="s">
+      <c r="B27" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="66"/>
-      <c r="D27" s="67"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="65"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>22</v>
       </c>
-      <c r="B28" s="66" t="s">
+      <c r="B28" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="66"/>
-      <c r="D28" s="67"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="65"/>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>23</v>
       </c>
-      <c r="B29" s="66" t="s">
+      <c r="B29" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="66"/>
-      <c r="D29" s="67"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="65"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>24</v>
       </c>
-      <c r="B30" s="66" t="s">
+      <c r="B30" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="66"/>
-      <c r="D30" s="67"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="65"/>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>25</v>
       </c>
-      <c r="B31" s="66" t="s">
+      <c r="B31" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="66"/>
-      <c r="D31" s="67"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="65"/>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>26</v>
       </c>
-      <c r="B32" s="66" t="s">
+      <c r="B32" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="66"/>
-      <c r="D32" s="67"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="65"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>27</v>
       </c>
-      <c r="B33" s="66" t="s">
+      <c r="B33" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="66"/>
-      <c r="D33" s="67"/>
+      <c r="C33" s="64"/>
+      <c r="D33" s="65"/>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>28</v>
       </c>
-      <c r="B34" s="66" t="s">
+      <c r="B34" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="66"/>
-      <c r="D34" s="67"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="65"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>29</v>
       </c>
-      <c r="B35" s="66" t="s">
+      <c r="B35" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="66"/>
-      <c r="D35" s="67"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="65"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>30</v>
       </c>
-      <c r="B36" s="66" t="s">
+      <c r="B36" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="66"/>
-      <c r="D36" s="67"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="65"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>31</v>
       </c>
-      <c r="B37" s="66" t="s">
+      <c r="B37" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="66"/>
-      <c r="D37" s="67"/>
+      <c r="C37" s="64"/>
+      <c r="D37" s="65"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>32</v>
       </c>
-      <c r="B38" s="66" t="s">
+      <c r="B38" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="66"/>
-      <c r="D38" s="67"/>
+      <c r="C38" s="64"/>
+      <c r="D38" s="65"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>33</v>
       </c>
-      <c r="B39" s="66" t="s">
+      <c r="B39" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="C39" s="66"/>
-      <c r="D39" s="67"/>
+      <c r="C39" s="64"/>
+      <c r="D39" s="65"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="5">
@@ -4232,191 +4226,190 @@
       <c r="A41" s="1">
         <v>35</v>
       </c>
-      <c r="B41" s="66" t="s">
+      <c r="B41" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="C41" s="66"/>
-      <c r="D41" s="67"/>
+      <c r="C41" s="64"/>
+      <c r="D41" s="65"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>36</v>
       </c>
-      <c r="B42" s="66" t="s">
+      <c r="B42" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="C42" s="66"/>
-      <c r="D42" s="67"/>
+      <c r="C42" s="64"/>
+      <c r="D42" s="65"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>37</v>
       </c>
-      <c r="B43" s="66" t="s">
+      <c r="B43" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="C43" s="63"/>
-      <c r="D43" s="67"/>
+      <c r="D43" s="65"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>38</v>
       </c>
-      <c r="B44" s="66" t="s">
+      <c r="B44" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="C44" s="50"/>
-      <c r="D44" s="67"/>
+      <c r="C44" s="64"/>
+      <c r="D44" s="65"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>39</v>
       </c>
-      <c r="B45" s="66" t="s">
+      <c r="B45" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="C45" s="66"/>
-      <c r="D45" s="67"/>
+      <c r="C45" s="64"/>
+      <c r="D45" s="65"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>40</v>
       </c>
-      <c r="B46" s="66" t="s">
+      <c r="B46" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="C46" s="66"/>
-      <c r="D46" s="67"/>
+      <c r="C46" s="64"/>
+      <c r="D46" s="65"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>41</v>
       </c>
-      <c r="B47" s="66" t="s">
+      <c r="B47" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="C47" s="66"/>
-      <c r="D47" s="67"/>
+      <c r="C47" s="64"/>
+      <c r="D47" s="65"/>
     </row>
     <row r="48" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
-      <c r="B48" s="114" t="s">
+      <c r="B48" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="C48" s="115"/>
-      <c r="D48" s="116"/>
+      <c r="C48" s="105"/>
+      <c r="D48" s="106"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
-      <c r="B49" s="114" t="s">
+      <c r="B49" s="104" t="s">
         <v>65</v>
       </c>
-      <c r="C49" s="115"/>
-      <c r="D49" s="116"/>
+      <c r="C49" s="105"/>
+      <c r="D49" s="106"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>42</v>
       </c>
-      <c r="B50" s="66" t="s">
+      <c r="B50" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="C50" s="118"/>
-      <c r="D50" s="119"/>
+      <c r="C50" s="102"/>
+      <c r="D50" s="103"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>43</v>
       </c>
-      <c r="B51" s="66" t="s">
+      <c r="B51" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="C51" s="118"/>
-      <c r="D51" s="119"/>
+      <c r="C51" s="102"/>
+      <c r="D51" s="103"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>44</v>
       </c>
-      <c r="B52" s="66" t="s">
+      <c r="B52" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="C52" s="118"/>
-      <c r="D52" s="119"/>
+      <c r="C52" s="102"/>
+      <c r="D52" s="103"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>45</v>
       </c>
-      <c r="B53" s="66" t="s">
+      <c r="B53" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="C53" s="118"/>
-      <c r="D53" s="119"/>
+      <c r="C53" s="102"/>
+      <c r="D53" s="103"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>46</v>
       </c>
-      <c r="B54" s="66" t="s">
+      <c r="B54" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="C54" s="118"/>
-      <c r="D54" s="119"/>
+      <c r="C54" s="102"/>
+      <c r="D54" s="103"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>47</v>
       </c>
-      <c r="B55" s="66" t="s">
+      <c r="B55" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="C55" s="118"/>
-      <c r="D55" s="119"/>
+      <c r="C55" s="102"/>
+      <c r="D55" s="103"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>48</v>
       </c>
-      <c r="B56" s="66" t="s">
+      <c r="B56" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="C56" s="118"/>
-      <c r="D56" s="119"/>
+      <c r="C56" s="102"/>
+      <c r="D56" s="103"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
-      <c r="B57" s="114" t="s">
+      <c r="B57" s="104" t="s">
         <v>73</v>
       </c>
-      <c r="C57" s="115"/>
-      <c r="D57" s="116"/>
+      <c r="C57" s="105"/>
+      <c r="D57" s="106"/>
     </row>
     <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
-      <c r="B58" s="114" t="s">
+      <c r="B58" s="104" t="s">
         <v>74</v>
       </c>
-      <c r="C58" s="115"/>
-      <c r="D58" s="116"/>
+      <c r="C58" s="105"/>
+      <c r="D58" s="106"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>49</v>
       </c>
-      <c r="B59" s="68" t="s">
+      <c r="B59" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="C59" s="118"/>
-      <c r="D59" s="119"/>
+      <c r="C59" s="102"/>
+      <c r="D59" s="103"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="1"/>
-      <c r="B60" s="114" t="s">
+      <c r="B60" s="104" t="s">
         <v>76</v>
       </c>
-      <c r="C60" s="115"/>
-      <c r="D60" s="116"/>
+      <c r="C60" s="105"/>
+      <c r="D60" s="106"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
@@ -4425,8 +4418,8 @@
       <c r="B61" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C61" s="120"/>
-      <c r="D61" s="121"/>
+      <c r="C61" s="112"/>
+      <c r="D61" s="108"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
@@ -4435,8 +4428,8 @@
       <c r="B62" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C62" s="120"/>
-      <c r="D62" s="121"/>
+      <c r="C62" s="112"/>
+      <c r="D62" s="108"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
@@ -4445,8 +4438,8 @@
       <c r="B63" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C63" s="120"/>
-      <c r="D63" s="121"/>
+      <c r="C63" s="112"/>
+      <c r="D63" s="108"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
@@ -4455,8 +4448,8 @@
       <c r="B64" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C64" s="120"/>
-      <c r="D64" s="121"/>
+      <c r="C64" s="112"/>
+      <c r="D64" s="108"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
@@ -4465,8 +4458,8 @@
       <c r="B65" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C65" s="120"/>
-      <c r="D65" s="121"/>
+      <c r="C65" s="112"/>
+      <c r="D65" s="108"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
@@ -4475,200 +4468,200 @@
       <c r="B66" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C66" s="120"/>
-      <c r="D66" s="121"/>
+      <c r="C66" s="112"/>
+      <c r="D66" s="108"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="1"/>
-      <c r="B67" s="114" t="s">
+      <c r="B67" s="104" t="s">
         <v>83</v>
       </c>
-      <c r="C67" s="115"/>
-      <c r="D67" s="116"/>
+      <c r="C67" s="105"/>
+      <c r="D67" s="106"/>
     </row>
     <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="12">
         <v>56</v>
       </c>
-      <c r="B68" s="68" t="s">
+      <c r="B68" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="C68" s="118"/>
-      <c r="D68" s="119"/>
+      <c r="C68" s="102"/>
+      <c r="D68" s="103"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="1"/>
-      <c r="B69" s="114" t="s">
+      <c r="B69" s="104" t="s">
         <v>85</v>
       </c>
-      <c r="C69" s="115"/>
-      <c r="D69" s="116"/>
+      <c r="C69" s="105"/>
+      <c r="D69" s="106"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>57</v>
       </c>
-      <c r="B70" s="66" t="s">
+      <c r="B70" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="C70" s="118"/>
-      <c r="D70" s="119"/>
+      <c r="C70" s="102"/>
+      <c r="D70" s="103"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>58</v>
       </c>
-      <c r="B71" s="66" t="s">
+      <c r="B71" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="C71" s="118"/>
-      <c r="D71" s="119"/>
+      <c r="C71" s="102"/>
+      <c r="D71" s="103"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>59</v>
       </c>
-      <c r="B72" s="66" t="s">
+      <c r="B72" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="C72" s="118"/>
-      <c r="D72" s="119"/>
+      <c r="C72" s="102"/>
+      <c r="D72" s="103"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>60</v>
       </c>
-      <c r="B73" s="66" t="s">
+      <c r="B73" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="C73" s="118"/>
-      <c r="D73" s="119"/>
+      <c r="C73" s="102"/>
+      <c r="D73" s="103"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>61</v>
       </c>
-      <c r="B74" s="66" t="s">
+      <c r="B74" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="C74" s="118"/>
-      <c r="D74" s="119"/>
+      <c r="C74" s="102"/>
+      <c r="D74" s="103"/>
     </row>
     <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1"/>
-      <c r="B75" s="122" t="s">
+      <c r="B75" s="124" t="s">
         <v>91</v>
       </c>
-      <c r="C75" s="122"/>
-      <c r="D75" s="123"/>
+      <c r="C75" s="124"/>
+      <c r="D75" s="125"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>62</v>
       </c>
-      <c r="B76" s="66" t="s">
+      <c r="B76" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="C76" s="118"/>
-      <c r="D76" s="119"/>
+      <c r="C76" s="102"/>
+      <c r="D76" s="103"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>63</v>
       </c>
-      <c r="B77" s="66" t="s">
+      <c r="B77" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="C77" s="118"/>
-      <c r="D77" s="119"/>
+      <c r="C77" s="102"/>
+      <c r="D77" s="103"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>64</v>
       </c>
-      <c r="B78" s="66" t="s">
+      <c r="B78" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="C78" s="118"/>
-      <c r="D78" s="119"/>
+      <c r="C78" s="102"/>
+      <c r="D78" s="103"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>65</v>
       </c>
-      <c r="B79" s="66" t="s">
+      <c r="B79" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="C79" s="118"/>
-      <c r="D79" s="119"/>
+      <c r="C79" s="102"/>
+      <c r="D79" s="103"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>66</v>
       </c>
-      <c r="B80" s="66" t="s">
+      <c r="B80" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="C80" s="118"/>
-      <c r="D80" s="119"/>
+      <c r="C80" s="102"/>
+      <c r="D80" s="103"/>
     </row>
     <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1"/>
-      <c r="B81" s="122" t="s">
+      <c r="B81" s="124" t="s">
         <v>93</v>
       </c>
-      <c r="C81" s="122"/>
-      <c r="D81" s="123"/>
+      <c r="C81" s="124"/>
+      <c r="D81" s="125"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>67</v>
       </c>
-      <c r="B82" s="66" t="s">
+      <c r="B82" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="C82" s="118"/>
-      <c r="D82" s="119"/>
+      <c r="C82" s="102"/>
+      <c r="D82" s="103"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>68</v>
       </c>
-      <c r="B83" s="66" t="s">
+      <c r="B83" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="C83" s="118"/>
-      <c r="D83" s="119"/>
+      <c r="C83" s="102"/>
+      <c r="D83" s="103"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>69</v>
       </c>
-      <c r="B84" s="66" t="s">
+      <c r="B84" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="C84" s="118"/>
-      <c r="D84" s="119"/>
+      <c r="C84" s="102"/>
+      <c r="D84" s="103"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>70</v>
       </c>
-      <c r="B85" s="66" t="s">
+      <c r="B85" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="C85" s="118"/>
-      <c r="D85" s="119"/>
+      <c r="C85" s="102"/>
+      <c r="D85" s="103"/>
     </row>
     <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>71</v>
       </c>
-      <c r="B86" s="66" t="s">
+      <c r="B86" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="C86" s="118"/>
-      <c r="D86" s="119"/>
+      <c r="C86" s="102"/>
+      <c r="D86" s="103"/>
     </row>
     <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
@@ -4677,104 +4670,104 @@
       <c r="B87" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C87" s="118"/>
-      <c r="D87" s="119"/>
+      <c r="C87" s="102"/>
+      <c r="D87" s="103"/>
     </row>
     <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>73</v>
       </c>
-      <c r="B88" s="66" t="s">
+      <c r="B88" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="C88" s="118"/>
-      <c r="D88" s="119"/>
+      <c r="C88" s="102"/>
+      <c r="D88" s="103"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>74</v>
       </c>
-      <c r="B89" s="66" t="s">
+      <c r="B89" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="C89" s="118"/>
-      <c r="D89" s="119"/>
+      <c r="C89" s="102"/>
+      <c r="D89" s="103"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="1"/>
-      <c r="B90" s="114" t="s">
+      <c r="B90" s="104" t="s">
         <v>98</v>
       </c>
-      <c r="C90" s="115"/>
-      <c r="D90" s="116"/>
+      <c r="C90" s="105"/>
+      <c r="D90" s="106"/>
     </row>
     <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>75</v>
       </c>
-      <c r="B91" s="66" t="s">
+      <c r="B91" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="C91" s="118"/>
-      <c r="D91" s="119"/>
+      <c r="C91" s="102"/>
+      <c r="D91" s="103"/>
     </row>
     <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>76</v>
       </c>
-      <c r="B92" s="66" t="s">
+      <c r="B92" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="C92" s="118"/>
-      <c r="D92" s="119"/>
+      <c r="C92" s="102"/>
+      <c r="D92" s="103"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>77</v>
       </c>
-      <c r="B93" s="66" t="s">
+      <c r="B93" s="64" t="s">
         <v>101</v>
       </c>
-      <c r="C93" s="118"/>
-      <c r="D93" s="119"/>
+      <c r="C93" s="102"/>
+      <c r="D93" s="103"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>78</v>
       </c>
-      <c r="B94" s="66" t="s">
+      <c r="B94" s="64" t="s">
         <v>102</v>
       </c>
-      <c r="C94" s="118"/>
-      <c r="D94" s="119"/>
+      <c r="C94" s="102"/>
+      <c r="D94" s="103"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="1"/>
-      <c r="B95" s="114" t="s">
+      <c r="B95" s="104" t="s">
         <v>103</v>
       </c>
-      <c r="C95" s="115"/>
-      <c r="D95" s="116"/>
+      <c r="C95" s="105"/>
+      <c r="D95" s="106"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>79</v>
       </c>
-      <c r="B96" s="66" t="s">
+      <c r="B96" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="C96" s="118"/>
-      <c r="D96" s="119"/>
+      <c r="C96" s="102"/>
+      <c r="D96" s="103"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>80</v>
       </c>
-      <c r="B97" s="66" t="s">
+      <c r="B97" s="64" t="s">
         <v>105</v>
       </c>
-      <c r="C97" s="120"/>
-      <c r="D97" s="121"/>
+      <c r="C97" s="112"/>
+      <c r="D97" s="108"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
@@ -4783,280 +4776,280 @@
       <c r="B98" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C98" s="118"/>
-      <c r="D98" s="119"/>
+      <c r="C98" s="102"/>
+      <c r="D98" s="103"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>82</v>
       </c>
-      <c r="B99" s="66" t="s">
+      <c r="B99" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="C99" s="118"/>
-      <c r="D99" s="119"/>
+      <c r="C99" s="102"/>
+      <c r="D99" s="103"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>83</v>
       </c>
-      <c r="B100" s="66" t="s">
+      <c r="B100" s="64" t="s">
         <v>108</v>
       </c>
-      <c r="C100" s="118"/>
-      <c r="D100" s="119"/>
+      <c r="C100" s="102"/>
+      <c r="D100" s="103"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="1"/>
-      <c r="B101" s="114" t="s">
+      <c r="B101" s="104" t="s">
         <v>109</v>
       </c>
-      <c r="C101" s="115"/>
-      <c r="D101" s="116"/>
+      <c r="C101" s="105"/>
+      <c r="D101" s="106"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>84</v>
       </c>
-      <c r="B102" s="66" t="s">
+      <c r="B102" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="C102" s="120"/>
-      <c r="D102" s="121"/>
+      <c r="C102" s="112"/>
+      <c r="D102" s="108"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>85</v>
       </c>
-      <c r="B103" s="66" t="s">
+      <c r="B103" s="64" t="s">
         <v>111</v>
       </c>
-      <c r="C103" s="120"/>
-      <c r="D103" s="121"/>
+      <c r="C103" s="112"/>
+      <c r="D103" s="108"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>86</v>
       </c>
-      <c r="B104" s="66" t="s">
+      <c r="B104" s="64" t="s">
         <v>112</v>
       </c>
-      <c r="C104" s="120"/>
-      <c r="D104" s="121"/>
+      <c r="C104" s="112"/>
+      <c r="D104" s="108"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>87</v>
       </c>
-      <c r="B105" s="66" t="s">
+      <c r="B105" s="64" t="s">
         <v>113</v>
       </c>
-      <c r="C105" s="120"/>
-      <c r="D105" s="121"/>
+      <c r="C105" s="112"/>
+      <c r="D105" s="108"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" s="1"/>
-      <c r="B106" s="114" t="s">
+      <c r="B106" s="104" t="s">
         <v>114</v>
       </c>
-      <c r="C106" s="115"/>
-      <c r="D106" s="116"/>
+      <c r="C106" s="105"/>
+      <c r="D106" s="106"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>88</v>
       </c>
-      <c r="B107" s="68" t="s">
+      <c r="B107" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="C107" s="118"/>
-      <c r="D107" s="119"/>
+      <c r="C107" s="102"/>
+      <c r="D107" s="103"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" s="1"/>
-      <c r="B108" s="114" t="s">
+      <c r="B108" s="104" t="s">
         <v>116</v>
       </c>
-      <c r="C108" s="115"/>
-      <c r="D108" s="116"/>
+      <c r="C108" s="105"/>
+      <c r="D108" s="106"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>89</v>
       </c>
-      <c r="B109" s="66" t="s">
+      <c r="B109" s="64" t="s">
         <v>117</v>
       </c>
-      <c r="C109" s="118"/>
-      <c r="D109" s="119"/>
+      <c r="C109" s="102"/>
+      <c r="D109" s="103"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>90</v>
       </c>
-      <c r="B110" s="66" t="s">
+      <c r="B110" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="C110" s="118"/>
-      <c r="D110" s="119"/>
+      <c r="C110" s="102"/>
+      <c r="D110" s="103"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>91</v>
       </c>
-      <c r="B111" s="66" t="s">
+      <c r="B111" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="C111" s="118"/>
-      <c r="D111" s="119"/>
+      <c r="C111" s="102"/>
+      <c r="D111" s="103"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>92</v>
       </c>
-      <c r="B112" s="66" t="s">
+      <c r="B112" s="64" t="s">
         <v>120</v>
       </c>
-      <c r="C112" s="118"/>
-      <c r="D112" s="119"/>
+      <c r="C112" s="102"/>
+      <c r="D112" s="103"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>93</v>
       </c>
-      <c r="B113" s="66" t="s">
+      <c r="B113" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="C113" s="118"/>
-      <c r="D113" s="119"/>
+      <c r="C113" s="102"/>
+      <c r="D113" s="103"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>94</v>
       </c>
-      <c r="B114" s="66" t="s">
+      <c r="B114" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="C114" s="118"/>
-      <c r="D114" s="119"/>
+      <c r="C114" s="102"/>
+      <c r="D114" s="103"/>
     </row>
     <row r="115" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>95</v>
       </c>
-      <c r="B115" s="66" t="s">
+      <c r="B115" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="C115" s="118"/>
-      <c r="D115" s="119"/>
+      <c r="C115" s="102"/>
+      <c r="D115" s="103"/>
     </row>
     <row r="116" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>96</v>
       </c>
-      <c r="B116" s="66" t="s">
+      <c r="B116" s="64" t="s">
         <v>124</v>
       </c>
-      <c r="C116" s="118"/>
-      <c r="D116" s="119"/>
+      <c r="C116" s="102"/>
+      <c r="D116" s="103"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>97</v>
       </c>
-      <c r="B117" s="66" t="s">
+      <c r="B117" s="64" t="s">
         <v>125</v>
       </c>
-      <c r="C117" s="118"/>
-      <c r="D117" s="119"/>
+      <c r="C117" s="102"/>
+      <c r="D117" s="103"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>98</v>
       </c>
-      <c r="B118" s="66" t="s">
+      <c r="B118" s="64" t="s">
         <v>126</v>
       </c>
-      <c r="C118" s="118"/>
-      <c r="D118" s="119"/>
+      <c r="C118" s="102"/>
+      <c r="D118" s="103"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>99</v>
       </c>
-      <c r="B119" s="66" t="s">
+      <c r="B119" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="C119" s="120"/>
-      <c r="D119" s="121"/>
+      <c r="C119" s="112"/>
+      <c r="D119" s="108"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>100</v>
       </c>
-      <c r="B120" s="66" t="s">
+      <c r="B120" s="64" t="s">
         <v>128</v>
       </c>
-      <c r="C120" s="120"/>
-      <c r="D120" s="121"/>
+      <c r="C120" s="112"/>
+      <c r="D120" s="108"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>101</v>
       </c>
-      <c r="B121" s="66" t="s">
+      <c r="B121" s="64" t="s">
         <v>129</v>
       </c>
-      <c r="C121" s="120"/>
-      <c r="D121" s="121"/>
+      <c r="C121" s="112"/>
+      <c r="D121" s="108"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>102</v>
       </c>
-      <c r="B122" s="66" t="s">
+      <c r="B122" s="64" t="s">
         <v>130</v>
       </c>
-      <c r="C122" s="120"/>
-      <c r="D122" s="121"/>
+      <c r="C122" s="112"/>
+      <c r="D122" s="108"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>103</v>
       </c>
-      <c r="B123" s="66" t="s">
+      <c r="B123" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="C123" s="118"/>
-      <c r="D123" s="119"/>
+      <c r="C123" s="102"/>
+      <c r="D123" s="103"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>104</v>
       </c>
-      <c r="B124" s="66" t="s">
+      <c r="B124" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="C124" s="118"/>
-      <c r="D124" s="119"/>
+      <c r="C124" s="102"/>
+      <c r="D124" s="103"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>105</v>
       </c>
-      <c r="B125" s="66" t="s">
+      <c r="B125" s="64" t="s">
         <v>133</v>
       </c>
-      <c r="C125" s="118"/>
-      <c r="D125" s="119"/>
+      <c r="C125" s="102"/>
+      <c r="D125" s="103"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" s="9"/>
-      <c r="B126" s="114" t="s">
+      <c r="B126" s="104" t="s">
         <v>134</v>
       </c>
-      <c r="C126" s="124"/>
-      <c r="D126" s="125"/>
+      <c r="C126" s="122"/>
+      <c r="D126" s="123"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" s="9">
@@ -5065,18 +5058,18 @@
       <c r="B127" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="C127" s="118"/>
-      <c r="D127" s="119"/>
+      <c r="C127" s="102"/>
+      <c r="D127" s="103"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" s="9">
         <v>107</v>
       </c>
-      <c r="B128" s="66" t="s">
+      <c r="B128" s="64" t="s">
         <v>136</v>
       </c>
-      <c r="C128" s="118"/>
-      <c r="D128" s="119"/>
+      <c r="C128" s="102"/>
+      <c r="D128" s="103"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" s="9">
@@ -5085,154 +5078,154 @@
       <c r="B129" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="C129" s="118"/>
-      <c r="D129" s="119"/>
+      <c r="C129" s="102"/>
+      <c r="D129" s="103"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" s="9">
         <v>109</v>
       </c>
-      <c r="B130" s="66" t="s">
+      <c r="B130" s="64" t="s">
         <v>138</v>
       </c>
-      <c r="C130" s="120"/>
-      <c r="D130" s="121"/>
+      <c r="C130" s="112"/>
+      <c r="D130" s="108"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" s="1"/>
-      <c r="B131" s="114" t="s">
+      <c r="B131" s="104" t="s">
         <v>139</v>
       </c>
-      <c r="C131" s="115"/>
-      <c r="D131" s="116"/>
+      <c r="C131" s="105"/>
+      <c r="D131" s="106"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>110</v>
       </c>
-      <c r="B132" s="66" t="s">
+      <c r="B132" s="64" t="s">
         <v>140</v>
       </c>
-      <c r="C132" s="118"/>
-      <c r="D132" s="119"/>
+      <c r="C132" s="102"/>
+      <c r="D132" s="103"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>111</v>
       </c>
-      <c r="B133" s="61" t="s">
+      <c r="B133" s="60" t="s">
         <v>141</v>
       </c>
-      <c r="C133" s="118"/>
-      <c r="D133" s="119"/>
+      <c r="C133" s="102"/>
+      <c r="D133" s="103"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>112</v>
       </c>
-      <c r="B134" s="61" t="s">
+      <c r="B134" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="C134" s="120"/>
-      <c r="D134" s="121"/>
+      <c r="C134" s="112"/>
+      <c r="D134" s="108"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>113</v>
       </c>
-      <c r="B135" s="61" t="s">
+      <c r="B135" s="60" t="s">
         <v>143</v>
       </c>
-      <c r="C135" s="118"/>
-      <c r="D135" s="119"/>
+      <c r="C135" s="102"/>
+      <c r="D135" s="103"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>114</v>
       </c>
-      <c r="B136" s="61" t="s">
+      <c r="B136" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="C136" s="118"/>
-      <c r="D136" s="119"/>
+      <c r="C136" s="102"/>
+      <c r="D136" s="103"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>115</v>
       </c>
-      <c r="B137" s="61" t="s">
+      <c r="B137" s="60" t="s">
         <v>145</v>
       </c>
-      <c r="C137" s="120"/>
-      <c r="D137" s="121"/>
+      <c r="C137" s="112"/>
+      <c r="D137" s="108"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>116</v>
       </c>
-      <c r="B138" s="61" t="s">
+      <c r="B138" s="60" t="s">
         <v>146</v>
       </c>
-      <c r="C138" s="118"/>
-      <c r="D138" s="119"/>
+      <c r="C138" s="102"/>
+      <c r="D138" s="103"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>117</v>
       </c>
-      <c r="B139" s="61" t="s">
+      <c r="B139" s="60" t="s">
         <v>147</v>
       </c>
-      <c r="C139" s="118"/>
-      <c r="D139" s="119"/>
+      <c r="C139" s="102"/>
+      <c r="D139" s="103"/>
     </row>
     <row r="140" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>118</v>
       </c>
-      <c r="B140" s="61" t="s">
+      <c r="B140" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="C140" s="120"/>
-      <c r="D140" s="121"/>
+      <c r="C140" s="112"/>
+      <c r="D140" s="108"/>
     </row>
     <row r="141" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>119</v>
       </c>
-      <c r="B141" s="61" t="s">
+      <c r="B141" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="C141" s="120"/>
-      <c r="D141" s="121"/>
+      <c r="C141" s="112"/>
+      <c r="D141" s="108"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>120</v>
       </c>
-      <c r="B142" s="61" t="s">
+      <c r="B142" s="60" t="s">
         <v>150</v>
       </c>
-      <c r="C142" s="118"/>
-      <c r="D142" s="119"/>
+      <c r="C142" s="102"/>
+      <c r="D142" s="103"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>121</v>
       </c>
-      <c r="B143" s="61" t="s">
+      <c r="B143" s="60" t="s">
         <v>151</v>
       </c>
-      <c r="C143" s="135"/>
-      <c r="D143" s="121"/>
+      <c r="C143" s="107"/>
+      <c r="D143" s="108"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" s="1"/>
-      <c r="B144" s="114" t="s">
+      <c r="B144" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="C144" s="115"/>
-      <c r="D144" s="116"/>
+      <c r="C144" s="105"/>
+      <c r="D144" s="106"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
@@ -5241,64 +5234,64 @@
       <c r="B145" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="C145" s="128"/>
-      <c r="D145" s="129"/>
+      <c r="C145" s="120"/>
+      <c r="D145" s="121"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" s="1"/>
-      <c r="B146" s="114" t="s">
+      <c r="B146" s="104" t="s">
         <v>154</v>
       </c>
-      <c r="C146" s="115"/>
-      <c r="D146" s="116"/>
+      <c r="C146" s="105"/>
+      <c r="D146" s="106"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>124</v>
       </c>
-      <c r="B147" s="66" t="s">
+      <c r="B147" s="64" t="s">
         <v>155</v>
       </c>
-      <c r="C147" s="118"/>
-      <c r="D147" s="119"/>
+      <c r="C147" s="102"/>
+      <c r="D147" s="103"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>125</v>
       </c>
-      <c r="B148" s="66" t="s">
+      <c r="B148" s="64" t="s">
         <v>156</v>
       </c>
-      <c r="C148" s="118"/>
-      <c r="D148" s="119"/>
+      <c r="C148" s="102"/>
+      <c r="D148" s="103"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>126</v>
       </c>
-      <c r="B149" s="66" t="s">
+      <c r="B149" s="64" t="s">
         <v>157</v>
       </c>
-      <c r="C149" s="118"/>
-      <c r="D149" s="119"/>
+      <c r="C149" s="102"/>
+      <c r="D149" s="103"/>
     </row>
     <row r="150" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="1"/>
-      <c r="B150" s="114" t="s">
+      <c r="B150" s="104" t="s">
         <v>158</v>
       </c>
-      <c r="C150" s="115"/>
-      <c r="D150" s="116"/>
+      <c r="C150" s="105"/>
+      <c r="D150" s="106"/>
     </row>
     <row r="151" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="1"/>
-      <c r="B151" s="69" t="s">
+      <c r="B151" s="67" t="s">
         <v>159</v>
       </c>
-      <c r="C151" s="69" t="s">
+      <c r="C151" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="D151" s="70" t="s">
+      <c r="D151" s="68" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5306,169 +5299,169 @@
       <c r="A152" s="1">
         <v>127</v>
       </c>
-      <c r="B152" s="66" t="s">
+      <c r="B152" s="64" t="s">
         <v>160</v>
       </c>
-      <c r="C152" s="66"/>
-      <c r="D152" s="67"/>
+      <c r="C152" s="64"/>
+      <c r="D152" s="65"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>128</v>
       </c>
-      <c r="B153" s="66" t="s">
+      <c r="B153" s="64" t="s">
         <v>161</v>
       </c>
-      <c r="C153" s="66"/>
-      <c r="D153" s="67"/>
+      <c r="C153" s="64"/>
+      <c r="D153" s="65"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>129</v>
       </c>
-      <c r="B154" s="66" t="s">
+      <c r="B154" s="64" t="s">
         <v>162</v>
       </c>
-      <c r="C154" s="66"/>
-      <c r="D154" s="67"/>
+      <c r="C154" s="64"/>
+      <c r="D154" s="65"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>130</v>
       </c>
-      <c r="B155" s="66" t="s">
+      <c r="B155" s="64" t="s">
         <v>163</v>
       </c>
-      <c r="C155" s="66"/>
-      <c r="D155" s="67"/>
+      <c r="C155" s="64"/>
+      <c r="D155" s="65"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>131</v>
       </c>
-      <c r="B156" s="66" t="s">
+      <c r="B156" s="64" t="s">
         <v>164</v>
       </c>
-      <c r="C156" s="66"/>
-      <c r="D156" s="67"/>
+      <c r="C156" s="64"/>
+      <c r="D156" s="65"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>132</v>
       </c>
-      <c r="B157" s="66" t="s">
+      <c r="B157" s="64" t="s">
         <v>165</v>
       </c>
-      <c r="C157" s="66"/>
-      <c r="D157" s="67"/>
+      <c r="C157" s="64"/>
+      <c r="D157" s="65"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>133</v>
       </c>
-      <c r="B158" s="66" t="s">
+      <c r="B158" s="64" t="s">
         <v>166</v>
       </c>
-      <c r="C158" s="66"/>
-      <c r="D158" s="67"/>
+      <c r="C158" s="64"/>
+      <c r="D158" s="65"/>
     </row>
     <row r="159" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="1"/>
-      <c r="B159" s="114" t="s">
+      <c r="B159" s="104" t="s">
         <v>167</v>
       </c>
-      <c r="C159" s="115"/>
-      <c r="D159" s="116"/>
+      <c r="C159" s="105"/>
+      <c r="D159" s="106"/>
     </row>
     <row r="160" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>134</v>
       </c>
-      <c r="B160" s="66" t="s">
+      <c r="B160" s="64" t="s">
         <v>140</v>
       </c>
-      <c r="C160" s="126"/>
-      <c r="D160" s="127"/>
+      <c r="C160" s="113"/>
+      <c r="D160" s="114"/>
     </row>
     <row r="161" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>135</v>
       </c>
-      <c r="B161" s="66" t="s">
+      <c r="B161" s="64" t="s">
         <v>143</v>
       </c>
-      <c r="C161" s="126"/>
-      <c r="D161" s="127"/>
+      <c r="C161" s="113"/>
+      <c r="D161" s="114"/>
     </row>
     <row r="162" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>136</v>
       </c>
-      <c r="B162" s="66" t="s">
+      <c r="B162" s="64" t="s">
         <v>144</v>
       </c>
-      <c r="C162" s="126"/>
-      <c r="D162" s="127"/>
+      <c r="C162" s="113"/>
+      <c r="D162" s="114"/>
     </row>
     <row r="163" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>137</v>
       </c>
-      <c r="B163" s="66" t="s">
+      <c r="B163" s="64" t="s">
         <v>168</v>
       </c>
-      <c r="C163" s="126"/>
-      <c r="D163" s="127"/>
+      <c r="C163" s="113"/>
+      <c r="D163" s="114"/>
     </row>
     <row r="164" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>138</v>
       </c>
-      <c r="B164" s="66" t="s">
+      <c r="B164" s="64" t="s">
         <v>146</v>
       </c>
-      <c r="C164" s="126"/>
-      <c r="D164" s="127"/>
+      <c r="C164" s="113"/>
+      <c r="D164" s="114"/>
     </row>
     <row r="165" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>139</v>
       </c>
-      <c r="B165" s="66" t="s">
+      <c r="B165" s="64" t="s">
         <v>147</v>
       </c>
-      <c r="C165" s="126"/>
-      <c r="D165" s="127"/>
+      <c r="C165" s="113"/>
+      <c r="D165" s="114"/>
     </row>
     <row r="166" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>140</v>
       </c>
-      <c r="B166" s="66" t="s">
+      <c r="B166" s="64" t="s">
         <v>169</v>
       </c>
-      <c r="C166" s="126"/>
-      <c r="D166" s="127"/>
+      <c r="C166" s="113"/>
+      <c r="D166" s="114"/>
     </row>
     <row r="167" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>141</v>
       </c>
-      <c r="B167" s="66" t="s">
+      <c r="B167" s="64" t="s">
         <v>170</v>
       </c>
-      <c r="C167" s="126"/>
-      <c r="D167" s="127"/>
+      <c r="C167" s="113"/>
+      <c r="D167" s="114"/>
     </row>
     <row r="168" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="1"/>
-      <c r="B168" s="69" t="s">
+      <c r="B168" s="67" t="s">
         <v>159</v>
       </c>
-      <c r="C168" s="69" t="s">
+      <c r="C168" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="D168" s="70" t="s">
+      <c r="D168" s="68" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5476,371 +5469,371 @@
       <c r="A169" s="1">
         <v>142</v>
       </c>
-      <c r="B169" s="66" t="s">
+      <c r="B169" s="64" t="s">
         <v>160</v>
       </c>
-      <c r="C169" s="66"/>
-      <c r="D169" s="67"/>
+      <c r="C169" s="64"/>
+      <c r="D169" s="65"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>143</v>
       </c>
-      <c r="B170" s="66" t="s">
+      <c r="B170" s="64" t="s">
         <v>161</v>
       </c>
-      <c r="C170" s="66"/>
-      <c r="D170" s="67"/>
+      <c r="C170" s="64"/>
+      <c r="D170" s="65"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>144</v>
       </c>
-      <c r="B171" s="66" t="s">
+      <c r="B171" s="64" t="s">
         <v>162</v>
       </c>
-      <c r="C171" s="66"/>
-      <c r="D171" s="67"/>
+      <c r="C171" s="64"/>
+      <c r="D171" s="65"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>145</v>
       </c>
-      <c r="B172" s="66" t="s">
+      <c r="B172" s="64" t="s">
         <v>163</v>
       </c>
-      <c r="C172" s="66"/>
-      <c r="D172" s="67"/>
+      <c r="C172" s="64"/>
+      <c r="D172" s="65"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>146</v>
       </c>
-      <c r="B173" s="66" t="s">
+      <c r="B173" s="64" t="s">
         <v>171</v>
       </c>
-      <c r="C173" s="66"/>
-      <c r="D173" s="67"/>
+      <c r="C173" s="64"/>
+      <c r="D173" s="65"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>147</v>
       </c>
-      <c r="B174" s="66" t="s">
+      <c r="B174" s="64" t="s">
         <v>165</v>
       </c>
-      <c r="C174" s="66"/>
-      <c r="D174" s="67"/>
+      <c r="C174" s="64"/>
+      <c r="D174" s="65"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>148</v>
       </c>
-      <c r="B175" s="66" t="s">
+      <c r="B175" s="64" t="s">
         <v>166</v>
       </c>
-      <c r="C175" s="66"/>
-      <c r="D175" s="67"/>
+      <c r="C175" s="64"/>
+      <c r="D175" s="65"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" s="1"/>
-      <c r="B176" s="114" t="s">
+      <c r="B176" s="104" t="s">
         <v>172</v>
       </c>
-      <c r="C176" s="115"/>
-      <c r="D176" s="116"/>
+      <c r="C176" s="105"/>
+      <c r="D176" s="106"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>149</v>
       </c>
-      <c r="B177" s="66" t="s">
+      <c r="B177" s="64" t="s">
         <v>173</v>
       </c>
-      <c r="C177" s="118"/>
-      <c r="D177" s="119"/>
+      <c r="C177" s="102"/>
+      <c r="D177" s="103"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>150</v>
       </c>
-      <c r="B178" s="66" t="s">
+      <c r="B178" s="64" t="s">
         <v>174</v>
       </c>
-      <c r="C178" s="118"/>
-      <c r="D178" s="119"/>
+      <c r="C178" s="102"/>
+      <c r="D178" s="103"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>151</v>
       </c>
-      <c r="B179" s="66" t="s">
+      <c r="B179" s="64" t="s">
         <v>175</v>
       </c>
-      <c r="C179" s="120"/>
-      <c r="D179" s="121"/>
+      <c r="C179" s="112"/>
+      <c r="D179" s="108"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180" s="1"/>
-      <c r="B180" s="114" t="s">
+      <c r="B180" s="104" t="s">
         <v>176</v>
       </c>
-      <c r="C180" s="115"/>
-      <c r="D180" s="116"/>
+      <c r="C180" s="105"/>
+      <c r="D180" s="106"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <v>152</v>
       </c>
-      <c r="B181" s="66" t="s">
+      <c r="B181" s="64" t="s">
         <v>177</v>
       </c>
-      <c r="C181" s="126"/>
-      <c r="D181" s="127"/>
+      <c r="C181" s="113"/>
+      <c r="D181" s="114"/>
     </row>
     <row r="182" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>153</v>
       </c>
-      <c r="B182" s="66" t="s">
+      <c r="B182" s="64" t="s">
         <v>178</v>
       </c>
-      <c r="C182" s="118"/>
-      <c r="D182" s="119"/>
+      <c r="C182" s="102"/>
+      <c r="D182" s="103"/>
     </row>
     <row r="183" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="12"/>
-      <c r="B183" s="114" t="s">
+      <c r="B183" s="104" t="s">
         <v>179</v>
       </c>
-      <c r="C183" s="115"/>
-      <c r="D183" s="116"/>
+      <c r="C183" s="105"/>
+      <c r="D183" s="106"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
         <v>154</v>
       </c>
-      <c r="B184" s="66" t="s">
+      <c r="B184" s="64" t="s">
         <v>180</v>
       </c>
-      <c r="C184" s="118"/>
-      <c r="D184" s="119"/>
+      <c r="C184" s="102"/>
+      <c r="D184" s="103"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
         <v>155</v>
       </c>
-      <c r="B185" s="66" t="s">
+      <c r="B185" s="64" t="s">
         <v>181</v>
       </c>
-      <c r="C185" s="118"/>
-      <c r="D185" s="119"/>
+      <c r="C185" s="102"/>
+      <c r="D185" s="103"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
         <v>156</v>
       </c>
-      <c r="B186" s="66" t="s">
+      <c r="B186" s="64" t="s">
         <v>182</v>
       </c>
-      <c r="C186" s="118"/>
-      <c r="D186" s="119"/>
+      <c r="C186" s="102"/>
+      <c r="D186" s="103"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
         <v>157</v>
       </c>
-      <c r="B187" s="66" t="s">
+      <c r="B187" s="64" t="s">
         <v>183</v>
       </c>
-      <c r="C187" s="118"/>
-      <c r="D187" s="119"/>
+      <c r="C187" s="102"/>
+      <c r="D187" s="103"/>
     </row>
     <row r="188" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
         <v>158</v>
       </c>
-      <c r="B188" s="66" t="s">
+      <c r="B188" s="64" t="s">
         <v>184</v>
       </c>
-      <c r="C188" s="136"/>
-      <c r="D188" s="137"/>
+      <c r="C188" s="109"/>
+      <c r="D188" s="110"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
         <v>159</v>
       </c>
-      <c r="B189" s="66" t="s">
+      <c r="B189" s="64" t="s">
         <v>185</v>
       </c>
-      <c r="C189" s="138"/>
-      <c r="D189" s="119"/>
+      <c r="C189" s="111"/>
+      <c r="D189" s="103"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
         <v>160</v>
       </c>
-      <c r="B190" s="66" t="s">
+      <c r="B190" s="64" t="s">
         <v>186</v>
       </c>
-      <c r="C190" s="120"/>
-      <c r="D190" s="121"/>
+      <c r="C190" s="112"/>
+      <c r="D190" s="108"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
         <v>161</v>
       </c>
-      <c r="B191" s="66" t="s">
+      <c r="B191" s="64" t="s">
         <v>187</v>
       </c>
-      <c r="C191" s="118"/>
-      <c r="D191" s="119"/>
+      <c r="C191" s="102"/>
+      <c r="D191" s="103"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
         <v>162</v>
       </c>
-      <c r="B192" s="66" t="s">
+      <c r="B192" s="64" t="s">
         <v>188</v>
       </c>
-      <c r="C192" s="118"/>
-      <c r="D192" s="119"/>
+      <c r="C192" s="102"/>
+      <c r="D192" s="103"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
         <v>163</v>
       </c>
-      <c r="B193" s="66" t="s">
+      <c r="B193" s="64" t="s">
         <v>189</v>
       </c>
-      <c r="C193" s="118"/>
-      <c r="D193" s="119"/>
+      <c r="C193" s="102"/>
+      <c r="D193" s="103"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
         <v>164</v>
       </c>
-      <c r="B194" s="66" t="s">
+      <c r="B194" s="64" t="s">
         <v>190</v>
       </c>
-      <c r="C194" s="118"/>
-      <c r="D194" s="119"/>
+      <c r="C194" s="102"/>
+      <c r="D194" s="103"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
         <v>165</v>
       </c>
-      <c r="B195" s="66" t="s">
+      <c r="B195" s="64" t="s">
         <v>191</v>
       </c>
-      <c r="C195" s="118"/>
-      <c r="D195" s="119"/>
+      <c r="C195" s="102"/>
+      <c r="D195" s="103"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
         <v>166</v>
       </c>
-      <c r="B196" s="66" t="s">
+      <c r="B196" s="64" t="s">
         <v>192</v>
       </c>
-      <c r="C196" s="118"/>
-      <c r="D196" s="119"/>
+      <c r="C196" s="102"/>
+      <c r="D196" s="103"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
         <v>167</v>
       </c>
-      <c r="B197" s="66" t="s">
+      <c r="B197" s="64" t="s">
         <v>193</v>
       </c>
-      <c r="C197" s="118"/>
-      <c r="D197" s="119"/>
+      <c r="C197" s="102"/>
+      <c r="D197" s="103"/>
     </row>
     <row r="198" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
         <v>168</v>
       </c>
-      <c r="B198" s="66" t="s">
+      <c r="B198" s="64" t="s">
         <v>194</v>
       </c>
-      <c r="C198" s="118"/>
-      <c r="D198" s="119"/>
+      <c r="C198" s="102"/>
+      <c r="D198" s="103"/>
     </row>
     <row r="199" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="1"/>
-      <c r="B199" s="114" t="s">
+      <c r="B199" s="104" t="s">
         <v>195</v>
       </c>
-      <c r="C199" s="115"/>
-      <c r="D199" s="116"/>
+      <c r="C199" s="105"/>
+      <c r="D199" s="106"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
         <v>169</v>
       </c>
-      <c r="B200" s="66" t="s">
+      <c r="B200" s="64" t="s">
         <v>196</v>
       </c>
-      <c r="C200" s="118"/>
-      <c r="D200" s="119"/>
+      <c r="C200" s="102"/>
+      <c r="D200" s="103"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
         <v>170</v>
       </c>
-      <c r="B201" s="66" t="s">
+      <c r="B201" s="64" t="s">
         <v>197</v>
       </c>
-      <c r="C201" s="118"/>
-      <c r="D201" s="119"/>
+      <c r="C201" s="102"/>
+      <c r="D201" s="103"/>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
         <v>171</v>
       </c>
-      <c r="B202" s="66" t="s">
+      <c r="B202" s="64" t="s">
         <v>198</v>
       </c>
-      <c r="C202" s="118"/>
-      <c r="D202" s="119"/>
+      <c r="C202" s="102"/>
+      <c r="D202" s="103"/>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
         <v>172</v>
       </c>
-      <c r="B203" s="62" t="s">
+      <c r="B203" s="61" t="s">
         <v>199</v>
       </c>
-      <c r="C203" s="132"/>
-      <c r="D203" s="133"/>
+      <c r="C203" s="117"/>
+      <c r="D203" s="118"/>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
         <v>173</v>
       </c>
-      <c r="B204" s="62" t="s">
+      <c r="B204" s="61" t="s">
         <v>200</v>
       </c>
-      <c r="C204" s="132"/>
-      <c r="D204" s="133"/>
+      <c r="C204" s="117"/>
+      <c r="D204" s="118"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205" s="1"/>
-      <c r="B205" s="114" t="s">
+      <c r="B205" s="104" t="s">
         <v>201</v>
       </c>
-      <c r="C205" s="115"/>
-      <c r="D205" s="116"/>
+      <c r="C205" s="105"/>
+      <c r="D205" s="106"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
         <v>174</v>
       </c>
-      <c r="B206" s="66" t="s">
+      <c r="B206" s="64" t="s">
         <v>202</v>
       </c>
-      <c r="C206" s="118"/>
-      <c r="D206" s="119"/>
+      <c r="C206" s="102"/>
+      <c r="D206" s="103"/>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
@@ -5849,8 +5842,8 @@
       <c r="B207" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="C207" s="134"/>
-      <c r="D207" s="121"/>
+      <c r="C207" s="119"/>
+      <c r="D207" s="108"/>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208" s="1">
@@ -5859,8 +5852,8 @@
       <c r="B208" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="C208" s="120"/>
-      <c r="D208" s="121"/>
+      <c r="C208" s="112"/>
+      <c r="D208" s="108"/>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209" s="1">
@@ -5869,8 +5862,8 @@
       <c r="B209" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="C209" s="120"/>
-      <c r="D209" s="121"/>
+      <c r="C209" s="112"/>
+      <c r="D209" s="108"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
@@ -5879,8 +5872,8 @@
       <c r="B210" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="C210" s="120"/>
-      <c r="D210" s="121"/>
+      <c r="C210" s="112"/>
+      <c r="D210" s="108"/>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211" s="1">
@@ -5889,16 +5882,16 @@
       <c r="B211" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="C211" s="120"/>
-      <c r="D211" s="121"/>
+      <c r="C211" s="112"/>
+      <c r="D211" s="108"/>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212" s="1"/>
-      <c r="B212" s="114" t="s">
+      <c r="B212" s="104" t="s">
         <v>208</v>
       </c>
-      <c r="C212" s="115"/>
-      <c r="D212" s="116"/>
+      <c r="C212" s="105"/>
+      <c r="D212" s="106"/>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
@@ -5907,8 +5900,8 @@
       <c r="B213" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="C213" s="118"/>
-      <c r="D213" s="119"/>
+      <c r="C213" s="102"/>
+      <c r="D213" s="103"/>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214" s="1">
@@ -5917,8 +5910,8 @@
       <c r="B214" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="C214" s="118"/>
-      <c r="D214" s="119"/>
+      <c r="C214" s="102"/>
+      <c r="D214" s="103"/>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" s="1">
@@ -5927,8 +5920,8 @@
       <c r="B215" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="C215" s="118"/>
-      <c r="D215" s="119"/>
+      <c r="C215" s="102"/>
+      <c r="D215" s="103"/>
     </row>
     <row r="216" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A216" s="27">
@@ -5937,11 +5930,164 @@
       <c r="B216" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="C216" s="130"/>
-      <c r="D216" s="131"/>
+      <c r="C216" s="115"/>
+      <c r="D216" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="177">
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="B106:D106"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="C114:D114"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="C116:D116"/>
+    <mergeCell ref="C117:D117"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="B126:D126"/>
+    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="C128:D128"/>
+    <mergeCell ref="C129:D129"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="C121:D121"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="C138:D138"/>
+    <mergeCell ref="C139:D139"/>
+    <mergeCell ref="C140:D140"/>
+    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="C142:D142"/>
+    <mergeCell ref="B131:D131"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="C133:D133"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="C135:D135"/>
+    <mergeCell ref="C136:D136"/>
+    <mergeCell ref="B150:D150"/>
+    <mergeCell ref="B159:D159"/>
+    <mergeCell ref="C160:D160"/>
+    <mergeCell ref="C161:D161"/>
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="C163:D163"/>
+    <mergeCell ref="B144:D144"/>
+    <mergeCell ref="C145:D145"/>
+    <mergeCell ref="B146:D146"/>
+    <mergeCell ref="C147:D147"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="C149:D149"/>
+    <mergeCell ref="B183:D183"/>
+    <mergeCell ref="C184:D184"/>
+    <mergeCell ref="B176:D176"/>
+    <mergeCell ref="C177:D177"/>
+    <mergeCell ref="C178:D178"/>
+    <mergeCell ref="C164:D164"/>
+    <mergeCell ref="C165:D165"/>
+    <mergeCell ref="C166:D166"/>
+    <mergeCell ref="C167:D167"/>
+    <mergeCell ref="C215:D215"/>
+    <mergeCell ref="C216:D216"/>
+    <mergeCell ref="C209:D209"/>
+    <mergeCell ref="C210:D210"/>
+    <mergeCell ref="C211:D211"/>
+    <mergeCell ref="B212:D212"/>
+    <mergeCell ref="C213:D213"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="C204:D204"/>
+    <mergeCell ref="B205:D205"/>
+    <mergeCell ref="C206:D206"/>
+    <mergeCell ref="C207:D207"/>
+    <mergeCell ref="C208:D208"/>
     <mergeCell ref="C197:D197"/>
     <mergeCell ref="C198:D198"/>
     <mergeCell ref="B199:D199"/>
@@ -5966,159 +6112,6 @@
     <mergeCell ref="B180:D180"/>
     <mergeCell ref="C181:D181"/>
     <mergeCell ref="C182:D182"/>
-    <mergeCell ref="C215:D215"/>
-    <mergeCell ref="C216:D216"/>
-    <mergeCell ref="C209:D209"/>
-    <mergeCell ref="C210:D210"/>
-    <mergeCell ref="C211:D211"/>
-    <mergeCell ref="B212:D212"/>
-    <mergeCell ref="C213:D213"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="C204:D204"/>
-    <mergeCell ref="B205:D205"/>
-    <mergeCell ref="C206:D206"/>
-    <mergeCell ref="C207:D207"/>
-    <mergeCell ref="C208:D208"/>
-    <mergeCell ref="B183:D183"/>
-    <mergeCell ref="C184:D184"/>
-    <mergeCell ref="B176:D176"/>
-    <mergeCell ref="C177:D177"/>
-    <mergeCell ref="C178:D178"/>
-    <mergeCell ref="C164:D164"/>
-    <mergeCell ref="C165:D165"/>
-    <mergeCell ref="C166:D166"/>
-    <mergeCell ref="C167:D167"/>
-    <mergeCell ref="B150:D150"/>
-    <mergeCell ref="B159:D159"/>
-    <mergeCell ref="C160:D160"/>
-    <mergeCell ref="C161:D161"/>
-    <mergeCell ref="C162:D162"/>
-    <mergeCell ref="C163:D163"/>
-    <mergeCell ref="B144:D144"/>
-    <mergeCell ref="C145:D145"/>
-    <mergeCell ref="B146:D146"/>
-    <mergeCell ref="C147:D147"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="C149:D149"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="C138:D138"/>
-    <mergeCell ref="C139:D139"/>
-    <mergeCell ref="C140:D140"/>
-    <mergeCell ref="C141:D141"/>
-    <mergeCell ref="C142:D142"/>
-    <mergeCell ref="B131:D131"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="C133:D133"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="C135:D135"/>
-    <mergeCell ref="C136:D136"/>
-    <mergeCell ref="C125:D125"/>
-    <mergeCell ref="B126:D126"/>
-    <mergeCell ref="C127:D127"/>
-    <mergeCell ref="C128:D128"/>
-    <mergeCell ref="C129:D129"/>
-    <mergeCell ref="C130:D130"/>
-    <mergeCell ref="C119:D119"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="C121:D121"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="C123:D123"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="C114:D114"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="C116:D116"/>
-    <mergeCell ref="C117:D117"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="B108:D108"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="B106:D106"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="B101:D101"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="B95:D95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="68" fitToHeight="100" orientation="portrait" r:id="rId1"/>
@@ -6134,7 +6127,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C76"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A34" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
@@ -6147,33 +6140,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="140" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="144"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="142"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="145"/>
-      <c r="B2" s="146"/>
-      <c r="C2" s="147"/>
+      <c r="A2" s="143"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="145"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
-      <c r="B3" s="139" t="s">
+      <c r="B3" s="137" t="s">
         <v>213</v>
       </c>
-      <c r="C3" s="140"/>
+      <c r="C3" s="138"/>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15"/>
-      <c r="B4" s="122" t="s">
+      <c r="B4" s="124" t="s">
         <v>214</v>
       </c>
-      <c r="C4" s="123"/>
+      <c r="C4" s="125"/>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="51">
+      <c r="A5" s="50">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -6182,7 +6175,7 @@
       <c r="C5" s="16"/>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="51">
+      <c r="A6" s="50">
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -6191,7 +6184,7 @@
       <c r="C6" s="16"/>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="51">
+      <c r="A7" s="50">
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -6200,7 +6193,7 @@
       <c r="C7" s="16"/>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="51">
+      <c r="A8" s="50">
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -6209,7 +6202,7 @@
       <c r="C8" s="16"/>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="51">
+      <c r="A9" s="50">
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -6218,7 +6211,7 @@
       <c r="C9" s="16"/>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="51">
+      <c r="A10" s="50">
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -6227,7 +6220,7 @@
       <c r="C10" s="16"/>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="51">
+      <c r="A11" s="50">
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -6236,7 +6229,7 @@
       <c r="C11" s="16"/>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="51">
+      <c r="A12" s="50">
         <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -6245,11 +6238,11 @@
       <c r="C12" s="16"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="52"/>
-      <c r="B13" s="122" t="s">
+      <c r="A13" s="51"/>
+      <c r="B13" s="124" t="s">
         <v>223</v>
       </c>
-      <c r="C13" s="123"/>
+      <c r="C13" s="125"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
@@ -6258,32 +6251,32 @@
       <c r="B14" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="67"/>
+      <c r="C14" s="65"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>10</v>
       </c>
-      <c r="B15" s="66" t="s">
+      <c r="B15" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="C15" s="67"/>
+      <c r="C15" s="65"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>11</v>
       </c>
-      <c r="B16" s="66" t="s">
+      <c r="B16" s="64" t="s">
         <v>108</v>
       </c>
-      <c r="C16" s="67"/>
+      <c r="C16" s="65"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="12"/>
-      <c r="B17" s="148" t="s">
+      <c r="B17" s="146" t="s">
         <v>224</v>
       </c>
-      <c r="C17" s="149"/>
+      <c r="C17" s="147"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
@@ -6307,29 +6300,29 @@
       <c r="A20" s="12">
         <v>14</v>
       </c>
-      <c r="B20" s="64" t="s">
+      <c r="B20" s="62" t="s">
         <v>113</v>
       </c>
       <c r="C20" s="16"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="12"/>
-      <c r="B21" s="122" t="s">
+      <c r="B21" s="124" t="s">
         <v>225</v>
       </c>
-      <c r="C21" s="141"/>
+      <c r="C21" s="139"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="12">
         <v>15</v>
       </c>
-      <c r="B22" s="66" t="s">
+      <c r="B22" s="64" t="s">
         <v>226</v>
       </c>
-      <c r="C22" s="67"/>
+      <c r="C22" s="65"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="51">
+      <c r="A23" s="50">
         <v>16</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -6347,7 +6340,7 @@
       <c r="C24" s="16"/>
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="51">
+      <c r="A25" s="50">
         <v>18</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -6365,7 +6358,7 @@
       <c r="C26" s="16"/>
     </row>
     <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="51">
+      <c r="A27" s="50">
         <v>20</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -6383,7 +6376,7 @@
       <c r="C28" s="16"/>
     </row>
     <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="51">
+      <c r="A29" s="50">
         <v>22</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -6401,7 +6394,7 @@
       <c r="C30" s="16"/>
     </row>
     <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="51">
+      <c r="A31" s="50">
         <v>24</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -6419,7 +6412,7 @@
       <c r="C32" s="17"/>
     </row>
     <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="51">
+      <c r="A33" s="50">
         <v>26</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -6437,7 +6430,7 @@
       <c r="C34" s="16"/>
     </row>
     <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="51">
+      <c r="A35" s="50">
         <v>28</v>
       </c>
       <c r="B35" s="3" t="s">
@@ -6455,7 +6448,7 @@
       <c r="C36" s="16"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="51">
+      <c r="A37" s="50">
         <v>30</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -6473,7 +6466,7 @@
       <c r="C38" s="16"/>
     </row>
     <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="51">
+      <c r="A39" s="50">
         <v>32</v>
       </c>
       <c r="B39" s="3" t="s">
@@ -6491,7 +6484,7 @@
       <c r="C40" s="16"/>
     </row>
     <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="51">
+      <c r="A41" s="50">
         <v>34</v>
       </c>
       <c r="B41" s="3" t="s">
@@ -6509,14 +6502,14 @@
       <c r="C42" s="16"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" s="52"/>
-      <c r="B43" s="139" t="s">
+      <c r="A43" s="51"/>
+      <c r="B43" s="137" t="s">
         <v>247</v>
       </c>
-      <c r="C43" s="140"/>
+      <c r="C43" s="138"/>
     </row>
     <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="51">
+      <c r="A44" s="50">
         <v>36</v>
       </c>
       <c r="B44" s="3" t="s">
@@ -6525,7 +6518,7 @@
       <c r="C44" s="16"/>
     </row>
     <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="51">
+      <c r="A45" s="50">
         <v>37</v>
       </c>
       <c r="B45" s="3" t="s">
@@ -6534,7 +6527,7 @@
       <c r="C45" s="16"/>
     </row>
     <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="51">
+      <c r="A46" s="50">
         <v>38</v>
       </c>
       <c r="B46" s="3" t="s">
@@ -6543,7 +6536,7 @@
       <c r="C46" s="16"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" s="51">
+      <c r="A47" s="50">
         <v>39</v>
       </c>
       <c r="B47" s="3" t="s">
@@ -6552,7 +6545,7 @@
       <c r="C47" s="16"/>
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="51">
+      <c r="A48" s="50">
         <v>40</v>
       </c>
       <c r="B48" s="3" t="s">
@@ -6561,7 +6554,7 @@
       <c r="C48" s="16"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" s="51">
+      <c r="A49" s="50">
         <v>41</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -6570,7 +6563,7 @@
       <c r="C49" s="16"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" s="51">
+      <c r="A50" s="50">
         <v>42</v>
       </c>
       <c r="B50" s="3" t="s">
@@ -6579,14 +6572,14 @@
       <c r="C50" s="16"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" s="52"/>
-      <c r="B51" s="139" t="s">
+      <c r="A51" s="51"/>
+      <c r="B51" s="137" t="s">
         <v>70</v>
       </c>
-      <c r="C51" s="140"/>
+      <c r="C51" s="138"/>
     </row>
     <row r="52" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="51">
+      <c r="A52" s="50">
         <v>43</v>
       </c>
       <c r="B52" s="3" t="s">
@@ -6596,45 +6589,45 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="12"/>
-      <c r="B53" s="122" t="s">
+      <c r="B53" s="124" t="s">
         <v>256</v>
       </c>
-      <c r="C53" s="123"/>
+      <c r="C53" s="125"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="12">
         <v>44</v>
       </c>
-      <c r="B54" s="66" t="s">
+      <c r="B54" s="64" t="s">
         <v>257</v>
       </c>
-      <c r="C54" s="67"/>
+      <c r="C54" s="65"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="12">
         <v>45</v>
       </c>
-      <c r="B55" s="66" t="s">
+      <c r="B55" s="64" t="s">
         <v>258</v>
       </c>
-      <c r="C55" s="67"/>
+      <c r="C55" s="65"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" s="52"/>
-      <c r="B56" s="139" t="s">
+      <c r="A56" s="51"/>
+      <c r="B56" s="137" t="s">
         <v>259</v>
       </c>
-      <c r="C56" s="140"/>
+      <c r="C56" s="138"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" s="52"/>
-      <c r="B57" s="139" t="s">
+      <c r="A57" s="51"/>
+      <c r="B57" s="137" t="s">
         <v>260</v>
       </c>
-      <c r="C57" s="140"/>
+      <c r="C57" s="138"/>
     </row>
     <row r="58" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="51">
+      <c r="A58" s="50">
         <v>46</v>
       </c>
       <c r="B58" s="3" t="s">
@@ -6643,7 +6636,7 @@
       <c r="C58" s="16"/>
     </row>
     <row r="59" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="51">
+      <c r="A59" s="50">
         <v>47</v>
       </c>
       <c r="B59" s="3" t="s">
@@ -6652,7 +6645,7 @@
       <c r="C59" s="16"/>
     </row>
     <row r="60" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="51">
+      <c r="A60" s="50">
         <v>48</v>
       </c>
       <c r="B60" s="3" t="s">
@@ -6661,7 +6654,7 @@
       <c r="C60" s="16"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" s="51">
+      <c r="A61" s="50">
         <v>49</v>
       </c>
       <c r="B61" s="3" t="s">
@@ -6670,7 +6663,7 @@
       <c r="C61" s="16"/>
     </row>
     <row r="62" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="51">
+      <c r="A62" s="50">
         <v>50</v>
       </c>
       <c r="B62" s="3" t="s">
@@ -6679,7 +6672,7 @@
       <c r="C62" s="16"/>
     </row>
     <row r="63" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="51">
+      <c r="A63" s="50">
         <v>51</v>
       </c>
       <c r="B63" s="3" t="s">
@@ -6688,7 +6681,7 @@
       <c r="C63" s="16"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" s="51">
+      <c r="A64" s="50">
         <v>52</v>
       </c>
       <c r="B64" s="3" t="s">
@@ -6697,7 +6690,7 @@
       <c r="C64" s="16"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" s="51">
+      <c r="A65" s="50">
         <v>53</v>
       </c>
       <c r="B65" s="3" t="s">
@@ -6706,7 +6699,7 @@
       <c r="C65" s="16"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" s="51">
+      <c r="A66" s="50">
         <v>54</v>
       </c>
       <c r="B66" s="3" t="s">
@@ -6715,14 +6708,14 @@
       <c r="C66" s="16"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67" s="52"/>
-      <c r="B67" s="139" t="s">
+      <c r="A67" s="51"/>
+      <c r="B67" s="137" t="s">
         <v>269</v>
       </c>
-      <c r="C67" s="140"/>
+      <c r="C67" s="138"/>
     </row>
     <row r="68" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="51">
+      <c r="A68" s="50">
         <v>55</v>
       </c>
       <c r="B68" s="3" t="s">
@@ -6731,7 +6724,7 @@
       <c r="C68" s="16"/>
     </row>
     <row r="69" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="51">
+      <c r="A69" s="50">
         <v>56</v>
       </c>
       <c r="B69" s="3" t="s">
@@ -6740,7 +6733,7 @@
       <c r="C69" s="16"/>
     </row>
     <row r="70" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="51">
+      <c r="A70" s="50">
         <v>57</v>
       </c>
       <c r="B70" s="3" t="s">
@@ -6749,7 +6742,7 @@
       <c r="C70" s="16"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A71" s="51">
+      <c r="A71" s="50">
         <v>58</v>
       </c>
       <c r="B71" s="3" t="s">
@@ -6758,7 +6751,7 @@
       <c r="C71" s="16"/>
     </row>
     <row r="72" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="51">
+      <c r="A72" s="50">
         <v>59</v>
       </c>
       <c r="B72" s="3" t="s">
@@ -6767,7 +6760,7 @@
       <c r="C72" s="16"/>
     </row>
     <row r="73" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="51">
+      <c r="A73" s="50">
         <v>60</v>
       </c>
       <c r="B73" s="3" t="s">
@@ -6776,7 +6769,7 @@
       <c r="C73" s="16"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A74" s="51">
+      <c r="A74" s="50">
         <v>61</v>
       </c>
       <c r="B74" s="3" t="s">
@@ -6785,7 +6778,7 @@
       <c r="C74" s="16"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A75" s="51">
+      <c r="A75" s="50">
         <v>62</v>
       </c>
       <c r="B75" s="3" t="s">
@@ -6794,10 +6787,10 @@
       <c r="C75" s="16"/>
     </row>
     <row r="76" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="53">
+      <c r="A76" s="52">
         <v>63</v>
       </c>
-      <c r="B76" s="54" t="s">
+      <c r="B76" s="53" t="s">
         <v>270</v>
       </c>
       <c r="C76" s="18"/>
@@ -6832,8 +6825,8 @@
   </sheetPr>
   <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A40" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection sqref="A1:C74"/>
+    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6845,33 +6838,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="140" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="144"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="142"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="145"/>
-      <c r="B2" s="146"/>
-      <c r="C2" s="147"/>
+      <c r="A2" s="143"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="145"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
-      <c r="B3" s="139" t="s">
+      <c r="B3" s="137" t="s">
         <v>271</v>
       </c>
-      <c r="C3" s="140"/>
+      <c r="C3" s="138"/>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15"/>
-      <c r="B4" s="122" t="s">
+      <c r="B4" s="124" t="s">
         <v>214</v>
       </c>
-      <c r="C4" s="123"/>
+      <c r="C4" s="125"/>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="51">
+      <c r="A5" s="50">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -6880,7 +6873,7 @@
       <c r="C5" s="16"/>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="51">
+      <c r="A6" s="50">
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -6889,7 +6882,7 @@
       <c r="C6" s="16"/>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="51">
+      <c r="A7" s="50">
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -6898,7 +6891,7 @@
       <c r="C7" s="16"/>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="51">
+      <c r="A8" s="50">
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -6907,7 +6900,7 @@
       <c r="C8" s="16"/>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="51">
+      <c r="A9" s="50">
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -6916,7 +6909,7 @@
       <c r="C9" s="16"/>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="51">
+      <c r="A10" s="50">
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -6925,7 +6918,7 @@
       <c r="C10" s="16"/>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="51">
+      <c r="A11" s="50">
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -6934,7 +6927,7 @@
       <c r="C11" s="16"/>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="51">
+      <c r="A12" s="50">
         <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -6943,11 +6936,11 @@
       <c r="C12" s="16"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="52"/>
-      <c r="B13" s="122" t="s">
+      <c r="A13" s="51"/>
+      <c r="B13" s="124" t="s">
         <v>223</v>
       </c>
-      <c r="C13" s="123"/>
+      <c r="C13" s="125"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
@@ -6956,32 +6949,32 @@
       <c r="B14" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="67"/>
+      <c r="C14" s="65"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>10</v>
       </c>
-      <c r="B15" s="66" t="s">
+      <c r="B15" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="C15" s="67"/>
+      <c r="C15" s="65"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>11</v>
       </c>
-      <c r="B16" s="66" t="s">
+      <c r="B16" s="64" t="s">
         <v>108</v>
       </c>
-      <c r="C16" s="67"/>
+      <c r="C16" s="65"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="12"/>
-      <c r="B17" s="148" t="s">
+      <c r="B17" s="146" t="s">
         <v>224</v>
       </c>
-      <c r="C17" s="149"/>
+      <c r="C17" s="147"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
@@ -7005,29 +6998,29 @@
       <c r="A20" s="12">
         <v>14</v>
       </c>
-      <c r="B20" s="64" t="s">
+      <c r="B20" s="62" t="s">
         <v>113</v>
       </c>
       <c r="C20" s="16"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="12"/>
-      <c r="B21" s="122" t="s">
+      <c r="B21" s="124" t="s">
         <v>225</v>
       </c>
-      <c r="C21" s="141"/>
+      <c r="C21" s="139"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="12">
         <v>15</v>
       </c>
-      <c r="B22" s="66" t="s">
+      <c r="B22" s="64" t="s">
         <v>226</v>
       </c>
-      <c r="C22" s="67"/>
+      <c r="C22" s="65"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="51">
+      <c r="A23" s="50">
         <v>16</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -7045,7 +7038,7 @@
       <c r="C24" s="16"/>
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="51">
+      <c r="A25" s="50">
         <v>18</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -7063,7 +7056,7 @@
       <c r="C26" s="16"/>
     </row>
     <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="51">
+      <c r="A27" s="50">
         <v>20</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -7081,7 +7074,7 @@
       <c r="C28" s="16"/>
     </row>
     <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="51">
+      <c r="A29" s="50">
         <v>22</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -7099,7 +7092,7 @@
       <c r="C30" s="16"/>
     </row>
     <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="51">
+      <c r="A31" s="50">
         <v>24</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -7117,7 +7110,7 @@
       <c r="C32" s="17"/>
     </row>
     <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="51">
+      <c r="A33" s="50">
         <v>26</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -7135,7 +7128,7 @@
       <c r="C34" s="16"/>
     </row>
     <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="51">
+      <c r="A35" s="50">
         <v>28</v>
       </c>
       <c r="B35" s="3" t="s">
@@ -7153,7 +7146,7 @@
       <c r="C36" s="16"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="51">
+      <c r="A37" s="50">
         <v>30</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -7171,7 +7164,7 @@
       <c r="C38" s="16"/>
     </row>
     <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="51">
+      <c r="A39" s="50">
         <v>32</v>
       </c>
       <c r="B39" s="3" t="s">
@@ -7189,7 +7182,7 @@
       <c r="C40" s="16"/>
     </row>
     <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="51">
+      <c r="A41" s="50">
         <v>34</v>
       </c>
       <c r="B41" s="3" t="s">
@@ -7207,14 +7200,14 @@
       <c r="C42" s="16"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" s="52"/>
-      <c r="B43" s="139" t="s">
+      <c r="A43" s="51"/>
+      <c r="B43" s="137" t="s">
         <v>247</v>
       </c>
-      <c r="C43" s="140"/>
+      <c r="C43" s="138"/>
     </row>
     <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="51">
+      <c r="A44" s="50">
         <v>36</v>
       </c>
       <c r="B44" s="3" t="s">
@@ -7223,7 +7216,7 @@
       <c r="C44" s="16"/>
     </row>
     <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="51">
+      <c r="A45" s="50">
         <v>37</v>
       </c>
       <c r="B45" s="3" t="s">
@@ -7232,7 +7225,7 @@
       <c r="C45" s="16"/>
     </row>
     <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="51">
+      <c r="A46" s="50">
         <v>38</v>
       </c>
       <c r="B46" s="3" t="s">
@@ -7241,7 +7234,7 @@
       <c r="C46" s="16"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" s="51">
+      <c r="A47" s="50">
         <v>39</v>
       </c>
       <c r="B47" s="3" t="s">
@@ -7250,7 +7243,7 @@
       <c r="C47" s="16"/>
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="51">
+      <c r="A48" s="50">
         <v>40</v>
       </c>
       <c r="B48" s="3" t="s">
@@ -7259,7 +7252,7 @@
       <c r="C48" s="16"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" s="51">
+      <c r="A49" s="50">
         <v>41</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -7268,7 +7261,7 @@
       <c r="C49" s="16"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" s="51">
+      <c r="A50" s="50">
         <v>42</v>
       </c>
       <c r="B50" s="3" t="s">
@@ -7278,45 +7271,45 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="12"/>
-      <c r="B51" s="122" t="s">
+      <c r="B51" s="124" t="s">
         <v>256</v>
       </c>
-      <c r="C51" s="123"/>
+      <c r="C51" s="125"/>
     </row>
     <row r="52" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="12">
         <v>43</v>
       </c>
-      <c r="B52" s="66" t="s">
+      <c r="B52" s="64" t="s">
         <v>257</v>
       </c>
-      <c r="C52" s="67"/>
+      <c r="C52" s="65"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="12">
         <v>44</v>
       </c>
-      <c r="B53" s="66" t="s">
+      <c r="B53" s="64" t="s">
         <v>258</v>
       </c>
-      <c r="C53" s="67"/>
+      <c r="C53" s="65"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" s="52"/>
-      <c r="B54" s="139" t="s">
+      <c r="A54" s="51"/>
+      <c r="B54" s="137" t="s">
         <v>259</v>
       </c>
-      <c r="C54" s="140"/>
+      <c r="C54" s="138"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" s="52"/>
-      <c r="B55" s="139" t="s">
+      <c r="A55" s="51"/>
+      <c r="B55" s="137" t="s">
         <v>260</v>
       </c>
-      <c r="C55" s="140"/>
+      <c r="C55" s="138"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" s="51">
+      <c r="A56" s="50">
         <v>45</v>
       </c>
       <c r="B56" s="3" t="s">
@@ -7325,7 +7318,7 @@
       <c r="C56" s="16"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" s="51">
+      <c r="A57" s="50">
         <v>46</v>
       </c>
       <c r="B57" s="3" t="s">
@@ -7334,7 +7327,7 @@
       <c r="C57" s="16"/>
     </row>
     <row r="58" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="51">
+      <c r="A58" s="50">
         <v>47</v>
       </c>
       <c r="B58" s="3" t="s">
@@ -7343,7 +7336,7 @@
       <c r="C58" s="16"/>
     </row>
     <row r="59" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="51">
+      <c r="A59" s="50">
         <v>48</v>
       </c>
       <c r="B59" s="3" t="s">
@@ -7352,7 +7345,7 @@
       <c r="C59" s="16"/>
     </row>
     <row r="60" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="51">
+      <c r="A60" s="50">
         <v>49</v>
       </c>
       <c r="B60" s="3" t="s">
@@ -7361,7 +7354,7 @@
       <c r="C60" s="16"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" s="51">
+      <c r="A61" s="50">
         <v>50</v>
       </c>
       <c r="B61" s="3" t="s">
@@ -7370,7 +7363,7 @@
       <c r="C61" s="16"/>
     </row>
     <row r="62" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="51">
+      <c r="A62" s="50">
         <v>51</v>
       </c>
       <c r="B62" s="3" t="s">
@@ -7379,7 +7372,7 @@
       <c r="C62" s="16"/>
     </row>
     <row r="63" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="51">
+      <c r="A63" s="50">
         <v>52</v>
       </c>
       <c r="B63" s="3" t="s">
@@ -7388,7 +7381,7 @@
       <c r="C63" s="16"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" s="51">
+      <c r="A64" s="50">
         <v>53</v>
       </c>
       <c r="B64" s="3" t="s">
@@ -7397,14 +7390,14 @@
       <c r="C64" s="16"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" s="52"/>
-      <c r="B65" s="139" t="s">
+      <c r="A65" s="51"/>
+      <c r="B65" s="137" t="s">
         <v>269</v>
       </c>
-      <c r="C65" s="140"/>
+      <c r="C65" s="138"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" s="51">
+      <c r="A66" s="50">
         <v>54</v>
       </c>
       <c r="B66" s="3" t="s">
@@ -7413,7 +7406,7 @@
       <c r="C66" s="16"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67" s="51">
+      <c r="A67" s="50">
         <v>55</v>
       </c>
       <c r="B67" s="3" t="s">
@@ -7422,7 +7415,7 @@
       <c r="C67" s="16"/>
     </row>
     <row r="68" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="51">
+      <c r="A68" s="50">
         <v>56</v>
       </c>
       <c r="B68" s="3" t="s">
@@ -7431,7 +7424,7 @@
       <c r="C68" s="16"/>
     </row>
     <row r="69" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="51">
+      <c r="A69" s="50">
         <v>57</v>
       </c>
       <c r="B69" s="3" t="s">
@@ -7440,7 +7433,7 @@
       <c r="C69" s="16"/>
     </row>
     <row r="70" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="51">
+      <c r="A70" s="50">
         <v>58</v>
       </c>
       <c r="B70" s="3" t="s">
@@ -7449,7 +7442,7 @@
       <c r="C70" s="16"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A71" s="51">
+      <c r="A71" s="50">
         <v>59</v>
       </c>
       <c r="B71" s="3" t="s">
@@ -7458,7 +7451,7 @@
       <c r="C71" s="16"/>
     </row>
     <row r="72" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="51">
+      <c r="A72" s="50">
         <v>60</v>
       </c>
       <c r="B72" s="3" t="s">
@@ -7467,7 +7460,7 @@
       <c r="C72" s="16"/>
     </row>
     <row r="73" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="51">
+      <c r="A73" s="50">
         <v>61</v>
       </c>
       <c r="B73" s="3" t="s">
@@ -7476,27 +7469,27 @@
       <c r="C73" s="16"/>
     </row>
     <row r="74" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="53">
+      <c r="A74" s="52">
         <v>62</v>
       </c>
-      <c r="B74" s="54" t="s">
+      <c r="B74" s="53" t="s">
         <v>270</v>
       </c>
       <c r="C74" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B65:C65"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B65:C65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="95" fitToHeight="100" orientation="portrait" r:id="rId1"/>
@@ -7510,8 +7503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C220"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A185" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="H193" sqref="H193"/>
+    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7523,33 +7516,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="140" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="144"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="142"/>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="145"/>
-      <c r="B2" s="146"/>
-      <c r="C2" s="147"/>
+      <c r="A2" s="143"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="145"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="52"/>
-      <c r="B3" s="139" t="s">
+      <c r="A3" s="51"/>
+      <c r="B3" s="137" t="s">
         <v>213</v>
       </c>
-      <c r="C3" s="140"/>
+      <c r="C3" s="138"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="52"/>
-      <c r="B4" s="122" t="s">
+      <c r="A4" s="51"/>
+      <c r="B4" s="124" t="s">
         <v>214</v>
       </c>
-      <c r="C4" s="123"/>
+      <c r="C4" s="125"/>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="51">
+      <c r="A5" s="50">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -7558,7 +7551,7 @@
       <c r="C5" s="16"/>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="51">
+      <c r="A6" s="50">
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -7567,7 +7560,7 @@
       <c r="C6" s="16"/>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="51">
+      <c r="A7" s="50">
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -7576,7 +7569,7 @@
       <c r="C7" s="16"/>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="51">
+      <c r="A8" s="50">
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -7585,7 +7578,7 @@
       <c r="C8" s="16"/>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="51">
+      <c r="A9" s="50">
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -7594,7 +7587,7 @@
       <c r="C9" s="16"/>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="51">
+      <c r="A10" s="50">
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -7603,7 +7596,7 @@
       <c r="C10" s="16"/>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="51">
+      <c r="A11" s="50">
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -7612,7 +7605,7 @@
       <c r="C11" s="16"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="51">
+      <c r="A12" s="50">
         <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -7621,14 +7614,14 @@
       <c r="C12" s="16"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="51"/>
-      <c r="B13" s="148" t="s">
+      <c r="A13" s="50"/>
+      <c r="B13" s="146" t="s">
         <v>224</v>
       </c>
-      <c r="C13" s="150"/>
+      <c r="C13" s="159"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="51">
+      <c r="A14" s="50">
         <v>9</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -7637,7 +7630,7 @@
       <c r="C14" s="16"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="51">
+      <c r="A15" s="50">
         <v>10</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -7646,20 +7639,20 @@
       <c r="C15" s="16"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="51">
+      <c r="A16" s="50">
         <v>11</v>
       </c>
-      <c r="B16" s="64" t="s">
+      <c r="B16" s="62" t="s">
         <v>113</v>
       </c>
       <c r="C16" s="16"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="52"/>
-      <c r="B17" s="122" t="s">
+      <c r="A17" s="51"/>
+      <c r="B17" s="124" t="s">
         <v>223</v>
       </c>
-      <c r="C17" s="123"/>
+      <c r="C17" s="125"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
@@ -7668,41 +7661,41 @@
       <c r="B18" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="67"/>
+      <c r="C18" s="65"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <v>13</v>
       </c>
-      <c r="B19" s="66" t="s">
+      <c r="B19" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="C19" s="67"/>
+      <c r="C19" s="65"/>
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
         <v>14</v>
       </c>
-      <c r="B20" s="66" t="s">
+      <c r="B20" s="64" t="s">
         <v>108</v>
       </c>
-      <c r="C20" s="67"/>
+      <c r="C20" s="65"/>
     </row>
     <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="12"/>
-      <c r="B21" s="122" t="s">
+      <c r="B21" s="124" t="s">
         <v>225</v>
       </c>
-      <c r="C21" s="141"/>
+      <c r="C21" s="139"/>
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="12">
         <v>15</v>
       </c>
-      <c r="B22" s="66" t="s">
+      <c r="B22" s="64" t="s">
         <v>226</v>
       </c>
-      <c r="C22" s="67"/>
+      <c r="C22" s="65"/>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="12">
@@ -7885,14 +7878,14 @@
       <c r="C42" s="16"/>
     </row>
     <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="52"/>
-      <c r="B43" s="139" t="s">
+      <c r="A43" s="51"/>
+      <c r="B43" s="137" t="s">
         <v>247</v>
       </c>
-      <c r="C43" s="140"/>
+      <c r="C43" s="138"/>
     </row>
     <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="51">
+      <c r="A44" s="50">
         <v>36</v>
       </c>
       <c r="B44" s="3" t="s">
@@ -7901,7 +7894,7 @@
       <c r="C44" s="16"/>
     </row>
     <row r="45" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="51">
+      <c r="A45" s="50">
         <v>37</v>
       </c>
       <c r="B45" s="3" t="s">
@@ -7910,7 +7903,7 @@
       <c r="C45" s="16"/>
     </row>
     <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="51">
+      <c r="A46" s="50">
         <v>38</v>
       </c>
       <c r="B46" s="3" t="s">
@@ -7919,7 +7912,7 @@
       <c r="C46" s="16"/>
     </row>
     <row r="47" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="51">
+      <c r="A47" s="50">
         <v>39</v>
       </c>
       <c r="B47" s="3" t="s">
@@ -7928,7 +7921,7 @@
       <c r="C47" s="16"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" s="51">
+      <c r="A48" s="50">
         <v>40</v>
       </c>
       <c r="B48" s="3" t="s">
@@ -7937,7 +7930,7 @@
       <c r="C48" s="16"/>
     </row>
     <row r="49" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="51">
+      <c r="A49" s="50">
         <v>41</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -7946,7 +7939,7 @@
       <c r="C49" s="16"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" s="51">
+      <c r="A50" s="50">
         <v>42</v>
       </c>
       <c r="B50" s="3" t="s">
@@ -7955,14 +7948,14 @@
       <c r="C50" s="16"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" s="52"/>
-      <c r="B51" s="139" t="s">
+      <c r="A51" s="51"/>
+      <c r="B51" s="137" t="s">
         <v>70</v>
       </c>
-      <c r="C51" s="140"/>
+      <c r="C51" s="138"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" s="51">
+      <c r="A52" s="50">
         <v>43</v>
       </c>
       <c r="B52" s="3" t="s">
@@ -7972,45 +7965,45 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="12"/>
-      <c r="B53" s="122" t="s">
+      <c r="B53" s="124" t="s">
         <v>256</v>
       </c>
-      <c r="C53" s="123"/>
+      <c r="C53" s="125"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="12">
         <v>44</v>
       </c>
-      <c r="B54" s="66" t="s">
+      <c r="B54" s="64" t="s">
         <v>257</v>
       </c>
-      <c r="C54" s="67"/>
+      <c r="C54" s="65"/>
     </row>
     <row r="55" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="12">
         <v>45</v>
       </c>
-      <c r="B55" s="66" t="s">
+      <c r="B55" s="64" t="s">
         <v>272</v>
       </c>
-      <c r="C55" s="67"/>
+      <c r="C55" s="65"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" s="57"/>
-      <c r="B56" s="139" t="s">
+      <c r="A56" s="56"/>
+      <c r="B56" s="137" t="s">
         <v>72</v>
       </c>
-      <c r="C56" s="140"/>
+      <c r="C56" s="138"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" s="57"/>
-      <c r="B57" s="139" t="s">
+      <c r="A57" s="56"/>
+      <c r="B57" s="137" t="s">
         <v>273</v>
       </c>
-      <c r="C57" s="140"/>
+      <c r="C57" s="138"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" s="57">
+      <c r="A58" s="56">
         <v>46</v>
       </c>
       <c r="B58" s="6" t="s">
@@ -8019,7 +8012,7 @@
       <c r="C58" s="16"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" s="57">
+      <c r="A59" s="56">
         <v>47</v>
       </c>
       <c r="B59" s="6" t="s">
@@ -8028,23 +8021,23 @@
       <c r="C59" s="16"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" s="57">
+      <c r="A60" s="56">
         <v>44</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="C60" s="56"/>
+      <c r="C60" s="55"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" s="57"/>
-      <c r="B61" s="139" t="s">
+      <c r="A61" s="56"/>
+      <c r="B61" s="137" t="s">
         <v>277</v>
       </c>
-      <c r="C61" s="140"/>
+      <c r="C61" s="138"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" s="58">
+      <c r="A62" s="57">
         <v>45</v>
       </c>
       <c r="B62" s="3" t="s">
@@ -8053,7 +8046,7 @@
       <c r="C62" s="17"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" s="58">
+      <c r="A63" s="57">
         <v>46</v>
       </c>
       <c r="B63" s="3" t="s">
@@ -8062,7 +8055,7 @@
       <c r="C63" s="17"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" s="58">
+      <c r="A64" s="57">
         <v>47</v>
       </c>
       <c r="B64" s="3" t="s">
@@ -8071,7 +8064,7 @@
       <c r="C64" s="17"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" s="58">
+      <c r="A65" s="57">
         <v>48</v>
       </c>
       <c r="B65" s="3" t="s">
@@ -8080,7 +8073,7 @@
       <c r="C65" s="17"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" s="58">
+      <c r="A66" s="57">
         <v>49</v>
       </c>
       <c r="B66" s="3" t="s">
@@ -8089,7 +8082,7 @@
       <c r="C66" s="17"/>
     </row>
     <row r="67" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="58">
+      <c r="A67" s="57">
         <v>50</v>
       </c>
       <c r="B67" s="3" t="s">
@@ -8098,7 +8091,7 @@
       <c r="C67" s="17"/>
     </row>
     <row r="68" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="58">
+      <c r="A68" s="57">
         <v>51</v>
       </c>
       <c r="B68" s="3" t="s">
@@ -8107,7 +8100,7 @@
       <c r="C68" s="17"/>
     </row>
     <row r="69" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="58">
+      <c r="A69" s="57">
         <v>52</v>
       </c>
       <c r="B69" s="7" t="s">
@@ -8116,7 +8109,7 @@
       <c r="C69" s="17"/>
     </row>
     <row r="70" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="58">
+      <c r="A70" s="57">
         <v>53</v>
       </c>
       <c r="B70" s="7" t="s">
@@ -8125,14 +8118,14 @@
       <c r="C70" s="17"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A71" s="57"/>
-      <c r="B71" s="139" t="s">
+      <c r="A71" s="56"/>
+      <c r="B71" s="137" t="s">
         <v>287</v>
       </c>
-      <c r="C71" s="140"/>
+      <c r="C71" s="138"/>
     </row>
     <row r="72" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="58">
+      <c r="A72" s="57">
         <v>54</v>
       </c>
       <c r="B72" s="3" t="s">
@@ -8141,7 +8134,7 @@
       <c r="C72" s="16"/>
     </row>
     <row r="73" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="58">
+      <c r="A73" s="57">
         <v>55</v>
       </c>
       <c r="B73" s="3" t="s">
@@ -8150,7 +8143,7 @@
       <c r="C73" s="16"/>
     </row>
     <row r="74" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="58">
+      <c r="A74" s="57">
         <v>56</v>
       </c>
       <c r="B74" s="7" t="s">
@@ -8159,7 +8152,7 @@
       <c r="C74" s="16"/>
     </row>
     <row r="75" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="58">
+      <c r="A75" s="57">
         <v>57</v>
       </c>
       <c r="B75" s="7" t="s">
@@ -8168,14 +8161,14 @@
       <c r="C75" s="16"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A76" s="57"/>
-      <c r="B76" s="151" t="s">
+      <c r="A76" s="56"/>
+      <c r="B76" s="152" t="s">
         <v>292</v>
       </c>
-      <c r="C76" s="152"/>
+      <c r="C76" s="153"/>
     </row>
     <row r="77" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="58">
+      <c r="A77" s="57">
         <v>58</v>
       </c>
       <c r="B77" s="19" t="s">
@@ -8184,7 +8177,7 @@
       <c r="C77" s="17"/>
     </row>
     <row r="78" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="58">
+      <c r="A78" s="57">
         <v>59</v>
       </c>
       <c r="B78" s="19" t="s">
@@ -8193,7 +8186,7 @@
       <c r="C78" s="17"/>
     </row>
     <row r="79" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="58">
+      <c r="A79" s="57">
         <v>60</v>
       </c>
       <c r="B79" s="19" t="s">
@@ -8202,7 +8195,7 @@
       <c r="C79" s="17"/>
     </row>
     <row r="80" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="58">
+      <c r="A80" s="57">
         <v>61</v>
       </c>
       <c r="B80" s="6" t="s">
@@ -8211,7 +8204,7 @@
       <c r="C80" s="17"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A81" s="58">
+      <c r="A81" s="57">
         <v>62</v>
       </c>
       <c r="B81" s="6" t="s">
@@ -8220,7 +8213,7 @@
       <c r="C81" s="17"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A82" s="58">
+      <c r="A82" s="57">
         <v>63</v>
       </c>
       <c r="B82" s="6" t="s">
@@ -8229,7 +8222,7 @@
       <c r="C82" s="17"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A83" s="58">
+      <c r="A83" s="57">
         <v>64</v>
       </c>
       <c r="B83" s="19" t="s">
@@ -8238,14 +8231,14 @@
       <c r="C83" s="17"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A84" s="57"/>
-      <c r="B84" s="151" t="s">
+      <c r="A84" s="56"/>
+      <c r="B84" s="152" t="s">
         <v>300</v>
       </c>
-      <c r="C84" s="152"/>
+      <c r="C84" s="153"/>
     </row>
     <row r="85" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="58">
+      <c r="A85" s="57">
         <v>65</v>
       </c>
       <c r="B85" s="7" t="s">
@@ -8254,7 +8247,7 @@
       <c r="C85" s="20"/>
     </row>
     <row r="86" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="58">
+      <c r="A86" s="57">
         <v>66</v>
       </c>
       <c r="B86" s="7" t="s">
@@ -8263,14 +8256,14 @@
       <c r="C86" s="20"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A87" s="58"/>
-      <c r="B87" s="139" t="s">
+      <c r="A87" s="57"/>
+      <c r="B87" s="137" t="s">
         <v>303</v>
       </c>
-      <c r="C87" s="140"/>
+      <c r="C87" s="138"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A88" s="58">
+      <c r="A88" s="57">
         <v>67</v>
       </c>
       <c r="B88" s="7" t="s">
@@ -8279,7 +8272,7 @@
       <c r="C88" s="16"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A89" s="58">
+      <c r="A89" s="57">
         <v>68</v>
       </c>
       <c r="B89" s="7" t="s">
@@ -8288,7 +8281,7 @@
       <c r="C89" s="16"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A90" s="58">
+      <c r="A90" s="57">
         <v>69</v>
       </c>
       <c r="B90" s="7" t="s">
@@ -8297,7 +8290,7 @@
       <c r="C90" s="16"/>
     </row>
     <row r="91" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="58">
+      <c r="A91" s="57">
         <v>70</v>
       </c>
       <c r="B91" s="21" t="s">
@@ -8306,7 +8299,7 @@
       <c r="C91" s="22"/>
     </row>
     <row r="92" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="58">
+      <c r="A92" s="57">
         <v>71</v>
       </c>
       <c r="B92" s="21" t="s">
@@ -8315,14 +8308,14 @@
       <c r="C92" s="22"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A93" s="57"/>
-      <c r="B93" s="151" t="s">
+      <c r="A93" s="56"/>
+      <c r="B93" s="152" t="s">
         <v>309</v>
       </c>
-      <c r="C93" s="152"/>
+      <c r="C93" s="153"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A94" s="58">
+      <c r="A94" s="57">
         <v>72</v>
       </c>
       <c r="B94" s="3" t="s">
@@ -8331,7 +8324,7 @@
       <c r="C94" s="17"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A95" s="58">
+      <c r="A95" s="57">
         <v>73</v>
       </c>
       <c r="B95" s="3" t="s">
@@ -8340,7 +8333,7 @@
       <c r="C95" s="17"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A96" s="58">
+      <c r="A96" s="57">
         <v>74</v>
       </c>
       <c r="B96" s="3" t="s">
@@ -8349,7 +8342,7 @@
       <c r="C96" s="17"/>
     </row>
     <row r="97" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="58">
+      <c r="A97" s="57">
         <v>75</v>
       </c>
       <c r="B97" s="3" t="s">
@@ -8358,7 +8351,7 @@
       <c r="C97" s="17"/>
     </row>
     <row r="98" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="58">
+      <c r="A98" s="57">
         <v>76</v>
       </c>
       <c r="B98" s="3" t="s">
@@ -8367,7 +8360,7 @@
       <c r="C98" s="17"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A99" s="58">
+      <c r="A99" s="57">
         <v>77</v>
       </c>
       <c r="B99" s="3" t="s">
@@ -8376,14 +8369,14 @@
       <c r="C99" s="17"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A100" s="57"/>
-      <c r="B100" s="151" t="s">
+      <c r="A100" s="56"/>
+      <c r="B100" s="152" t="s">
         <v>316</v>
       </c>
-      <c r="C100" s="152"/>
+      <c r="C100" s="153"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A101" s="58">
+      <c r="A101" s="57">
         <v>78</v>
       </c>
       <c r="B101" s="3" t="s">
@@ -8392,7 +8385,7 @@
       <c r="C101" s="17"/>
     </row>
     <row r="102" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="58">
+      <c r="A102" s="57">
         <v>79</v>
       </c>
       <c r="B102" s="3" t="s">
@@ -8401,7 +8394,7 @@
       <c r="C102" s="17"/>
     </row>
     <row r="103" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="58">
+      <c r="A103" s="57">
         <v>80</v>
       </c>
       <c r="B103" s="3" t="s">
@@ -8410,7 +8403,7 @@
       <c r="C103" s="17"/>
     </row>
     <row r="104" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="58">
+      <c r="A104" s="57">
         <v>81</v>
       </c>
       <c r="B104" s="3" t="s">
@@ -8419,14 +8412,14 @@
       <c r="C104" s="17"/>
     </row>
     <row r="105" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="58"/>
-      <c r="B105" s="153" t="s">
+      <c r="A105" s="57"/>
+      <c r="B105" s="148" t="s">
         <v>318</v>
       </c>
       <c r="C105" s="154"/>
     </row>
     <row r="106" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="58">
+      <c r="A106" s="57">
         <v>82</v>
       </c>
       <c r="B106" s="3" t="s">
@@ -8435,7 +8428,7 @@
       <c r="C106" s="17"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A107" s="58">
+      <c r="A107" s="57">
         <v>83</v>
       </c>
       <c r="B107" s="3" t="s">
@@ -8444,7 +8437,7 @@
       <c r="C107" s="17"/>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A108" s="58">
+      <c r="A108" s="57">
         <v>84</v>
       </c>
       <c r="B108" s="3" t="s">
@@ -8453,14 +8446,14 @@
       <c r="C108" s="17"/>
     </row>
     <row r="109" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="57"/>
-      <c r="B109" s="151" t="s">
+      <c r="A109" s="56"/>
+      <c r="B109" s="152" t="s">
         <v>321</v>
       </c>
-      <c r="C109" s="152"/>
+      <c r="C109" s="153"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A110" s="58">
+      <c r="A110" s="57">
         <v>85</v>
       </c>
       <c r="B110" s="3" t="s">
@@ -8469,7 +8462,7 @@
       <c r="C110" s="17"/>
     </row>
     <row r="111" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="58">
+      <c r="A111" s="57">
         <v>86</v>
       </c>
       <c r="B111" s="3" t="s">
@@ -8478,7 +8471,7 @@
       <c r="C111" s="17"/>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A112" s="58">
+      <c r="A112" s="57">
         <v>87</v>
       </c>
       <c r="B112" s="3" t="s">
@@ -8487,7 +8480,7 @@
       <c r="C112" s="17"/>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A113" s="58">
+      <c r="A113" s="57">
         <v>88</v>
       </c>
       <c r="B113" s="3" t="s">
@@ -8496,7 +8489,7 @@
       <c r="C113" s="17"/>
     </row>
     <row r="114" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="58">
+      <c r="A114" s="57">
         <v>89</v>
       </c>
       <c r="B114" s="3" t="s">
@@ -8505,7 +8498,7 @@
       <c r="C114" s="17"/>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A115" s="58">
+      <c r="A115" s="57">
         <v>90</v>
       </c>
       <c r="B115" s="3" t="s">
@@ -8514,14 +8507,14 @@
       <c r="C115" s="17"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A116" s="57"/>
-      <c r="B116" s="151" t="s">
+      <c r="A116" s="56"/>
+      <c r="B116" s="152" t="s">
         <v>323</v>
       </c>
-      <c r="C116" s="152"/>
+      <c r="C116" s="153"/>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A117" s="58">
+      <c r="A117" s="57">
         <v>91</v>
       </c>
       <c r="B117" s="3" t="s">
@@ -8530,7 +8523,7 @@
       <c r="C117" s="17"/>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A118" s="58">
+      <c r="A118" s="57">
         <v>92</v>
       </c>
       <c r="B118" s="3" t="s">
@@ -8539,7 +8532,7 @@
       <c r="C118" s="17"/>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A119" s="58">
+      <c r="A119" s="57">
         <v>93</v>
       </c>
       <c r="B119" s="3" t="s">
@@ -8548,7 +8541,7 @@
       <c r="C119" s="17"/>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A120" s="58">
+      <c r="A120" s="57">
         <v>94</v>
       </c>
       <c r="B120" s="3" t="s">
@@ -8557,7 +8550,7 @@
       <c r="C120" s="17"/>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A121" s="58">
+      <c r="A121" s="57">
         <v>95</v>
       </c>
       <c r="B121" s="3" t="s">
@@ -8566,7 +8559,7 @@
       <c r="C121" s="17"/>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A122" s="58">
+      <c r="A122" s="57">
         <v>96</v>
       </c>
       <c r="B122" s="3" t="s">
@@ -8575,14 +8568,14 @@
       <c r="C122" s="17"/>
     </row>
     <row r="123" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="57"/>
-      <c r="B123" s="151" t="s">
+      <c r="A123" s="56"/>
+      <c r="B123" s="152" t="s">
         <v>325</v>
       </c>
-      <c r="C123" s="152"/>
+      <c r="C123" s="153"/>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A124" s="58">
+      <c r="A124" s="57">
         <v>97</v>
       </c>
       <c r="B124" s="3" t="s">
@@ -8591,7 +8584,7 @@
       <c r="C124" s="17"/>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A125" s="58">
+      <c r="A125" s="57">
         <v>98</v>
       </c>
       <c r="B125" s="3" t="s">
@@ -8600,7 +8593,7 @@
       <c r="C125" s="17"/>
     </row>
     <row r="126" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="58">
+      <c r="A126" s="57">
         <v>99</v>
       </c>
       <c r="B126" s="3" t="s">
@@ -8609,7 +8602,7 @@
       <c r="C126" s="17"/>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A127" s="58">
+      <c r="A127" s="57">
         <v>100</v>
       </c>
       <c r="B127" s="3" t="s">
@@ -8618,7 +8611,7 @@
       <c r="C127" s="17"/>
     </row>
     <row r="128" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="58">
+      <c r="A128" s="57">
         <v>101</v>
       </c>
       <c r="B128" s="3" t="s">
@@ -8627,7 +8620,7 @@
       <c r="C128" s="17"/>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A129" s="58">
+      <c r="A129" s="57">
         <v>102</v>
       </c>
       <c r="B129" s="3" t="s">
@@ -8636,14 +8629,14 @@
       <c r="C129" s="17"/>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A130" s="57"/>
-      <c r="B130" s="151" t="s">
+      <c r="A130" s="56"/>
+      <c r="B130" s="152" t="s">
         <v>326</v>
       </c>
-      <c r="C130" s="152"/>
+      <c r="C130" s="153"/>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A131" s="58">
+      <c r="A131" s="57">
         <v>103</v>
       </c>
       <c r="B131" s="3" t="s">
@@ -8652,7 +8645,7 @@
       <c r="C131" s="17"/>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A132" s="58">
+      <c r="A132" s="57">
         <v>104</v>
       </c>
       <c r="B132" s="3" t="s">
@@ -8661,7 +8654,7 @@
       <c r="C132" s="17"/>
     </row>
     <row r="133" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="58">
+      <c r="A133" s="57">
         <v>105</v>
       </c>
       <c r="B133" s="3" t="s">
@@ -8670,7 +8663,7 @@
       <c r="C133" s="17"/>
     </row>
     <row r="134" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="58">
+      <c r="A134" s="57">
         <v>106</v>
       </c>
       <c r="B134" s="3" t="s">
@@ -8679,7 +8672,7 @@
       <c r="C134" s="17"/>
     </row>
     <row r="135" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="58">
+      <c r="A135" s="57">
         <v>107</v>
       </c>
       <c r="B135" s="3" t="s">
@@ -8688,7 +8681,7 @@
       <c r="C135" s="17"/>
     </row>
     <row r="136" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="58">
+      <c r="A136" s="57">
         <v>108</v>
       </c>
       <c r="B136" s="3" t="s">
@@ -8697,14 +8690,14 @@
       <c r="C136" s="17"/>
     </row>
     <row r="137" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="57"/>
-      <c r="B137" s="151" t="s">
+      <c r="A137" s="56"/>
+      <c r="B137" s="152" t="s">
         <v>327</v>
       </c>
-      <c r="C137" s="152"/>
+      <c r="C137" s="153"/>
     </row>
     <row r="138" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="58">
+      <c r="A138" s="57">
         <v>109</v>
       </c>
       <c r="B138" s="3" t="s">
@@ -8713,7 +8706,7 @@
       <c r="C138" s="17"/>
     </row>
     <row r="139" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="58">
+      <c r="A139" s="57">
         <v>110</v>
       </c>
       <c r="B139" s="3" t="s">
@@ -8722,7 +8715,7 @@
       <c r="C139" s="17"/>
     </row>
     <row r="140" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="58">
+      <c r="A140" s="57">
         <v>111</v>
       </c>
       <c r="B140" s="3" t="s">
@@ -8731,7 +8724,7 @@
       <c r="C140" s="17"/>
     </row>
     <row r="141" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="58">
+      <c r="A141" s="57">
         <v>112</v>
       </c>
       <c r="B141" s="3" t="s">
@@ -8740,7 +8733,7 @@
       <c r="C141" s="17"/>
     </row>
     <row r="142" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="58">
+      <c r="A142" s="57">
         <v>113</v>
       </c>
       <c r="B142" s="3" t="s">
@@ -8749,7 +8742,7 @@
       <c r="C142" s="17"/>
     </row>
     <row r="143" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="58">
+      <c r="A143" s="57">
         <v>114</v>
       </c>
       <c r="B143" s="3" t="s">
@@ -8758,14 +8751,14 @@
       <c r="C143" s="17"/>
     </row>
     <row r="144" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A144" s="58"/>
-      <c r="B144" s="153" t="s">
+      <c r="A144" s="57"/>
+      <c r="B144" s="148" t="s">
         <v>134</v>
       </c>
-      <c r="C144" s="155"/>
+      <c r="C144" s="149"/>
     </row>
     <row r="145" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="58">
+      <c r="A145" s="57">
         <v>115</v>
       </c>
       <c r="B145" s="6" t="s">
@@ -8774,7 +8767,7 @@
       <c r="C145" s="17"/>
     </row>
     <row r="146" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="58">
+      <c r="A146" s="57">
         <v>116</v>
       </c>
       <c r="B146" s="6" t="s">
@@ -8783,7 +8776,7 @@
       <c r="C146" s="17"/>
     </row>
     <row r="147" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="58">
+      <c r="A147" s="57">
         <v>117</v>
       </c>
       <c r="B147" s="6" t="s">
@@ -8792,7 +8785,7 @@
       <c r="C147" s="17"/>
     </row>
     <row r="148" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="58">
+      <c r="A148" s="57">
         <v>118</v>
       </c>
       <c r="B148" s="6" t="s">
@@ -8801,7 +8794,7 @@
       <c r="C148" s="17"/>
     </row>
     <row r="149" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="58">
+      <c r="A149" s="57">
         <v>119</v>
       </c>
       <c r="B149" s="6" t="s">
@@ -8810,7 +8803,7 @@
       <c r="C149" s="17"/>
     </row>
     <row r="150" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="58">
+      <c r="A150" s="57">
         <v>120</v>
       </c>
       <c r="B150" s="6" t="s">
@@ -8819,14 +8812,14 @@
       <c r="C150" s="17"/>
     </row>
     <row r="151" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="58"/>
-      <c r="B151" s="160" t="s">
+      <c r="A151" s="57"/>
+      <c r="B151" s="150" t="s">
         <v>334</v>
       </c>
-      <c r="C151" s="161"/>
+      <c r="C151" s="151"/>
     </row>
     <row r="152" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="58">
+      <c r="A152" s="57">
         <v>121</v>
       </c>
       <c r="B152" s="19" t="s">
@@ -8835,7 +8828,7 @@
       <c r="C152" s="17"/>
     </row>
     <row r="153" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A153" s="58">
+      <c r="A153" s="57">
         <v>122</v>
       </c>
       <c r="B153" s="19" t="s">
@@ -8844,7 +8837,7 @@
       <c r="C153" s="17"/>
     </row>
     <row r="154" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A154" s="58">
+      <c r="A154" s="57">
         <v>123</v>
       </c>
       <c r="B154" s="23" t="s">
@@ -8853,7 +8846,7 @@
       <c r="C154" s="17"/>
     </row>
     <row r="155" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A155" s="58">
+      <c r="A155" s="57">
         <v>124</v>
       </c>
       <c r="B155" s="19" t="s">
@@ -8862,7 +8855,7 @@
       <c r="C155" s="17"/>
     </row>
     <row r="156" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="58">
+      <c r="A156" s="57">
         <v>125</v>
       </c>
       <c r="B156" s="19" t="s">
@@ -8871,7 +8864,7 @@
       <c r="C156" s="17"/>
     </row>
     <row r="157" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="58">
+      <c r="A157" s="57">
         <v>126</v>
       </c>
       <c r="B157" s="19" t="s">
@@ -8880,14 +8873,14 @@
       <c r="C157" s="17"/>
     </row>
     <row r="158" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="57"/>
-      <c r="B158" s="151" t="s">
+      <c r="A158" s="56"/>
+      <c r="B158" s="152" t="s">
         <v>341</v>
       </c>
-      <c r="C158" s="152"/>
+      <c r="C158" s="153"/>
     </row>
     <row r="159" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A159" s="58">
+      <c r="A159" s="57">
         <v>127</v>
       </c>
       <c r="B159" s="3" t="s">
@@ -8896,7 +8889,7 @@
       <c r="C159" s="17"/>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A160" s="58">
+      <c r="A160" s="57">
         <v>128</v>
       </c>
       <c r="B160" s="3" t="s">
@@ -8905,7 +8898,7 @@
       <c r="C160" s="17"/>
     </row>
     <row r="161" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A161" s="58">
+      <c r="A161" s="57">
         <v>129</v>
       </c>
       <c r="B161" s="3" t="s">
@@ -8914,14 +8907,14 @@
       <c r="C161" s="17"/>
     </row>
     <row r="162" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A162" s="57"/>
-      <c r="B162" s="151" t="s">
+      <c r="A162" s="56"/>
+      <c r="B162" s="152" t="s">
         <v>345</v>
       </c>
-      <c r="C162" s="152"/>
+      <c r="C162" s="153"/>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A163" s="58">
+      <c r="A163" s="57">
         <v>130</v>
       </c>
       <c r="B163" s="3" t="s">
@@ -8930,7 +8923,7 @@
       <c r="C163" s="20"/>
     </row>
     <row r="164" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A164" s="58">
+      <c r="A164" s="57">
         <v>131</v>
       </c>
       <c r="B164" s="3" t="s">
@@ -8939,7 +8932,7 @@
       <c r="C164" s="20"/>
     </row>
     <row r="165" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A165" s="58">
+      <c r="A165" s="57">
         <v>132</v>
       </c>
       <c r="B165" s="3" t="s">
@@ -8948,14 +8941,14 @@
       <c r="C165" s="20"/>
     </row>
     <row r="166" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A166" s="57"/>
-      <c r="B166" s="151" t="s">
+      <c r="A166" s="56"/>
+      <c r="B166" s="152" t="s">
         <v>349</v>
       </c>
-      <c r="C166" s="152"/>
+      <c r="C166" s="153"/>
     </row>
     <row r="167" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A167" s="58">
+      <c r="A167" s="57">
         <v>133</v>
       </c>
       <c r="B167" s="3" t="s">
@@ -8964,7 +8957,7 @@
       <c r="C167" s="17"/>
     </row>
     <row r="168" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A168" s="58">
+      <c r="A168" s="57">
         <v>134</v>
       </c>
       <c r="B168" s="3" t="s">
@@ -8973,7 +8966,7 @@
       <c r="C168" s="17"/>
     </row>
     <row r="169" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A169" s="58">
+      <c r="A169" s="57">
         <v>135</v>
       </c>
       <c r="B169" s="3" t="s">
@@ -8982,7 +8975,7 @@
       <c r="C169" s="17"/>
     </row>
     <row r="170" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A170" s="58">
+      <c r="A170" s="57">
         <v>136</v>
       </c>
       <c r="B170" s="3" t="s">
@@ -8991,7 +8984,7 @@
       <c r="C170" s="17"/>
     </row>
     <row r="171" spans="1:3" ht="26" x14ac:dyDescent="0.35">
-      <c r="A171" s="58">
+      <c r="A171" s="57">
         <v>137</v>
       </c>
       <c r="B171" s="3" t="s">
@@ -9000,7 +8993,7 @@
       <c r="C171" s="17"/>
     </row>
     <row r="172" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A172" s="58">
+      <c r="A172" s="57">
         <v>138</v>
       </c>
       <c r="B172" s="3" t="s">
@@ -9009,7 +9002,7 @@
       <c r="C172" s="17"/>
     </row>
     <row r="173" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A173" s="58">
+      <c r="A173" s="57">
         <v>139</v>
       </c>
       <c r="B173" s="24" t="s">
@@ -9018,7 +9011,7 @@
       <c r="C173" s="17"/>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A174" s="58">
+      <c r="A174" s="57">
         <v>140</v>
       </c>
       <c r="B174" s="3" t="s">
@@ -9027,7 +9020,7 @@
       <c r="C174" s="17"/>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A175" s="58">
+      <c r="A175" s="57">
         <v>141</v>
       </c>
       <c r="B175" s="3" t="s">
@@ -9036,7 +9029,7 @@
       <c r="C175" s="17"/>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A176" s="58">
+      <c r="A176" s="57">
         <v>142</v>
       </c>
       <c r="B176" s="25" t="s">
@@ -9045,7 +9038,7 @@
       <c r="C176" s="17"/>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A177" s="58">
+      <c r="A177" s="57">
         <v>143</v>
       </c>
       <c r="B177" s="25" t="s">
@@ -9054,7 +9047,7 @@
       <c r="C177" s="17"/>
     </row>
     <row r="178" spans="1:3" ht="26" x14ac:dyDescent="0.35">
-      <c r="A178" s="58">
+      <c r="A178" s="57">
         <v>144</v>
       </c>
       <c r="B178" s="3" t="s">
@@ -9063,7 +9056,7 @@
       <c r="C178" s="17"/>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A179" s="58">
+      <c r="A179" s="57">
         <v>145</v>
       </c>
       <c r="B179" s="3" t="s">
@@ -9072,14 +9065,14 @@
       <c r="C179" s="17"/>
     </row>
     <row r="180" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A180" s="58"/>
-      <c r="B180" s="153" t="s">
+      <c r="A180" s="57"/>
+      <c r="B180" s="148" t="s">
         <v>363</v>
       </c>
-      <c r="C180" s="155"/>
+      <c r="C180" s="149"/>
     </row>
     <row r="181" spans="1:3" ht="26" x14ac:dyDescent="0.35">
-      <c r="A181" s="58">
+      <c r="A181" s="57">
         <v>146</v>
       </c>
       <c r="B181" s="3" t="s">
@@ -9088,7 +9081,7 @@
       <c r="C181" s="16"/>
     </row>
     <row r="182" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A182" s="58">
+      <c r="A182" s="57">
         <v>147</v>
       </c>
       <c r="B182" s="3" t="s">
@@ -9097,7 +9090,7 @@
       <c r="C182" s="16"/>
     </row>
     <row r="183" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A183" s="58">
+      <c r="A183" s="57">
         <v>148</v>
       </c>
       <c r="B183" s="3" t="s">
@@ -9106,7 +9099,7 @@
       <c r="C183" s="16"/>
     </row>
     <row r="184" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A184" s="58">
+      <c r="A184" s="57">
         <v>149</v>
       </c>
       <c r="B184" s="3" t="s">
@@ -9115,7 +9108,7 @@
       <c r="C184" s="16"/>
     </row>
     <row r="185" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A185" s="58">
+      <c r="A185" s="57">
         <v>150</v>
       </c>
       <c r="B185" s="3" t="s">
@@ -9124,7 +9117,7 @@
       <c r="C185" s="16"/>
     </row>
     <row r="186" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A186" s="58">
+      <c r="A186" s="57">
         <v>151</v>
       </c>
       <c r="B186" s="6" t="s">
@@ -9133,7 +9126,7 @@
       <c r="C186" s="16"/>
     </row>
     <row r="187" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A187" s="58">
+      <c r="A187" s="57">
         <v>152</v>
       </c>
       <c r="B187" s="6" t="s">
@@ -9142,7 +9135,7 @@
       <c r="C187" s="16"/>
     </row>
     <row r="188" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A188" s="58">
+      <c r="A188" s="57">
         <v>153</v>
       </c>
       <c r="B188" s="6" t="s">
@@ -9151,7 +9144,7 @@
       <c r="C188" s="16"/>
     </row>
     <row r="189" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A189" s="58">
+      <c r="A189" s="57">
         <v>154</v>
       </c>
       <c r="B189" s="6" t="s">
@@ -9160,7 +9153,7 @@
       <c r="C189" s="16"/>
     </row>
     <row r="190" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A190" s="58">
+      <c r="A190" s="57">
         <v>155</v>
       </c>
       <c r="B190" s="6" t="s">
@@ -9169,14 +9162,14 @@
       <c r="C190" s="16"/>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A191" s="58"/>
-      <c r="B191" s="156" t="s">
+      <c r="A191" s="57"/>
+      <c r="B191" s="155" t="s">
         <v>374</v>
       </c>
-      <c r="C191" s="157"/>
+      <c r="C191" s="156"/>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A192" s="58">
+      <c r="A192" s="57">
         <v>156</v>
       </c>
       <c r="B192" s="6" t="s">
@@ -9185,7 +9178,7 @@
       <c r="C192" s="17"/>
     </row>
     <row r="193" spans="1:3" ht="26" x14ac:dyDescent="0.35">
-      <c r="A193" s="58">
+      <c r="A193" s="57">
         <v>157</v>
       </c>
       <c r="B193" s="6" t="s">
@@ -9194,7 +9187,7 @@
       <c r="C193" s="17"/>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A194" s="58">
+      <c r="A194" s="57">
         <v>158</v>
       </c>
       <c r="B194" s="6" t="s">
@@ -9203,14 +9196,14 @@
       <c r="C194" s="17"/>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A195" s="59"/>
-      <c r="B195" s="158" t="s">
+      <c r="A195" s="58"/>
+      <c r="B195" s="157" t="s">
         <v>378</v>
       </c>
-      <c r="C195" s="159"/>
+      <c r="C195" s="158"/>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A196" s="58">
+      <c r="A196" s="57">
         <v>159</v>
       </c>
       <c r="B196" s="3" t="s">
@@ -9219,48 +9212,48 @@
       <c r="C196" s="17"/>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A197" s="58">
+      <c r="A197" s="57">
         <v>160</v>
       </c>
-      <c r="B197" s="55" t="s">
+      <c r="B197" s="54" t="s">
         <v>257</v>
       </c>
       <c r="C197" s="17"/>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A198" s="58">
+      <c r="A198" s="57">
         <v>161</v>
       </c>
-      <c r="B198" s="55" t="s">
+      <c r="B198" s="54" t="s">
         <v>258</v>
       </c>
-      <c r="C198" s="71"/>
+      <c r="C198" s="69"/>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A199" s="58">
+      <c r="A199" s="57">
         <v>162</v>
       </c>
-      <c r="B199" s="60" t="s">
+      <c r="B199" s="59" t="s">
         <v>380</v>
       </c>
-      <c r="C199" s="71"/>
+      <c r="C199" s="69"/>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A200" s="52"/>
-      <c r="B200" s="139" t="s">
+      <c r="A200" s="51"/>
+      <c r="B200" s="137" t="s">
         <v>259</v>
       </c>
-      <c r="C200" s="140"/>
+      <c r="C200" s="138"/>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A201" s="52"/>
-      <c r="B201" s="139" t="s">
+      <c r="A201" s="51"/>
+      <c r="B201" s="137" t="s">
         <v>260</v>
       </c>
-      <c r="C201" s="140"/>
+      <c r="C201" s="138"/>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A202" s="51">
+      <c r="A202" s="50">
         <v>163</v>
       </c>
       <c r="B202" s="3" t="s">
@@ -9269,7 +9262,7 @@
       <c r="C202" s="16"/>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A203" s="51">
+      <c r="A203" s="50">
         <v>164</v>
       </c>
       <c r="B203" s="3" t="s">
@@ -9278,7 +9271,7 @@
       <c r="C203" s="16"/>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A204" s="51">
+      <c r="A204" s="50">
         <v>165</v>
       </c>
       <c r="B204" s="3" t="s">
@@ -9287,7 +9280,7 @@
       <c r="C204" s="16"/>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A205" s="51">
+      <c r="A205" s="50">
         <v>166</v>
       </c>
       <c r="B205" s="3" t="s">
@@ -9296,7 +9289,7 @@
       <c r="C205" s="16"/>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A206" s="51">
+      <c r="A206" s="50">
         <v>167</v>
       </c>
       <c r="B206" s="3" t="s">
@@ -9305,7 +9298,7 @@
       <c r="C206" s="16"/>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A207" s="51">
+      <c r="A207" s="50">
         <v>168</v>
       </c>
       <c r="B207" s="3" t="s">
@@ -9314,7 +9307,7 @@
       <c r="C207" s="16"/>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A208" s="51">
+      <c r="A208" s="50">
         <v>169</v>
       </c>
       <c r="B208" s="3" t="s">
@@ -9323,7 +9316,7 @@
       <c r="C208" s="16"/>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A209" s="51">
+      <c r="A209" s="50">
         <v>170</v>
       </c>
       <c r="B209" s="3" t="s">
@@ -9332,7 +9325,7 @@
       <c r="C209" s="16"/>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A210" s="51">
+      <c r="A210" s="50">
         <v>171</v>
       </c>
       <c r="B210" s="3" t="s">
@@ -9341,14 +9334,14 @@
       <c r="C210" s="16"/>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A211" s="52"/>
-      <c r="B211" s="139" t="s">
+      <c r="A211" s="51"/>
+      <c r="B211" s="137" t="s">
         <v>269</v>
       </c>
-      <c r="C211" s="140"/>
+      <c r="C211" s="138"/>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A212" s="51">
+      <c r="A212" s="50">
         <v>172</v>
       </c>
       <c r="B212" s="3" t="s">
@@ -9357,7 +9350,7 @@
       <c r="C212" s="16"/>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A213" s="51">
+      <c r="A213" s="50">
         <v>173</v>
       </c>
       <c r="B213" s="3" t="s">
@@ -9366,7 +9359,7 @@
       <c r="C213" s="16"/>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A214" s="51">
+      <c r="A214" s="50">
         <v>174</v>
       </c>
       <c r="B214" s="3" t="s">
@@ -9375,7 +9368,7 @@
       <c r="C214" s="16"/>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A215" s="51">
+      <c r="A215" s="50">
         <v>175</v>
       </c>
       <c r="B215" s="3" t="s">
@@ -9384,7 +9377,7 @@
       <c r="C215" s="16"/>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A216" s="51">
+      <c r="A216" s="50">
         <v>176</v>
       </c>
       <c r="B216" s="3" t="s">
@@ -9393,7 +9386,7 @@
       <c r="C216" s="16"/>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A217" s="51">
+      <c r="A217" s="50">
         <v>177</v>
       </c>
       <c r="B217" s="3" t="s">
@@ -9402,7 +9395,7 @@
       <c r="C217" s="16"/>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A218" s="51">
+      <c r="A218" s="50">
         <v>178</v>
       </c>
       <c r="B218" s="3" t="s">
@@ -9411,7 +9404,7 @@
       <c r="C218" s="16"/>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A219" s="51">
+      <c r="A219" s="50">
         <v>179</v>
       </c>
       <c r="B219" s="3" t="s">
@@ -9420,23 +9413,28 @@
       <c r="C219" s="16"/>
     </row>
     <row r="220" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A220" s="53">
+      <c r="A220" s="52">
         <v>180</v>
       </c>
-      <c r="B220" s="54" t="s">
+      <c r="B220" s="53" t="s">
         <v>270</v>
       </c>
       <c r="C220" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B200:C200"/>
-    <mergeCell ref="B201:C201"/>
-    <mergeCell ref="B144:C144"/>
-    <mergeCell ref="B151:C151"/>
-    <mergeCell ref="B158:C158"/>
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="B166:C166"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
     <mergeCell ref="B211:C211"/>
     <mergeCell ref="B137:C137"/>
     <mergeCell ref="B71:C71"/>
@@ -9453,18 +9451,13 @@
     <mergeCell ref="B180:C180"/>
     <mergeCell ref="B191:C191"/>
     <mergeCell ref="B195:C195"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B200:C200"/>
+    <mergeCell ref="B201:C201"/>
+    <mergeCell ref="B144:C144"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="B166:C166"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="87" fitToHeight="100" orientation="portrait" r:id="rId1"/>

--- a/thermax_backend/templates/heating_design_basis_template.xlsx
+++ b/thermax_backend/templates/heating_design_basis_template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\abhishekraje30\frappe-bench\apps\thermax_backend\thermax_backend\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6078199B-D0A5-489C-B27E-E9D0067332C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783F90C8-F59E-4A52-A975-A614DE092C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1996,6 +1996,57 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -2032,56 +2083,47 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2089,21 +2131,54 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2113,81 +2188,6 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2221,41 +2221,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3400,50 +3400,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="116.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="85"/>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="87"/>
+      <c r="A1" s="73"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="75"/>
     </row>
     <row r="2" spans="1:8" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="90"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="78"/>
     </row>
     <row r="3" spans="1:8" ht="23.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="93"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="81"/>
     </row>
     <row r="4" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="96"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="84"/>
     </row>
     <row r="5" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="30"/>
@@ -3457,78 +3457,78 @@
     </row>
     <row r="6" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30"/>
-      <c r="B6" s="97" t="s">
+      <c r="B6" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="98"/>
-      <c r="D6" s="99" t="s">
+      <c r="C6" s="86"/>
+      <c r="D6" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="101"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="89"/>
       <c r="H6" s="31"/>
     </row>
     <row r="7" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="30"/>
-      <c r="B7" s="83" t="s">
+      <c r="B7" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="84"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="77"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="94"/>
       <c r="H7" s="31"/>
     </row>
     <row r="8" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="30"/>
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="74"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="77"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="94"/>
       <c r="H8" s="31"/>
     </row>
     <row r="9" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="30"/>
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="74"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="77"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="94"/>
       <c r="H9" s="31"/>
     </row>
     <row r="10" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30"/>
-      <c r="B10" s="73" t="s">
+      <c r="B10" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="74"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="77"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="94"/>
       <c r="H10" s="31"/>
     </row>
     <row r="11" spans="1:8" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="30"/>
-      <c r="B11" s="78" t="s">
+      <c r="B11" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="79"/>
-      <c r="D11" s="80" t="s">
+      <c r="C11" s="96"/>
+      <c r="D11" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="82"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="99"/>
       <c r="H11" s="31"/>
     </row>
     <row r="12" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3792,12 +3792,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:G6"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:G10"/>
     <mergeCell ref="B11:C11"/>
@@ -3808,6 +3802,12 @@
     <mergeCell ref="D8:G8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:G9"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:G6"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="74" fitToHeight="100" orientation="portrait" r:id="rId1"/>
@@ -3833,26 +3833,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="133"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="108"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="134"/>
-      <c r="B2" s="135"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="136"/>
+      <c r="A2" s="109"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="111"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
-      <c r="B3" s="104" t="s">
+      <c r="B3" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="105"/>
-      <c r="D3" s="106"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="114"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
@@ -3861,8 +3861,8 @@
       <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="128"/>
-      <c r="D4" s="129"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="105"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
@@ -3871,8 +3871,8 @@
       <c r="B5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="128"/>
-      <c r="D5" s="129"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="105"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
@@ -3881,8 +3881,8 @@
       <c r="B6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="128"/>
-      <c r="D6" s="129"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="105"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
@@ -3891,8 +3891,8 @@
       <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="128"/>
-      <c r="D7" s="129"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="105"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
@@ -3901,8 +3901,8 @@
       <c r="B8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="126"/>
-      <c r="D8" s="127"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="103"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
@@ -3911,8 +3911,8 @@
       <c r="B9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="128"/>
-      <c r="D9" s="129"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="105"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
@@ -3921,8 +3921,8 @@
       <c r="B10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="126"/>
-      <c r="D10" s="127"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="103"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
@@ -3931,8 +3931,8 @@
       <c r="B11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="126"/>
-      <c r="D11" s="127"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="103"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
@@ -3941,8 +3941,8 @@
       <c r="B12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="126"/>
-      <c r="D12" s="127"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="103"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
@@ -3951,8 +3951,8 @@
       <c r="B13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="126"/>
-      <c r="D13" s="127"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="103"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
@@ -3961,8 +3961,8 @@
       <c r="B14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="130"/>
-      <c r="D14" s="127"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="103"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
@@ -3971,8 +3971,8 @@
       <c r="B15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="130"/>
-      <c r="D15" s="127"/>
+      <c r="C15" s="115"/>
+      <c r="D15" s="103"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
@@ -3981,8 +3981,8 @@
       <c r="B16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="130"/>
-      <c r="D16" s="127"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="103"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
@@ -3991,8 +3991,8 @@
       <c r="B17" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="130"/>
-      <c r="D17" s="127"/>
+      <c r="C17" s="115"/>
+      <c r="D17" s="103"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
@@ -4001,16 +4001,16 @@
       <c r="B18" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="126"/>
-      <c r="D18" s="127"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="103"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
-      <c r="B19" s="104" t="s">
+      <c r="B19" s="112" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="105"/>
-      <c r="D19" s="106"/>
+      <c r="C19" s="113"/>
+      <c r="D19" s="114"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
@@ -4019,8 +4019,8 @@
       <c r="B20" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="126"/>
-      <c r="D20" s="127"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="103"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
@@ -4029,8 +4029,8 @@
       <c r="B21" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="128"/>
-      <c r="D21" s="129"/>
+      <c r="C21" s="104"/>
+      <c r="D21" s="105"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
@@ -4039,8 +4039,8 @@
       <c r="B22" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="126"/>
-      <c r="D22" s="127"/>
+      <c r="C22" s="102"/>
+      <c r="D22" s="103"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
@@ -4049,8 +4049,8 @@
       <c r="B23" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="126"/>
-      <c r="D23" s="127"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="103"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
@@ -4059,16 +4059,16 @@
       <c r="B24" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="128"/>
-      <c r="D24" s="129"/>
+      <c r="C24" s="104"/>
+      <c r="D24" s="105"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
-      <c r="B25" s="104" t="s">
+      <c r="B25" s="112" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="105"/>
-      <c r="D25" s="106"/>
+      <c r="C25" s="113"/>
+      <c r="D25" s="114"/>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="28"/>
@@ -4293,19 +4293,19 @@
     </row>
     <row r="48" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
-      <c r="B48" s="104" t="s">
+      <c r="B48" s="112" t="s">
         <v>64</v>
       </c>
-      <c r="C48" s="105"/>
-      <c r="D48" s="106"/>
+      <c r="C48" s="113"/>
+      <c r="D48" s="114"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
-      <c r="B49" s="104" t="s">
+      <c r="B49" s="112" t="s">
         <v>65</v>
       </c>
-      <c r="C49" s="105"/>
-      <c r="D49" s="106"/>
+      <c r="C49" s="113"/>
+      <c r="D49" s="114"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
@@ -4314,8 +4314,8 @@
       <c r="B50" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="C50" s="102"/>
-      <c r="D50" s="103"/>
+      <c r="C50" s="116"/>
+      <c r="D50" s="117"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
@@ -4324,8 +4324,8 @@
       <c r="B51" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="C51" s="102"/>
-      <c r="D51" s="103"/>
+      <c r="C51" s="116"/>
+      <c r="D51" s="117"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
@@ -4334,8 +4334,8 @@
       <c r="B52" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="C52" s="102"/>
-      <c r="D52" s="103"/>
+      <c r="C52" s="116"/>
+      <c r="D52" s="117"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
@@ -4344,8 +4344,8 @@
       <c r="B53" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="C53" s="102"/>
-      <c r="D53" s="103"/>
+      <c r="C53" s="116"/>
+      <c r="D53" s="117"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
@@ -4354,8 +4354,8 @@
       <c r="B54" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="C54" s="102"/>
-      <c r="D54" s="103"/>
+      <c r="C54" s="116"/>
+      <c r="D54" s="117"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
@@ -4364,8 +4364,8 @@
       <c r="B55" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="C55" s="102"/>
-      <c r="D55" s="103"/>
+      <c r="C55" s="116"/>
+      <c r="D55" s="117"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
@@ -4374,24 +4374,24 @@
       <c r="B56" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="C56" s="102"/>
-      <c r="D56" s="103"/>
+      <c r="C56" s="116"/>
+      <c r="D56" s="117"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
-      <c r="B57" s="104" t="s">
+      <c r="B57" s="112" t="s">
         <v>73</v>
       </c>
-      <c r="C57" s="105"/>
-      <c r="D57" s="106"/>
+      <c r="C57" s="113"/>
+      <c r="D57" s="114"/>
     </row>
     <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
-      <c r="B58" s="104" t="s">
+      <c r="B58" s="112" t="s">
         <v>74</v>
       </c>
-      <c r="C58" s="105"/>
-      <c r="D58" s="106"/>
+      <c r="C58" s="113"/>
+      <c r="D58" s="114"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
@@ -4400,16 +4400,16 @@
       <c r="B59" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="C59" s="102"/>
-      <c r="D59" s="103"/>
+      <c r="C59" s="116"/>
+      <c r="D59" s="117"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="1"/>
-      <c r="B60" s="104" t="s">
+      <c r="B60" s="112" t="s">
         <v>76</v>
       </c>
-      <c r="C60" s="105"/>
-      <c r="D60" s="106"/>
+      <c r="C60" s="113"/>
+      <c r="D60" s="114"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
@@ -4418,8 +4418,8 @@
       <c r="B61" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C61" s="112"/>
-      <c r="D61" s="108"/>
+      <c r="C61" s="118"/>
+      <c r="D61" s="119"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
@@ -4428,8 +4428,8 @@
       <c r="B62" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C62" s="112"/>
-      <c r="D62" s="108"/>
+      <c r="C62" s="118"/>
+      <c r="D62" s="119"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
@@ -4438,8 +4438,8 @@
       <c r="B63" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C63" s="112"/>
-      <c r="D63" s="108"/>
+      <c r="C63" s="118"/>
+      <c r="D63" s="119"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
@@ -4448,8 +4448,8 @@
       <c r="B64" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C64" s="112"/>
-      <c r="D64" s="108"/>
+      <c r="C64" s="118"/>
+      <c r="D64" s="119"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
@@ -4458,8 +4458,8 @@
       <c r="B65" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C65" s="112"/>
-      <c r="D65" s="108"/>
+      <c r="C65" s="118"/>
+      <c r="D65" s="119"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
@@ -4468,16 +4468,16 @@
       <c r="B66" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C66" s="112"/>
-      <c r="D66" s="108"/>
+      <c r="C66" s="118"/>
+      <c r="D66" s="119"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="1"/>
-      <c r="B67" s="104" t="s">
+      <c r="B67" s="112" t="s">
         <v>83</v>
       </c>
-      <c r="C67" s="105"/>
-      <c r="D67" s="106"/>
+      <c r="C67" s="113"/>
+      <c r="D67" s="114"/>
     </row>
     <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="12">
@@ -4486,16 +4486,16 @@
       <c r="B68" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="C68" s="102"/>
-      <c r="D68" s="103"/>
+      <c r="C68" s="116"/>
+      <c r="D68" s="117"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="1"/>
-      <c r="B69" s="104" t="s">
+      <c r="B69" s="112" t="s">
         <v>85</v>
       </c>
-      <c r="C69" s="105"/>
-      <c r="D69" s="106"/>
+      <c r="C69" s="113"/>
+      <c r="D69" s="114"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
@@ -4504,8 +4504,8 @@
       <c r="B70" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="C70" s="102"/>
-      <c r="D70" s="103"/>
+      <c r="C70" s="116"/>
+      <c r="D70" s="117"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
@@ -4514,8 +4514,8 @@
       <c r="B71" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="C71" s="102"/>
-      <c r="D71" s="103"/>
+      <c r="C71" s="116"/>
+      <c r="D71" s="117"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
@@ -4524,8 +4524,8 @@
       <c r="B72" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="C72" s="102"/>
-      <c r="D72" s="103"/>
+      <c r="C72" s="116"/>
+      <c r="D72" s="117"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
@@ -4534,8 +4534,8 @@
       <c r="B73" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="C73" s="102"/>
-      <c r="D73" s="103"/>
+      <c r="C73" s="116"/>
+      <c r="D73" s="117"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
@@ -4544,16 +4544,16 @@
       <c r="B74" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="C74" s="102"/>
-      <c r="D74" s="103"/>
+      <c r="C74" s="116"/>
+      <c r="D74" s="117"/>
     </row>
     <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1"/>
-      <c r="B75" s="124" t="s">
+      <c r="B75" s="120" t="s">
         <v>91</v>
       </c>
-      <c r="C75" s="124"/>
-      <c r="D75" s="125"/>
+      <c r="C75" s="120"/>
+      <c r="D75" s="121"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
@@ -4562,8 +4562,8 @@
       <c r="B76" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="C76" s="102"/>
-      <c r="D76" s="103"/>
+      <c r="C76" s="116"/>
+      <c r="D76" s="117"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
@@ -4572,8 +4572,8 @@
       <c r="B77" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="C77" s="102"/>
-      <c r="D77" s="103"/>
+      <c r="C77" s="116"/>
+      <c r="D77" s="117"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
@@ -4582,8 +4582,8 @@
       <c r="B78" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="C78" s="102"/>
-      <c r="D78" s="103"/>
+      <c r="C78" s="116"/>
+      <c r="D78" s="117"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
@@ -4592,8 +4592,8 @@
       <c r="B79" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="C79" s="102"/>
-      <c r="D79" s="103"/>
+      <c r="C79" s="116"/>
+      <c r="D79" s="117"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
@@ -4602,16 +4602,16 @@
       <c r="B80" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="C80" s="102"/>
-      <c r="D80" s="103"/>
+      <c r="C80" s="116"/>
+      <c r="D80" s="117"/>
     </row>
     <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1"/>
-      <c r="B81" s="124" t="s">
+      <c r="B81" s="120" t="s">
         <v>93</v>
       </c>
-      <c r="C81" s="124"/>
-      <c r="D81" s="125"/>
+      <c r="C81" s="120"/>
+      <c r="D81" s="121"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
@@ -4620,8 +4620,8 @@
       <c r="B82" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="C82" s="102"/>
-      <c r="D82" s="103"/>
+      <c r="C82" s="116"/>
+      <c r="D82" s="117"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
@@ -4630,8 +4630,8 @@
       <c r="B83" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="C83" s="102"/>
-      <c r="D83" s="103"/>
+      <c r="C83" s="116"/>
+      <c r="D83" s="117"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
@@ -4640,8 +4640,8 @@
       <c r="B84" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="C84" s="102"/>
-      <c r="D84" s="103"/>
+      <c r="C84" s="116"/>
+      <c r="D84" s="117"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
@@ -4650,8 +4650,8 @@
       <c r="B85" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="C85" s="102"/>
-      <c r="D85" s="103"/>
+      <c r="C85" s="116"/>
+      <c r="D85" s="117"/>
     </row>
     <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
@@ -4660,8 +4660,8 @@
       <c r="B86" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="C86" s="102"/>
-      <c r="D86" s="103"/>
+      <c r="C86" s="116"/>
+      <c r="D86" s="117"/>
     </row>
     <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
@@ -4670,8 +4670,8 @@
       <c r="B87" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C87" s="102"/>
-      <c r="D87" s="103"/>
+      <c r="C87" s="116"/>
+      <c r="D87" s="117"/>
     </row>
     <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
@@ -4680,8 +4680,8 @@
       <c r="B88" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="C88" s="102"/>
-      <c r="D88" s="103"/>
+      <c r="C88" s="116"/>
+      <c r="D88" s="117"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
@@ -4690,16 +4690,16 @@
       <c r="B89" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="C89" s="102"/>
-      <c r="D89" s="103"/>
+      <c r="C89" s="116"/>
+      <c r="D89" s="117"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="1"/>
-      <c r="B90" s="104" t="s">
+      <c r="B90" s="112" t="s">
         <v>98</v>
       </c>
-      <c r="C90" s="105"/>
-      <c r="D90" s="106"/>
+      <c r="C90" s="113"/>
+      <c r="D90" s="114"/>
     </row>
     <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
@@ -4708,8 +4708,8 @@
       <c r="B91" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="C91" s="102"/>
-      <c r="D91" s="103"/>
+      <c r="C91" s="116"/>
+      <c r="D91" s="117"/>
     </row>
     <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
@@ -4718,8 +4718,8 @@
       <c r="B92" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="C92" s="102"/>
-      <c r="D92" s="103"/>
+      <c r="C92" s="116"/>
+      <c r="D92" s="117"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
@@ -4728,8 +4728,8 @@
       <c r="B93" s="64" t="s">
         <v>101</v>
       </c>
-      <c r="C93" s="102"/>
-      <c r="D93" s="103"/>
+      <c r="C93" s="116"/>
+      <c r="D93" s="117"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
@@ -4738,16 +4738,16 @@
       <c r="B94" s="64" t="s">
         <v>102</v>
       </c>
-      <c r="C94" s="102"/>
-      <c r="D94" s="103"/>
+      <c r="C94" s="116"/>
+      <c r="D94" s="117"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="1"/>
-      <c r="B95" s="104" t="s">
+      <c r="B95" s="112" t="s">
         <v>103</v>
       </c>
-      <c r="C95" s="105"/>
-      <c r="D95" s="106"/>
+      <c r="C95" s="113"/>
+      <c r="D95" s="114"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
@@ -4756,8 +4756,8 @@
       <c r="B96" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="C96" s="102"/>
-      <c r="D96" s="103"/>
+      <c r="C96" s="116"/>
+      <c r="D96" s="117"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
@@ -4766,8 +4766,8 @@
       <c r="B97" s="64" t="s">
         <v>105</v>
       </c>
-      <c r="C97" s="112"/>
-      <c r="D97" s="108"/>
+      <c r="C97" s="118"/>
+      <c r="D97" s="119"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
@@ -4776,8 +4776,8 @@
       <c r="B98" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C98" s="102"/>
-      <c r="D98" s="103"/>
+      <c r="C98" s="116"/>
+      <c r="D98" s="117"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
@@ -4786,8 +4786,8 @@
       <c r="B99" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="C99" s="102"/>
-      <c r="D99" s="103"/>
+      <c r="C99" s="116"/>
+      <c r="D99" s="117"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
@@ -4796,16 +4796,16 @@
       <c r="B100" s="64" t="s">
         <v>108</v>
       </c>
-      <c r="C100" s="102"/>
-      <c r="D100" s="103"/>
+      <c r="C100" s="116"/>
+      <c r="D100" s="117"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="1"/>
-      <c r="B101" s="104" t="s">
+      <c r="B101" s="112" t="s">
         <v>109</v>
       </c>
-      <c r="C101" s="105"/>
-      <c r="D101" s="106"/>
+      <c r="C101" s="113"/>
+      <c r="D101" s="114"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
@@ -4814,8 +4814,8 @@
       <c r="B102" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="C102" s="112"/>
-      <c r="D102" s="108"/>
+      <c r="C102" s="118"/>
+      <c r="D102" s="119"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
@@ -4824,8 +4824,8 @@
       <c r="B103" s="64" t="s">
         <v>111</v>
       </c>
-      <c r="C103" s="112"/>
-      <c r="D103" s="108"/>
+      <c r="C103" s="118"/>
+      <c r="D103" s="119"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
@@ -4834,8 +4834,8 @@
       <c r="B104" s="64" t="s">
         <v>112</v>
       </c>
-      <c r="C104" s="112"/>
-      <c r="D104" s="108"/>
+      <c r="C104" s="118"/>
+      <c r="D104" s="119"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
@@ -4844,16 +4844,16 @@
       <c r="B105" s="64" t="s">
         <v>113</v>
       </c>
-      <c r="C105" s="112"/>
-      <c r="D105" s="108"/>
+      <c r="C105" s="118"/>
+      <c r="D105" s="119"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" s="1"/>
-      <c r="B106" s="104" t="s">
+      <c r="B106" s="112" t="s">
         <v>114</v>
       </c>
-      <c r="C106" s="105"/>
-      <c r="D106" s="106"/>
+      <c r="C106" s="113"/>
+      <c r="D106" s="114"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
@@ -4862,16 +4862,16 @@
       <c r="B107" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="C107" s="102"/>
-      <c r="D107" s="103"/>
+      <c r="C107" s="116"/>
+      <c r="D107" s="117"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" s="1"/>
-      <c r="B108" s="104" t="s">
+      <c r="B108" s="112" t="s">
         <v>116</v>
       </c>
-      <c r="C108" s="105"/>
-      <c r="D108" s="106"/>
+      <c r="C108" s="113"/>
+      <c r="D108" s="114"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
@@ -4880,8 +4880,8 @@
       <c r="B109" s="64" t="s">
         <v>117</v>
       </c>
-      <c r="C109" s="102"/>
-      <c r="D109" s="103"/>
+      <c r="C109" s="116"/>
+      <c r="D109" s="117"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
@@ -4890,8 +4890,8 @@
       <c r="B110" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="C110" s="102"/>
-      <c r="D110" s="103"/>
+      <c r="C110" s="116"/>
+      <c r="D110" s="117"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
@@ -4900,8 +4900,8 @@
       <c r="B111" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="C111" s="102"/>
-      <c r="D111" s="103"/>
+      <c r="C111" s="116"/>
+      <c r="D111" s="117"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
@@ -4910,8 +4910,8 @@
       <c r="B112" s="64" t="s">
         <v>120</v>
       </c>
-      <c r="C112" s="102"/>
-      <c r="D112" s="103"/>
+      <c r="C112" s="116"/>
+      <c r="D112" s="117"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
@@ -4920,8 +4920,8 @@
       <c r="B113" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="C113" s="102"/>
-      <c r="D113" s="103"/>
+      <c r="C113" s="116"/>
+      <c r="D113" s="117"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
@@ -4930,8 +4930,8 @@
       <c r="B114" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="C114" s="102"/>
-      <c r="D114" s="103"/>
+      <c r="C114" s="116"/>
+      <c r="D114" s="117"/>
     </row>
     <row r="115" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
@@ -4940,8 +4940,8 @@
       <c r="B115" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="C115" s="102"/>
-      <c r="D115" s="103"/>
+      <c r="C115" s="116"/>
+      <c r="D115" s="117"/>
     </row>
     <row r="116" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
@@ -4950,8 +4950,8 @@
       <c r="B116" s="64" t="s">
         <v>124</v>
       </c>
-      <c r="C116" s="102"/>
-      <c r="D116" s="103"/>
+      <c r="C116" s="116"/>
+      <c r="D116" s="117"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
@@ -4960,8 +4960,8 @@
       <c r="B117" s="64" t="s">
         <v>125</v>
       </c>
-      <c r="C117" s="102"/>
-      <c r="D117" s="103"/>
+      <c r="C117" s="116"/>
+      <c r="D117" s="117"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
@@ -4970,8 +4970,8 @@
       <c r="B118" s="64" t="s">
         <v>126</v>
       </c>
-      <c r="C118" s="102"/>
-      <c r="D118" s="103"/>
+      <c r="C118" s="116"/>
+      <c r="D118" s="117"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
@@ -4980,8 +4980,8 @@
       <c r="B119" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="C119" s="112"/>
-      <c r="D119" s="108"/>
+      <c r="C119" s="118"/>
+      <c r="D119" s="119"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
@@ -4990,8 +4990,8 @@
       <c r="B120" s="64" t="s">
         <v>128</v>
       </c>
-      <c r="C120" s="112"/>
-      <c r="D120" s="108"/>
+      <c r="C120" s="118"/>
+      <c r="D120" s="119"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
@@ -5000,8 +5000,8 @@
       <c r="B121" s="64" t="s">
         <v>129</v>
       </c>
-      <c r="C121" s="112"/>
-      <c r="D121" s="108"/>
+      <c r="C121" s="118"/>
+      <c r="D121" s="119"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
@@ -5010,8 +5010,8 @@
       <c r="B122" s="64" t="s">
         <v>130</v>
       </c>
-      <c r="C122" s="112"/>
-      <c r="D122" s="108"/>
+      <c r="C122" s="118"/>
+      <c r="D122" s="119"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
@@ -5020,8 +5020,8 @@
       <c r="B123" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="C123" s="102"/>
-      <c r="D123" s="103"/>
+      <c r="C123" s="116"/>
+      <c r="D123" s="117"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
@@ -5030,8 +5030,8 @@
       <c r="B124" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="C124" s="102"/>
-      <c r="D124" s="103"/>
+      <c r="C124" s="116"/>
+      <c r="D124" s="117"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
@@ -5040,12 +5040,12 @@
       <c r="B125" s="64" t="s">
         <v>133</v>
       </c>
-      <c r="C125" s="102"/>
-      <c r="D125" s="103"/>
+      <c r="C125" s="116"/>
+      <c r="D125" s="117"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" s="9"/>
-      <c r="B126" s="104" t="s">
+      <c r="B126" s="112" t="s">
         <v>134</v>
       </c>
       <c r="C126" s="122"/>
@@ -5058,8 +5058,8 @@
       <c r="B127" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="C127" s="102"/>
-      <c r="D127" s="103"/>
+      <c r="C127" s="116"/>
+      <c r="D127" s="117"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" s="9">
@@ -5068,8 +5068,8 @@
       <c r="B128" s="64" t="s">
         <v>136</v>
       </c>
-      <c r="C128" s="102"/>
-      <c r="D128" s="103"/>
+      <c r="C128" s="116"/>
+      <c r="D128" s="117"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" s="9">
@@ -5078,8 +5078,8 @@
       <c r="B129" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="C129" s="102"/>
-      <c r="D129" s="103"/>
+      <c r="C129" s="116"/>
+      <c r="D129" s="117"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" s="9">
@@ -5088,16 +5088,16 @@
       <c r="B130" s="64" t="s">
         <v>138</v>
       </c>
-      <c r="C130" s="112"/>
-      <c r="D130" s="108"/>
+      <c r="C130" s="118"/>
+      <c r="D130" s="119"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" s="1"/>
-      <c r="B131" s="104" t="s">
+      <c r="B131" s="112" t="s">
         <v>139</v>
       </c>
-      <c r="C131" s="105"/>
-      <c r="D131" s="106"/>
+      <c r="C131" s="113"/>
+      <c r="D131" s="114"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
@@ -5106,8 +5106,8 @@
       <c r="B132" s="64" t="s">
         <v>140</v>
       </c>
-      <c r="C132" s="102"/>
-      <c r="D132" s="103"/>
+      <c r="C132" s="116"/>
+      <c r="D132" s="117"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
@@ -5116,8 +5116,8 @@
       <c r="B133" s="60" t="s">
         <v>141</v>
       </c>
-      <c r="C133" s="102"/>
-      <c r="D133" s="103"/>
+      <c r="C133" s="116"/>
+      <c r="D133" s="117"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
@@ -5126,8 +5126,8 @@
       <c r="B134" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="C134" s="112"/>
-      <c r="D134" s="108"/>
+      <c r="C134" s="118"/>
+      <c r="D134" s="119"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
@@ -5136,8 +5136,8 @@
       <c r="B135" s="60" t="s">
         <v>143</v>
       </c>
-      <c r="C135" s="102"/>
-      <c r="D135" s="103"/>
+      <c r="C135" s="116"/>
+      <c r="D135" s="117"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
@@ -5146,8 +5146,8 @@
       <c r="B136" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="C136" s="102"/>
-      <c r="D136" s="103"/>
+      <c r="C136" s="116"/>
+      <c r="D136" s="117"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
@@ -5156,8 +5156,8 @@
       <c r="B137" s="60" t="s">
         <v>145</v>
       </c>
-      <c r="C137" s="112"/>
-      <c r="D137" s="108"/>
+      <c r="C137" s="118"/>
+      <c r="D137" s="119"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
@@ -5166,8 +5166,8 @@
       <c r="B138" s="60" t="s">
         <v>146</v>
       </c>
-      <c r="C138" s="102"/>
-      <c r="D138" s="103"/>
+      <c r="C138" s="116"/>
+      <c r="D138" s="117"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
@@ -5176,8 +5176,8 @@
       <c r="B139" s="60" t="s">
         <v>147</v>
       </c>
-      <c r="C139" s="102"/>
-      <c r="D139" s="103"/>
+      <c r="C139" s="116"/>
+      <c r="D139" s="117"/>
     </row>
     <row r="140" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
@@ -5186,8 +5186,8 @@
       <c r="B140" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="C140" s="112"/>
-      <c r="D140" s="108"/>
+      <c r="C140" s="118"/>
+      <c r="D140" s="119"/>
     </row>
     <row r="141" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
@@ -5196,8 +5196,8 @@
       <c r="B141" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="C141" s="112"/>
-      <c r="D141" s="108"/>
+      <c r="C141" s="118"/>
+      <c r="D141" s="119"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
@@ -5206,8 +5206,8 @@
       <c r="B142" s="60" t="s">
         <v>150</v>
       </c>
-      <c r="C142" s="102"/>
-      <c r="D142" s="103"/>
+      <c r="C142" s="116"/>
+      <c r="D142" s="117"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
@@ -5216,16 +5216,16 @@
       <c r="B143" s="60" t="s">
         <v>151</v>
       </c>
-      <c r="C143" s="107"/>
-      <c r="D143" s="108"/>
+      <c r="C143" s="133"/>
+      <c r="D143" s="119"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" s="1"/>
-      <c r="B144" s="104" t="s">
+      <c r="B144" s="112" t="s">
         <v>152</v>
       </c>
-      <c r="C144" s="105"/>
-      <c r="D144" s="106"/>
+      <c r="C144" s="113"/>
+      <c r="D144" s="114"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
@@ -5234,16 +5234,16 @@
       <c r="B145" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="C145" s="120"/>
-      <c r="D145" s="121"/>
+      <c r="C145" s="126"/>
+      <c r="D145" s="127"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" s="1"/>
-      <c r="B146" s="104" t="s">
+      <c r="B146" s="112" t="s">
         <v>154</v>
       </c>
-      <c r="C146" s="105"/>
-      <c r="D146" s="106"/>
+      <c r="C146" s="113"/>
+      <c r="D146" s="114"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
@@ -5252,8 +5252,8 @@
       <c r="B147" s="64" t="s">
         <v>155</v>
       </c>
-      <c r="C147" s="102"/>
-      <c r="D147" s="103"/>
+      <c r="C147" s="116"/>
+      <c r="D147" s="117"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
@@ -5262,8 +5262,8 @@
       <c r="B148" s="64" t="s">
         <v>156</v>
       </c>
-      <c r="C148" s="102"/>
-      <c r="D148" s="103"/>
+      <c r="C148" s="116"/>
+      <c r="D148" s="117"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
@@ -5272,16 +5272,16 @@
       <c r="B149" s="64" t="s">
         <v>157</v>
       </c>
-      <c r="C149" s="102"/>
-      <c r="D149" s="103"/>
+      <c r="C149" s="116"/>
+      <c r="D149" s="117"/>
     </row>
     <row r="150" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="1"/>
-      <c r="B150" s="104" t="s">
+      <c r="B150" s="112" t="s">
         <v>158</v>
       </c>
-      <c r="C150" s="105"/>
-      <c r="D150" s="106"/>
+      <c r="C150" s="113"/>
+      <c r="D150" s="114"/>
     </row>
     <row r="151" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="1"/>
@@ -5367,11 +5367,11 @@
     </row>
     <row r="159" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="1"/>
-      <c r="B159" s="104" t="s">
+      <c r="B159" s="112" t="s">
         <v>167</v>
       </c>
-      <c r="C159" s="105"/>
-      <c r="D159" s="106"/>
+      <c r="C159" s="113"/>
+      <c r="D159" s="114"/>
     </row>
     <row r="160" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
@@ -5380,8 +5380,8 @@
       <c r="B160" s="64" t="s">
         <v>140</v>
       </c>
-      <c r="C160" s="113"/>
-      <c r="D160" s="114"/>
+      <c r="C160" s="124"/>
+      <c r="D160" s="125"/>
     </row>
     <row r="161" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
@@ -5390,8 +5390,8 @@
       <c r="B161" s="64" t="s">
         <v>143</v>
       </c>
-      <c r="C161" s="113"/>
-      <c r="D161" s="114"/>
+      <c r="C161" s="124"/>
+      <c r="D161" s="125"/>
     </row>
     <row r="162" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
@@ -5400,8 +5400,8 @@
       <c r="B162" s="64" t="s">
         <v>144</v>
       </c>
-      <c r="C162" s="113"/>
-      <c r="D162" s="114"/>
+      <c r="C162" s="124"/>
+      <c r="D162" s="125"/>
     </row>
     <row r="163" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
@@ -5410,8 +5410,8 @@
       <c r="B163" s="64" t="s">
         <v>168</v>
       </c>
-      <c r="C163" s="113"/>
-      <c r="D163" s="114"/>
+      <c r="C163" s="124"/>
+      <c r="D163" s="125"/>
     </row>
     <row r="164" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
@@ -5420,8 +5420,8 @@
       <c r="B164" s="64" t="s">
         <v>146</v>
       </c>
-      <c r="C164" s="113"/>
-      <c r="D164" s="114"/>
+      <c r="C164" s="124"/>
+      <c r="D164" s="125"/>
     </row>
     <row r="165" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
@@ -5430,8 +5430,8 @@
       <c r="B165" s="64" t="s">
         <v>147</v>
       </c>
-      <c r="C165" s="113"/>
-      <c r="D165" s="114"/>
+      <c r="C165" s="124"/>
+      <c r="D165" s="125"/>
     </row>
     <row r="166" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
@@ -5440,8 +5440,8 @@
       <c r="B166" s="64" t="s">
         <v>169</v>
       </c>
-      <c r="C166" s="113"/>
-      <c r="D166" s="114"/>
+      <c r="C166" s="124"/>
+      <c r="D166" s="125"/>
     </row>
     <row r="167" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
@@ -5450,8 +5450,8 @@
       <c r="B167" s="64" t="s">
         <v>170</v>
       </c>
-      <c r="C167" s="113"/>
-      <c r="D167" s="114"/>
+      <c r="C167" s="124"/>
+      <c r="D167" s="125"/>
     </row>
     <row r="168" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="1"/>
@@ -5537,11 +5537,11 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" s="1"/>
-      <c r="B176" s="104" t="s">
+      <c r="B176" s="112" t="s">
         <v>172</v>
       </c>
-      <c r="C176" s="105"/>
-      <c r="D176" s="106"/>
+      <c r="C176" s="113"/>
+      <c r="D176" s="114"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
@@ -5550,8 +5550,8 @@
       <c r="B177" s="64" t="s">
         <v>173</v>
       </c>
-      <c r="C177" s="102"/>
-      <c r="D177" s="103"/>
+      <c r="C177" s="116"/>
+      <c r="D177" s="117"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
@@ -5560,8 +5560,8 @@
       <c r="B178" s="64" t="s">
         <v>174</v>
       </c>
-      <c r="C178" s="102"/>
-      <c r="D178" s="103"/>
+      <c r="C178" s="116"/>
+      <c r="D178" s="117"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
@@ -5570,16 +5570,16 @@
       <c r="B179" s="64" t="s">
         <v>175</v>
       </c>
-      <c r="C179" s="112"/>
-      <c r="D179" s="108"/>
+      <c r="C179" s="118"/>
+      <c r="D179" s="119"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180" s="1"/>
-      <c r="B180" s="104" t="s">
+      <c r="B180" s="112" t="s">
         <v>176</v>
       </c>
-      <c r="C180" s="105"/>
-      <c r="D180" s="106"/>
+      <c r="C180" s="113"/>
+      <c r="D180" s="114"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
@@ -5588,8 +5588,8 @@
       <c r="B181" s="64" t="s">
         <v>177</v>
       </c>
-      <c r="C181" s="113"/>
-      <c r="D181" s="114"/>
+      <c r="C181" s="124"/>
+      <c r="D181" s="125"/>
     </row>
     <row r="182" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
@@ -5598,16 +5598,16 @@
       <c r="B182" s="64" t="s">
         <v>178</v>
       </c>
-      <c r="C182" s="102"/>
-      <c r="D182" s="103"/>
+      <c r="C182" s="116"/>
+      <c r="D182" s="117"/>
     </row>
     <row r="183" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="12"/>
-      <c r="B183" s="104" t="s">
+      <c r="B183" s="112" t="s">
         <v>179</v>
       </c>
-      <c r="C183" s="105"/>
-      <c r="D183" s="106"/>
+      <c r="C183" s="113"/>
+      <c r="D183" s="114"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
@@ -5616,8 +5616,8 @@
       <c r="B184" s="64" t="s">
         <v>180</v>
       </c>
-      <c r="C184" s="102"/>
-      <c r="D184" s="103"/>
+      <c r="C184" s="116"/>
+      <c r="D184" s="117"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
@@ -5626,8 +5626,8 @@
       <c r="B185" s="64" t="s">
         <v>181</v>
       </c>
-      <c r="C185" s="102"/>
-      <c r="D185" s="103"/>
+      <c r="C185" s="116"/>
+      <c r="D185" s="117"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
@@ -5636,8 +5636,8 @@
       <c r="B186" s="64" t="s">
         <v>182</v>
       </c>
-      <c r="C186" s="102"/>
-      <c r="D186" s="103"/>
+      <c r="C186" s="116"/>
+      <c r="D186" s="117"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
@@ -5646,8 +5646,8 @@
       <c r="B187" s="64" t="s">
         <v>183</v>
       </c>
-      <c r="C187" s="102"/>
-      <c r="D187" s="103"/>
+      <c r="C187" s="116"/>
+      <c r="D187" s="117"/>
     </row>
     <row r="188" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
@@ -5656,8 +5656,8 @@
       <c r="B188" s="64" t="s">
         <v>184</v>
       </c>
-      <c r="C188" s="109"/>
-      <c r="D188" s="110"/>
+      <c r="C188" s="134"/>
+      <c r="D188" s="135"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
@@ -5666,8 +5666,8 @@
       <c r="B189" s="64" t="s">
         <v>185</v>
       </c>
-      <c r="C189" s="111"/>
-      <c r="D189" s="103"/>
+      <c r="C189" s="136"/>
+      <c r="D189" s="117"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
@@ -5676,8 +5676,8 @@
       <c r="B190" s="64" t="s">
         <v>186</v>
       </c>
-      <c r="C190" s="112"/>
-      <c r="D190" s="108"/>
+      <c r="C190" s="118"/>
+      <c r="D190" s="119"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
@@ -5686,8 +5686,8 @@
       <c r="B191" s="64" t="s">
         <v>187</v>
       </c>
-      <c r="C191" s="102"/>
-      <c r="D191" s="103"/>
+      <c r="C191" s="116"/>
+      <c r="D191" s="117"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
@@ -5696,8 +5696,8 @@
       <c r="B192" s="64" t="s">
         <v>188</v>
       </c>
-      <c r="C192" s="102"/>
-      <c r="D192" s="103"/>
+      <c r="C192" s="116"/>
+      <c r="D192" s="117"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
@@ -5706,8 +5706,8 @@
       <c r="B193" s="64" t="s">
         <v>189</v>
       </c>
-      <c r="C193" s="102"/>
-      <c r="D193" s="103"/>
+      <c r="C193" s="116"/>
+      <c r="D193" s="117"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
@@ -5716,8 +5716,8 @@
       <c r="B194" s="64" t="s">
         <v>190</v>
       </c>
-      <c r="C194" s="102"/>
-      <c r="D194" s="103"/>
+      <c r="C194" s="116"/>
+      <c r="D194" s="117"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
@@ -5726,8 +5726,8 @@
       <c r="B195" s="64" t="s">
         <v>191</v>
       </c>
-      <c r="C195" s="102"/>
-      <c r="D195" s="103"/>
+      <c r="C195" s="116"/>
+      <c r="D195" s="117"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
@@ -5736,8 +5736,8 @@
       <c r="B196" s="64" t="s">
         <v>192</v>
       </c>
-      <c r="C196" s="102"/>
-      <c r="D196" s="103"/>
+      <c r="C196" s="116"/>
+      <c r="D196" s="117"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
@@ -5746,8 +5746,8 @@
       <c r="B197" s="64" t="s">
         <v>193</v>
       </c>
-      <c r="C197" s="102"/>
-      <c r="D197" s="103"/>
+      <c r="C197" s="116"/>
+      <c r="D197" s="117"/>
     </row>
     <row r="198" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
@@ -5756,16 +5756,16 @@
       <c r="B198" s="64" t="s">
         <v>194</v>
       </c>
-      <c r="C198" s="102"/>
-      <c r="D198" s="103"/>
+      <c r="C198" s="116"/>
+      <c r="D198" s="117"/>
     </row>
     <row r="199" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="1"/>
-      <c r="B199" s="104" t="s">
+      <c r="B199" s="112" t="s">
         <v>195</v>
       </c>
-      <c r="C199" s="105"/>
-      <c r="D199" s="106"/>
+      <c r="C199" s="113"/>
+      <c r="D199" s="114"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
@@ -5774,8 +5774,8 @@
       <c r="B200" s="64" t="s">
         <v>196</v>
       </c>
-      <c r="C200" s="102"/>
-      <c r="D200" s="103"/>
+      <c r="C200" s="116"/>
+      <c r="D200" s="117"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
@@ -5784,8 +5784,8 @@
       <c r="B201" s="64" t="s">
         <v>197</v>
       </c>
-      <c r="C201" s="102"/>
-      <c r="D201" s="103"/>
+      <c r="C201" s="116"/>
+      <c r="D201" s="117"/>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
@@ -5794,8 +5794,8 @@
       <c r="B202" s="64" t="s">
         <v>198</v>
       </c>
-      <c r="C202" s="102"/>
-      <c r="D202" s="103"/>
+      <c r="C202" s="116"/>
+      <c r="D202" s="117"/>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
@@ -5804,8 +5804,8 @@
       <c r="B203" s="61" t="s">
         <v>199</v>
       </c>
-      <c r="C203" s="117"/>
-      <c r="D203" s="118"/>
+      <c r="C203" s="130"/>
+      <c r="D203" s="131"/>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
@@ -5814,16 +5814,16 @@
       <c r="B204" s="61" t="s">
         <v>200</v>
       </c>
-      <c r="C204" s="117"/>
-      <c r="D204" s="118"/>
+      <c r="C204" s="130"/>
+      <c r="D204" s="131"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205" s="1"/>
-      <c r="B205" s="104" t="s">
+      <c r="B205" s="112" t="s">
         <v>201</v>
       </c>
-      <c r="C205" s="105"/>
-      <c r="D205" s="106"/>
+      <c r="C205" s="113"/>
+      <c r="D205" s="114"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
@@ -5832,8 +5832,8 @@
       <c r="B206" s="64" t="s">
         <v>202</v>
       </c>
-      <c r="C206" s="102"/>
-      <c r="D206" s="103"/>
+      <c r="C206" s="116"/>
+      <c r="D206" s="117"/>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
@@ -5842,8 +5842,8 @@
       <c r="B207" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="C207" s="119"/>
-      <c r="D207" s="108"/>
+      <c r="C207" s="132"/>
+      <c r="D207" s="119"/>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208" s="1">
@@ -5852,8 +5852,8 @@
       <c r="B208" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="C208" s="112"/>
-      <c r="D208" s="108"/>
+      <c r="C208" s="118"/>
+      <c r="D208" s="119"/>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209" s="1">
@@ -5862,8 +5862,8 @@
       <c r="B209" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="C209" s="112"/>
-      <c r="D209" s="108"/>
+      <c r="C209" s="118"/>
+      <c r="D209" s="119"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
@@ -5872,8 +5872,8 @@
       <c r="B210" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="C210" s="112"/>
-      <c r="D210" s="108"/>
+      <c r="C210" s="118"/>
+      <c r="D210" s="119"/>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211" s="1">
@@ -5882,16 +5882,16 @@
       <c r="B211" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="C211" s="112"/>
-      <c r="D211" s="108"/>
+      <c r="C211" s="118"/>
+      <c r="D211" s="119"/>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212" s="1"/>
-      <c r="B212" s="104" t="s">
+      <c r="B212" s="112" t="s">
         <v>208</v>
       </c>
-      <c r="C212" s="105"/>
-      <c r="D212" s="106"/>
+      <c r="C212" s="113"/>
+      <c r="D212" s="114"/>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
@@ -5900,8 +5900,8 @@
       <c r="B213" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="C213" s="102"/>
-      <c r="D213" s="103"/>
+      <c r="C213" s="116"/>
+      <c r="D213" s="117"/>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214" s="1">
@@ -5910,8 +5910,8 @@
       <c r="B214" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="C214" s="102"/>
-      <c r="D214" s="103"/>
+      <c r="C214" s="116"/>
+      <c r="D214" s="117"/>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" s="1">
@@ -5920,8 +5920,8 @@
       <c r="B215" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="C215" s="102"/>
-      <c r="D215" s="103"/>
+      <c r="C215" s="116"/>
+      <c r="D215" s="117"/>
     </row>
     <row r="216" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A216" s="27">
@@ -5930,35 +5930,140 @@
       <c r="B216" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="C216" s="115"/>
-      <c r="D216" s="116"/>
+      <c r="C216" s="128"/>
+      <c r="D216" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="177">
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="C197:D197"/>
+    <mergeCell ref="C198:D198"/>
+    <mergeCell ref="B199:D199"/>
+    <mergeCell ref="C200:D200"/>
+    <mergeCell ref="C201:D201"/>
+    <mergeCell ref="C202:D202"/>
+    <mergeCell ref="C191:D191"/>
+    <mergeCell ref="C143:D143"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="C193:D193"/>
+    <mergeCell ref="C194:D194"/>
+    <mergeCell ref="C195:D195"/>
+    <mergeCell ref="C196:D196"/>
+    <mergeCell ref="C185:D185"/>
+    <mergeCell ref="C186:D186"/>
+    <mergeCell ref="C187:D187"/>
+    <mergeCell ref="C188:D188"/>
+    <mergeCell ref="C189:D189"/>
+    <mergeCell ref="C190:D190"/>
+    <mergeCell ref="C179:D179"/>
+    <mergeCell ref="B180:D180"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="C182:D182"/>
+    <mergeCell ref="C215:D215"/>
+    <mergeCell ref="C216:D216"/>
+    <mergeCell ref="C209:D209"/>
+    <mergeCell ref="C210:D210"/>
+    <mergeCell ref="C211:D211"/>
+    <mergeCell ref="B212:D212"/>
+    <mergeCell ref="C213:D213"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="C204:D204"/>
+    <mergeCell ref="B205:D205"/>
+    <mergeCell ref="C206:D206"/>
+    <mergeCell ref="C207:D207"/>
+    <mergeCell ref="C208:D208"/>
+    <mergeCell ref="B183:D183"/>
+    <mergeCell ref="C184:D184"/>
+    <mergeCell ref="B176:D176"/>
+    <mergeCell ref="C177:D177"/>
+    <mergeCell ref="C178:D178"/>
+    <mergeCell ref="C164:D164"/>
+    <mergeCell ref="C165:D165"/>
+    <mergeCell ref="C166:D166"/>
+    <mergeCell ref="C167:D167"/>
+    <mergeCell ref="B150:D150"/>
+    <mergeCell ref="B159:D159"/>
+    <mergeCell ref="C160:D160"/>
+    <mergeCell ref="C161:D161"/>
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="C163:D163"/>
+    <mergeCell ref="B144:D144"/>
+    <mergeCell ref="C145:D145"/>
+    <mergeCell ref="B146:D146"/>
+    <mergeCell ref="C147:D147"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="C149:D149"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="C138:D138"/>
+    <mergeCell ref="C139:D139"/>
+    <mergeCell ref="C140:D140"/>
+    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="C142:D142"/>
+    <mergeCell ref="B131:D131"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="C133:D133"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="C135:D135"/>
+    <mergeCell ref="C136:D136"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="B126:D126"/>
+    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="C128:D128"/>
+    <mergeCell ref="C129:D129"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="C121:D121"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="C114:D114"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="C116:D116"/>
+    <mergeCell ref="C117:D117"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="B106:D106"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C79:D79"/>
     <mergeCell ref="C54:D54"/>
     <mergeCell ref="C55:D55"/>
     <mergeCell ref="C56:D56"/>
@@ -5983,135 +6088,30 @@
     <mergeCell ref="B67:D67"/>
     <mergeCell ref="C68:D68"/>
     <mergeCell ref="B69:D69"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="B95:D95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="B106:D106"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="B101:D101"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="C114:D114"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="C116:D116"/>
-    <mergeCell ref="C117:D117"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="B108:D108"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="C125:D125"/>
-    <mergeCell ref="B126:D126"/>
-    <mergeCell ref="C127:D127"/>
-    <mergeCell ref="C128:D128"/>
-    <mergeCell ref="C129:D129"/>
-    <mergeCell ref="C130:D130"/>
-    <mergeCell ref="C119:D119"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="C121:D121"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="C123:D123"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="C138:D138"/>
-    <mergeCell ref="C139:D139"/>
-    <mergeCell ref="C140:D140"/>
-    <mergeCell ref="C141:D141"/>
-    <mergeCell ref="C142:D142"/>
-    <mergeCell ref="B131:D131"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="C133:D133"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="C135:D135"/>
-    <mergeCell ref="C136:D136"/>
-    <mergeCell ref="B150:D150"/>
-    <mergeCell ref="B159:D159"/>
-    <mergeCell ref="C160:D160"/>
-    <mergeCell ref="C161:D161"/>
-    <mergeCell ref="C162:D162"/>
-    <mergeCell ref="C163:D163"/>
-    <mergeCell ref="B144:D144"/>
-    <mergeCell ref="C145:D145"/>
-    <mergeCell ref="B146:D146"/>
-    <mergeCell ref="C147:D147"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="C149:D149"/>
-    <mergeCell ref="B183:D183"/>
-    <mergeCell ref="C184:D184"/>
-    <mergeCell ref="B176:D176"/>
-    <mergeCell ref="C177:D177"/>
-    <mergeCell ref="C178:D178"/>
-    <mergeCell ref="C164:D164"/>
-    <mergeCell ref="C165:D165"/>
-    <mergeCell ref="C166:D166"/>
-    <mergeCell ref="C167:D167"/>
-    <mergeCell ref="C215:D215"/>
-    <mergeCell ref="C216:D216"/>
-    <mergeCell ref="C209:D209"/>
-    <mergeCell ref="C210:D210"/>
-    <mergeCell ref="C211:D211"/>
-    <mergeCell ref="B212:D212"/>
-    <mergeCell ref="C213:D213"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="C204:D204"/>
-    <mergeCell ref="B205:D205"/>
-    <mergeCell ref="C206:D206"/>
-    <mergeCell ref="C207:D207"/>
-    <mergeCell ref="C208:D208"/>
-    <mergeCell ref="C197:D197"/>
-    <mergeCell ref="C198:D198"/>
-    <mergeCell ref="B199:D199"/>
-    <mergeCell ref="C200:D200"/>
-    <mergeCell ref="C201:D201"/>
-    <mergeCell ref="C202:D202"/>
-    <mergeCell ref="C191:D191"/>
-    <mergeCell ref="C143:D143"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="C193:D193"/>
-    <mergeCell ref="C194:D194"/>
-    <mergeCell ref="C195:D195"/>
-    <mergeCell ref="C196:D196"/>
-    <mergeCell ref="C185:D185"/>
-    <mergeCell ref="C186:D186"/>
-    <mergeCell ref="C187:D187"/>
-    <mergeCell ref="C188:D188"/>
-    <mergeCell ref="C189:D189"/>
-    <mergeCell ref="C190:D190"/>
-    <mergeCell ref="C179:D179"/>
-    <mergeCell ref="B180:D180"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="C182:D182"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="68" fitToHeight="100" orientation="portrait" r:id="rId1"/>
@@ -6160,10 +6160,10 @@
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15"/>
-      <c r="B4" s="124" t="s">
+      <c r="B4" s="120" t="s">
         <v>214</v>
       </c>
-      <c r="C4" s="125"/>
+      <c r="C4" s="121"/>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="50">
@@ -6239,10 +6239,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="51"/>
-      <c r="B13" s="124" t="s">
+      <c r="B13" s="120" t="s">
         <v>223</v>
       </c>
-      <c r="C13" s="125"/>
+      <c r="C13" s="121"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
@@ -6307,7 +6307,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="12"/>
-      <c r="B21" s="124" t="s">
+      <c r="B21" s="120" t="s">
         <v>225</v>
       </c>
       <c r="C21" s="139"/>
@@ -6589,10 +6589,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="12"/>
-      <c r="B53" s="124" t="s">
+      <c r="B53" s="120" t="s">
         <v>256</v>
       </c>
-      <c r="C53" s="125"/>
+      <c r="C53" s="121"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="12">
@@ -6858,10 +6858,10 @@
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15"/>
-      <c r="B4" s="124" t="s">
+      <c r="B4" s="120" t="s">
         <v>214</v>
       </c>
-      <c r="C4" s="125"/>
+      <c r="C4" s="121"/>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="50">
@@ -6937,10 +6937,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="51"/>
-      <c r="B13" s="124" t="s">
+      <c r="B13" s="120" t="s">
         <v>223</v>
       </c>
-      <c r="C13" s="125"/>
+      <c r="C13" s="121"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
@@ -7005,7 +7005,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="12"/>
-      <c r="B21" s="124" t="s">
+      <c r="B21" s="120" t="s">
         <v>225</v>
       </c>
       <c r="C21" s="139"/>
@@ -7271,10 +7271,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="12"/>
-      <c r="B51" s="124" t="s">
+      <c r="B51" s="120" t="s">
         <v>256</v>
       </c>
-      <c r="C51" s="125"/>
+      <c r="C51" s="121"/>
     </row>
     <row r="52" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="12">
@@ -7479,17 +7479,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B65:C65"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B65:C65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="95" fitToHeight="100" orientation="portrait" r:id="rId1"/>
@@ -7536,10 +7536,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="51"/>
-      <c r="B4" s="124" t="s">
+      <c r="B4" s="120" t="s">
         <v>214</v>
       </c>
-      <c r="C4" s="125"/>
+      <c r="C4" s="121"/>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="50">
@@ -7618,7 +7618,7 @@
       <c r="B13" s="146" t="s">
         <v>224</v>
       </c>
-      <c r="C13" s="159"/>
+      <c r="C13" s="148"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="50">
@@ -7649,10 +7649,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="51"/>
-      <c r="B17" s="124" t="s">
+      <c r="B17" s="120" t="s">
         <v>223</v>
       </c>
-      <c r="C17" s="125"/>
+      <c r="C17" s="121"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
@@ -7683,7 +7683,7 @@
     </row>
     <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="12"/>
-      <c r="B21" s="124" t="s">
+      <c r="B21" s="120" t="s">
         <v>225</v>
       </c>
       <c r="C21" s="139"/>
@@ -7965,10 +7965,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="12"/>
-      <c r="B53" s="124" t="s">
+      <c r="B53" s="120" t="s">
         <v>256</v>
       </c>
-      <c r="C53" s="125"/>
+      <c r="C53" s="121"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="12">
@@ -8162,10 +8162,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="56"/>
-      <c r="B76" s="152" t="s">
+      <c r="B76" s="149" t="s">
         <v>292</v>
       </c>
-      <c r="C76" s="153"/>
+      <c r="C76" s="150"/>
     </row>
     <row r="77" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="57">
@@ -8232,10 +8232,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="56"/>
-      <c r="B84" s="152" t="s">
+      <c r="B84" s="149" t="s">
         <v>300</v>
       </c>
-      <c r="C84" s="153"/>
+      <c r="C84" s="150"/>
     </row>
     <row r="85" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="57">
@@ -8309,10 +8309,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" s="56"/>
-      <c r="B93" s="152" t="s">
+      <c r="B93" s="149" t="s">
         <v>309</v>
       </c>
-      <c r="C93" s="153"/>
+      <c r="C93" s="150"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" s="57">
@@ -8370,10 +8370,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" s="56"/>
-      <c r="B100" s="152" t="s">
+      <c r="B100" s="149" t="s">
         <v>316</v>
       </c>
-      <c r="C100" s="153"/>
+      <c r="C100" s="150"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" s="57">
@@ -8413,10 +8413,10 @@
     </row>
     <row r="105" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="57"/>
-      <c r="B105" s="148" t="s">
+      <c r="B105" s="151" t="s">
         <v>318</v>
       </c>
-      <c r="C105" s="154"/>
+      <c r="C105" s="152"/>
     </row>
     <row r="106" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="57">
@@ -8447,10 +8447,10 @@
     </row>
     <row r="109" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="56"/>
-      <c r="B109" s="152" t="s">
+      <c r="B109" s="149" t="s">
         <v>321</v>
       </c>
-      <c r="C109" s="153"/>
+      <c r="C109" s="150"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" s="57">
@@ -8508,10 +8508,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" s="56"/>
-      <c r="B116" s="152" t="s">
+      <c r="B116" s="149" t="s">
         <v>323</v>
       </c>
-      <c r="C116" s="153"/>
+      <c r="C116" s="150"/>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" s="57">
@@ -8569,10 +8569,10 @@
     </row>
     <row r="123" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="56"/>
-      <c r="B123" s="152" t="s">
+      <c r="B123" s="149" t="s">
         <v>325</v>
       </c>
-      <c r="C123" s="153"/>
+      <c r="C123" s="150"/>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" s="57">
@@ -8630,10 +8630,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" s="56"/>
-      <c r="B130" s="152" t="s">
+      <c r="B130" s="149" t="s">
         <v>326</v>
       </c>
-      <c r="C130" s="153"/>
+      <c r="C130" s="150"/>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" s="57">
@@ -8691,10 +8691,10 @@
     </row>
     <row r="137" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="56"/>
-      <c r="B137" s="152" t="s">
+      <c r="B137" s="149" t="s">
         <v>327</v>
       </c>
-      <c r="C137" s="153"/>
+      <c r="C137" s="150"/>
     </row>
     <row r="138" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="57">
@@ -8752,10 +8752,10 @@
     </row>
     <row r="144" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="57"/>
-      <c r="B144" s="148" t="s">
+      <c r="B144" s="151" t="s">
         <v>134</v>
       </c>
-      <c r="C144" s="149"/>
+      <c r="C144" s="153"/>
     </row>
     <row r="145" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="57">
@@ -8813,10 +8813,10 @@
     </row>
     <row r="151" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="57"/>
-      <c r="B151" s="150" t="s">
+      <c r="B151" s="158" t="s">
         <v>334</v>
       </c>
-      <c r="C151" s="151"/>
+      <c r="C151" s="159"/>
     </row>
     <row r="152" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="57">
@@ -8874,10 +8874,10 @@
     </row>
     <row r="158" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="56"/>
-      <c r="B158" s="152" t="s">
+      <c r="B158" s="149" t="s">
         <v>341</v>
       </c>
-      <c r="C158" s="153"/>
+      <c r="C158" s="150"/>
     </row>
     <row r="159" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="57">
@@ -8908,10 +8908,10 @@
     </row>
     <row r="162" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="56"/>
-      <c r="B162" s="152" t="s">
+      <c r="B162" s="149" t="s">
         <v>345</v>
       </c>
-      <c r="C162" s="153"/>
+      <c r="C162" s="150"/>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163" s="57">
@@ -8942,10 +8942,10 @@
     </row>
     <row r="166" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="56"/>
-      <c r="B166" s="152" t="s">
+      <c r="B166" s="149" t="s">
         <v>349</v>
       </c>
-      <c r="C166" s="153"/>
+      <c r="C166" s="150"/>
     </row>
     <row r="167" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="57">
@@ -9066,10 +9066,10 @@
     </row>
     <row r="180" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="57"/>
-      <c r="B180" s="148" t="s">
+      <c r="B180" s="151" t="s">
         <v>363</v>
       </c>
-      <c r="C180" s="149"/>
+      <c r="C180" s="153"/>
     </row>
     <row r="181" spans="1:3" ht="26" x14ac:dyDescent="0.35">
       <c r="A181" s="57">
@@ -9163,10 +9163,10 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A191" s="57"/>
-      <c r="B191" s="155" t="s">
+      <c r="B191" s="154" t="s">
         <v>374</v>
       </c>
-      <c r="C191" s="156"/>
+      <c r="C191" s="155"/>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A192" s="57">
@@ -9197,10 +9197,10 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A195" s="58"/>
-      <c r="B195" s="157" t="s">
+      <c r="B195" s="156" t="s">
         <v>378</v>
       </c>
-      <c r="C195" s="158"/>
+      <c r="C195" s="157"/>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A196" s="57">
@@ -9423,18 +9423,13 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B200:C200"/>
+    <mergeCell ref="B201:C201"/>
+    <mergeCell ref="B144:C144"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="B166:C166"/>
     <mergeCell ref="B211:C211"/>
     <mergeCell ref="B137:C137"/>
     <mergeCell ref="B71:C71"/>
@@ -9451,13 +9446,18 @@
     <mergeCell ref="B180:C180"/>
     <mergeCell ref="B191:C191"/>
     <mergeCell ref="B195:C195"/>
-    <mergeCell ref="B200:C200"/>
-    <mergeCell ref="B201:C201"/>
-    <mergeCell ref="B144:C144"/>
-    <mergeCell ref="B151:C151"/>
-    <mergeCell ref="B158:C158"/>
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="B166:C166"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="87" fitToHeight="100" orientation="portrait" r:id="rId1"/>

--- a/thermax_backend/templates/heating_design_basis_template.xlsx
+++ b/thermax_backend/templates/heating_design_basis_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783F90C8-F59E-4A52-A975-A614DE092C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F55BA5E-A94D-4E3F-83B1-7250019B0B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COVER" sheetId="1" r:id="rId1"/>
@@ -1944,9 +1944,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1996,15 +1993,6 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2257,6 +2245,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2278,80 +2276,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1085850</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2762250</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>1343025</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82F20BA6-EFF6-4938-9ABC-D521AA3DE92D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3333750" y="180975"/>
-          <a:ext cx="1676400" cy="1162050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -2379,7 +2303,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2422,6 +2346,50 @@
             </a14:hiddenLine>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1306286</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>154215</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3001823</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1329025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DC5059A-14B5-ABA7-B880-73A8AF2CD64F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3655786" y="154215"/>
+          <a:ext cx="1695537" cy="1174810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2751,7 +2719,7 @@
   </sheetPr>
   <dimension ref="A1:CD35"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
@@ -3400,235 +3368,235 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="116.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="73"/>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="75"/>
+      <c r="A1" s="156"/>
+      <c r="B1" s="157"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
+      <c r="G1" s="157"/>
+      <c r="H1" s="158"/>
     </row>
     <row r="2" spans="1:8" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="78"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="74"/>
     </row>
     <row r="3" spans="1:8" ht="23.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="81"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="77"/>
     </row>
     <row r="4" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="84"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="80"/>
     </row>
     <row r="5" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="30"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
       <c r="H5" s="31"/>
     </row>
     <row r="6" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30"/>
-      <c r="B6" s="85" t="s">
+      <c r="B6" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="86"/>
-      <c r="D6" s="87" t="s">
+      <c r="C6" s="82"/>
+      <c r="D6" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="89"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="85"/>
       <c r="H6" s="31"/>
     </row>
     <row r="7" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="30"/>
-      <c r="B7" s="100" t="s">
+      <c r="B7" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="101"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="94"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="90"/>
       <c r="H7" s="31"/>
     </row>
     <row r="8" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="30"/>
-      <c r="B8" s="90" t="s">
+      <c r="B8" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="91"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="94"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="90"/>
       <c r="H8" s="31"/>
     </row>
     <row r="9" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="30"/>
-      <c r="B9" s="90" t="s">
+      <c r="B9" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="91"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="94"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="90"/>
       <c r="H9" s="31"/>
     </row>
     <row r="10" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30"/>
-      <c r="B10" s="90" t="s">
+      <c r="B10" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="91"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="93"/>
-      <c r="G10" s="94"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="90"/>
       <c r="H10" s="31"/>
     </row>
     <row r="11" spans="1:8" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="30"/>
-      <c r="B11" s="95" t="s">
+      <c r="B11" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="96"/>
-      <c r="D11" s="97" t="s">
+      <c r="C11" s="92"/>
+      <c r="D11" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="98"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="99"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="95"/>
       <c r="H11" s="31"/>
     </row>
     <row r="12" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="30"/>
-      <c r="B12" s="71"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
       <c r="H12" s="31"/>
     </row>
     <row r="13" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="30"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
       <c r="H13" s="31"/>
     </row>
     <row r="14" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="30"/>
-      <c r="B14" s="71"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
       <c r="H14" s="31"/>
     </row>
     <row r="15" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="30"/>
-      <c r="B15" s="71"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
       <c r="H15" s="31"/>
     </row>
     <row r="16" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="30"/>
-      <c r="B16" s="71"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
       <c r="H16" s="31"/>
     </row>
     <row r="17" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="30"/>
-      <c r="B17" s="71"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
       <c r="H17" s="31"/>
     </row>
     <row r="18" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="30"/>
-      <c r="B18" s="71"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
       <c r="H18" s="31"/>
     </row>
     <row r="19" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="30"/>
-      <c r="B19" s="71"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
       <c r="H19" s="31"/>
     </row>
     <row r="20" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="30"/>
-      <c r="B20" s="71"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
       <c r="H20" s="31"/>
     </row>
     <row r="21" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="30"/>
-      <c r="B21" s="71"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
+      <c r="B21" s="70"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
       <c r="H21" s="31"/>
     </row>
     <row r="22" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3819,8 +3787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D216"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:D9"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A167" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="C181" sqref="C181:D181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3833,26 +3801,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="108"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="104"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="109"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="111"/>
+      <c r="A2" s="105"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="107"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
-      <c r="B3" s="112" t="s">
+      <c r="B3" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="113"/>
-      <c r="D3" s="114"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="110"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
@@ -3861,8 +3829,8 @@
       <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="104"/>
-      <c r="D4" s="105"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="101"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
@@ -3871,8 +3839,8 @@
       <c r="B5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="104"/>
-      <c r="D5" s="105"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="101"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
@@ -3881,8 +3849,8 @@
       <c r="B6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="104"/>
-      <c r="D6" s="105"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="101"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
@@ -3891,8 +3859,8 @@
       <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="104"/>
-      <c r="D7" s="105"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="101"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
@@ -3901,8 +3869,8 @@
       <c r="B8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="102"/>
-      <c r="D8" s="103"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="99"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
@@ -3911,8 +3879,8 @@
       <c r="B9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="104"/>
-      <c r="D9" s="105"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="101"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
@@ -3921,8 +3889,8 @@
       <c r="B10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="102"/>
-      <c r="D10" s="103"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="99"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
@@ -3931,8 +3899,8 @@
       <c r="B11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="102"/>
-      <c r="D11" s="103"/>
+      <c r="C11" s="98"/>
+      <c r="D11" s="99"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
@@ -3941,8 +3909,8 @@
       <c r="B12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="102"/>
-      <c r="D12" s="103"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="99"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
@@ -3951,8 +3919,8 @@
       <c r="B13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="102"/>
-      <c r="D13" s="103"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="99"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
@@ -3961,8 +3929,8 @@
       <c r="B14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="115"/>
-      <c r="D14" s="103"/>
+      <c r="C14" s="111"/>
+      <c r="D14" s="99"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
@@ -3971,8 +3939,8 @@
       <c r="B15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="115"/>
-      <c r="D15" s="103"/>
+      <c r="C15" s="111"/>
+      <c r="D15" s="99"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
@@ -3981,8 +3949,8 @@
       <c r="B16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="115"/>
-      <c r="D16" s="103"/>
+      <c r="C16" s="111"/>
+      <c r="D16" s="99"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
@@ -3991,8 +3959,8 @@
       <c r="B17" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="115"/>
-      <c r="D17" s="103"/>
+      <c r="C17" s="111"/>
+      <c r="D17" s="99"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
@@ -4001,84 +3969,84 @@
       <c r="B18" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="102"/>
-      <c r="D18" s="103"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="99"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
-      <c r="B19" s="112" t="s">
+      <c r="B19" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="113"/>
-      <c r="D19" s="114"/>
+      <c r="C19" s="109"/>
+      <c r="D19" s="110"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>16</v>
       </c>
-      <c r="B20" s="63" t="s">
+      <c r="B20" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="102"/>
-      <c r="D20" s="103"/>
+      <c r="C20" s="98"/>
+      <c r="D20" s="99"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>17</v>
       </c>
-      <c r="B21" s="63" t="s">
+      <c r="B21" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="104"/>
-      <c r="D21" s="105"/>
+      <c r="C21" s="100"/>
+      <c r="D21" s="101"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>18</v>
       </c>
-      <c r="B22" s="63" t="s">
+      <c r="B22" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="102"/>
-      <c r="D22" s="103"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="99"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>19</v>
       </c>
-      <c r="B23" s="63" t="s">
+      <c r="B23" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="102"/>
-      <c r="D23" s="103"/>
+      <c r="C23" s="98"/>
+      <c r="D23" s="99"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>20</v>
       </c>
-      <c r="B24" s="63" t="s">
+      <c r="B24" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="104"/>
-      <c r="D24" s="105"/>
+      <c r="C24" s="100"/>
+      <c r="D24" s="101"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
-      <c r="B25" s="112" t="s">
+      <c r="B25" s="108" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="113"/>
-      <c r="D25" s="114"/>
+      <c r="C25" s="109"/>
+      <c r="D25" s="110"/>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="28"/>
-      <c r="B26" s="67" t="s">
+      <c r="B26" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="67" t="s">
+      <c r="C26" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="68" t="s">
+      <c r="D26" s="67" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4086,131 +4054,131 @@
       <c r="A27" s="1">
         <v>21</v>
       </c>
-      <c r="B27" s="64" t="s">
+      <c r="B27" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="64"/>
-      <c r="D27" s="65"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="64"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>22</v>
       </c>
-      <c r="B28" s="64" t="s">
+      <c r="B28" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="64"/>
-      <c r="D28" s="65"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="64"/>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>23</v>
       </c>
-      <c r="B29" s="64" t="s">
+      <c r="B29" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="64"/>
-      <c r="D29" s="65"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="64"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>24</v>
       </c>
-      <c r="B30" s="64" t="s">
+      <c r="B30" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="64"/>
-      <c r="D30" s="65"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="64"/>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>25</v>
       </c>
-      <c r="B31" s="64" t="s">
+      <c r="B31" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="64"/>
-      <c r="D31" s="65"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="64"/>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>26</v>
       </c>
-      <c r="B32" s="64" t="s">
+      <c r="B32" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="64"/>
-      <c r="D32" s="65"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="64"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>27</v>
       </c>
-      <c r="B33" s="64" t="s">
+      <c r="B33" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="64"/>
-      <c r="D33" s="65"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="64"/>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>28</v>
       </c>
-      <c r="B34" s="64" t="s">
+      <c r="B34" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="64"/>
-      <c r="D34" s="65"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="64"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>29</v>
       </c>
-      <c r="B35" s="64" t="s">
+      <c r="B35" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="64"/>
-      <c r="D35" s="65"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="64"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>30</v>
       </c>
-      <c r="B36" s="64" t="s">
+      <c r="B36" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="64"/>
-      <c r="D36" s="65"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="64"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>31</v>
       </c>
-      <c r="B37" s="64" t="s">
+      <c r="B37" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="64"/>
-      <c r="D37" s="65"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="64"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>32</v>
       </c>
-      <c r="B38" s="64" t="s">
+      <c r="B38" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="64"/>
-      <c r="D38" s="65"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="64"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>33</v>
       </c>
-      <c r="B39" s="64" t="s">
+      <c r="B39" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="C39" s="64"/>
-      <c r="D39" s="65"/>
+      <c r="C39" s="63"/>
+      <c r="D39" s="64"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="5">
@@ -4226,190 +4194,191 @@
       <c r="A41" s="1">
         <v>35</v>
       </c>
-      <c r="B41" s="64" t="s">
+      <c r="B41" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="C41" s="64"/>
-      <c r="D41" s="65"/>
+      <c r="C41" s="63"/>
+      <c r="D41" s="64"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>36</v>
       </c>
-      <c r="B42" s="64" t="s">
+      <c r="B42" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="C42" s="64"/>
-      <c r="D42" s="65"/>
+      <c r="C42" s="63"/>
+      <c r="D42" s="64"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>37</v>
       </c>
-      <c r="B43" s="64" t="s">
+      <c r="B43" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="D43" s="65"/>
+      <c r="C43" s="159"/>
+      <c r="D43" s="64"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>38</v>
       </c>
-      <c r="B44" s="64" t="s">
+      <c r="B44" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="C44" s="64"/>
-      <c r="D44" s="65"/>
+      <c r="C44" s="63"/>
+      <c r="D44" s="64"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>39</v>
       </c>
-      <c r="B45" s="64" t="s">
+      <c r="B45" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="C45" s="64"/>
-      <c r="D45" s="65"/>
+      <c r="C45" s="63"/>
+      <c r="D45" s="64"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>40</v>
       </c>
-      <c r="B46" s="64" t="s">
+      <c r="B46" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="C46" s="64"/>
-      <c r="D46" s="65"/>
+      <c r="C46" s="63"/>
+      <c r="D46" s="64"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>41</v>
       </c>
-      <c r="B47" s="64" t="s">
+      <c r="B47" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="C47" s="64"/>
-      <c r="D47" s="65"/>
+      <c r="C47" s="63"/>
+      <c r="D47" s="64"/>
     </row>
     <row r="48" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
-      <c r="B48" s="112" t="s">
+      <c r="B48" s="108" t="s">
         <v>64</v>
       </c>
-      <c r="C48" s="113"/>
-      <c r="D48" s="114"/>
+      <c r="C48" s="109"/>
+      <c r="D48" s="110"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
-      <c r="B49" s="112" t="s">
+      <c r="B49" s="108" t="s">
         <v>65</v>
       </c>
-      <c r="C49" s="113"/>
-      <c r="D49" s="114"/>
+      <c r="C49" s="109"/>
+      <c r="D49" s="110"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>42</v>
       </c>
-      <c r="B50" s="64" t="s">
+      <c r="B50" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="C50" s="116"/>
-      <c r="D50" s="117"/>
+      <c r="C50" s="112"/>
+      <c r="D50" s="113"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>43</v>
       </c>
-      <c r="B51" s="64" t="s">
+      <c r="B51" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="C51" s="116"/>
-      <c r="D51" s="117"/>
+      <c r="C51" s="112"/>
+      <c r="D51" s="113"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>44</v>
       </c>
-      <c r="B52" s="64" t="s">
+      <c r="B52" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="C52" s="116"/>
-      <c r="D52" s="117"/>
+      <c r="C52" s="112"/>
+      <c r="D52" s="113"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>45</v>
       </c>
-      <c r="B53" s="64" t="s">
+      <c r="B53" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="C53" s="116"/>
-      <c r="D53" s="117"/>
+      <c r="C53" s="112"/>
+      <c r="D53" s="113"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>46</v>
       </c>
-      <c r="B54" s="64" t="s">
+      <c r="B54" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="C54" s="116"/>
-      <c r="D54" s="117"/>
+      <c r="C54" s="112"/>
+      <c r="D54" s="113"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>47</v>
       </c>
-      <c r="B55" s="64" t="s">
+      <c r="B55" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="C55" s="116"/>
-      <c r="D55" s="117"/>
+      <c r="C55" s="112"/>
+      <c r="D55" s="113"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>48</v>
       </c>
-      <c r="B56" s="64" t="s">
+      <c r="B56" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="C56" s="116"/>
-      <c r="D56" s="117"/>
+      <c r="C56" s="112"/>
+      <c r="D56" s="113"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
-      <c r="B57" s="112" t="s">
+      <c r="B57" s="108" t="s">
         <v>73</v>
       </c>
-      <c r="C57" s="113"/>
-      <c r="D57" s="114"/>
+      <c r="C57" s="109"/>
+      <c r="D57" s="110"/>
     </row>
     <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
-      <c r="B58" s="112" t="s">
+      <c r="B58" s="108" t="s">
         <v>74</v>
       </c>
-      <c r="C58" s="113"/>
-      <c r="D58" s="114"/>
+      <c r="C58" s="109"/>
+      <c r="D58" s="110"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>49</v>
       </c>
-      <c r="B59" s="66" t="s">
+      <c r="B59" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="C59" s="116"/>
-      <c r="D59" s="117"/>
+      <c r="C59" s="112"/>
+      <c r="D59" s="113"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="1"/>
-      <c r="B60" s="112" t="s">
+      <c r="B60" s="108" t="s">
         <v>76</v>
       </c>
-      <c r="C60" s="113"/>
-      <c r="D60" s="114"/>
+      <c r="C60" s="109"/>
+      <c r="D60" s="110"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
@@ -4418,8 +4387,8 @@
       <c r="B61" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C61" s="118"/>
-      <c r="D61" s="119"/>
+      <c r="C61" s="114"/>
+      <c r="D61" s="115"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
@@ -4428,8 +4397,8 @@
       <c r="B62" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C62" s="118"/>
-      <c r="D62" s="119"/>
+      <c r="C62" s="114"/>
+      <c r="D62" s="115"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
@@ -4438,8 +4407,8 @@
       <c r="B63" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C63" s="118"/>
-      <c r="D63" s="119"/>
+      <c r="C63" s="114"/>
+      <c r="D63" s="115"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
@@ -4448,8 +4417,8 @@
       <c r="B64" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C64" s="118"/>
-      <c r="D64" s="119"/>
+      <c r="C64" s="114"/>
+      <c r="D64" s="115"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
@@ -4458,8 +4427,8 @@
       <c r="B65" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C65" s="118"/>
-      <c r="D65" s="119"/>
+      <c r="C65" s="114"/>
+      <c r="D65" s="115"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
@@ -4468,200 +4437,200 @@
       <c r="B66" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C66" s="118"/>
-      <c r="D66" s="119"/>
+      <c r="C66" s="114"/>
+      <c r="D66" s="115"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="1"/>
-      <c r="B67" s="112" t="s">
+      <c r="B67" s="108" t="s">
         <v>83</v>
       </c>
-      <c r="C67" s="113"/>
-      <c r="D67" s="114"/>
+      <c r="C67" s="109"/>
+      <c r="D67" s="110"/>
     </row>
     <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="12">
         <v>56</v>
       </c>
-      <c r="B68" s="66" t="s">
+      <c r="B68" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="C68" s="116"/>
-      <c r="D68" s="117"/>
+      <c r="C68" s="112"/>
+      <c r="D68" s="113"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="1"/>
-      <c r="B69" s="112" t="s">
+      <c r="B69" s="108" t="s">
         <v>85</v>
       </c>
-      <c r="C69" s="113"/>
-      <c r="D69" s="114"/>
+      <c r="C69" s="109"/>
+      <c r="D69" s="110"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>57</v>
       </c>
-      <c r="B70" s="64" t="s">
+      <c r="B70" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="C70" s="116"/>
-      <c r="D70" s="117"/>
+      <c r="C70" s="112"/>
+      <c r="D70" s="113"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>58</v>
       </c>
-      <c r="B71" s="64" t="s">
+      <c r="B71" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="C71" s="116"/>
-      <c r="D71" s="117"/>
+      <c r="C71" s="112"/>
+      <c r="D71" s="113"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>59</v>
       </c>
-      <c r="B72" s="64" t="s">
+      <c r="B72" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="C72" s="116"/>
-      <c r="D72" s="117"/>
+      <c r="C72" s="112"/>
+      <c r="D72" s="113"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>60</v>
       </c>
-      <c r="B73" s="64" t="s">
+      <c r="B73" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="C73" s="116"/>
-      <c r="D73" s="117"/>
+      <c r="C73" s="112"/>
+      <c r="D73" s="113"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>61</v>
       </c>
-      <c r="B74" s="64" t="s">
+      <c r="B74" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="C74" s="116"/>
-      <c r="D74" s="117"/>
+      <c r="C74" s="112"/>
+      <c r="D74" s="113"/>
     </row>
     <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1"/>
-      <c r="B75" s="120" t="s">
+      <c r="B75" s="116" t="s">
         <v>91</v>
       </c>
-      <c r="C75" s="120"/>
-      <c r="D75" s="121"/>
+      <c r="C75" s="116"/>
+      <c r="D75" s="117"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>62</v>
       </c>
-      <c r="B76" s="64" t="s">
+      <c r="B76" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="C76" s="116"/>
-      <c r="D76" s="117"/>
+      <c r="C76" s="112"/>
+      <c r="D76" s="113"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>63</v>
       </c>
-      <c r="B77" s="64" t="s">
+      <c r="B77" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="C77" s="116"/>
-      <c r="D77" s="117"/>
+      <c r="C77" s="112"/>
+      <c r="D77" s="113"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>64</v>
       </c>
-      <c r="B78" s="64" t="s">
+      <c r="B78" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="C78" s="116"/>
-      <c r="D78" s="117"/>
+      <c r="C78" s="112"/>
+      <c r="D78" s="113"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>65</v>
       </c>
-      <c r="B79" s="64" t="s">
+      <c r="B79" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="C79" s="116"/>
-      <c r="D79" s="117"/>
+      <c r="C79" s="112"/>
+      <c r="D79" s="113"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>66</v>
       </c>
-      <c r="B80" s="64" t="s">
+      <c r="B80" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="C80" s="116"/>
-      <c r="D80" s="117"/>
+      <c r="C80" s="112"/>
+      <c r="D80" s="113"/>
     </row>
     <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1"/>
-      <c r="B81" s="120" t="s">
+      <c r="B81" s="116" t="s">
         <v>93</v>
       </c>
-      <c r="C81" s="120"/>
-      <c r="D81" s="121"/>
+      <c r="C81" s="116"/>
+      <c r="D81" s="117"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>67</v>
       </c>
-      <c r="B82" s="64" t="s">
+      <c r="B82" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="C82" s="116"/>
-      <c r="D82" s="117"/>
+      <c r="C82" s="112"/>
+      <c r="D82" s="113"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>68</v>
       </c>
-      <c r="B83" s="64" t="s">
+      <c r="B83" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="C83" s="116"/>
-      <c r="D83" s="117"/>
+      <c r="C83" s="112"/>
+      <c r="D83" s="113"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>69</v>
       </c>
-      <c r="B84" s="64" t="s">
+      <c r="B84" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="C84" s="116"/>
-      <c r="D84" s="117"/>
+      <c r="C84" s="112"/>
+      <c r="D84" s="113"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>70</v>
       </c>
-      <c r="B85" s="64" t="s">
+      <c r="B85" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="C85" s="116"/>
-      <c r="D85" s="117"/>
+      <c r="C85" s="112"/>
+      <c r="D85" s="113"/>
     </row>
     <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>71</v>
       </c>
-      <c r="B86" s="64" t="s">
+      <c r="B86" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="C86" s="116"/>
-      <c r="D86" s="117"/>
+      <c r="C86" s="112"/>
+      <c r="D86" s="113"/>
     </row>
     <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
@@ -4670,104 +4639,104 @@
       <c r="B87" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C87" s="116"/>
-      <c r="D87" s="117"/>
+      <c r="C87" s="112"/>
+      <c r="D87" s="113"/>
     </row>
     <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>73</v>
       </c>
-      <c r="B88" s="64" t="s">
+      <c r="B88" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="C88" s="116"/>
-      <c r="D88" s="117"/>
+      <c r="C88" s="112"/>
+      <c r="D88" s="113"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>74</v>
       </c>
-      <c r="B89" s="64" t="s">
+      <c r="B89" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="C89" s="116"/>
-      <c r="D89" s="117"/>
+      <c r="C89" s="112"/>
+      <c r="D89" s="113"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="1"/>
-      <c r="B90" s="112" t="s">
+      <c r="B90" s="108" t="s">
         <v>98</v>
       </c>
-      <c r="C90" s="113"/>
-      <c r="D90" s="114"/>
+      <c r="C90" s="109"/>
+      <c r="D90" s="110"/>
     </row>
     <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>75</v>
       </c>
-      <c r="B91" s="64" t="s">
+      <c r="B91" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="C91" s="116"/>
-      <c r="D91" s="117"/>
+      <c r="C91" s="112"/>
+      <c r="D91" s="113"/>
     </row>
     <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>76</v>
       </c>
-      <c r="B92" s="64" t="s">
+      <c r="B92" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="C92" s="116"/>
-      <c r="D92" s="117"/>
+      <c r="C92" s="112"/>
+      <c r="D92" s="113"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>77</v>
       </c>
-      <c r="B93" s="64" t="s">
+      <c r="B93" s="63" t="s">
         <v>101</v>
       </c>
-      <c r="C93" s="116"/>
-      <c r="D93" s="117"/>
+      <c r="C93" s="112"/>
+      <c r="D93" s="113"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>78</v>
       </c>
-      <c r="B94" s="64" t="s">
+      <c r="B94" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="C94" s="116"/>
-      <c r="D94" s="117"/>
+      <c r="C94" s="112"/>
+      <c r="D94" s="113"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="1"/>
-      <c r="B95" s="112" t="s">
+      <c r="B95" s="108" t="s">
         <v>103</v>
       </c>
-      <c r="C95" s="113"/>
-      <c r="D95" s="114"/>
+      <c r="C95" s="109"/>
+      <c r="D95" s="110"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>79</v>
       </c>
-      <c r="B96" s="64" t="s">
+      <c r="B96" s="63" t="s">
         <v>104</v>
       </c>
-      <c r="C96" s="116"/>
-      <c r="D96" s="117"/>
+      <c r="C96" s="112"/>
+      <c r="D96" s="113"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>80</v>
       </c>
-      <c r="B97" s="64" t="s">
+      <c r="B97" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="C97" s="118"/>
-      <c r="D97" s="119"/>
+      <c r="C97" s="114"/>
+      <c r="D97" s="115"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
@@ -4776,280 +4745,280 @@
       <c r="B98" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C98" s="116"/>
-      <c r="D98" s="117"/>
+      <c r="C98" s="112"/>
+      <c r="D98" s="113"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>82</v>
       </c>
-      <c r="B99" s="64" t="s">
+      <c r="B99" s="63" t="s">
         <v>107</v>
       </c>
-      <c r="C99" s="116"/>
-      <c r="D99" s="117"/>
+      <c r="C99" s="112"/>
+      <c r="D99" s="113"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>83</v>
       </c>
-      <c r="B100" s="64" t="s">
+      <c r="B100" s="63" t="s">
         <v>108</v>
       </c>
-      <c r="C100" s="116"/>
-      <c r="D100" s="117"/>
+      <c r="C100" s="112"/>
+      <c r="D100" s="113"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="1"/>
-      <c r="B101" s="112" t="s">
+      <c r="B101" s="108" t="s">
         <v>109</v>
       </c>
-      <c r="C101" s="113"/>
-      <c r="D101" s="114"/>
+      <c r="C101" s="109"/>
+      <c r="D101" s="110"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>84</v>
       </c>
-      <c r="B102" s="64" t="s">
+      <c r="B102" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="C102" s="118"/>
-      <c r="D102" s="119"/>
+      <c r="C102" s="114"/>
+      <c r="D102" s="115"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>85</v>
       </c>
-      <c r="B103" s="64" t="s">
+      <c r="B103" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="C103" s="118"/>
-      <c r="D103" s="119"/>
+      <c r="C103" s="114"/>
+      <c r="D103" s="115"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>86</v>
       </c>
-      <c r="B104" s="64" t="s">
+      <c r="B104" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="C104" s="118"/>
-      <c r="D104" s="119"/>
+      <c r="C104" s="114"/>
+      <c r="D104" s="115"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>87</v>
       </c>
-      <c r="B105" s="64" t="s">
+      <c r="B105" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="C105" s="118"/>
-      <c r="D105" s="119"/>
+      <c r="C105" s="114"/>
+      <c r="D105" s="115"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" s="1"/>
-      <c r="B106" s="112" t="s">
+      <c r="B106" s="108" t="s">
         <v>114</v>
       </c>
-      <c r="C106" s="113"/>
-      <c r="D106" s="114"/>
+      <c r="C106" s="109"/>
+      <c r="D106" s="110"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>88</v>
       </c>
-      <c r="B107" s="66" t="s">
+      <c r="B107" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="C107" s="116"/>
-      <c r="D107" s="117"/>
+      <c r="C107" s="112"/>
+      <c r="D107" s="113"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" s="1"/>
-      <c r="B108" s="112" t="s">
+      <c r="B108" s="108" t="s">
         <v>116</v>
       </c>
-      <c r="C108" s="113"/>
-      <c r="D108" s="114"/>
+      <c r="C108" s="109"/>
+      <c r="D108" s="110"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>89</v>
       </c>
-      <c r="B109" s="64" t="s">
+      <c r="B109" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="C109" s="116"/>
-      <c r="D109" s="117"/>
+      <c r="C109" s="112"/>
+      <c r="D109" s="113"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>90</v>
       </c>
-      <c r="B110" s="64" t="s">
+      <c r="B110" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="C110" s="116"/>
-      <c r="D110" s="117"/>
+      <c r="C110" s="112"/>
+      <c r="D110" s="113"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>91</v>
       </c>
-      <c r="B111" s="64" t="s">
+      <c r="B111" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="C111" s="116"/>
-      <c r="D111" s="117"/>
+      <c r="C111" s="112"/>
+      <c r="D111" s="113"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>92</v>
       </c>
-      <c r="B112" s="64" t="s">
+      <c r="B112" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="C112" s="116"/>
-      <c r="D112" s="117"/>
+      <c r="C112" s="112"/>
+      <c r="D112" s="113"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>93</v>
       </c>
-      <c r="B113" s="64" t="s">
+      <c r="B113" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="C113" s="116"/>
-      <c r="D113" s="117"/>
+      <c r="C113" s="112"/>
+      <c r="D113" s="113"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>94</v>
       </c>
-      <c r="B114" s="64" t="s">
+      <c r="B114" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="C114" s="116"/>
-      <c r="D114" s="117"/>
+      <c r="C114" s="112"/>
+      <c r="D114" s="113"/>
     </row>
     <row r="115" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>95</v>
       </c>
-      <c r="B115" s="64" t="s">
+      <c r="B115" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="C115" s="116"/>
-      <c r="D115" s="117"/>
+      <c r="C115" s="112"/>
+      <c r="D115" s="113"/>
     </row>
     <row r="116" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>96</v>
       </c>
-      <c r="B116" s="64" t="s">
+      <c r="B116" s="63" t="s">
         <v>124</v>
       </c>
-      <c r="C116" s="116"/>
-      <c r="D116" s="117"/>
+      <c r="C116" s="112"/>
+      <c r="D116" s="113"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>97</v>
       </c>
-      <c r="B117" s="64" t="s">
+      <c r="B117" s="63" t="s">
         <v>125</v>
       </c>
-      <c r="C117" s="116"/>
-      <c r="D117" s="117"/>
+      <c r="C117" s="112"/>
+      <c r="D117" s="113"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>98</v>
       </c>
-      <c r="B118" s="64" t="s">
+      <c r="B118" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="C118" s="116"/>
-      <c r="D118" s="117"/>
+      <c r="C118" s="112"/>
+      <c r="D118" s="113"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>99</v>
       </c>
-      <c r="B119" s="64" t="s">
+      <c r="B119" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="C119" s="118"/>
-      <c r="D119" s="119"/>
+      <c r="C119" s="114"/>
+      <c r="D119" s="115"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>100</v>
       </c>
-      <c r="B120" s="64" t="s">
+      <c r="B120" s="63" t="s">
         <v>128</v>
       </c>
-      <c r="C120" s="118"/>
-      <c r="D120" s="119"/>
+      <c r="C120" s="114"/>
+      <c r="D120" s="115"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>101</v>
       </c>
-      <c r="B121" s="64" t="s">
+      <c r="B121" s="63" t="s">
         <v>129</v>
       </c>
-      <c r="C121" s="118"/>
-      <c r="D121" s="119"/>
+      <c r="C121" s="114"/>
+      <c r="D121" s="115"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>102</v>
       </c>
-      <c r="B122" s="64" t="s">
+      <c r="B122" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="C122" s="118"/>
-      <c r="D122" s="119"/>
+      <c r="C122" s="114"/>
+      <c r="D122" s="115"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>103</v>
       </c>
-      <c r="B123" s="64" t="s">
+      <c r="B123" s="63" t="s">
         <v>131</v>
       </c>
-      <c r="C123" s="116"/>
-      <c r="D123" s="117"/>
+      <c r="C123" s="112"/>
+      <c r="D123" s="113"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>104</v>
       </c>
-      <c r="B124" s="64" t="s">
+      <c r="B124" s="63" t="s">
         <v>132</v>
       </c>
-      <c r="C124" s="116"/>
-      <c r="D124" s="117"/>
+      <c r="C124" s="112"/>
+      <c r="D124" s="113"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>105</v>
       </c>
-      <c r="B125" s="64" t="s">
+      <c r="B125" s="63" t="s">
         <v>133</v>
       </c>
-      <c r="C125" s="116"/>
-      <c r="D125" s="117"/>
+      <c r="C125" s="112"/>
+      <c r="D125" s="113"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" s="9"/>
-      <c r="B126" s="112" t="s">
+      <c r="B126" s="108" t="s">
         <v>134</v>
       </c>
-      <c r="C126" s="122"/>
-      <c r="D126" s="123"/>
+      <c r="C126" s="118"/>
+      <c r="D126" s="119"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" s="9">
@@ -5058,18 +5027,18 @@
       <c r="B127" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="C127" s="116"/>
-      <c r="D127" s="117"/>
+      <c r="C127" s="112"/>
+      <c r="D127" s="113"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" s="9">
         <v>107</v>
       </c>
-      <c r="B128" s="64" t="s">
+      <c r="B128" s="63" t="s">
         <v>136</v>
       </c>
-      <c r="C128" s="116"/>
-      <c r="D128" s="117"/>
+      <c r="C128" s="112"/>
+      <c r="D128" s="113"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" s="9">
@@ -5078,154 +5047,154 @@
       <c r="B129" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="C129" s="116"/>
-      <c r="D129" s="117"/>
+      <c r="C129" s="112"/>
+      <c r="D129" s="113"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" s="9">
         <v>109</v>
       </c>
-      <c r="B130" s="64" t="s">
+      <c r="B130" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="C130" s="118"/>
-      <c r="D130" s="119"/>
+      <c r="C130" s="114"/>
+      <c r="D130" s="115"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" s="1"/>
-      <c r="B131" s="112" t="s">
+      <c r="B131" s="108" t="s">
         <v>139</v>
       </c>
-      <c r="C131" s="113"/>
-      <c r="D131" s="114"/>
+      <c r="C131" s="109"/>
+      <c r="D131" s="110"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>110</v>
       </c>
-      <c r="B132" s="64" t="s">
+      <c r="B132" s="63" t="s">
         <v>140</v>
       </c>
-      <c r="C132" s="116"/>
-      <c r="D132" s="117"/>
+      <c r="C132" s="112"/>
+      <c r="D132" s="113"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>111</v>
       </c>
-      <c r="B133" s="60" t="s">
+      <c r="B133" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="C133" s="116"/>
-      <c r="D133" s="117"/>
+      <c r="C133" s="112"/>
+      <c r="D133" s="113"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>112</v>
       </c>
-      <c r="B134" s="60" t="s">
+      <c r="B134" s="59" t="s">
         <v>142</v>
       </c>
-      <c r="C134" s="118"/>
-      <c r="D134" s="119"/>
+      <c r="C134" s="114"/>
+      <c r="D134" s="115"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>113</v>
       </c>
-      <c r="B135" s="60" t="s">
+      <c r="B135" s="59" t="s">
         <v>143</v>
       </c>
-      <c r="C135" s="116"/>
-      <c r="D135" s="117"/>
+      <c r="C135" s="112"/>
+      <c r="D135" s="113"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>114</v>
       </c>
-      <c r="B136" s="60" t="s">
+      <c r="B136" s="59" t="s">
         <v>144</v>
       </c>
-      <c r="C136" s="116"/>
-      <c r="D136" s="117"/>
+      <c r="C136" s="112"/>
+      <c r="D136" s="113"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>115</v>
       </c>
-      <c r="B137" s="60" t="s">
+      <c r="B137" s="59" t="s">
         <v>145</v>
       </c>
-      <c r="C137" s="118"/>
-      <c r="D137" s="119"/>
+      <c r="C137" s="114"/>
+      <c r="D137" s="115"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>116</v>
       </c>
-      <c r="B138" s="60" t="s">
+      <c r="B138" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="C138" s="116"/>
-      <c r="D138" s="117"/>
+      <c r="C138" s="112"/>
+      <c r="D138" s="113"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>117</v>
       </c>
-      <c r="B139" s="60" t="s">
+      <c r="B139" s="59" t="s">
         <v>147</v>
       </c>
-      <c r="C139" s="116"/>
-      <c r="D139" s="117"/>
+      <c r="C139" s="112"/>
+      <c r="D139" s="113"/>
     </row>
     <row r="140" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>118</v>
       </c>
-      <c r="B140" s="60" t="s">
+      <c r="B140" s="59" t="s">
         <v>148</v>
       </c>
-      <c r="C140" s="118"/>
-      <c r="D140" s="119"/>
+      <c r="C140" s="114"/>
+      <c r="D140" s="115"/>
     </row>
     <row r="141" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>119</v>
       </c>
-      <c r="B141" s="60" t="s">
+      <c r="B141" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="C141" s="118"/>
-      <c r="D141" s="119"/>
+      <c r="C141" s="114"/>
+      <c r="D141" s="115"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>120</v>
       </c>
-      <c r="B142" s="60" t="s">
+      <c r="B142" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="C142" s="116"/>
-      <c r="D142" s="117"/>
+      <c r="C142" s="112"/>
+      <c r="D142" s="113"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>121</v>
       </c>
-      <c r="B143" s="60" t="s">
+      <c r="B143" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="C143" s="133"/>
-      <c r="D143" s="119"/>
+      <c r="C143" s="129"/>
+      <c r="D143" s="115"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" s="1"/>
-      <c r="B144" s="112" t="s">
+      <c r="B144" s="108" t="s">
         <v>152</v>
       </c>
-      <c r="C144" s="113"/>
-      <c r="D144" s="114"/>
+      <c r="C144" s="109"/>
+      <c r="D144" s="110"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
@@ -5234,64 +5203,64 @@
       <c r="B145" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="C145" s="126"/>
-      <c r="D145" s="127"/>
+      <c r="C145" s="122"/>
+      <c r="D145" s="123"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" s="1"/>
-      <c r="B146" s="112" t="s">
+      <c r="B146" s="108" t="s">
         <v>154</v>
       </c>
-      <c r="C146" s="113"/>
-      <c r="D146" s="114"/>
+      <c r="C146" s="109"/>
+      <c r="D146" s="110"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>124</v>
       </c>
-      <c r="B147" s="64" t="s">
+      <c r="B147" s="63" t="s">
         <v>155</v>
       </c>
-      <c r="C147" s="116"/>
-      <c r="D147" s="117"/>
+      <c r="C147" s="112"/>
+      <c r="D147" s="113"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>125</v>
       </c>
-      <c r="B148" s="64" t="s">
+      <c r="B148" s="63" t="s">
         <v>156</v>
       </c>
-      <c r="C148" s="116"/>
-      <c r="D148" s="117"/>
+      <c r="C148" s="112"/>
+      <c r="D148" s="113"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>126</v>
       </c>
-      <c r="B149" s="64" t="s">
+      <c r="B149" s="63" t="s">
         <v>157</v>
       </c>
-      <c r="C149" s="116"/>
-      <c r="D149" s="117"/>
+      <c r="C149" s="112"/>
+      <c r="D149" s="113"/>
     </row>
     <row r="150" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="1"/>
-      <c r="B150" s="112" t="s">
+      <c r="B150" s="108" t="s">
         <v>158</v>
       </c>
-      <c r="C150" s="113"/>
-      <c r="D150" s="114"/>
+      <c r="C150" s="109"/>
+      <c r="D150" s="110"/>
     </row>
     <row r="151" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="1"/>
-      <c r="B151" s="67" t="s">
+      <c r="B151" s="66" t="s">
         <v>159</v>
       </c>
-      <c r="C151" s="67" t="s">
+      <c r="C151" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="D151" s="68" t="s">
+      <c r="D151" s="67" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5299,169 +5268,169 @@
       <c r="A152" s="1">
         <v>127</v>
       </c>
-      <c r="B152" s="64" t="s">
+      <c r="B152" s="63" t="s">
         <v>160</v>
       </c>
-      <c r="C152" s="64"/>
-      <c r="D152" s="65"/>
+      <c r="C152" s="63"/>
+      <c r="D152" s="64"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>128</v>
       </c>
-      <c r="B153" s="64" t="s">
+      <c r="B153" s="63" t="s">
         <v>161</v>
       </c>
-      <c r="C153" s="64"/>
-      <c r="D153" s="65"/>
+      <c r="C153" s="63"/>
+      <c r="D153" s="64"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>129</v>
       </c>
-      <c r="B154" s="64" t="s">
+      <c r="B154" s="63" t="s">
         <v>162</v>
       </c>
-      <c r="C154" s="64"/>
-      <c r="D154" s="65"/>
+      <c r="C154" s="63"/>
+      <c r="D154" s="64"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>130</v>
       </c>
-      <c r="B155" s="64" t="s">
+      <c r="B155" s="63" t="s">
         <v>163</v>
       </c>
-      <c r="C155" s="64"/>
-      <c r="D155" s="65"/>
+      <c r="C155" s="63"/>
+      <c r="D155" s="64"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>131</v>
       </c>
-      <c r="B156" s="64" t="s">
+      <c r="B156" s="63" t="s">
         <v>164</v>
       </c>
-      <c r="C156" s="64"/>
-      <c r="D156" s="65"/>
+      <c r="C156" s="63"/>
+      <c r="D156" s="64"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>132</v>
       </c>
-      <c r="B157" s="64" t="s">
+      <c r="B157" s="63" t="s">
         <v>165</v>
       </c>
-      <c r="C157" s="64"/>
-      <c r="D157" s="65"/>
+      <c r="C157" s="63"/>
+      <c r="D157" s="64"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>133</v>
       </c>
-      <c r="B158" s="64" t="s">
+      <c r="B158" s="63" t="s">
         <v>166</v>
       </c>
-      <c r="C158" s="64"/>
-      <c r="D158" s="65"/>
+      <c r="C158" s="63"/>
+      <c r="D158" s="64"/>
     </row>
     <row r="159" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="1"/>
-      <c r="B159" s="112" t="s">
+      <c r="B159" s="108" t="s">
         <v>167</v>
       </c>
-      <c r="C159" s="113"/>
-      <c r="D159" s="114"/>
+      <c r="C159" s="109"/>
+      <c r="D159" s="110"/>
     </row>
     <row r="160" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>134</v>
       </c>
-      <c r="B160" s="64" t="s">
+      <c r="B160" s="63" t="s">
         <v>140</v>
       </c>
-      <c r="C160" s="124"/>
-      <c r="D160" s="125"/>
+      <c r="C160" s="120"/>
+      <c r="D160" s="121"/>
     </row>
     <row r="161" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>135</v>
       </c>
-      <c r="B161" s="64" t="s">
+      <c r="B161" s="63" t="s">
         <v>143</v>
       </c>
-      <c r="C161" s="124"/>
-      <c r="D161" s="125"/>
+      <c r="C161" s="120"/>
+      <c r="D161" s="121"/>
     </row>
     <row r="162" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>136</v>
       </c>
-      <c r="B162" s="64" t="s">
+      <c r="B162" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="C162" s="124"/>
-      <c r="D162" s="125"/>
+      <c r="C162" s="120"/>
+      <c r="D162" s="121"/>
     </row>
     <row r="163" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>137</v>
       </c>
-      <c r="B163" s="64" t="s">
+      <c r="B163" s="63" t="s">
         <v>168</v>
       </c>
-      <c r="C163" s="124"/>
-      <c r="D163" s="125"/>
+      <c r="C163" s="120"/>
+      <c r="D163" s="121"/>
     </row>
     <row r="164" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>138</v>
       </c>
-      <c r="B164" s="64" t="s">
+      <c r="B164" s="63" t="s">
         <v>146</v>
       </c>
-      <c r="C164" s="124"/>
-      <c r="D164" s="125"/>
+      <c r="C164" s="120"/>
+      <c r="D164" s="121"/>
     </row>
     <row r="165" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>139</v>
       </c>
-      <c r="B165" s="64" t="s">
+      <c r="B165" s="63" t="s">
         <v>147</v>
       </c>
-      <c r="C165" s="124"/>
-      <c r="D165" s="125"/>
+      <c r="C165" s="120"/>
+      <c r="D165" s="121"/>
     </row>
     <row r="166" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>140</v>
       </c>
-      <c r="B166" s="64" t="s">
+      <c r="B166" s="63" t="s">
         <v>169</v>
       </c>
-      <c r="C166" s="124"/>
-      <c r="D166" s="125"/>
+      <c r="C166" s="120"/>
+      <c r="D166" s="121"/>
     </row>
     <row r="167" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>141</v>
       </c>
-      <c r="B167" s="64" t="s">
+      <c r="B167" s="63" t="s">
         <v>170</v>
       </c>
-      <c r="C167" s="124"/>
-      <c r="D167" s="125"/>
+      <c r="C167" s="120"/>
+      <c r="D167" s="121"/>
     </row>
     <row r="168" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="1"/>
-      <c r="B168" s="67" t="s">
+      <c r="B168" s="66" t="s">
         <v>159</v>
       </c>
-      <c r="C168" s="67" t="s">
+      <c r="C168" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="D168" s="68" t="s">
+      <c r="D168" s="67" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5469,371 +5438,371 @@
       <c r="A169" s="1">
         <v>142</v>
       </c>
-      <c r="B169" s="64" t="s">
+      <c r="B169" s="63" t="s">
         <v>160</v>
       </c>
-      <c r="C169" s="64"/>
-      <c r="D169" s="65"/>
+      <c r="C169" s="63"/>
+      <c r="D169" s="64"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>143</v>
       </c>
-      <c r="B170" s="64" t="s">
+      <c r="B170" s="63" t="s">
         <v>161</v>
       </c>
-      <c r="C170" s="64"/>
-      <c r="D170" s="65"/>
+      <c r="C170" s="63"/>
+      <c r="D170" s="64"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>144</v>
       </c>
-      <c r="B171" s="64" t="s">
+      <c r="B171" s="63" t="s">
         <v>162</v>
       </c>
-      <c r="C171" s="64"/>
-      <c r="D171" s="65"/>
+      <c r="C171" s="63"/>
+      <c r="D171" s="64"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>145</v>
       </c>
-      <c r="B172" s="64" t="s">
+      <c r="B172" s="63" t="s">
         <v>163</v>
       </c>
-      <c r="C172" s="64"/>
-      <c r="D172" s="65"/>
+      <c r="C172" s="63"/>
+      <c r="D172" s="64"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>146</v>
       </c>
-      <c r="B173" s="64" t="s">
+      <c r="B173" s="63" t="s">
         <v>171</v>
       </c>
-      <c r="C173" s="64"/>
-      <c r="D173" s="65"/>
+      <c r="C173" s="63"/>
+      <c r="D173" s="64"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>147</v>
       </c>
-      <c r="B174" s="64" t="s">
+      <c r="B174" s="63" t="s">
         <v>165</v>
       </c>
-      <c r="C174" s="64"/>
-      <c r="D174" s="65"/>
+      <c r="C174" s="63"/>
+      <c r="D174" s="64"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>148</v>
       </c>
-      <c r="B175" s="64" t="s">
+      <c r="B175" s="63" t="s">
         <v>166</v>
       </c>
-      <c r="C175" s="64"/>
-      <c r="D175" s="65"/>
+      <c r="C175" s="63"/>
+      <c r="D175" s="64"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" s="1"/>
-      <c r="B176" s="112" t="s">
+      <c r="B176" s="108" t="s">
         <v>172</v>
       </c>
-      <c r="C176" s="113"/>
-      <c r="D176" s="114"/>
+      <c r="C176" s="109"/>
+      <c r="D176" s="110"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>149</v>
       </c>
-      <c r="B177" s="64" t="s">
+      <c r="B177" s="63" t="s">
         <v>173</v>
       </c>
-      <c r="C177" s="116"/>
-      <c r="D177" s="117"/>
+      <c r="C177" s="112"/>
+      <c r="D177" s="113"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>150</v>
       </c>
-      <c r="B178" s="64" t="s">
+      <c r="B178" s="63" t="s">
         <v>174</v>
       </c>
-      <c r="C178" s="116"/>
-      <c r="D178" s="117"/>
+      <c r="C178" s="112"/>
+      <c r="D178" s="113"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>151</v>
       </c>
-      <c r="B179" s="64" t="s">
+      <c r="B179" s="63" t="s">
         <v>175</v>
       </c>
-      <c r="C179" s="118"/>
-      <c r="D179" s="119"/>
+      <c r="C179" s="114"/>
+      <c r="D179" s="115"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180" s="1"/>
-      <c r="B180" s="112" t="s">
+      <c r="B180" s="108" t="s">
         <v>176</v>
       </c>
-      <c r="C180" s="113"/>
-      <c r="D180" s="114"/>
+      <c r="C180" s="109"/>
+      <c r="D180" s="110"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <v>152</v>
       </c>
-      <c r="B181" s="64" t="s">
+      <c r="B181" s="63" t="s">
         <v>177</v>
       </c>
-      <c r="C181" s="124"/>
-      <c r="D181" s="125"/>
+      <c r="C181" s="112"/>
+      <c r="D181" s="113"/>
     </row>
     <row r="182" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>153</v>
       </c>
-      <c r="B182" s="64" t="s">
+      <c r="B182" s="63" t="s">
         <v>178</v>
       </c>
-      <c r="C182" s="116"/>
-      <c r="D182" s="117"/>
+      <c r="C182" s="112"/>
+      <c r="D182" s="113"/>
     </row>
     <row r="183" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="12"/>
-      <c r="B183" s="112" t="s">
+      <c r="B183" s="108" t="s">
         <v>179</v>
       </c>
-      <c r="C183" s="113"/>
-      <c r="D183" s="114"/>
+      <c r="C183" s="109"/>
+      <c r="D183" s="110"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
         <v>154</v>
       </c>
-      <c r="B184" s="64" t="s">
+      <c r="B184" s="63" t="s">
         <v>180</v>
       </c>
-      <c r="C184" s="116"/>
-      <c r="D184" s="117"/>
+      <c r="C184" s="112"/>
+      <c r="D184" s="113"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
         <v>155</v>
       </c>
-      <c r="B185" s="64" t="s">
+      <c r="B185" s="63" t="s">
         <v>181</v>
       </c>
-      <c r="C185" s="116"/>
-      <c r="D185" s="117"/>
+      <c r="C185" s="112"/>
+      <c r="D185" s="113"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
         <v>156</v>
       </c>
-      <c r="B186" s="64" t="s">
+      <c r="B186" s="63" t="s">
         <v>182</v>
       </c>
-      <c r="C186" s="116"/>
-      <c r="D186" s="117"/>
+      <c r="C186" s="112"/>
+      <c r="D186" s="113"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
         <v>157</v>
       </c>
-      <c r="B187" s="64" t="s">
+      <c r="B187" s="63" t="s">
         <v>183</v>
       </c>
-      <c r="C187" s="116"/>
-      <c r="D187" s="117"/>
+      <c r="C187" s="112"/>
+      <c r="D187" s="113"/>
     </row>
     <row r="188" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
         <v>158</v>
       </c>
-      <c r="B188" s="64" t="s">
+      <c r="B188" s="63" t="s">
         <v>184</v>
       </c>
-      <c r="C188" s="134"/>
-      <c r="D188" s="135"/>
+      <c r="C188" s="130"/>
+      <c r="D188" s="131"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
         <v>159</v>
       </c>
-      <c r="B189" s="64" t="s">
+      <c r="B189" s="63" t="s">
         <v>185</v>
       </c>
-      <c r="C189" s="136"/>
-      <c r="D189" s="117"/>
+      <c r="C189" s="132"/>
+      <c r="D189" s="113"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
         <v>160</v>
       </c>
-      <c r="B190" s="64" t="s">
+      <c r="B190" s="63" t="s">
         <v>186</v>
       </c>
-      <c r="C190" s="118"/>
-      <c r="D190" s="119"/>
+      <c r="C190" s="114"/>
+      <c r="D190" s="115"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
         <v>161</v>
       </c>
-      <c r="B191" s="64" t="s">
+      <c r="B191" s="63" t="s">
         <v>187</v>
       </c>
-      <c r="C191" s="116"/>
-      <c r="D191" s="117"/>
+      <c r="C191" s="112"/>
+      <c r="D191" s="113"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
         <v>162</v>
       </c>
-      <c r="B192" s="64" t="s">
+      <c r="B192" s="63" t="s">
         <v>188</v>
       </c>
-      <c r="C192" s="116"/>
-      <c r="D192" s="117"/>
+      <c r="C192" s="112"/>
+      <c r="D192" s="113"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
         <v>163</v>
       </c>
-      <c r="B193" s="64" t="s">
+      <c r="B193" s="63" t="s">
         <v>189</v>
       </c>
-      <c r="C193" s="116"/>
-      <c r="D193" s="117"/>
+      <c r="C193" s="112"/>
+      <c r="D193" s="113"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
         <v>164</v>
       </c>
-      <c r="B194" s="64" t="s">
+      <c r="B194" s="63" t="s">
         <v>190</v>
       </c>
-      <c r="C194" s="116"/>
-      <c r="D194" s="117"/>
+      <c r="C194" s="112"/>
+      <c r="D194" s="113"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
         <v>165</v>
       </c>
-      <c r="B195" s="64" t="s">
+      <c r="B195" s="63" t="s">
         <v>191</v>
       </c>
-      <c r="C195" s="116"/>
-      <c r="D195" s="117"/>
+      <c r="C195" s="112"/>
+      <c r="D195" s="113"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
         <v>166</v>
       </c>
-      <c r="B196" s="64" t="s">
+      <c r="B196" s="63" t="s">
         <v>192</v>
       </c>
-      <c r="C196" s="116"/>
-      <c r="D196" s="117"/>
+      <c r="C196" s="112"/>
+      <c r="D196" s="113"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
         <v>167</v>
       </c>
-      <c r="B197" s="64" t="s">
+      <c r="B197" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="C197" s="116"/>
-      <c r="D197" s="117"/>
+      <c r="C197" s="112"/>
+      <c r="D197" s="113"/>
     </row>
     <row r="198" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
         <v>168</v>
       </c>
-      <c r="B198" s="64" t="s">
+      <c r="B198" s="63" t="s">
         <v>194</v>
       </c>
-      <c r="C198" s="116"/>
-      <c r="D198" s="117"/>
+      <c r="C198" s="112"/>
+      <c r="D198" s="113"/>
     </row>
     <row r="199" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="1"/>
-      <c r="B199" s="112" t="s">
+      <c r="B199" s="108" t="s">
         <v>195</v>
       </c>
-      <c r="C199" s="113"/>
-      <c r="D199" s="114"/>
+      <c r="C199" s="109"/>
+      <c r="D199" s="110"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
         <v>169</v>
       </c>
-      <c r="B200" s="64" t="s">
+      <c r="B200" s="63" t="s">
         <v>196</v>
       </c>
-      <c r="C200" s="116"/>
-      <c r="D200" s="117"/>
+      <c r="C200" s="112"/>
+      <c r="D200" s="113"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
         <v>170</v>
       </c>
-      <c r="B201" s="64" t="s">
+      <c r="B201" s="63" t="s">
         <v>197</v>
       </c>
-      <c r="C201" s="116"/>
-      <c r="D201" s="117"/>
+      <c r="C201" s="112"/>
+      <c r="D201" s="113"/>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
         <v>171</v>
       </c>
-      <c r="B202" s="64" t="s">
+      <c r="B202" s="63" t="s">
         <v>198</v>
       </c>
-      <c r="C202" s="116"/>
-      <c r="D202" s="117"/>
+      <c r="C202" s="112"/>
+      <c r="D202" s="113"/>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
         <v>172</v>
       </c>
-      <c r="B203" s="61" t="s">
+      <c r="B203" s="60" t="s">
         <v>199</v>
       </c>
-      <c r="C203" s="130"/>
-      <c r="D203" s="131"/>
+      <c r="C203" s="126"/>
+      <c r="D203" s="127"/>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
         <v>173</v>
       </c>
-      <c r="B204" s="61" t="s">
+      <c r="B204" s="60" t="s">
         <v>200</v>
       </c>
-      <c r="C204" s="130"/>
-      <c r="D204" s="131"/>
+      <c r="C204" s="126"/>
+      <c r="D204" s="127"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205" s="1"/>
-      <c r="B205" s="112" t="s">
+      <c r="B205" s="108" t="s">
         <v>201</v>
       </c>
-      <c r="C205" s="113"/>
-      <c r="D205" s="114"/>
+      <c r="C205" s="109"/>
+      <c r="D205" s="110"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
         <v>174</v>
       </c>
-      <c r="B206" s="64" t="s">
+      <c r="B206" s="63" t="s">
         <v>202</v>
       </c>
-      <c r="C206" s="116"/>
-      <c r="D206" s="117"/>
+      <c r="C206" s="112"/>
+      <c r="D206" s="113"/>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
@@ -5842,8 +5811,8 @@
       <c r="B207" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="C207" s="132"/>
-      <c r="D207" s="119"/>
+      <c r="C207" s="128"/>
+      <c r="D207" s="115"/>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208" s="1">
@@ -5852,8 +5821,8 @@
       <c r="B208" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="C208" s="118"/>
-      <c r="D208" s="119"/>
+      <c r="C208" s="114"/>
+      <c r="D208" s="115"/>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209" s="1">
@@ -5862,8 +5831,8 @@
       <c r="B209" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="C209" s="118"/>
-      <c r="D209" s="119"/>
+      <c r="C209" s="114"/>
+      <c r="D209" s="115"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
@@ -5872,8 +5841,8 @@
       <c r="B210" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="C210" s="118"/>
-      <c r="D210" s="119"/>
+      <c r="C210" s="114"/>
+      <c r="D210" s="115"/>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211" s="1">
@@ -5882,16 +5851,16 @@
       <c r="B211" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="C211" s="118"/>
-      <c r="D211" s="119"/>
+      <c r="C211" s="114"/>
+      <c r="D211" s="115"/>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212" s="1"/>
-      <c r="B212" s="112" t="s">
+      <c r="B212" s="108" t="s">
         <v>208</v>
       </c>
-      <c r="C212" s="113"/>
-      <c r="D212" s="114"/>
+      <c r="C212" s="109"/>
+      <c r="D212" s="110"/>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
@@ -5900,8 +5869,8 @@
       <c r="B213" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="C213" s="116"/>
-      <c r="D213" s="117"/>
+      <c r="C213" s="112"/>
+      <c r="D213" s="113"/>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214" s="1">
@@ -5910,8 +5879,8 @@
       <c r="B214" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="C214" s="116"/>
-      <c r="D214" s="117"/>
+      <c r="C214" s="112"/>
+      <c r="D214" s="113"/>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" s="1">
@@ -5920,8 +5889,8 @@
       <c r="B215" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="C215" s="116"/>
-      <c r="D215" s="117"/>
+      <c r="C215" s="112"/>
+      <c r="D215" s="113"/>
     </row>
     <row r="216" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A216" s="27">
@@ -5930,8 +5899,8 @@
       <c r="B216" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="C216" s="128"/>
-      <c r="D216" s="129"/>
+      <c r="C216" s="124"/>
+      <c r="D216" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="177">
@@ -6140,30 +6109,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="142"/>
+      <c r="B1" s="137"/>
+      <c r="C1" s="138"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="143"/>
-      <c r="B2" s="144"/>
-      <c r="C2" s="145"/>
+      <c r="A2" s="139"/>
+      <c r="B2" s="140"/>
+      <c r="C2" s="141"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
-      <c r="B3" s="137" t="s">
+      <c r="B3" s="133" t="s">
         <v>213</v>
       </c>
-      <c r="C3" s="138"/>
+      <c r="C3" s="134"/>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15"/>
-      <c r="B4" s="120" t="s">
+      <c r="B4" s="116" t="s">
         <v>214</v>
       </c>
-      <c r="C4" s="121"/>
+      <c r="C4" s="117"/>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="50">
@@ -6239,10 +6208,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="51"/>
-      <c r="B13" s="120" t="s">
+      <c r="B13" s="116" t="s">
         <v>223</v>
       </c>
-      <c r="C13" s="121"/>
+      <c r="C13" s="117"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
@@ -6251,32 +6220,32 @@
       <c r="B14" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="65"/>
+      <c r="C14" s="64"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>10</v>
       </c>
-      <c r="B15" s="64" t="s">
+      <c r="B15" s="63" t="s">
         <v>107</v>
       </c>
-      <c r="C15" s="65"/>
+      <c r="C15" s="64"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>11</v>
       </c>
-      <c r="B16" s="64" t="s">
+      <c r="B16" s="63" t="s">
         <v>108</v>
       </c>
-      <c r="C16" s="65"/>
+      <c r="C16" s="64"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="12"/>
-      <c r="B17" s="146" t="s">
+      <c r="B17" s="142" t="s">
         <v>224</v>
       </c>
-      <c r="C17" s="147"/>
+      <c r="C17" s="143"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
@@ -6300,26 +6269,26 @@
       <c r="A20" s="12">
         <v>14</v>
       </c>
-      <c r="B20" s="62" t="s">
+      <c r="B20" s="61" t="s">
         <v>113</v>
       </c>
       <c r="C20" s="16"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="12"/>
-      <c r="B21" s="120" t="s">
+      <c r="B21" s="116" t="s">
         <v>225</v>
       </c>
-      <c r="C21" s="139"/>
+      <c r="C21" s="135"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="12">
         <v>15</v>
       </c>
-      <c r="B22" s="64" t="s">
+      <c r="B22" s="63" t="s">
         <v>226</v>
       </c>
-      <c r="C22" s="65"/>
+      <c r="C22" s="64"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="50">
@@ -6503,10 +6472,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="51"/>
-      <c r="B43" s="137" t="s">
+      <c r="B43" s="133" t="s">
         <v>247</v>
       </c>
-      <c r="C43" s="138"/>
+      <c r="C43" s="134"/>
     </row>
     <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="50">
@@ -6573,10 +6542,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="51"/>
-      <c r="B51" s="137" t="s">
+      <c r="B51" s="133" t="s">
         <v>70</v>
       </c>
-      <c r="C51" s="138"/>
+      <c r="C51" s="134"/>
     </row>
     <row r="52" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="50">
@@ -6589,42 +6558,42 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="12"/>
-      <c r="B53" s="120" t="s">
+      <c r="B53" s="116" t="s">
         <v>256</v>
       </c>
-      <c r="C53" s="121"/>
+      <c r="C53" s="117"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="12">
         <v>44</v>
       </c>
-      <c r="B54" s="64" t="s">
+      <c r="B54" s="63" t="s">
         <v>257</v>
       </c>
-      <c r="C54" s="65"/>
+      <c r="C54" s="64"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="12">
         <v>45</v>
       </c>
-      <c r="B55" s="64" t="s">
+      <c r="B55" s="63" t="s">
         <v>258</v>
       </c>
-      <c r="C55" s="65"/>
+      <c r="C55" s="64"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="51"/>
-      <c r="B56" s="137" t="s">
+      <c r="B56" s="133" t="s">
         <v>259</v>
       </c>
-      <c r="C56" s="138"/>
+      <c r="C56" s="134"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="51"/>
-      <c r="B57" s="137" t="s">
+      <c r="B57" s="133" t="s">
         <v>260</v>
       </c>
-      <c r="C57" s="138"/>
+      <c r="C57" s="134"/>
     </row>
     <row r="58" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="50">
@@ -6709,10 +6678,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="51"/>
-      <c r="B67" s="137" t="s">
+      <c r="B67" s="133" t="s">
         <v>269</v>
       </c>
-      <c r="C67" s="138"/>
+      <c r="C67" s="134"/>
     </row>
     <row r="68" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="50">
@@ -6838,30 +6807,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="142"/>
+      <c r="B1" s="137"/>
+      <c r="C1" s="138"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="143"/>
-      <c r="B2" s="144"/>
-      <c r="C2" s="145"/>
+      <c r="A2" s="139"/>
+      <c r="B2" s="140"/>
+      <c r="C2" s="141"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
-      <c r="B3" s="137" t="s">
+      <c r="B3" s="133" t="s">
         <v>271</v>
       </c>
-      <c r="C3" s="138"/>
+      <c r="C3" s="134"/>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15"/>
-      <c r="B4" s="120" t="s">
+      <c r="B4" s="116" t="s">
         <v>214</v>
       </c>
-      <c r="C4" s="121"/>
+      <c r="C4" s="117"/>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="50">
@@ -6937,10 +6906,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="51"/>
-      <c r="B13" s="120" t="s">
+      <c r="B13" s="116" t="s">
         <v>223</v>
       </c>
-      <c r="C13" s="121"/>
+      <c r="C13" s="117"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
@@ -6949,32 +6918,32 @@
       <c r="B14" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="65"/>
+      <c r="C14" s="64"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>10</v>
       </c>
-      <c r="B15" s="64" t="s">
+      <c r="B15" s="63" t="s">
         <v>107</v>
       </c>
-      <c r="C15" s="65"/>
+      <c r="C15" s="64"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>11</v>
       </c>
-      <c r="B16" s="64" t="s">
+      <c r="B16" s="63" t="s">
         <v>108</v>
       </c>
-      <c r="C16" s="65"/>
+      <c r="C16" s="64"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="12"/>
-      <c r="B17" s="146" t="s">
+      <c r="B17" s="142" t="s">
         <v>224</v>
       </c>
-      <c r="C17" s="147"/>
+      <c r="C17" s="143"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
@@ -6998,26 +6967,26 @@
       <c r="A20" s="12">
         <v>14</v>
       </c>
-      <c r="B20" s="62" t="s">
+      <c r="B20" s="61" t="s">
         <v>113</v>
       </c>
       <c r="C20" s="16"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="12"/>
-      <c r="B21" s="120" t="s">
+      <c r="B21" s="116" t="s">
         <v>225</v>
       </c>
-      <c r="C21" s="139"/>
+      <c r="C21" s="135"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="12">
         <v>15</v>
       </c>
-      <c r="B22" s="64" t="s">
+      <c r="B22" s="63" t="s">
         <v>226</v>
       </c>
-      <c r="C22" s="65"/>
+      <c r="C22" s="64"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="50">
@@ -7201,10 +7170,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="51"/>
-      <c r="B43" s="137" t="s">
+      <c r="B43" s="133" t="s">
         <v>247</v>
       </c>
-      <c r="C43" s="138"/>
+      <c r="C43" s="134"/>
     </row>
     <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="50">
@@ -7271,42 +7240,42 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="12"/>
-      <c r="B51" s="120" t="s">
+      <c r="B51" s="116" t="s">
         <v>256</v>
       </c>
-      <c r="C51" s="121"/>
+      <c r="C51" s="117"/>
     </row>
     <row r="52" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="12">
         <v>43</v>
       </c>
-      <c r="B52" s="64" t="s">
+      <c r="B52" s="63" t="s">
         <v>257</v>
       </c>
-      <c r="C52" s="65"/>
+      <c r="C52" s="64"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="12">
         <v>44</v>
       </c>
-      <c r="B53" s="64" t="s">
+      <c r="B53" s="63" t="s">
         <v>258</v>
       </c>
-      <c r="C53" s="65"/>
+      <c r="C53" s="64"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="51"/>
-      <c r="B54" s="137" t="s">
+      <c r="B54" s="133" t="s">
         <v>259</v>
       </c>
-      <c r="C54" s="138"/>
+      <c r="C54" s="134"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="51"/>
-      <c r="B55" s="137" t="s">
+      <c r="B55" s="133" t="s">
         <v>260</v>
       </c>
-      <c r="C55" s="138"/>
+      <c r="C55" s="134"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="50">
@@ -7391,10 +7360,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="51"/>
-      <c r="B65" s="137" t="s">
+      <c r="B65" s="133" t="s">
         <v>269</v>
       </c>
-      <c r="C65" s="138"/>
+      <c r="C65" s="134"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="50">
@@ -7503,8 +7472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C220"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A50" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7516,30 +7485,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="142"/>
+      <c r="B1" s="137"/>
+      <c r="C1" s="138"/>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="143"/>
-      <c r="B2" s="144"/>
-      <c r="C2" s="145"/>
+      <c r="A2" s="139"/>
+      <c r="B2" s="140"/>
+      <c r="C2" s="141"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="51"/>
-      <c r="B3" s="137" t="s">
+      <c r="B3" s="133" t="s">
         <v>213</v>
       </c>
-      <c r="C3" s="138"/>
+      <c r="C3" s="134"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="51"/>
-      <c r="B4" s="120" t="s">
+      <c r="B4" s="116" t="s">
         <v>214</v>
       </c>
-      <c r="C4" s="121"/>
+      <c r="C4" s="117"/>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="50">
@@ -7615,10 +7584,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="50"/>
-      <c r="B13" s="146" t="s">
+      <c r="B13" s="142" t="s">
         <v>224</v>
       </c>
-      <c r="C13" s="148"/>
+      <c r="C13" s="144"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="50">
@@ -7642,17 +7611,17 @@
       <c r="A16" s="50">
         <v>11</v>
       </c>
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="61" t="s">
         <v>113</v>
       </c>
       <c r="C16" s="16"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="51"/>
-      <c r="B17" s="120" t="s">
+      <c r="B17" s="116" t="s">
         <v>223</v>
       </c>
-      <c r="C17" s="121"/>
+      <c r="C17" s="117"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
@@ -7661,41 +7630,41 @@
       <c r="B18" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="65"/>
+      <c r="C18" s="64"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <v>13</v>
       </c>
-      <c r="B19" s="64" t="s">
+      <c r="B19" s="63" t="s">
         <v>107</v>
       </c>
-      <c r="C19" s="65"/>
+      <c r="C19" s="64"/>
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
         <v>14</v>
       </c>
-      <c r="B20" s="64" t="s">
+      <c r="B20" s="63" t="s">
         <v>108</v>
       </c>
-      <c r="C20" s="65"/>
+      <c r="C20" s="64"/>
     </row>
     <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="12"/>
-      <c r="B21" s="120" t="s">
+      <c r="B21" s="116" t="s">
         <v>225</v>
       </c>
-      <c r="C21" s="139"/>
+      <c r="C21" s="135"/>
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="12">
         <v>15</v>
       </c>
-      <c r="B22" s="64" t="s">
+      <c r="B22" s="63" t="s">
         <v>226</v>
       </c>
-      <c r="C22" s="65"/>
+      <c r="C22" s="64"/>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="12">
@@ -7879,10 +7848,10 @@
     </row>
     <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="51"/>
-      <c r="B43" s="137" t="s">
+      <c r="B43" s="133" t="s">
         <v>247</v>
       </c>
-      <c r="C43" s="138"/>
+      <c r="C43" s="134"/>
     </row>
     <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="50">
@@ -7949,10 +7918,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="51"/>
-      <c r="B51" s="137" t="s">
+      <c r="B51" s="133" t="s">
         <v>70</v>
       </c>
-      <c r="C51" s="138"/>
+      <c r="C51" s="134"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="50">
@@ -7965,45 +7934,45 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="12"/>
-      <c r="B53" s="120" t="s">
+      <c r="B53" s="116" t="s">
         <v>256</v>
       </c>
-      <c r="C53" s="121"/>
+      <c r="C53" s="117"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="12">
         <v>44</v>
       </c>
-      <c r="B54" s="64" t="s">
+      <c r="B54" s="63" t="s">
         <v>257</v>
       </c>
-      <c r="C54" s="65"/>
+      <c r="C54" s="64"/>
     </row>
     <row r="55" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="12">
         <v>45</v>
       </c>
-      <c r="B55" s="64" t="s">
+      <c r="B55" s="63" t="s">
         <v>272</v>
       </c>
-      <c r="C55" s="65"/>
+      <c r="C55" s="64"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" s="56"/>
-      <c r="B56" s="137" t="s">
+      <c r="A56" s="55"/>
+      <c r="B56" s="133" t="s">
         <v>72</v>
       </c>
-      <c r="C56" s="138"/>
+      <c r="C56" s="134"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" s="56"/>
-      <c r="B57" s="137" t="s">
+      <c r="A57" s="55"/>
+      <c r="B57" s="133" t="s">
         <v>273</v>
       </c>
-      <c r="C57" s="138"/>
+      <c r="C57" s="134"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" s="56">
+      <c r="A58" s="55">
         <v>46</v>
       </c>
       <c r="B58" s="6" t="s">
@@ -8012,7 +7981,7 @@
       <c r="C58" s="16"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" s="56">
+      <c r="A59" s="55">
         <v>47</v>
       </c>
       <c r="B59" s="6" t="s">
@@ -8021,23 +7990,23 @@
       <c r="C59" s="16"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" s="56">
+      <c r="A60" s="55">
         <v>44</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="C60" s="55"/>
+      <c r="C60" s="16"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" s="56"/>
-      <c r="B61" s="137" t="s">
+      <c r="A61" s="55"/>
+      <c r="B61" s="133" t="s">
         <v>277</v>
       </c>
-      <c r="C61" s="138"/>
+      <c r="C61" s="134"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" s="57">
+      <c r="A62" s="56">
         <v>45</v>
       </c>
       <c r="B62" s="3" t="s">
@@ -8046,7 +8015,7 @@
       <c r="C62" s="17"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" s="57">
+      <c r="A63" s="56">
         <v>46</v>
       </c>
       <c r="B63" s="3" t="s">
@@ -8055,7 +8024,7 @@
       <c r="C63" s="17"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" s="57">
+      <c r="A64" s="56">
         <v>47</v>
       </c>
       <c r="B64" s="3" t="s">
@@ -8064,7 +8033,7 @@
       <c r="C64" s="17"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" s="57">
+      <c r="A65" s="56">
         <v>48</v>
       </c>
       <c r="B65" s="3" t="s">
@@ -8073,7 +8042,7 @@
       <c r="C65" s="17"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" s="57">
+      <c r="A66" s="56">
         <v>49</v>
       </c>
       <c r="B66" s="3" t="s">
@@ -8082,7 +8051,7 @@
       <c r="C66" s="17"/>
     </row>
     <row r="67" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="57">
+      <c r="A67" s="56">
         <v>50</v>
       </c>
       <c r="B67" s="3" t="s">
@@ -8091,7 +8060,7 @@
       <c r="C67" s="17"/>
     </row>
     <row r="68" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="57">
+      <c r="A68" s="56">
         <v>51</v>
       </c>
       <c r="B68" s="3" t="s">
@@ -8100,7 +8069,7 @@
       <c r="C68" s="17"/>
     </row>
     <row r="69" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="57">
+      <c r="A69" s="56">
         <v>52</v>
       </c>
       <c r="B69" s="7" t="s">
@@ -8109,7 +8078,7 @@
       <c r="C69" s="17"/>
     </row>
     <row r="70" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="57">
+      <c r="A70" s="56">
         <v>53</v>
       </c>
       <c r="B70" s="7" t="s">
@@ -8118,14 +8087,14 @@
       <c r="C70" s="17"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A71" s="56"/>
-      <c r="B71" s="137" t="s">
+      <c r="A71" s="55"/>
+      <c r="B71" s="133" t="s">
         <v>287</v>
       </c>
-      <c r="C71" s="138"/>
+      <c r="C71" s="134"/>
     </row>
     <row r="72" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="57">
+      <c r="A72" s="56">
         <v>54</v>
       </c>
       <c r="B72" s="3" t="s">
@@ -8134,7 +8103,7 @@
       <c r="C72" s="16"/>
     </row>
     <row r="73" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="57">
+      <c r="A73" s="56">
         <v>55</v>
       </c>
       <c r="B73" s="3" t="s">
@@ -8143,7 +8112,7 @@
       <c r="C73" s="16"/>
     </row>
     <row r="74" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="57">
+      <c r="A74" s="56">
         <v>56</v>
       </c>
       <c r="B74" s="7" t="s">
@@ -8152,7 +8121,7 @@
       <c r="C74" s="16"/>
     </row>
     <row r="75" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="57">
+      <c r="A75" s="56">
         <v>57</v>
       </c>
       <c r="B75" s="7" t="s">
@@ -8161,14 +8130,14 @@
       <c r="C75" s="16"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A76" s="56"/>
-      <c r="B76" s="149" t="s">
+      <c r="A76" s="55"/>
+      <c r="B76" s="145" t="s">
         <v>292</v>
       </c>
-      <c r="C76" s="150"/>
+      <c r="C76" s="146"/>
     </row>
     <row r="77" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="57">
+      <c r="A77" s="56">
         <v>58</v>
       </c>
       <c r="B77" s="19" t="s">
@@ -8177,7 +8146,7 @@
       <c r="C77" s="17"/>
     </row>
     <row r="78" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="57">
+      <c r="A78" s="56">
         <v>59</v>
       </c>
       <c r="B78" s="19" t="s">
@@ -8186,7 +8155,7 @@
       <c r="C78" s="17"/>
     </row>
     <row r="79" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="57">
+      <c r="A79" s="56">
         <v>60</v>
       </c>
       <c r="B79" s="19" t="s">
@@ -8195,7 +8164,7 @@
       <c r="C79" s="17"/>
     </row>
     <row r="80" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="57">
+      <c r="A80" s="56">
         <v>61</v>
       </c>
       <c r="B80" s="6" t="s">
@@ -8204,7 +8173,7 @@
       <c r="C80" s="17"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A81" s="57">
+      <c r="A81" s="56">
         <v>62</v>
       </c>
       <c r="B81" s="6" t="s">
@@ -8213,7 +8182,7 @@
       <c r="C81" s="17"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A82" s="57">
+      <c r="A82" s="56">
         <v>63</v>
       </c>
       <c r="B82" s="6" t="s">
@@ -8222,7 +8191,7 @@
       <c r="C82" s="17"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A83" s="57">
+      <c r="A83" s="56">
         <v>64</v>
       </c>
       <c r="B83" s="19" t="s">
@@ -8231,14 +8200,14 @@
       <c r="C83" s="17"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A84" s="56"/>
-      <c r="B84" s="149" t="s">
+      <c r="A84" s="55"/>
+      <c r="B84" s="145" t="s">
         <v>300</v>
       </c>
-      <c r="C84" s="150"/>
+      <c r="C84" s="146"/>
     </row>
     <row r="85" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="57">
+      <c r="A85" s="56">
         <v>65</v>
       </c>
       <c r="B85" s="7" t="s">
@@ -8247,7 +8216,7 @@
       <c r="C85" s="20"/>
     </row>
     <row r="86" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="57">
+      <c r="A86" s="56">
         <v>66</v>
       </c>
       <c r="B86" s="7" t="s">
@@ -8256,14 +8225,14 @@
       <c r="C86" s="20"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A87" s="57"/>
-      <c r="B87" s="137" t="s">
+      <c r="A87" s="56"/>
+      <c r="B87" s="133" t="s">
         <v>303</v>
       </c>
-      <c r="C87" s="138"/>
+      <c r="C87" s="134"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A88" s="57">
+      <c r="A88" s="56">
         <v>67</v>
       </c>
       <c r="B88" s="7" t="s">
@@ -8272,7 +8241,7 @@
       <c r="C88" s="16"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A89" s="57">
+      <c r="A89" s="56">
         <v>68</v>
       </c>
       <c r="B89" s="7" t="s">
@@ -8281,7 +8250,7 @@
       <c r="C89" s="16"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A90" s="57">
+      <c r="A90" s="56">
         <v>69</v>
       </c>
       <c r="B90" s="7" t="s">
@@ -8290,7 +8259,7 @@
       <c r="C90" s="16"/>
     </row>
     <row r="91" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="57">
+      <c r="A91" s="56">
         <v>70</v>
       </c>
       <c r="B91" s="21" t="s">
@@ -8299,7 +8268,7 @@
       <c r="C91" s="22"/>
     </row>
     <row r="92" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="57">
+      <c r="A92" s="56">
         <v>71</v>
       </c>
       <c r="B92" s="21" t="s">
@@ -8308,14 +8277,14 @@
       <c r="C92" s="22"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A93" s="56"/>
-      <c r="B93" s="149" t="s">
+      <c r="A93" s="55"/>
+      <c r="B93" s="145" t="s">
         <v>309</v>
       </c>
-      <c r="C93" s="150"/>
+      <c r="C93" s="146"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A94" s="57">
+      <c r="A94" s="56">
         <v>72</v>
       </c>
       <c r="B94" s="3" t="s">
@@ -8324,7 +8293,7 @@
       <c r="C94" s="17"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A95" s="57">
+      <c r="A95" s="56">
         <v>73</v>
       </c>
       <c r="B95" s="3" t="s">
@@ -8333,7 +8302,7 @@
       <c r="C95" s="17"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A96" s="57">
+      <c r="A96" s="56">
         <v>74</v>
       </c>
       <c r="B96" s="3" t="s">
@@ -8342,7 +8311,7 @@
       <c r="C96" s="17"/>
     </row>
     <row r="97" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="57">
+      <c r="A97" s="56">
         <v>75</v>
       </c>
       <c r="B97" s="3" t="s">
@@ -8351,7 +8320,7 @@
       <c r="C97" s="17"/>
     </row>
     <row r="98" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="57">
+      <c r="A98" s="56">
         <v>76</v>
       </c>
       <c r="B98" s="3" t="s">
@@ -8360,7 +8329,7 @@
       <c r="C98" s="17"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A99" s="57">
+      <c r="A99" s="56">
         <v>77</v>
       </c>
       <c r="B99" s="3" t="s">
@@ -8369,14 +8338,14 @@
       <c r="C99" s="17"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A100" s="56"/>
-      <c r="B100" s="149" t="s">
+      <c r="A100" s="55"/>
+      <c r="B100" s="145" t="s">
         <v>316</v>
       </c>
-      <c r="C100" s="150"/>
+      <c r="C100" s="146"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A101" s="57">
+      <c r="A101" s="56">
         <v>78</v>
       </c>
       <c r="B101" s="3" t="s">
@@ -8385,7 +8354,7 @@
       <c r="C101" s="17"/>
     </row>
     <row r="102" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="57">
+      <c r="A102" s="56">
         <v>79</v>
       </c>
       <c r="B102" s="3" t="s">
@@ -8394,7 +8363,7 @@
       <c r="C102" s="17"/>
     </row>
     <row r="103" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="57">
+      <c r="A103" s="56">
         <v>80</v>
       </c>
       <c r="B103" s="3" t="s">
@@ -8403,7 +8372,7 @@
       <c r="C103" s="17"/>
     </row>
     <row r="104" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="57">
+      <c r="A104" s="56">
         <v>81</v>
       </c>
       <c r="B104" s="3" t="s">
@@ -8412,14 +8381,14 @@
       <c r="C104" s="17"/>
     </row>
     <row r="105" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="57"/>
-      <c r="B105" s="151" t="s">
+      <c r="A105" s="56"/>
+      <c r="B105" s="147" t="s">
         <v>318</v>
       </c>
-      <c r="C105" s="152"/>
+      <c r="C105" s="148"/>
     </row>
     <row r="106" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="57">
+      <c r="A106" s="56">
         <v>82</v>
       </c>
       <c r="B106" s="3" t="s">
@@ -8428,7 +8397,7 @@
       <c r="C106" s="17"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A107" s="57">
+      <c r="A107" s="56">
         <v>83</v>
       </c>
       <c r="B107" s="3" t="s">
@@ -8437,7 +8406,7 @@
       <c r="C107" s="17"/>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A108" s="57">
+      <c r="A108" s="56">
         <v>84</v>
       </c>
       <c r="B108" s="3" t="s">
@@ -8446,14 +8415,14 @@
       <c r="C108" s="17"/>
     </row>
     <row r="109" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="56"/>
-      <c r="B109" s="149" t="s">
+      <c r="A109" s="55"/>
+      <c r="B109" s="145" t="s">
         <v>321</v>
       </c>
-      <c r="C109" s="150"/>
+      <c r="C109" s="146"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A110" s="57">
+      <c r="A110" s="56">
         <v>85</v>
       </c>
       <c r="B110" s="3" t="s">
@@ -8462,7 +8431,7 @@
       <c r="C110" s="17"/>
     </row>
     <row r="111" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="57">
+      <c r="A111" s="56">
         <v>86</v>
       </c>
       <c r="B111" s="3" t="s">
@@ -8471,7 +8440,7 @@
       <c r="C111" s="17"/>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A112" s="57">
+      <c r="A112" s="56">
         <v>87</v>
       </c>
       <c r="B112" s="3" t="s">
@@ -8480,7 +8449,7 @@
       <c r="C112" s="17"/>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A113" s="57">
+      <c r="A113" s="56">
         <v>88</v>
       </c>
       <c r="B113" s="3" t="s">
@@ -8489,7 +8458,7 @@
       <c r="C113" s="17"/>
     </row>
     <row r="114" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="57">
+      <c r="A114" s="56">
         <v>89</v>
       </c>
       <c r="B114" s="3" t="s">
@@ -8498,7 +8467,7 @@
       <c r="C114" s="17"/>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A115" s="57">
+      <c r="A115" s="56">
         <v>90</v>
       </c>
       <c r="B115" s="3" t="s">
@@ -8507,14 +8476,14 @@
       <c r="C115" s="17"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A116" s="56"/>
-      <c r="B116" s="149" t="s">
+      <c r="A116" s="55"/>
+      <c r="B116" s="145" t="s">
         <v>323</v>
       </c>
-      <c r="C116" s="150"/>
+      <c r="C116" s="146"/>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A117" s="57">
+      <c r="A117" s="56">
         <v>91</v>
       </c>
       <c r="B117" s="3" t="s">
@@ -8523,7 +8492,7 @@
       <c r="C117" s="17"/>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A118" s="57">
+      <c r="A118" s="56">
         <v>92</v>
       </c>
       <c r="B118" s="3" t="s">
@@ -8532,7 +8501,7 @@
       <c r="C118" s="17"/>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A119" s="57">
+      <c r="A119" s="56">
         <v>93</v>
       </c>
       <c r="B119" s="3" t="s">
@@ -8541,7 +8510,7 @@
       <c r="C119" s="17"/>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A120" s="57">
+      <c r="A120" s="56">
         <v>94</v>
       </c>
       <c r="B120" s="3" t="s">
@@ -8550,7 +8519,7 @@
       <c r="C120" s="17"/>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A121" s="57">
+      <c r="A121" s="56">
         <v>95</v>
       </c>
       <c r="B121" s="3" t="s">
@@ -8559,7 +8528,7 @@
       <c r="C121" s="17"/>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A122" s="57">
+      <c r="A122" s="56">
         <v>96</v>
       </c>
       <c r="B122" s="3" t="s">
@@ -8568,14 +8537,14 @@
       <c r="C122" s="17"/>
     </row>
     <row r="123" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="56"/>
-      <c r="B123" s="149" t="s">
+      <c r="A123" s="55"/>
+      <c r="B123" s="145" t="s">
         <v>325</v>
       </c>
-      <c r="C123" s="150"/>
+      <c r="C123" s="146"/>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A124" s="57">
+      <c r="A124" s="56">
         <v>97</v>
       </c>
       <c r="B124" s="3" t="s">
@@ -8584,7 +8553,7 @@
       <c r="C124" s="17"/>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A125" s="57">
+      <c r="A125" s="56">
         <v>98</v>
       </c>
       <c r="B125" s="3" t="s">
@@ -8593,7 +8562,7 @@
       <c r="C125" s="17"/>
     </row>
     <row r="126" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="57">
+      <c r="A126" s="56">
         <v>99</v>
       </c>
       <c r="B126" s="3" t="s">
@@ -8602,7 +8571,7 @@
       <c r="C126" s="17"/>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A127" s="57">
+      <c r="A127" s="56">
         <v>100</v>
       </c>
       <c r="B127" s="3" t="s">
@@ -8611,7 +8580,7 @@
       <c r="C127" s="17"/>
     </row>
     <row r="128" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="57">
+      <c r="A128" s="56">
         <v>101</v>
       </c>
       <c r="B128" s="3" t="s">
@@ -8620,7 +8589,7 @@
       <c r="C128" s="17"/>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A129" s="57">
+      <c r="A129" s="56">
         <v>102</v>
       </c>
       <c r="B129" s="3" t="s">
@@ -8629,14 +8598,14 @@
       <c r="C129" s="17"/>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A130" s="56"/>
-      <c r="B130" s="149" t="s">
+      <c r="A130" s="55"/>
+      <c r="B130" s="145" t="s">
         <v>326</v>
       </c>
-      <c r="C130" s="150"/>
+      <c r="C130" s="146"/>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A131" s="57">
+      <c r="A131" s="56">
         <v>103</v>
       </c>
       <c r="B131" s="3" t="s">
@@ -8645,7 +8614,7 @@
       <c r="C131" s="17"/>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A132" s="57">
+      <c r="A132" s="56">
         <v>104</v>
       </c>
       <c r="B132" s="3" t="s">
@@ -8654,7 +8623,7 @@
       <c r="C132" s="17"/>
     </row>
     <row r="133" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="57">
+      <c r="A133" s="56">
         <v>105</v>
       </c>
       <c r="B133" s="3" t="s">
@@ -8663,7 +8632,7 @@
       <c r="C133" s="17"/>
     </row>
     <row r="134" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="57">
+      <c r="A134" s="56">
         <v>106</v>
       </c>
       <c r="B134" s="3" t="s">
@@ -8672,7 +8641,7 @@
       <c r="C134" s="17"/>
     </row>
     <row r="135" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="57">
+      <c r="A135" s="56">
         <v>107</v>
       </c>
       <c r="B135" s="3" t="s">
@@ -8681,7 +8650,7 @@
       <c r="C135" s="17"/>
     </row>
     <row r="136" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="57">
+      <c r="A136" s="56">
         <v>108</v>
       </c>
       <c r="B136" s="3" t="s">
@@ -8690,14 +8659,14 @@
       <c r="C136" s="17"/>
     </row>
     <row r="137" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="56"/>
-      <c r="B137" s="149" t="s">
+      <c r="A137" s="55"/>
+      <c r="B137" s="145" t="s">
         <v>327</v>
       </c>
-      <c r="C137" s="150"/>
+      <c r="C137" s="146"/>
     </row>
     <row r="138" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="57">
+      <c r="A138" s="56">
         <v>109</v>
       </c>
       <c r="B138" s="3" t="s">
@@ -8706,7 +8675,7 @@
       <c r="C138" s="17"/>
     </row>
     <row r="139" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="57">
+      <c r="A139" s="56">
         <v>110</v>
       </c>
       <c r="B139" s="3" t="s">
@@ -8715,7 +8684,7 @@
       <c r="C139" s="17"/>
     </row>
     <row r="140" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="57">
+      <c r="A140" s="56">
         <v>111</v>
       </c>
       <c r="B140" s="3" t="s">
@@ -8724,7 +8693,7 @@
       <c r="C140" s="17"/>
     </row>
     <row r="141" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="57">
+      <c r="A141" s="56">
         <v>112</v>
       </c>
       <c r="B141" s="3" t="s">
@@ -8733,7 +8702,7 @@
       <c r="C141" s="17"/>
     </row>
     <row r="142" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="57">
+      <c r="A142" s="56">
         <v>113</v>
       </c>
       <c r="B142" s="3" t="s">
@@ -8742,7 +8711,7 @@
       <c r="C142" s="17"/>
     </row>
     <row r="143" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="57">
+      <c r="A143" s="56">
         <v>114</v>
       </c>
       <c r="B143" s="3" t="s">
@@ -8751,14 +8720,14 @@
       <c r="C143" s="17"/>
     </row>
     <row r="144" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A144" s="57"/>
-      <c r="B144" s="151" t="s">
+      <c r="A144" s="56"/>
+      <c r="B144" s="147" t="s">
         <v>134</v>
       </c>
-      <c r="C144" s="153"/>
+      <c r="C144" s="149"/>
     </row>
     <row r="145" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="57">
+      <c r="A145" s="56">
         <v>115</v>
       </c>
       <c r="B145" s="6" t="s">
@@ -8767,7 +8736,7 @@
       <c r="C145" s="17"/>
     </row>
     <row r="146" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="57">
+      <c r="A146" s="56">
         <v>116</v>
       </c>
       <c r="B146" s="6" t="s">
@@ -8776,7 +8745,7 @@
       <c r="C146" s="17"/>
     </row>
     <row r="147" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="57">
+      <c r="A147" s="56">
         <v>117</v>
       </c>
       <c r="B147" s="6" t="s">
@@ -8785,7 +8754,7 @@
       <c r="C147" s="17"/>
     </row>
     <row r="148" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="57">
+      <c r="A148" s="56">
         <v>118</v>
       </c>
       <c r="B148" s="6" t="s">
@@ -8794,7 +8763,7 @@
       <c r="C148" s="17"/>
     </row>
     <row r="149" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="57">
+      <c r="A149" s="56">
         <v>119</v>
       </c>
       <c r="B149" s="6" t="s">
@@ -8803,7 +8772,7 @@
       <c r="C149" s="17"/>
     </row>
     <row r="150" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="57">
+      <c r="A150" s="56">
         <v>120</v>
       </c>
       <c r="B150" s="6" t="s">
@@ -8812,14 +8781,14 @@
       <c r="C150" s="17"/>
     </row>
     <row r="151" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="57"/>
-      <c r="B151" s="158" t="s">
+      <c r="A151" s="56"/>
+      <c r="B151" s="154" t="s">
         <v>334</v>
       </c>
-      <c r="C151" s="159"/>
+      <c r="C151" s="155"/>
     </row>
     <row r="152" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="57">
+      <c r="A152" s="56">
         <v>121</v>
       </c>
       <c r="B152" s="19" t="s">
@@ -8828,7 +8797,7 @@
       <c r="C152" s="17"/>
     </row>
     <row r="153" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A153" s="57">
+      <c r="A153" s="56">
         <v>122</v>
       </c>
       <c r="B153" s="19" t="s">
@@ -8837,7 +8806,7 @@
       <c r="C153" s="17"/>
     </row>
     <row r="154" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A154" s="57">
+      <c r="A154" s="56">
         <v>123</v>
       </c>
       <c r="B154" s="23" t="s">
@@ -8846,7 +8815,7 @@
       <c r="C154" s="17"/>
     </row>
     <row r="155" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A155" s="57">
+      <c r="A155" s="56">
         <v>124</v>
       </c>
       <c r="B155" s="19" t="s">
@@ -8855,7 +8824,7 @@
       <c r="C155" s="17"/>
     </row>
     <row r="156" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="57">
+      <c r="A156" s="56">
         <v>125</v>
       </c>
       <c r="B156" s="19" t="s">
@@ -8864,7 +8833,7 @@
       <c r="C156" s="17"/>
     </row>
     <row r="157" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="57">
+      <c r="A157" s="56">
         <v>126</v>
       </c>
       <c r="B157" s="19" t="s">
@@ -8873,14 +8842,14 @@
       <c r="C157" s="17"/>
     </row>
     <row r="158" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="56"/>
-      <c r="B158" s="149" t="s">
+      <c r="A158" s="55"/>
+      <c r="B158" s="145" t="s">
         <v>341</v>
       </c>
-      <c r="C158" s="150"/>
+      <c r="C158" s="146"/>
     </row>
     <row r="159" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A159" s="57">
+      <c r="A159" s="56">
         <v>127</v>
       </c>
       <c r="B159" s="3" t="s">
@@ -8889,7 +8858,7 @@
       <c r="C159" s="17"/>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A160" s="57">
+      <c r="A160" s="56">
         <v>128</v>
       </c>
       <c r="B160" s="3" t="s">
@@ -8898,7 +8867,7 @@
       <c r="C160" s="17"/>
     </row>
     <row r="161" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A161" s="57">
+      <c r="A161" s="56">
         <v>129</v>
       </c>
       <c r="B161" s="3" t="s">
@@ -8907,14 +8876,14 @@
       <c r="C161" s="17"/>
     </row>
     <row r="162" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A162" s="56"/>
-      <c r="B162" s="149" t="s">
+      <c r="A162" s="55"/>
+      <c r="B162" s="145" t="s">
         <v>345</v>
       </c>
-      <c r="C162" s="150"/>
+      <c r="C162" s="146"/>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A163" s="57">
+      <c r="A163" s="56">
         <v>130</v>
       </c>
       <c r="B163" s="3" t="s">
@@ -8923,7 +8892,7 @@
       <c r="C163" s="20"/>
     </row>
     <row r="164" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A164" s="57">
+      <c r="A164" s="56">
         <v>131</v>
       </c>
       <c r="B164" s="3" t="s">
@@ -8932,7 +8901,7 @@
       <c r="C164" s="20"/>
     </row>
     <row r="165" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A165" s="57">
+      <c r="A165" s="56">
         <v>132</v>
       </c>
       <c r="B165" s="3" t="s">
@@ -8941,14 +8910,14 @@
       <c r="C165" s="20"/>
     </row>
     <row r="166" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A166" s="56"/>
-      <c r="B166" s="149" t="s">
+      <c r="A166" s="55"/>
+      <c r="B166" s="145" t="s">
         <v>349</v>
       </c>
-      <c r="C166" s="150"/>
+      <c r="C166" s="146"/>
     </row>
     <row r="167" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A167" s="57">
+      <c r="A167" s="56">
         <v>133</v>
       </c>
       <c r="B167" s="3" t="s">
@@ -8957,7 +8926,7 @@
       <c r="C167" s="17"/>
     </row>
     <row r="168" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A168" s="57">
+      <c r="A168" s="56">
         <v>134</v>
       </c>
       <c r="B168" s="3" t="s">
@@ -8966,7 +8935,7 @@
       <c r="C168" s="17"/>
     </row>
     <row r="169" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A169" s="57">
+      <c r="A169" s="56">
         <v>135</v>
       </c>
       <c r="B169" s="3" t="s">
@@ -8975,7 +8944,7 @@
       <c r="C169" s="17"/>
     </row>
     <row r="170" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A170" s="57">
+      <c r="A170" s="56">
         <v>136</v>
       </c>
       <c r="B170" s="3" t="s">
@@ -8984,7 +8953,7 @@
       <c r="C170" s="17"/>
     </row>
     <row r="171" spans="1:3" ht="26" x14ac:dyDescent="0.35">
-      <c r="A171" s="57">
+      <c r="A171" s="56">
         <v>137</v>
       </c>
       <c r="B171" s="3" t="s">
@@ -8993,7 +8962,7 @@
       <c r="C171" s="17"/>
     </row>
     <row r="172" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A172" s="57">
+      <c r="A172" s="56">
         <v>138</v>
       </c>
       <c r="B172" s="3" t="s">
@@ -9002,7 +8971,7 @@
       <c r="C172" s="17"/>
     </row>
     <row r="173" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A173" s="57">
+      <c r="A173" s="56">
         <v>139</v>
       </c>
       <c r="B173" s="24" t="s">
@@ -9011,7 +8980,7 @@
       <c r="C173" s="17"/>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A174" s="57">
+      <c r="A174" s="56">
         <v>140</v>
       </c>
       <c r="B174" s="3" t="s">
@@ -9020,7 +8989,7 @@
       <c r="C174" s="17"/>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A175" s="57">
+      <c r="A175" s="56">
         <v>141</v>
       </c>
       <c r="B175" s="3" t="s">
@@ -9029,7 +8998,7 @@
       <c r="C175" s="17"/>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A176" s="57">
+      <c r="A176" s="56">
         <v>142</v>
       </c>
       <c r="B176" s="25" t="s">
@@ -9038,7 +9007,7 @@
       <c r="C176" s="17"/>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A177" s="57">
+      <c r="A177" s="56">
         <v>143</v>
       </c>
       <c r="B177" s="25" t="s">
@@ -9047,7 +9016,7 @@
       <c r="C177" s="17"/>
     </row>
     <row r="178" spans="1:3" ht="26" x14ac:dyDescent="0.35">
-      <c r="A178" s="57">
+      <c r="A178" s="56">
         <v>144</v>
       </c>
       <c r="B178" s="3" t="s">
@@ -9056,7 +9025,7 @@
       <c r="C178" s="17"/>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A179" s="57">
+      <c r="A179" s="56">
         <v>145</v>
       </c>
       <c r="B179" s="3" t="s">
@@ -9065,14 +9034,14 @@
       <c r="C179" s="17"/>
     </row>
     <row r="180" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A180" s="57"/>
-      <c r="B180" s="151" t="s">
+      <c r="A180" s="56"/>
+      <c r="B180" s="147" t="s">
         <v>363</v>
       </c>
-      <c r="C180" s="153"/>
+      <c r="C180" s="149"/>
     </row>
     <row r="181" spans="1:3" ht="26" x14ac:dyDescent="0.35">
-      <c r="A181" s="57">
+      <c r="A181" s="56">
         <v>146</v>
       </c>
       <c r="B181" s="3" t="s">
@@ -9081,7 +9050,7 @@
       <c r="C181" s="16"/>
     </row>
     <row r="182" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A182" s="57">
+      <c r="A182" s="56">
         <v>147</v>
       </c>
       <c r="B182" s="3" t="s">
@@ -9090,7 +9059,7 @@
       <c r="C182" s="16"/>
     </row>
     <row r="183" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A183" s="57">
+      <c r="A183" s="56">
         <v>148</v>
       </c>
       <c r="B183" s="3" t="s">
@@ -9099,7 +9068,7 @@
       <c r="C183" s="16"/>
     </row>
     <row r="184" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A184" s="57">
+      <c r="A184" s="56">
         <v>149</v>
       </c>
       <c r="B184" s="3" t="s">
@@ -9108,7 +9077,7 @@
       <c r="C184" s="16"/>
     </row>
     <row r="185" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A185" s="57">
+      <c r="A185" s="56">
         <v>150</v>
       </c>
       <c r="B185" s="3" t="s">
@@ -9117,7 +9086,7 @@
       <c r="C185" s="16"/>
     </row>
     <row r="186" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A186" s="57">
+      <c r="A186" s="56">
         <v>151</v>
       </c>
       <c r="B186" s="6" t="s">
@@ -9126,7 +9095,7 @@
       <c r="C186" s="16"/>
     </row>
     <row r="187" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A187" s="57">
+      <c r="A187" s="56">
         <v>152</v>
       </c>
       <c r="B187" s="6" t="s">
@@ -9135,7 +9104,7 @@
       <c r="C187" s="16"/>
     </row>
     <row r="188" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A188" s="57">
+      <c r="A188" s="56">
         <v>153</v>
       </c>
       <c r="B188" s="6" t="s">
@@ -9144,7 +9113,7 @@
       <c r="C188" s="16"/>
     </row>
     <row r="189" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A189" s="57">
+      <c r="A189" s="56">
         <v>154</v>
       </c>
       <c r="B189" s="6" t="s">
@@ -9153,7 +9122,7 @@
       <c r="C189" s="16"/>
     </row>
     <row r="190" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A190" s="57">
+      <c r="A190" s="56">
         <v>155</v>
       </c>
       <c r="B190" s="6" t="s">
@@ -9162,14 +9131,14 @@
       <c r="C190" s="16"/>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A191" s="57"/>
-      <c r="B191" s="154" t="s">
+      <c r="A191" s="56"/>
+      <c r="B191" s="150" t="s">
         <v>374</v>
       </c>
-      <c r="C191" s="155"/>
+      <c r="C191" s="151"/>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A192" s="57">
+      <c r="A192" s="56">
         <v>156</v>
       </c>
       <c r="B192" s="6" t="s">
@@ -9178,7 +9147,7 @@
       <c r="C192" s="17"/>
     </row>
     <row r="193" spans="1:3" ht="26" x14ac:dyDescent="0.35">
-      <c r="A193" s="57">
+      <c r="A193" s="56">
         <v>157</v>
       </c>
       <c r="B193" s="6" t="s">
@@ -9187,7 +9156,7 @@
       <c r="C193" s="17"/>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A194" s="57">
+      <c r="A194" s="56">
         <v>158</v>
       </c>
       <c r="B194" s="6" t="s">
@@ -9196,14 +9165,14 @@
       <c r="C194" s="17"/>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A195" s="58"/>
-      <c r="B195" s="156" t="s">
+      <c r="A195" s="57"/>
+      <c r="B195" s="152" t="s">
         <v>378</v>
       </c>
-      <c r="C195" s="157"/>
+      <c r="C195" s="153"/>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A196" s="57">
+      <c r="A196" s="56">
         <v>159</v>
       </c>
       <c r="B196" s="3" t="s">
@@ -9212,7 +9181,7 @@
       <c r="C196" s="17"/>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A197" s="57">
+      <c r="A197" s="56">
         <v>160</v>
       </c>
       <c r="B197" s="54" t="s">
@@ -9221,36 +9190,36 @@
       <c r="C197" s="17"/>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A198" s="57">
+      <c r="A198" s="56">
         <v>161</v>
       </c>
       <c r="B198" s="54" t="s">
         <v>258</v>
       </c>
-      <c r="C198" s="69"/>
+      <c r="C198" s="68"/>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A199" s="57">
+      <c r="A199" s="56">
         <v>162</v>
       </c>
-      <c r="B199" s="59" t="s">
+      <c r="B199" s="58" t="s">
         <v>380</v>
       </c>
-      <c r="C199" s="69"/>
+      <c r="C199" s="68"/>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A200" s="51"/>
-      <c r="B200" s="137" t="s">
+      <c r="B200" s="133" t="s">
         <v>259</v>
       </c>
-      <c r="C200" s="138"/>
+      <c r="C200" s="134"/>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A201" s="51"/>
-      <c r="B201" s="137" t="s">
+      <c r="B201" s="133" t="s">
         <v>260</v>
       </c>
-      <c r="C201" s="138"/>
+      <c r="C201" s="134"/>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A202" s="50">
@@ -9335,10 +9304,10 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A211" s="51"/>
-      <c r="B211" s="137" t="s">
+      <c r="B211" s="133" t="s">
         <v>269</v>
       </c>
-      <c r="C211" s="138"/>
+      <c r="C211" s="134"/>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A212" s="50">

--- a/thermax_backend/templates/heating_design_basis_template.xlsx
+++ b/thermax_backend/templates/heating_design_basis_template.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javed Sutar\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\abhishekraje30\frappe-bench\apps\thermax_backend\thermax_backend\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48DDA5E2-0680-4BA4-8C70-156635E0FB52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96477ACB-70A4-452C-9A0A-F6F97C8B2EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COVER" sheetId="1" r:id="rId1"/>
-    <sheet name="DESIGN BASIS " sheetId="7" r:id="rId2"/>
+    <sheet name="DESIGN BASIS" sheetId="7" r:id="rId2"/>
     <sheet name="MCC VTUS88BP" sheetId="3" r:id="rId3"/>
     <sheet name="PCC VTUS88BP" sheetId="6" r:id="rId4"/>
     <sheet name="MCC CUM PLC VTUS88BP" sheetId="5" r:id="rId5"/>
@@ -2021,6 +2021,57 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -2057,56 +2108,98 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2126,99 +2219,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2252,41 +2252,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2752,701 +2752,701 @@
   </sheetPr>
   <dimension ref="A1:CD35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" style="29" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="29" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" style="29" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" style="29" customWidth="1"/>
     <col min="4" max="4" width="53" style="29" customWidth="1"/>
-    <col min="5" max="6" width="13.140625" style="29" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" style="29" customWidth="1"/>
-    <col min="8" max="8" width="4.28515625" style="29" customWidth="1"/>
-    <col min="9" max="31" width="9.140625" style="29" bestFit="1"/>
+    <col min="5" max="6" width="13.1796875" style="29" customWidth="1"/>
+    <col min="7" max="7" width="11.1796875" style="29" customWidth="1"/>
+    <col min="8" max="8" width="4.26953125" style="29" customWidth="1"/>
+    <col min="9" max="31" width="9.1796875" style="29" bestFit="1"/>
     <col min="32" max="82" width="9" style="29" hidden="1" customWidth="1"/>
-    <col min="83" max="256" width="9.140625" style="29"/>
+    <col min="83" max="256" width="9.1796875" style="29"/>
     <col min="257" max="257" width="4" style="29" customWidth="1"/>
-    <col min="258" max="258" width="14.42578125" style="29" customWidth="1"/>
-    <col min="259" max="259" width="15.140625" style="29" customWidth="1"/>
+    <col min="258" max="258" width="14.453125" style="29" customWidth="1"/>
+    <col min="259" max="259" width="15.1796875" style="29" customWidth="1"/>
     <col min="260" max="260" width="53" style="29" customWidth="1"/>
-    <col min="261" max="262" width="13.140625" style="29" customWidth="1"/>
-    <col min="263" max="263" width="11.140625" style="29" customWidth="1"/>
-    <col min="264" max="264" width="4.28515625" style="29" customWidth="1"/>
-    <col min="265" max="287" width="9.140625" style="29" bestFit="1"/>
+    <col min="261" max="262" width="13.1796875" style="29" customWidth="1"/>
+    <col min="263" max="263" width="11.1796875" style="29" customWidth="1"/>
+    <col min="264" max="264" width="4.26953125" style="29" customWidth="1"/>
+    <col min="265" max="287" width="9.1796875" style="29" bestFit="1"/>
     <col min="288" max="338" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="339" max="512" width="9.140625" style="29"/>
+    <col min="339" max="512" width="9.1796875" style="29"/>
     <col min="513" max="513" width="4" style="29" customWidth="1"/>
-    <col min="514" max="514" width="14.42578125" style="29" customWidth="1"/>
-    <col min="515" max="515" width="15.140625" style="29" customWidth="1"/>
+    <col min="514" max="514" width="14.453125" style="29" customWidth="1"/>
+    <col min="515" max="515" width="15.1796875" style="29" customWidth="1"/>
     <col min="516" max="516" width="53" style="29" customWidth="1"/>
-    <col min="517" max="518" width="13.140625" style="29" customWidth="1"/>
-    <col min="519" max="519" width="11.140625" style="29" customWidth="1"/>
-    <col min="520" max="520" width="4.28515625" style="29" customWidth="1"/>
-    <col min="521" max="543" width="9.140625" style="29" bestFit="1"/>
+    <col min="517" max="518" width="13.1796875" style="29" customWidth="1"/>
+    <col min="519" max="519" width="11.1796875" style="29" customWidth="1"/>
+    <col min="520" max="520" width="4.26953125" style="29" customWidth="1"/>
+    <col min="521" max="543" width="9.1796875" style="29" bestFit="1"/>
     <col min="544" max="594" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="595" max="768" width="9.140625" style="29"/>
+    <col min="595" max="768" width="9.1796875" style="29"/>
     <col min="769" max="769" width="4" style="29" customWidth="1"/>
-    <col min="770" max="770" width="14.42578125" style="29" customWidth="1"/>
-    <col min="771" max="771" width="15.140625" style="29" customWidth="1"/>
+    <col min="770" max="770" width="14.453125" style="29" customWidth="1"/>
+    <col min="771" max="771" width="15.1796875" style="29" customWidth="1"/>
     <col min="772" max="772" width="53" style="29" customWidth="1"/>
-    <col min="773" max="774" width="13.140625" style="29" customWidth="1"/>
-    <col min="775" max="775" width="11.140625" style="29" customWidth="1"/>
-    <col min="776" max="776" width="4.28515625" style="29" customWidth="1"/>
-    <col min="777" max="799" width="9.140625" style="29" bestFit="1"/>
+    <col min="773" max="774" width="13.1796875" style="29" customWidth="1"/>
+    <col min="775" max="775" width="11.1796875" style="29" customWidth="1"/>
+    <col min="776" max="776" width="4.26953125" style="29" customWidth="1"/>
+    <col min="777" max="799" width="9.1796875" style="29" bestFit="1"/>
     <col min="800" max="850" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="851" max="1024" width="9.140625" style="29"/>
+    <col min="851" max="1024" width="9.1796875" style="29"/>
     <col min="1025" max="1025" width="4" style="29" customWidth="1"/>
-    <col min="1026" max="1026" width="14.42578125" style="29" customWidth="1"/>
-    <col min="1027" max="1027" width="15.140625" style="29" customWidth="1"/>
+    <col min="1026" max="1026" width="14.453125" style="29" customWidth="1"/>
+    <col min="1027" max="1027" width="15.1796875" style="29" customWidth="1"/>
     <col min="1028" max="1028" width="53" style="29" customWidth="1"/>
-    <col min="1029" max="1030" width="13.140625" style="29" customWidth="1"/>
-    <col min="1031" max="1031" width="11.140625" style="29" customWidth="1"/>
-    <col min="1032" max="1032" width="4.28515625" style="29" customWidth="1"/>
-    <col min="1033" max="1055" width="9.140625" style="29" bestFit="1"/>
+    <col min="1029" max="1030" width="13.1796875" style="29" customWidth="1"/>
+    <col min="1031" max="1031" width="11.1796875" style="29" customWidth="1"/>
+    <col min="1032" max="1032" width="4.26953125" style="29" customWidth="1"/>
+    <col min="1033" max="1055" width="9.1796875" style="29" bestFit="1"/>
     <col min="1056" max="1106" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="1107" max="1280" width="9.140625" style="29"/>
+    <col min="1107" max="1280" width="9.1796875" style="29"/>
     <col min="1281" max="1281" width="4" style="29" customWidth="1"/>
-    <col min="1282" max="1282" width="14.42578125" style="29" customWidth="1"/>
-    <col min="1283" max="1283" width="15.140625" style="29" customWidth="1"/>
+    <col min="1282" max="1282" width="14.453125" style="29" customWidth="1"/>
+    <col min="1283" max="1283" width="15.1796875" style="29" customWidth="1"/>
     <col min="1284" max="1284" width="53" style="29" customWidth="1"/>
-    <col min="1285" max="1286" width="13.140625" style="29" customWidth="1"/>
-    <col min="1287" max="1287" width="11.140625" style="29" customWidth="1"/>
-    <col min="1288" max="1288" width="4.28515625" style="29" customWidth="1"/>
-    <col min="1289" max="1311" width="9.140625" style="29" bestFit="1"/>
+    <col min="1285" max="1286" width="13.1796875" style="29" customWidth="1"/>
+    <col min="1287" max="1287" width="11.1796875" style="29" customWidth="1"/>
+    <col min="1288" max="1288" width="4.26953125" style="29" customWidth="1"/>
+    <col min="1289" max="1311" width="9.1796875" style="29" bestFit="1"/>
     <col min="1312" max="1362" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="1363" max="1536" width="9.140625" style="29"/>
+    <col min="1363" max="1536" width="9.1796875" style="29"/>
     <col min="1537" max="1537" width="4" style="29" customWidth="1"/>
-    <col min="1538" max="1538" width="14.42578125" style="29" customWidth="1"/>
-    <col min="1539" max="1539" width="15.140625" style="29" customWidth="1"/>
+    <col min="1538" max="1538" width="14.453125" style="29" customWidth="1"/>
+    <col min="1539" max="1539" width="15.1796875" style="29" customWidth="1"/>
     <col min="1540" max="1540" width="53" style="29" customWidth="1"/>
-    <col min="1541" max="1542" width="13.140625" style="29" customWidth="1"/>
-    <col min="1543" max="1543" width="11.140625" style="29" customWidth="1"/>
-    <col min="1544" max="1544" width="4.28515625" style="29" customWidth="1"/>
-    <col min="1545" max="1567" width="9.140625" style="29" bestFit="1"/>
+    <col min="1541" max="1542" width="13.1796875" style="29" customWidth="1"/>
+    <col min="1543" max="1543" width="11.1796875" style="29" customWidth="1"/>
+    <col min="1544" max="1544" width="4.26953125" style="29" customWidth="1"/>
+    <col min="1545" max="1567" width="9.1796875" style="29" bestFit="1"/>
     <col min="1568" max="1618" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="1619" max="1792" width="9.140625" style="29"/>
+    <col min="1619" max="1792" width="9.1796875" style="29"/>
     <col min="1793" max="1793" width="4" style="29" customWidth="1"/>
-    <col min="1794" max="1794" width="14.42578125" style="29" customWidth="1"/>
-    <col min="1795" max="1795" width="15.140625" style="29" customWidth="1"/>
+    <col min="1794" max="1794" width="14.453125" style="29" customWidth="1"/>
+    <col min="1795" max="1795" width="15.1796875" style="29" customWidth="1"/>
     <col min="1796" max="1796" width="53" style="29" customWidth="1"/>
-    <col min="1797" max="1798" width="13.140625" style="29" customWidth="1"/>
-    <col min="1799" max="1799" width="11.140625" style="29" customWidth="1"/>
-    <col min="1800" max="1800" width="4.28515625" style="29" customWidth="1"/>
-    <col min="1801" max="1823" width="9.140625" style="29" bestFit="1"/>
+    <col min="1797" max="1798" width="13.1796875" style="29" customWidth="1"/>
+    <col min="1799" max="1799" width="11.1796875" style="29" customWidth="1"/>
+    <col min="1800" max="1800" width="4.26953125" style="29" customWidth="1"/>
+    <col min="1801" max="1823" width="9.1796875" style="29" bestFit="1"/>
     <col min="1824" max="1874" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="1875" max="2048" width="9.140625" style="29"/>
+    <col min="1875" max="2048" width="9.1796875" style="29"/>
     <col min="2049" max="2049" width="4" style="29" customWidth="1"/>
-    <col min="2050" max="2050" width="14.42578125" style="29" customWidth="1"/>
-    <col min="2051" max="2051" width="15.140625" style="29" customWidth="1"/>
+    <col min="2050" max="2050" width="14.453125" style="29" customWidth="1"/>
+    <col min="2051" max="2051" width="15.1796875" style="29" customWidth="1"/>
     <col min="2052" max="2052" width="53" style="29" customWidth="1"/>
-    <col min="2053" max="2054" width="13.140625" style="29" customWidth="1"/>
-    <col min="2055" max="2055" width="11.140625" style="29" customWidth="1"/>
-    <col min="2056" max="2056" width="4.28515625" style="29" customWidth="1"/>
-    <col min="2057" max="2079" width="9.140625" style="29" bestFit="1"/>
+    <col min="2053" max="2054" width="13.1796875" style="29" customWidth="1"/>
+    <col min="2055" max="2055" width="11.1796875" style="29" customWidth="1"/>
+    <col min="2056" max="2056" width="4.26953125" style="29" customWidth="1"/>
+    <col min="2057" max="2079" width="9.1796875" style="29" bestFit="1"/>
     <col min="2080" max="2130" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="2131" max="2304" width="9.140625" style="29"/>
+    <col min="2131" max="2304" width="9.1796875" style="29"/>
     <col min="2305" max="2305" width="4" style="29" customWidth="1"/>
-    <col min="2306" max="2306" width="14.42578125" style="29" customWidth="1"/>
-    <col min="2307" max="2307" width="15.140625" style="29" customWidth="1"/>
+    <col min="2306" max="2306" width="14.453125" style="29" customWidth="1"/>
+    <col min="2307" max="2307" width="15.1796875" style="29" customWidth="1"/>
     <col min="2308" max="2308" width="53" style="29" customWidth="1"/>
-    <col min="2309" max="2310" width="13.140625" style="29" customWidth="1"/>
-    <col min="2311" max="2311" width="11.140625" style="29" customWidth="1"/>
-    <col min="2312" max="2312" width="4.28515625" style="29" customWidth="1"/>
-    <col min="2313" max="2335" width="9.140625" style="29" bestFit="1"/>
+    <col min="2309" max="2310" width="13.1796875" style="29" customWidth="1"/>
+    <col min="2311" max="2311" width="11.1796875" style="29" customWidth="1"/>
+    <col min="2312" max="2312" width="4.26953125" style="29" customWidth="1"/>
+    <col min="2313" max="2335" width="9.1796875" style="29" bestFit="1"/>
     <col min="2336" max="2386" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="2387" max="2560" width="9.140625" style="29"/>
+    <col min="2387" max="2560" width="9.1796875" style="29"/>
     <col min="2561" max="2561" width="4" style="29" customWidth="1"/>
-    <col min="2562" max="2562" width="14.42578125" style="29" customWidth="1"/>
-    <col min="2563" max="2563" width="15.140625" style="29" customWidth="1"/>
+    <col min="2562" max="2562" width="14.453125" style="29" customWidth="1"/>
+    <col min="2563" max="2563" width="15.1796875" style="29" customWidth="1"/>
     <col min="2564" max="2564" width="53" style="29" customWidth="1"/>
-    <col min="2565" max="2566" width="13.140625" style="29" customWidth="1"/>
-    <col min="2567" max="2567" width="11.140625" style="29" customWidth="1"/>
-    <col min="2568" max="2568" width="4.28515625" style="29" customWidth="1"/>
-    <col min="2569" max="2591" width="9.140625" style="29" bestFit="1"/>
+    <col min="2565" max="2566" width="13.1796875" style="29" customWidth="1"/>
+    <col min="2567" max="2567" width="11.1796875" style="29" customWidth="1"/>
+    <col min="2568" max="2568" width="4.26953125" style="29" customWidth="1"/>
+    <col min="2569" max="2591" width="9.1796875" style="29" bestFit="1"/>
     <col min="2592" max="2642" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="2643" max="2816" width="9.140625" style="29"/>
+    <col min="2643" max="2816" width="9.1796875" style="29"/>
     <col min="2817" max="2817" width="4" style="29" customWidth="1"/>
-    <col min="2818" max="2818" width="14.42578125" style="29" customWidth="1"/>
-    <col min="2819" max="2819" width="15.140625" style="29" customWidth="1"/>
+    <col min="2818" max="2818" width="14.453125" style="29" customWidth="1"/>
+    <col min="2819" max="2819" width="15.1796875" style="29" customWidth="1"/>
     <col min="2820" max="2820" width="53" style="29" customWidth="1"/>
-    <col min="2821" max="2822" width="13.140625" style="29" customWidth="1"/>
-    <col min="2823" max="2823" width="11.140625" style="29" customWidth="1"/>
-    <col min="2824" max="2824" width="4.28515625" style="29" customWidth="1"/>
-    <col min="2825" max="2847" width="9.140625" style="29" bestFit="1"/>
+    <col min="2821" max="2822" width="13.1796875" style="29" customWidth="1"/>
+    <col min="2823" max="2823" width="11.1796875" style="29" customWidth="1"/>
+    <col min="2824" max="2824" width="4.26953125" style="29" customWidth="1"/>
+    <col min="2825" max="2847" width="9.1796875" style="29" bestFit="1"/>
     <col min="2848" max="2898" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="2899" max="3072" width="9.140625" style="29"/>
+    <col min="2899" max="3072" width="9.1796875" style="29"/>
     <col min="3073" max="3073" width="4" style="29" customWidth="1"/>
-    <col min="3074" max="3074" width="14.42578125" style="29" customWidth="1"/>
-    <col min="3075" max="3075" width="15.140625" style="29" customWidth="1"/>
+    <col min="3074" max="3074" width="14.453125" style="29" customWidth="1"/>
+    <col min="3075" max="3075" width="15.1796875" style="29" customWidth="1"/>
     <col min="3076" max="3076" width="53" style="29" customWidth="1"/>
-    <col min="3077" max="3078" width="13.140625" style="29" customWidth="1"/>
-    <col min="3079" max="3079" width="11.140625" style="29" customWidth="1"/>
-    <col min="3080" max="3080" width="4.28515625" style="29" customWidth="1"/>
-    <col min="3081" max="3103" width="9.140625" style="29" bestFit="1"/>
+    <col min="3077" max="3078" width="13.1796875" style="29" customWidth="1"/>
+    <col min="3079" max="3079" width="11.1796875" style="29" customWidth="1"/>
+    <col min="3080" max="3080" width="4.26953125" style="29" customWidth="1"/>
+    <col min="3081" max="3103" width="9.1796875" style="29" bestFit="1"/>
     <col min="3104" max="3154" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="3155" max="3328" width="9.140625" style="29"/>
+    <col min="3155" max="3328" width="9.1796875" style="29"/>
     <col min="3329" max="3329" width="4" style="29" customWidth="1"/>
-    <col min="3330" max="3330" width="14.42578125" style="29" customWidth="1"/>
-    <col min="3331" max="3331" width="15.140625" style="29" customWidth="1"/>
+    <col min="3330" max="3330" width="14.453125" style="29" customWidth="1"/>
+    <col min="3331" max="3331" width="15.1796875" style="29" customWidth="1"/>
     <col min="3332" max="3332" width="53" style="29" customWidth="1"/>
-    <col min="3333" max="3334" width="13.140625" style="29" customWidth="1"/>
-    <col min="3335" max="3335" width="11.140625" style="29" customWidth="1"/>
-    <col min="3336" max="3336" width="4.28515625" style="29" customWidth="1"/>
-    <col min="3337" max="3359" width="9.140625" style="29" bestFit="1"/>
+    <col min="3333" max="3334" width="13.1796875" style="29" customWidth="1"/>
+    <col min="3335" max="3335" width="11.1796875" style="29" customWidth="1"/>
+    <col min="3336" max="3336" width="4.26953125" style="29" customWidth="1"/>
+    <col min="3337" max="3359" width="9.1796875" style="29" bestFit="1"/>
     <col min="3360" max="3410" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="3411" max="3584" width="9.140625" style="29"/>
+    <col min="3411" max="3584" width="9.1796875" style="29"/>
     <col min="3585" max="3585" width="4" style="29" customWidth="1"/>
-    <col min="3586" max="3586" width="14.42578125" style="29" customWidth="1"/>
-    <col min="3587" max="3587" width="15.140625" style="29" customWidth="1"/>
+    <col min="3586" max="3586" width="14.453125" style="29" customWidth="1"/>
+    <col min="3587" max="3587" width="15.1796875" style="29" customWidth="1"/>
     <col min="3588" max="3588" width="53" style="29" customWidth="1"/>
-    <col min="3589" max="3590" width="13.140625" style="29" customWidth="1"/>
-    <col min="3591" max="3591" width="11.140625" style="29" customWidth="1"/>
-    <col min="3592" max="3592" width="4.28515625" style="29" customWidth="1"/>
-    <col min="3593" max="3615" width="9.140625" style="29" bestFit="1"/>
+    <col min="3589" max="3590" width="13.1796875" style="29" customWidth="1"/>
+    <col min="3591" max="3591" width="11.1796875" style="29" customWidth="1"/>
+    <col min="3592" max="3592" width="4.26953125" style="29" customWidth="1"/>
+    <col min="3593" max="3615" width="9.1796875" style="29" bestFit="1"/>
     <col min="3616" max="3666" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="3667" max="3840" width="9.140625" style="29"/>
+    <col min="3667" max="3840" width="9.1796875" style="29"/>
     <col min="3841" max="3841" width="4" style="29" customWidth="1"/>
-    <col min="3842" max="3842" width="14.42578125" style="29" customWidth="1"/>
-    <col min="3843" max="3843" width="15.140625" style="29" customWidth="1"/>
+    <col min="3842" max="3842" width="14.453125" style="29" customWidth="1"/>
+    <col min="3843" max="3843" width="15.1796875" style="29" customWidth="1"/>
     <col min="3844" max="3844" width="53" style="29" customWidth="1"/>
-    <col min="3845" max="3846" width="13.140625" style="29" customWidth="1"/>
-    <col min="3847" max="3847" width="11.140625" style="29" customWidth="1"/>
-    <col min="3848" max="3848" width="4.28515625" style="29" customWidth="1"/>
-    <col min="3849" max="3871" width="9.140625" style="29" bestFit="1"/>
+    <col min="3845" max="3846" width="13.1796875" style="29" customWidth="1"/>
+    <col min="3847" max="3847" width="11.1796875" style="29" customWidth="1"/>
+    <col min="3848" max="3848" width="4.26953125" style="29" customWidth="1"/>
+    <col min="3849" max="3871" width="9.1796875" style="29" bestFit="1"/>
     <col min="3872" max="3922" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="3923" max="4096" width="9.140625" style="29"/>
+    <col min="3923" max="4096" width="9.1796875" style="29"/>
     <col min="4097" max="4097" width="4" style="29" customWidth="1"/>
-    <col min="4098" max="4098" width="14.42578125" style="29" customWidth="1"/>
-    <col min="4099" max="4099" width="15.140625" style="29" customWidth="1"/>
+    <col min="4098" max="4098" width="14.453125" style="29" customWidth="1"/>
+    <col min="4099" max="4099" width="15.1796875" style="29" customWidth="1"/>
     <col min="4100" max="4100" width="53" style="29" customWidth="1"/>
-    <col min="4101" max="4102" width="13.140625" style="29" customWidth="1"/>
-    <col min="4103" max="4103" width="11.140625" style="29" customWidth="1"/>
-    <col min="4104" max="4104" width="4.28515625" style="29" customWidth="1"/>
-    <col min="4105" max="4127" width="9.140625" style="29" bestFit="1"/>
+    <col min="4101" max="4102" width="13.1796875" style="29" customWidth="1"/>
+    <col min="4103" max="4103" width="11.1796875" style="29" customWidth="1"/>
+    <col min="4104" max="4104" width="4.26953125" style="29" customWidth="1"/>
+    <col min="4105" max="4127" width="9.1796875" style="29" bestFit="1"/>
     <col min="4128" max="4178" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="4179" max="4352" width="9.140625" style="29"/>
+    <col min="4179" max="4352" width="9.1796875" style="29"/>
     <col min="4353" max="4353" width="4" style="29" customWidth="1"/>
-    <col min="4354" max="4354" width="14.42578125" style="29" customWidth="1"/>
-    <col min="4355" max="4355" width="15.140625" style="29" customWidth="1"/>
+    <col min="4354" max="4354" width="14.453125" style="29" customWidth="1"/>
+    <col min="4355" max="4355" width="15.1796875" style="29" customWidth="1"/>
     <col min="4356" max="4356" width="53" style="29" customWidth="1"/>
-    <col min="4357" max="4358" width="13.140625" style="29" customWidth="1"/>
-    <col min="4359" max="4359" width="11.140625" style="29" customWidth="1"/>
-    <col min="4360" max="4360" width="4.28515625" style="29" customWidth="1"/>
-    <col min="4361" max="4383" width="9.140625" style="29" bestFit="1"/>
+    <col min="4357" max="4358" width="13.1796875" style="29" customWidth="1"/>
+    <col min="4359" max="4359" width="11.1796875" style="29" customWidth="1"/>
+    <col min="4360" max="4360" width="4.26953125" style="29" customWidth="1"/>
+    <col min="4361" max="4383" width="9.1796875" style="29" bestFit="1"/>
     <col min="4384" max="4434" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="4435" max="4608" width="9.140625" style="29"/>
+    <col min="4435" max="4608" width="9.1796875" style="29"/>
     <col min="4609" max="4609" width="4" style="29" customWidth="1"/>
-    <col min="4610" max="4610" width="14.42578125" style="29" customWidth="1"/>
-    <col min="4611" max="4611" width="15.140625" style="29" customWidth="1"/>
+    <col min="4610" max="4610" width="14.453125" style="29" customWidth="1"/>
+    <col min="4611" max="4611" width="15.1796875" style="29" customWidth="1"/>
     <col min="4612" max="4612" width="53" style="29" customWidth="1"/>
-    <col min="4613" max="4614" width="13.140625" style="29" customWidth="1"/>
-    <col min="4615" max="4615" width="11.140625" style="29" customWidth="1"/>
-    <col min="4616" max="4616" width="4.28515625" style="29" customWidth="1"/>
-    <col min="4617" max="4639" width="9.140625" style="29" bestFit="1"/>
+    <col min="4613" max="4614" width="13.1796875" style="29" customWidth="1"/>
+    <col min="4615" max="4615" width="11.1796875" style="29" customWidth="1"/>
+    <col min="4616" max="4616" width="4.26953125" style="29" customWidth="1"/>
+    <col min="4617" max="4639" width="9.1796875" style="29" bestFit="1"/>
     <col min="4640" max="4690" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="4691" max="4864" width="9.140625" style="29"/>
+    <col min="4691" max="4864" width="9.1796875" style="29"/>
     <col min="4865" max="4865" width="4" style="29" customWidth="1"/>
-    <col min="4866" max="4866" width="14.42578125" style="29" customWidth="1"/>
-    <col min="4867" max="4867" width="15.140625" style="29" customWidth="1"/>
+    <col min="4866" max="4866" width="14.453125" style="29" customWidth="1"/>
+    <col min="4867" max="4867" width="15.1796875" style="29" customWidth="1"/>
     <col min="4868" max="4868" width="53" style="29" customWidth="1"/>
-    <col min="4869" max="4870" width="13.140625" style="29" customWidth="1"/>
-    <col min="4871" max="4871" width="11.140625" style="29" customWidth="1"/>
-    <col min="4872" max="4872" width="4.28515625" style="29" customWidth="1"/>
-    <col min="4873" max="4895" width="9.140625" style="29" bestFit="1"/>
+    <col min="4869" max="4870" width="13.1796875" style="29" customWidth="1"/>
+    <col min="4871" max="4871" width="11.1796875" style="29" customWidth="1"/>
+    <col min="4872" max="4872" width="4.26953125" style="29" customWidth="1"/>
+    <col min="4873" max="4895" width="9.1796875" style="29" bestFit="1"/>
     <col min="4896" max="4946" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="4947" max="5120" width="9.140625" style="29"/>
+    <col min="4947" max="5120" width="9.1796875" style="29"/>
     <col min="5121" max="5121" width="4" style="29" customWidth="1"/>
-    <col min="5122" max="5122" width="14.42578125" style="29" customWidth="1"/>
-    <col min="5123" max="5123" width="15.140625" style="29" customWidth="1"/>
+    <col min="5122" max="5122" width="14.453125" style="29" customWidth="1"/>
+    <col min="5123" max="5123" width="15.1796875" style="29" customWidth="1"/>
     <col min="5124" max="5124" width="53" style="29" customWidth="1"/>
-    <col min="5125" max="5126" width="13.140625" style="29" customWidth="1"/>
-    <col min="5127" max="5127" width="11.140625" style="29" customWidth="1"/>
-    <col min="5128" max="5128" width="4.28515625" style="29" customWidth="1"/>
-    <col min="5129" max="5151" width="9.140625" style="29" bestFit="1"/>
+    <col min="5125" max="5126" width="13.1796875" style="29" customWidth="1"/>
+    <col min="5127" max="5127" width="11.1796875" style="29" customWidth="1"/>
+    <col min="5128" max="5128" width="4.26953125" style="29" customWidth="1"/>
+    <col min="5129" max="5151" width="9.1796875" style="29" bestFit="1"/>
     <col min="5152" max="5202" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="5203" max="5376" width="9.140625" style="29"/>
+    <col min="5203" max="5376" width="9.1796875" style="29"/>
     <col min="5377" max="5377" width="4" style="29" customWidth="1"/>
-    <col min="5378" max="5378" width="14.42578125" style="29" customWidth="1"/>
-    <col min="5379" max="5379" width="15.140625" style="29" customWidth="1"/>
+    <col min="5378" max="5378" width="14.453125" style="29" customWidth="1"/>
+    <col min="5379" max="5379" width="15.1796875" style="29" customWidth="1"/>
     <col min="5380" max="5380" width="53" style="29" customWidth="1"/>
-    <col min="5381" max="5382" width="13.140625" style="29" customWidth="1"/>
-    <col min="5383" max="5383" width="11.140625" style="29" customWidth="1"/>
-    <col min="5384" max="5384" width="4.28515625" style="29" customWidth="1"/>
-    <col min="5385" max="5407" width="9.140625" style="29" bestFit="1"/>
+    <col min="5381" max="5382" width="13.1796875" style="29" customWidth="1"/>
+    <col min="5383" max="5383" width="11.1796875" style="29" customWidth="1"/>
+    <col min="5384" max="5384" width="4.26953125" style="29" customWidth="1"/>
+    <col min="5385" max="5407" width="9.1796875" style="29" bestFit="1"/>
     <col min="5408" max="5458" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="5459" max="5632" width="9.140625" style="29"/>
+    <col min="5459" max="5632" width="9.1796875" style="29"/>
     <col min="5633" max="5633" width="4" style="29" customWidth="1"/>
-    <col min="5634" max="5634" width="14.42578125" style="29" customWidth="1"/>
-    <col min="5635" max="5635" width="15.140625" style="29" customWidth="1"/>
+    <col min="5634" max="5634" width="14.453125" style="29" customWidth="1"/>
+    <col min="5635" max="5635" width="15.1796875" style="29" customWidth="1"/>
     <col min="5636" max="5636" width="53" style="29" customWidth="1"/>
-    <col min="5637" max="5638" width="13.140625" style="29" customWidth="1"/>
-    <col min="5639" max="5639" width="11.140625" style="29" customWidth="1"/>
-    <col min="5640" max="5640" width="4.28515625" style="29" customWidth="1"/>
-    <col min="5641" max="5663" width="9.140625" style="29" bestFit="1"/>
+    <col min="5637" max="5638" width="13.1796875" style="29" customWidth="1"/>
+    <col min="5639" max="5639" width="11.1796875" style="29" customWidth="1"/>
+    <col min="5640" max="5640" width="4.26953125" style="29" customWidth="1"/>
+    <col min="5641" max="5663" width="9.1796875" style="29" bestFit="1"/>
     <col min="5664" max="5714" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="5715" max="5888" width="9.140625" style="29"/>
+    <col min="5715" max="5888" width="9.1796875" style="29"/>
     <col min="5889" max="5889" width="4" style="29" customWidth="1"/>
-    <col min="5890" max="5890" width="14.42578125" style="29" customWidth="1"/>
-    <col min="5891" max="5891" width="15.140625" style="29" customWidth="1"/>
+    <col min="5890" max="5890" width="14.453125" style="29" customWidth="1"/>
+    <col min="5891" max="5891" width="15.1796875" style="29" customWidth="1"/>
     <col min="5892" max="5892" width="53" style="29" customWidth="1"/>
-    <col min="5893" max="5894" width="13.140625" style="29" customWidth="1"/>
-    <col min="5895" max="5895" width="11.140625" style="29" customWidth="1"/>
-    <col min="5896" max="5896" width="4.28515625" style="29" customWidth="1"/>
-    <col min="5897" max="5919" width="9.140625" style="29" bestFit="1"/>
+    <col min="5893" max="5894" width="13.1796875" style="29" customWidth="1"/>
+    <col min="5895" max="5895" width="11.1796875" style="29" customWidth="1"/>
+    <col min="5896" max="5896" width="4.26953125" style="29" customWidth="1"/>
+    <col min="5897" max="5919" width="9.1796875" style="29" bestFit="1"/>
     <col min="5920" max="5970" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="5971" max="6144" width="9.140625" style="29"/>
+    <col min="5971" max="6144" width="9.1796875" style="29"/>
     <col min="6145" max="6145" width="4" style="29" customWidth="1"/>
-    <col min="6146" max="6146" width="14.42578125" style="29" customWidth="1"/>
-    <col min="6147" max="6147" width="15.140625" style="29" customWidth="1"/>
+    <col min="6146" max="6146" width="14.453125" style="29" customWidth="1"/>
+    <col min="6147" max="6147" width="15.1796875" style="29" customWidth="1"/>
     <col min="6148" max="6148" width="53" style="29" customWidth="1"/>
-    <col min="6149" max="6150" width="13.140625" style="29" customWidth="1"/>
-    <col min="6151" max="6151" width="11.140625" style="29" customWidth="1"/>
-    <col min="6152" max="6152" width="4.28515625" style="29" customWidth="1"/>
-    <col min="6153" max="6175" width="9.140625" style="29" bestFit="1"/>
+    <col min="6149" max="6150" width="13.1796875" style="29" customWidth="1"/>
+    <col min="6151" max="6151" width="11.1796875" style="29" customWidth="1"/>
+    <col min="6152" max="6152" width="4.26953125" style="29" customWidth="1"/>
+    <col min="6153" max="6175" width="9.1796875" style="29" bestFit="1"/>
     <col min="6176" max="6226" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="6227" max="6400" width="9.140625" style="29"/>
+    <col min="6227" max="6400" width="9.1796875" style="29"/>
     <col min="6401" max="6401" width="4" style="29" customWidth="1"/>
-    <col min="6402" max="6402" width="14.42578125" style="29" customWidth="1"/>
-    <col min="6403" max="6403" width="15.140625" style="29" customWidth="1"/>
+    <col min="6402" max="6402" width="14.453125" style="29" customWidth="1"/>
+    <col min="6403" max="6403" width="15.1796875" style="29" customWidth="1"/>
     <col min="6404" max="6404" width="53" style="29" customWidth="1"/>
-    <col min="6405" max="6406" width="13.140625" style="29" customWidth="1"/>
-    <col min="6407" max="6407" width="11.140625" style="29" customWidth="1"/>
-    <col min="6408" max="6408" width="4.28515625" style="29" customWidth="1"/>
-    <col min="6409" max="6431" width="9.140625" style="29" bestFit="1"/>
+    <col min="6405" max="6406" width="13.1796875" style="29" customWidth="1"/>
+    <col min="6407" max="6407" width="11.1796875" style="29" customWidth="1"/>
+    <col min="6408" max="6408" width="4.26953125" style="29" customWidth="1"/>
+    <col min="6409" max="6431" width="9.1796875" style="29" bestFit="1"/>
     <col min="6432" max="6482" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="6483" max="6656" width="9.140625" style="29"/>
+    <col min="6483" max="6656" width="9.1796875" style="29"/>
     <col min="6657" max="6657" width="4" style="29" customWidth="1"/>
-    <col min="6658" max="6658" width="14.42578125" style="29" customWidth="1"/>
-    <col min="6659" max="6659" width="15.140625" style="29" customWidth="1"/>
+    <col min="6658" max="6658" width="14.453125" style="29" customWidth="1"/>
+    <col min="6659" max="6659" width="15.1796875" style="29" customWidth="1"/>
     <col min="6660" max="6660" width="53" style="29" customWidth="1"/>
-    <col min="6661" max="6662" width="13.140625" style="29" customWidth="1"/>
-    <col min="6663" max="6663" width="11.140625" style="29" customWidth="1"/>
-    <col min="6664" max="6664" width="4.28515625" style="29" customWidth="1"/>
-    <col min="6665" max="6687" width="9.140625" style="29" bestFit="1"/>
+    <col min="6661" max="6662" width="13.1796875" style="29" customWidth="1"/>
+    <col min="6663" max="6663" width="11.1796875" style="29" customWidth="1"/>
+    <col min="6664" max="6664" width="4.26953125" style="29" customWidth="1"/>
+    <col min="6665" max="6687" width="9.1796875" style="29" bestFit="1"/>
     <col min="6688" max="6738" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="6739" max="6912" width="9.140625" style="29"/>
+    <col min="6739" max="6912" width="9.1796875" style="29"/>
     <col min="6913" max="6913" width="4" style="29" customWidth="1"/>
-    <col min="6914" max="6914" width="14.42578125" style="29" customWidth="1"/>
-    <col min="6915" max="6915" width="15.140625" style="29" customWidth="1"/>
+    <col min="6914" max="6914" width="14.453125" style="29" customWidth="1"/>
+    <col min="6915" max="6915" width="15.1796875" style="29" customWidth="1"/>
     <col min="6916" max="6916" width="53" style="29" customWidth="1"/>
-    <col min="6917" max="6918" width="13.140625" style="29" customWidth="1"/>
-    <col min="6919" max="6919" width="11.140625" style="29" customWidth="1"/>
-    <col min="6920" max="6920" width="4.28515625" style="29" customWidth="1"/>
-    <col min="6921" max="6943" width="9.140625" style="29" bestFit="1"/>
+    <col min="6917" max="6918" width="13.1796875" style="29" customWidth="1"/>
+    <col min="6919" max="6919" width="11.1796875" style="29" customWidth="1"/>
+    <col min="6920" max="6920" width="4.26953125" style="29" customWidth="1"/>
+    <col min="6921" max="6943" width="9.1796875" style="29" bestFit="1"/>
     <col min="6944" max="6994" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="6995" max="7168" width="9.140625" style="29"/>
+    <col min="6995" max="7168" width="9.1796875" style="29"/>
     <col min="7169" max="7169" width="4" style="29" customWidth="1"/>
-    <col min="7170" max="7170" width="14.42578125" style="29" customWidth="1"/>
-    <col min="7171" max="7171" width="15.140625" style="29" customWidth="1"/>
+    <col min="7170" max="7170" width="14.453125" style="29" customWidth="1"/>
+    <col min="7171" max="7171" width="15.1796875" style="29" customWidth="1"/>
     <col min="7172" max="7172" width="53" style="29" customWidth="1"/>
-    <col min="7173" max="7174" width="13.140625" style="29" customWidth="1"/>
-    <col min="7175" max="7175" width="11.140625" style="29" customWidth="1"/>
-    <col min="7176" max="7176" width="4.28515625" style="29" customWidth="1"/>
-    <col min="7177" max="7199" width="9.140625" style="29" bestFit="1"/>
+    <col min="7173" max="7174" width="13.1796875" style="29" customWidth="1"/>
+    <col min="7175" max="7175" width="11.1796875" style="29" customWidth="1"/>
+    <col min="7176" max="7176" width="4.26953125" style="29" customWidth="1"/>
+    <col min="7177" max="7199" width="9.1796875" style="29" bestFit="1"/>
     <col min="7200" max="7250" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="7251" max="7424" width="9.140625" style="29"/>
+    <col min="7251" max="7424" width="9.1796875" style="29"/>
     <col min="7425" max="7425" width="4" style="29" customWidth="1"/>
-    <col min="7426" max="7426" width="14.42578125" style="29" customWidth="1"/>
-    <col min="7427" max="7427" width="15.140625" style="29" customWidth="1"/>
+    <col min="7426" max="7426" width="14.453125" style="29" customWidth="1"/>
+    <col min="7427" max="7427" width="15.1796875" style="29" customWidth="1"/>
     <col min="7428" max="7428" width="53" style="29" customWidth="1"/>
-    <col min="7429" max="7430" width="13.140625" style="29" customWidth="1"/>
-    <col min="7431" max="7431" width="11.140625" style="29" customWidth="1"/>
-    <col min="7432" max="7432" width="4.28515625" style="29" customWidth="1"/>
-    <col min="7433" max="7455" width="9.140625" style="29" bestFit="1"/>
+    <col min="7429" max="7430" width="13.1796875" style="29" customWidth="1"/>
+    <col min="7431" max="7431" width="11.1796875" style="29" customWidth="1"/>
+    <col min="7432" max="7432" width="4.26953125" style="29" customWidth="1"/>
+    <col min="7433" max="7455" width="9.1796875" style="29" bestFit="1"/>
     <col min="7456" max="7506" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="7507" max="7680" width="9.140625" style="29"/>
+    <col min="7507" max="7680" width="9.1796875" style="29"/>
     <col min="7681" max="7681" width="4" style="29" customWidth="1"/>
-    <col min="7682" max="7682" width="14.42578125" style="29" customWidth="1"/>
-    <col min="7683" max="7683" width="15.140625" style="29" customWidth="1"/>
+    <col min="7682" max="7682" width="14.453125" style="29" customWidth="1"/>
+    <col min="7683" max="7683" width="15.1796875" style="29" customWidth="1"/>
     <col min="7684" max="7684" width="53" style="29" customWidth="1"/>
-    <col min="7685" max="7686" width="13.140625" style="29" customWidth="1"/>
-    <col min="7687" max="7687" width="11.140625" style="29" customWidth="1"/>
-    <col min="7688" max="7688" width="4.28515625" style="29" customWidth="1"/>
-    <col min="7689" max="7711" width="9.140625" style="29" bestFit="1"/>
+    <col min="7685" max="7686" width="13.1796875" style="29" customWidth="1"/>
+    <col min="7687" max="7687" width="11.1796875" style="29" customWidth="1"/>
+    <col min="7688" max="7688" width="4.26953125" style="29" customWidth="1"/>
+    <col min="7689" max="7711" width="9.1796875" style="29" bestFit="1"/>
     <col min="7712" max="7762" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="7763" max="7936" width="9.140625" style="29"/>
+    <col min="7763" max="7936" width="9.1796875" style="29"/>
     <col min="7937" max="7937" width="4" style="29" customWidth="1"/>
-    <col min="7938" max="7938" width="14.42578125" style="29" customWidth="1"/>
-    <col min="7939" max="7939" width="15.140625" style="29" customWidth="1"/>
+    <col min="7938" max="7938" width="14.453125" style="29" customWidth="1"/>
+    <col min="7939" max="7939" width="15.1796875" style="29" customWidth="1"/>
     <col min="7940" max="7940" width="53" style="29" customWidth="1"/>
-    <col min="7941" max="7942" width="13.140625" style="29" customWidth="1"/>
-    <col min="7943" max="7943" width="11.140625" style="29" customWidth="1"/>
-    <col min="7944" max="7944" width="4.28515625" style="29" customWidth="1"/>
-    <col min="7945" max="7967" width="9.140625" style="29" bestFit="1"/>
+    <col min="7941" max="7942" width="13.1796875" style="29" customWidth="1"/>
+    <col min="7943" max="7943" width="11.1796875" style="29" customWidth="1"/>
+    <col min="7944" max="7944" width="4.26953125" style="29" customWidth="1"/>
+    <col min="7945" max="7967" width="9.1796875" style="29" bestFit="1"/>
     <col min="7968" max="8018" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="8019" max="8192" width="9.140625" style="29"/>
+    <col min="8019" max="8192" width="9.1796875" style="29"/>
     <col min="8193" max="8193" width="4" style="29" customWidth="1"/>
-    <col min="8194" max="8194" width="14.42578125" style="29" customWidth="1"/>
-    <col min="8195" max="8195" width="15.140625" style="29" customWidth="1"/>
+    <col min="8194" max="8194" width="14.453125" style="29" customWidth="1"/>
+    <col min="8195" max="8195" width="15.1796875" style="29" customWidth="1"/>
     <col min="8196" max="8196" width="53" style="29" customWidth="1"/>
-    <col min="8197" max="8198" width="13.140625" style="29" customWidth="1"/>
-    <col min="8199" max="8199" width="11.140625" style="29" customWidth="1"/>
-    <col min="8200" max="8200" width="4.28515625" style="29" customWidth="1"/>
-    <col min="8201" max="8223" width="9.140625" style="29" bestFit="1"/>
+    <col min="8197" max="8198" width="13.1796875" style="29" customWidth="1"/>
+    <col min="8199" max="8199" width="11.1796875" style="29" customWidth="1"/>
+    <col min="8200" max="8200" width="4.26953125" style="29" customWidth="1"/>
+    <col min="8201" max="8223" width="9.1796875" style="29" bestFit="1"/>
     <col min="8224" max="8274" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="8275" max="8448" width="9.140625" style="29"/>
+    <col min="8275" max="8448" width="9.1796875" style="29"/>
     <col min="8449" max="8449" width="4" style="29" customWidth="1"/>
-    <col min="8450" max="8450" width="14.42578125" style="29" customWidth="1"/>
-    <col min="8451" max="8451" width="15.140625" style="29" customWidth="1"/>
+    <col min="8450" max="8450" width="14.453125" style="29" customWidth="1"/>
+    <col min="8451" max="8451" width="15.1796875" style="29" customWidth="1"/>
     <col min="8452" max="8452" width="53" style="29" customWidth="1"/>
-    <col min="8453" max="8454" width="13.140625" style="29" customWidth="1"/>
-    <col min="8455" max="8455" width="11.140625" style="29" customWidth="1"/>
-    <col min="8456" max="8456" width="4.28515625" style="29" customWidth="1"/>
-    <col min="8457" max="8479" width="9.140625" style="29" bestFit="1"/>
+    <col min="8453" max="8454" width="13.1796875" style="29" customWidth="1"/>
+    <col min="8455" max="8455" width="11.1796875" style="29" customWidth="1"/>
+    <col min="8456" max="8456" width="4.26953125" style="29" customWidth="1"/>
+    <col min="8457" max="8479" width="9.1796875" style="29" bestFit="1"/>
     <col min="8480" max="8530" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="8531" max="8704" width="9.140625" style="29"/>
+    <col min="8531" max="8704" width="9.1796875" style="29"/>
     <col min="8705" max="8705" width="4" style="29" customWidth="1"/>
-    <col min="8706" max="8706" width="14.42578125" style="29" customWidth="1"/>
-    <col min="8707" max="8707" width="15.140625" style="29" customWidth="1"/>
+    <col min="8706" max="8706" width="14.453125" style="29" customWidth="1"/>
+    <col min="8707" max="8707" width="15.1796875" style="29" customWidth="1"/>
     <col min="8708" max="8708" width="53" style="29" customWidth="1"/>
-    <col min="8709" max="8710" width="13.140625" style="29" customWidth="1"/>
-    <col min="8711" max="8711" width="11.140625" style="29" customWidth="1"/>
-    <col min="8712" max="8712" width="4.28515625" style="29" customWidth="1"/>
-    <col min="8713" max="8735" width="9.140625" style="29" bestFit="1"/>
+    <col min="8709" max="8710" width="13.1796875" style="29" customWidth="1"/>
+    <col min="8711" max="8711" width="11.1796875" style="29" customWidth="1"/>
+    <col min="8712" max="8712" width="4.26953125" style="29" customWidth="1"/>
+    <col min="8713" max="8735" width="9.1796875" style="29" bestFit="1"/>
     <col min="8736" max="8786" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="8787" max="8960" width="9.140625" style="29"/>
+    <col min="8787" max="8960" width="9.1796875" style="29"/>
     <col min="8961" max="8961" width="4" style="29" customWidth="1"/>
-    <col min="8962" max="8962" width="14.42578125" style="29" customWidth="1"/>
-    <col min="8963" max="8963" width="15.140625" style="29" customWidth="1"/>
+    <col min="8962" max="8962" width="14.453125" style="29" customWidth="1"/>
+    <col min="8963" max="8963" width="15.1796875" style="29" customWidth="1"/>
     <col min="8964" max="8964" width="53" style="29" customWidth="1"/>
-    <col min="8965" max="8966" width="13.140625" style="29" customWidth="1"/>
-    <col min="8967" max="8967" width="11.140625" style="29" customWidth="1"/>
-    <col min="8968" max="8968" width="4.28515625" style="29" customWidth="1"/>
-    <col min="8969" max="8991" width="9.140625" style="29" bestFit="1"/>
+    <col min="8965" max="8966" width="13.1796875" style="29" customWidth="1"/>
+    <col min="8967" max="8967" width="11.1796875" style="29" customWidth="1"/>
+    <col min="8968" max="8968" width="4.26953125" style="29" customWidth="1"/>
+    <col min="8969" max="8991" width="9.1796875" style="29" bestFit="1"/>
     <col min="8992" max="9042" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="9043" max="9216" width="9.140625" style="29"/>
+    <col min="9043" max="9216" width="9.1796875" style="29"/>
     <col min="9217" max="9217" width="4" style="29" customWidth="1"/>
-    <col min="9218" max="9218" width="14.42578125" style="29" customWidth="1"/>
-    <col min="9219" max="9219" width="15.140625" style="29" customWidth="1"/>
+    <col min="9218" max="9218" width="14.453125" style="29" customWidth="1"/>
+    <col min="9219" max="9219" width="15.1796875" style="29" customWidth="1"/>
     <col min="9220" max="9220" width="53" style="29" customWidth="1"/>
-    <col min="9221" max="9222" width="13.140625" style="29" customWidth="1"/>
-    <col min="9223" max="9223" width="11.140625" style="29" customWidth="1"/>
-    <col min="9224" max="9224" width="4.28515625" style="29" customWidth="1"/>
-    <col min="9225" max="9247" width="9.140625" style="29" bestFit="1"/>
+    <col min="9221" max="9222" width="13.1796875" style="29" customWidth="1"/>
+    <col min="9223" max="9223" width="11.1796875" style="29" customWidth="1"/>
+    <col min="9224" max="9224" width="4.26953125" style="29" customWidth="1"/>
+    <col min="9225" max="9247" width="9.1796875" style="29" bestFit="1"/>
     <col min="9248" max="9298" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="9299" max="9472" width="9.140625" style="29"/>
+    <col min="9299" max="9472" width="9.1796875" style="29"/>
     <col min="9473" max="9473" width="4" style="29" customWidth="1"/>
-    <col min="9474" max="9474" width="14.42578125" style="29" customWidth="1"/>
-    <col min="9475" max="9475" width="15.140625" style="29" customWidth="1"/>
+    <col min="9474" max="9474" width="14.453125" style="29" customWidth="1"/>
+    <col min="9475" max="9475" width="15.1796875" style="29" customWidth="1"/>
     <col min="9476" max="9476" width="53" style="29" customWidth="1"/>
-    <col min="9477" max="9478" width="13.140625" style="29" customWidth="1"/>
-    <col min="9479" max="9479" width="11.140625" style="29" customWidth="1"/>
-    <col min="9480" max="9480" width="4.28515625" style="29" customWidth="1"/>
-    <col min="9481" max="9503" width="9.140625" style="29" bestFit="1"/>
+    <col min="9477" max="9478" width="13.1796875" style="29" customWidth="1"/>
+    <col min="9479" max="9479" width="11.1796875" style="29" customWidth="1"/>
+    <col min="9480" max="9480" width="4.26953125" style="29" customWidth="1"/>
+    <col min="9481" max="9503" width="9.1796875" style="29" bestFit="1"/>
     <col min="9504" max="9554" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="9555" max="9728" width="9.140625" style="29"/>
+    <col min="9555" max="9728" width="9.1796875" style="29"/>
     <col min="9729" max="9729" width="4" style="29" customWidth="1"/>
-    <col min="9730" max="9730" width="14.42578125" style="29" customWidth="1"/>
-    <col min="9731" max="9731" width="15.140625" style="29" customWidth="1"/>
+    <col min="9730" max="9730" width="14.453125" style="29" customWidth="1"/>
+    <col min="9731" max="9731" width="15.1796875" style="29" customWidth="1"/>
     <col min="9732" max="9732" width="53" style="29" customWidth="1"/>
-    <col min="9733" max="9734" width="13.140625" style="29" customWidth="1"/>
-    <col min="9735" max="9735" width="11.140625" style="29" customWidth="1"/>
-    <col min="9736" max="9736" width="4.28515625" style="29" customWidth="1"/>
-    <col min="9737" max="9759" width="9.140625" style="29" bestFit="1"/>
+    <col min="9733" max="9734" width="13.1796875" style="29" customWidth="1"/>
+    <col min="9735" max="9735" width="11.1796875" style="29" customWidth="1"/>
+    <col min="9736" max="9736" width="4.26953125" style="29" customWidth="1"/>
+    <col min="9737" max="9759" width="9.1796875" style="29" bestFit="1"/>
     <col min="9760" max="9810" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="9811" max="9984" width="9.140625" style="29"/>
+    <col min="9811" max="9984" width="9.1796875" style="29"/>
     <col min="9985" max="9985" width="4" style="29" customWidth="1"/>
-    <col min="9986" max="9986" width="14.42578125" style="29" customWidth="1"/>
-    <col min="9987" max="9987" width="15.140625" style="29" customWidth="1"/>
+    <col min="9986" max="9986" width="14.453125" style="29" customWidth="1"/>
+    <col min="9987" max="9987" width="15.1796875" style="29" customWidth="1"/>
     <col min="9988" max="9988" width="53" style="29" customWidth="1"/>
-    <col min="9989" max="9990" width="13.140625" style="29" customWidth="1"/>
-    <col min="9991" max="9991" width="11.140625" style="29" customWidth="1"/>
-    <col min="9992" max="9992" width="4.28515625" style="29" customWidth="1"/>
-    <col min="9993" max="10015" width="9.140625" style="29" bestFit="1"/>
+    <col min="9989" max="9990" width="13.1796875" style="29" customWidth="1"/>
+    <col min="9991" max="9991" width="11.1796875" style="29" customWidth="1"/>
+    <col min="9992" max="9992" width="4.26953125" style="29" customWidth="1"/>
+    <col min="9993" max="10015" width="9.1796875" style="29" bestFit="1"/>
     <col min="10016" max="10066" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="10067" max="10240" width="9.140625" style="29"/>
+    <col min="10067" max="10240" width="9.1796875" style="29"/>
     <col min="10241" max="10241" width="4" style="29" customWidth="1"/>
-    <col min="10242" max="10242" width="14.42578125" style="29" customWidth="1"/>
-    <col min="10243" max="10243" width="15.140625" style="29" customWidth="1"/>
+    <col min="10242" max="10242" width="14.453125" style="29" customWidth="1"/>
+    <col min="10243" max="10243" width="15.1796875" style="29" customWidth="1"/>
     <col min="10244" max="10244" width="53" style="29" customWidth="1"/>
-    <col min="10245" max="10246" width="13.140625" style="29" customWidth="1"/>
-    <col min="10247" max="10247" width="11.140625" style="29" customWidth="1"/>
-    <col min="10248" max="10248" width="4.28515625" style="29" customWidth="1"/>
-    <col min="10249" max="10271" width="9.140625" style="29" bestFit="1"/>
+    <col min="10245" max="10246" width="13.1796875" style="29" customWidth="1"/>
+    <col min="10247" max="10247" width="11.1796875" style="29" customWidth="1"/>
+    <col min="10248" max="10248" width="4.26953125" style="29" customWidth="1"/>
+    <col min="10249" max="10271" width="9.1796875" style="29" bestFit="1"/>
     <col min="10272" max="10322" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="10323" max="10496" width="9.140625" style="29"/>
+    <col min="10323" max="10496" width="9.1796875" style="29"/>
     <col min="10497" max="10497" width="4" style="29" customWidth="1"/>
-    <col min="10498" max="10498" width="14.42578125" style="29" customWidth="1"/>
-    <col min="10499" max="10499" width="15.140625" style="29" customWidth="1"/>
+    <col min="10498" max="10498" width="14.453125" style="29" customWidth="1"/>
+    <col min="10499" max="10499" width="15.1796875" style="29" customWidth="1"/>
     <col min="10500" max="10500" width="53" style="29" customWidth="1"/>
-    <col min="10501" max="10502" width="13.140625" style="29" customWidth="1"/>
-    <col min="10503" max="10503" width="11.140625" style="29" customWidth="1"/>
-    <col min="10504" max="10504" width="4.28515625" style="29" customWidth="1"/>
-    <col min="10505" max="10527" width="9.140625" style="29" bestFit="1"/>
+    <col min="10501" max="10502" width="13.1796875" style="29" customWidth="1"/>
+    <col min="10503" max="10503" width="11.1796875" style="29" customWidth="1"/>
+    <col min="10504" max="10504" width="4.26953125" style="29" customWidth="1"/>
+    <col min="10505" max="10527" width="9.1796875" style="29" bestFit="1"/>
     <col min="10528" max="10578" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="10579" max="10752" width="9.140625" style="29"/>
+    <col min="10579" max="10752" width="9.1796875" style="29"/>
     <col min="10753" max="10753" width="4" style="29" customWidth="1"/>
-    <col min="10754" max="10754" width="14.42578125" style="29" customWidth="1"/>
-    <col min="10755" max="10755" width="15.140625" style="29" customWidth="1"/>
+    <col min="10754" max="10754" width="14.453125" style="29" customWidth="1"/>
+    <col min="10755" max="10755" width="15.1796875" style="29" customWidth="1"/>
     <col min="10756" max="10756" width="53" style="29" customWidth="1"/>
-    <col min="10757" max="10758" width="13.140625" style="29" customWidth="1"/>
-    <col min="10759" max="10759" width="11.140625" style="29" customWidth="1"/>
-    <col min="10760" max="10760" width="4.28515625" style="29" customWidth="1"/>
-    <col min="10761" max="10783" width="9.140625" style="29" bestFit="1"/>
+    <col min="10757" max="10758" width="13.1796875" style="29" customWidth="1"/>
+    <col min="10759" max="10759" width="11.1796875" style="29" customWidth="1"/>
+    <col min="10760" max="10760" width="4.26953125" style="29" customWidth="1"/>
+    <col min="10761" max="10783" width="9.1796875" style="29" bestFit="1"/>
     <col min="10784" max="10834" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="10835" max="11008" width="9.140625" style="29"/>
+    <col min="10835" max="11008" width="9.1796875" style="29"/>
     <col min="11009" max="11009" width="4" style="29" customWidth="1"/>
-    <col min="11010" max="11010" width="14.42578125" style="29" customWidth="1"/>
-    <col min="11011" max="11011" width="15.140625" style="29" customWidth="1"/>
+    <col min="11010" max="11010" width="14.453125" style="29" customWidth="1"/>
+    <col min="11011" max="11011" width="15.1796875" style="29" customWidth="1"/>
     <col min="11012" max="11012" width="53" style="29" customWidth="1"/>
-    <col min="11013" max="11014" width="13.140625" style="29" customWidth="1"/>
-    <col min="11015" max="11015" width="11.140625" style="29" customWidth="1"/>
-    <col min="11016" max="11016" width="4.28515625" style="29" customWidth="1"/>
-    <col min="11017" max="11039" width="9.140625" style="29" bestFit="1"/>
+    <col min="11013" max="11014" width="13.1796875" style="29" customWidth="1"/>
+    <col min="11015" max="11015" width="11.1796875" style="29" customWidth="1"/>
+    <col min="11016" max="11016" width="4.26953125" style="29" customWidth="1"/>
+    <col min="11017" max="11039" width="9.1796875" style="29" bestFit="1"/>
     <col min="11040" max="11090" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="11091" max="11264" width="9.140625" style="29"/>
+    <col min="11091" max="11264" width="9.1796875" style="29"/>
     <col min="11265" max="11265" width="4" style="29" customWidth="1"/>
-    <col min="11266" max="11266" width="14.42578125" style="29" customWidth="1"/>
-    <col min="11267" max="11267" width="15.140625" style="29" customWidth="1"/>
+    <col min="11266" max="11266" width="14.453125" style="29" customWidth="1"/>
+    <col min="11267" max="11267" width="15.1796875" style="29" customWidth="1"/>
     <col min="11268" max="11268" width="53" style="29" customWidth="1"/>
-    <col min="11269" max="11270" width="13.140625" style="29" customWidth="1"/>
-    <col min="11271" max="11271" width="11.140625" style="29" customWidth="1"/>
-    <col min="11272" max="11272" width="4.28515625" style="29" customWidth="1"/>
-    <col min="11273" max="11295" width="9.140625" style="29" bestFit="1"/>
+    <col min="11269" max="11270" width="13.1796875" style="29" customWidth="1"/>
+    <col min="11271" max="11271" width="11.1796875" style="29" customWidth="1"/>
+    <col min="11272" max="11272" width="4.26953125" style="29" customWidth="1"/>
+    <col min="11273" max="11295" width="9.1796875" style="29" bestFit="1"/>
     <col min="11296" max="11346" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="11347" max="11520" width="9.140625" style="29"/>
+    <col min="11347" max="11520" width="9.1796875" style="29"/>
     <col min="11521" max="11521" width="4" style="29" customWidth="1"/>
-    <col min="11522" max="11522" width="14.42578125" style="29" customWidth="1"/>
-    <col min="11523" max="11523" width="15.140625" style="29" customWidth="1"/>
+    <col min="11522" max="11522" width="14.453125" style="29" customWidth="1"/>
+    <col min="11523" max="11523" width="15.1796875" style="29" customWidth="1"/>
     <col min="11524" max="11524" width="53" style="29" customWidth="1"/>
-    <col min="11525" max="11526" width="13.140625" style="29" customWidth="1"/>
-    <col min="11527" max="11527" width="11.140625" style="29" customWidth="1"/>
-    <col min="11528" max="11528" width="4.28515625" style="29" customWidth="1"/>
-    <col min="11529" max="11551" width="9.140625" style="29" bestFit="1"/>
+    <col min="11525" max="11526" width="13.1796875" style="29" customWidth="1"/>
+    <col min="11527" max="11527" width="11.1796875" style="29" customWidth="1"/>
+    <col min="11528" max="11528" width="4.26953125" style="29" customWidth="1"/>
+    <col min="11529" max="11551" width="9.1796875" style="29" bestFit="1"/>
     <col min="11552" max="11602" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="11603" max="11776" width="9.140625" style="29"/>
+    <col min="11603" max="11776" width="9.1796875" style="29"/>
     <col min="11777" max="11777" width="4" style="29" customWidth="1"/>
-    <col min="11778" max="11778" width="14.42578125" style="29" customWidth="1"/>
-    <col min="11779" max="11779" width="15.140625" style="29" customWidth="1"/>
+    <col min="11778" max="11778" width="14.453125" style="29" customWidth="1"/>
+    <col min="11779" max="11779" width="15.1796875" style="29" customWidth="1"/>
     <col min="11780" max="11780" width="53" style="29" customWidth="1"/>
-    <col min="11781" max="11782" width="13.140625" style="29" customWidth="1"/>
-    <col min="11783" max="11783" width="11.140625" style="29" customWidth="1"/>
-    <col min="11784" max="11784" width="4.28515625" style="29" customWidth="1"/>
-    <col min="11785" max="11807" width="9.140625" style="29" bestFit="1"/>
+    <col min="11781" max="11782" width="13.1796875" style="29" customWidth="1"/>
+    <col min="11783" max="11783" width="11.1796875" style="29" customWidth="1"/>
+    <col min="11784" max="11784" width="4.26953125" style="29" customWidth="1"/>
+    <col min="11785" max="11807" width="9.1796875" style="29" bestFit="1"/>
     <col min="11808" max="11858" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="11859" max="12032" width="9.140625" style="29"/>
+    <col min="11859" max="12032" width="9.1796875" style="29"/>
     <col min="12033" max="12033" width="4" style="29" customWidth="1"/>
-    <col min="12034" max="12034" width="14.42578125" style="29" customWidth="1"/>
-    <col min="12035" max="12035" width="15.140625" style="29" customWidth="1"/>
+    <col min="12034" max="12034" width="14.453125" style="29" customWidth="1"/>
+    <col min="12035" max="12035" width="15.1796875" style="29" customWidth="1"/>
     <col min="12036" max="12036" width="53" style="29" customWidth="1"/>
-    <col min="12037" max="12038" width="13.140625" style="29" customWidth="1"/>
-    <col min="12039" max="12039" width="11.140625" style="29" customWidth="1"/>
-    <col min="12040" max="12040" width="4.28515625" style="29" customWidth="1"/>
-    <col min="12041" max="12063" width="9.140625" style="29" bestFit="1"/>
+    <col min="12037" max="12038" width="13.1796875" style="29" customWidth="1"/>
+    <col min="12039" max="12039" width="11.1796875" style="29" customWidth="1"/>
+    <col min="12040" max="12040" width="4.26953125" style="29" customWidth="1"/>
+    <col min="12041" max="12063" width="9.1796875" style="29" bestFit="1"/>
     <col min="12064" max="12114" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="12115" max="12288" width="9.140625" style="29"/>
+    <col min="12115" max="12288" width="9.1796875" style="29"/>
     <col min="12289" max="12289" width="4" style="29" customWidth="1"/>
-    <col min="12290" max="12290" width="14.42578125" style="29" customWidth="1"/>
-    <col min="12291" max="12291" width="15.140625" style="29" customWidth="1"/>
+    <col min="12290" max="12290" width="14.453125" style="29" customWidth="1"/>
+    <col min="12291" max="12291" width="15.1796875" style="29" customWidth="1"/>
     <col min="12292" max="12292" width="53" style="29" customWidth="1"/>
-    <col min="12293" max="12294" width="13.140625" style="29" customWidth="1"/>
-    <col min="12295" max="12295" width="11.140625" style="29" customWidth="1"/>
-    <col min="12296" max="12296" width="4.28515625" style="29" customWidth="1"/>
-    <col min="12297" max="12319" width="9.140625" style="29" bestFit="1"/>
+    <col min="12293" max="12294" width="13.1796875" style="29" customWidth="1"/>
+    <col min="12295" max="12295" width="11.1796875" style="29" customWidth="1"/>
+    <col min="12296" max="12296" width="4.26953125" style="29" customWidth="1"/>
+    <col min="12297" max="12319" width="9.1796875" style="29" bestFit="1"/>
     <col min="12320" max="12370" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="12371" max="12544" width="9.140625" style="29"/>
+    <col min="12371" max="12544" width="9.1796875" style="29"/>
     <col min="12545" max="12545" width="4" style="29" customWidth="1"/>
-    <col min="12546" max="12546" width="14.42578125" style="29" customWidth="1"/>
-    <col min="12547" max="12547" width="15.140625" style="29" customWidth="1"/>
+    <col min="12546" max="12546" width="14.453125" style="29" customWidth="1"/>
+    <col min="12547" max="12547" width="15.1796875" style="29" customWidth="1"/>
     <col min="12548" max="12548" width="53" style="29" customWidth="1"/>
-    <col min="12549" max="12550" width="13.140625" style="29" customWidth="1"/>
-    <col min="12551" max="12551" width="11.140625" style="29" customWidth="1"/>
-    <col min="12552" max="12552" width="4.28515625" style="29" customWidth="1"/>
-    <col min="12553" max="12575" width="9.140625" style="29" bestFit="1"/>
+    <col min="12549" max="12550" width="13.1796875" style="29" customWidth="1"/>
+    <col min="12551" max="12551" width="11.1796875" style="29" customWidth="1"/>
+    <col min="12552" max="12552" width="4.26953125" style="29" customWidth="1"/>
+    <col min="12553" max="12575" width="9.1796875" style="29" bestFit="1"/>
     <col min="12576" max="12626" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="12627" max="12800" width="9.140625" style="29"/>
+    <col min="12627" max="12800" width="9.1796875" style="29"/>
     <col min="12801" max="12801" width="4" style="29" customWidth="1"/>
-    <col min="12802" max="12802" width="14.42578125" style="29" customWidth="1"/>
-    <col min="12803" max="12803" width="15.140625" style="29" customWidth="1"/>
+    <col min="12802" max="12802" width="14.453125" style="29" customWidth="1"/>
+    <col min="12803" max="12803" width="15.1796875" style="29" customWidth="1"/>
     <col min="12804" max="12804" width="53" style="29" customWidth="1"/>
-    <col min="12805" max="12806" width="13.140625" style="29" customWidth="1"/>
-    <col min="12807" max="12807" width="11.140625" style="29" customWidth="1"/>
-    <col min="12808" max="12808" width="4.28515625" style="29" customWidth="1"/>
-    <col min="12809" max="12831" width="9.140625" style="29" bestFit="1"/>
+    <col min="12805" max="12806" width="13.1796875" style="29" customWidth="1"/>
+    <col min="12807" max="12807" width="11.1796875" style="29" customWidth="1"/>
+    <col min="12808" max="12808" width="4.26953125" style="29" customWidth="1"/>
+    <col min="12809" max="12831" width="9.1796875" style="29" bestFit="1"/>
     <col min="12832" max="12882" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="12883" max="13056" width="9.140625" style="29"/>
+    <col min="12883" max="13056" width="9.1796875" style="29"/>
     <col min="13057" max="13057" width="4" style="29" customWidth="1"/>
-    <col min="13058" max="13058" width="14.42578125" style="29" customWidth="1"/>
-    <col min="13059" max="13059" width="15.140625" style="29" customWidth="1"/>
+    <col min="13058" max="13058" width="14.453125" style="29" customWidth="1"/>
+    <col min="13059" max="13059" width="15.1796875" style="29" customWidth="1"/>
     <col min="13060" max="13060" width="53" style="29" customWidth="1"/>
-    <col min="13061" max="13062" width="13.140625" style="29" customWidth="1"/>
-    <col min="13063" max="13063" width="11.140625" style="29" customWidth="1"/>
-    <col min="13064" max="13064" width="4.28515625" style="29" customWidth="1"/>
-    <col min="13065" max="13087" width="9.140625" style="29" bestFit="1"/>
+    <col min="13061" max="13062" width="13.1796875" style="29" customWidth="1"/>
+    <col min="13063" max="13063" width="11.1796875" style="29" customWidth="1"/>
+    <col min="13064" max="13064" width="4.26953125" style="29" customWidth="1"/>
+    <col min="13065" max="13087" width="9.1796875" style="29" bestFit="1"/>
     <col min="13088" max="13138" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="13139" max="13312" width="9.140625" style="29"/>
+    <col min="13139" max="13312" width="9.1796875" style="29"/>
     <col min="13313" max="13313" width="4" style="29" customWidth="1"/>
-    <col min="13314" max="13314" width="14.42578125" style="29" customWidth="1"/>
-    <col min="13315" max="13315" width="15.140625" style="29" customWidth="1"/>
+    <col min="13314" max="13314" width="14.453125" style="29" customWidth="1"/>
+    <col min="13315" max="13315" width="15.1796875" style="29" customWidth="1"/>
     <col min="13316" max="13316" width="53" style="29" customWidth="1"/>
-    <col min="13317" max="13318" width="13.140625" style="29" customWidth="1"/>
-    <col min="13319" max="13319" width="11.140625" style="29" customWidth="1"/>
-    <col min="13320" max="13320" width="4.28515625" style="29" customWidth="1"/>
-    <col min="13321" max="13343" width="9.140625" style="29" bestFit="1"/>
+    <col min="13317" max="13318" width="13.1796875" style="29" customWidth="1"/>
+    <col min="13319" max="13319" width="11.1796875" style="29" customWidth="1"/>
+    <col min="13320" max="13320" width="4.26953125" style="29" customWidth="1"/>
+    <col min="13321" max="13343" width="9.1796875" style="29" bestFit="1"/>
     <col min="13344" max="13394" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="13395" max="13568" width="9.140625" style="29"/>
+    <col min="13395" max="13568" width="9.1796875" style="29"/>
     <col min="13569" max="13569" width="4" style="29" customWidth="1"/>
-    <col min="13570" max="13570" width="14.42578125" style="29" customWidth="1"/>
-    <col min="13571" max="13571" width="15.140625" style="29" customWidth="1"/>
+    <col min="13570" max="13570" width="14.453125" style="29" customWidth="1"/>
+    <col min="13571" max="13571" width="15.1796875" style="29" customWidth="1"/>
     <col min="13572" max="13572" width="53" style="29" customWidth="1"/>
-    <col min="13573" max="13574" width="13.140625" style="29" customWidth="1"/>
-    <col min="13575" max="13575" width="11.140625" style="29" customWidth="1"/>
-    <col min="13576" max="13576" width="4.28515625" style="29" customWidth="1"/>
-    <col min="13577" max="13599" width="9.140625" style="29" bestFit="1"/>
+    <col min="13573" max="13574" width="13.1796875" style="29" customWidth="1"/>
+    <col min="13575" max="13575" width="11.1796875" style="29" customWidth="1"/>
+    <col min="13576" max="13576" width="4.26953125" style="29" customWidth="1"/>
+    <col min="13577" max="13599" width="9.1796875" style="29" bestFit="1"/>
     <col min="13600" max="13650" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="13651" max="13824" width="9.140625" style="29"/>
+    <col min="13651" max="13824" width="9.1796875" style="29"/>
     <col min="13825" max="13825" width="4" style="29" customWidth="1"/>
-    <col min="13826" max="13826" width="14.42578125" style="29" customWidth="1"/>
-    <col min="13827" max="13827" width="15.140625" style="29" customWidth="1"/>
+    <col min="13826" max="13826" width="14.453125" style="29" customWidth="1"/>
+    <col min="13827" max="13827" width="15.1796875" style="29" customWidth="1"/>
     <col min="13828" max="13828" width="53" style="29" customWidth="1"/>
-    <col min="13829" max="13830" width="13.140625" style="29" customWidth="1"/>
-    <col min="13831" max="13831" width="11.140625" style="29" customWidth="1"/>
-    <col min="13832" max="13832" width="4.28515625" style="29" customWidth="1"/>
-    <col min="13833" max="13855" width="9.140625" style="29" bestFit="1"/>
+    <col min="13829" max="13830" width="13.1796875" style="29" customWidth="1"/>
+    <col min="13831" max="13831" width="11.1796875" style="29" customWidth="1"/>
+    <col min="13832" max="13832" width="4.26953125" style="29" customWidth="1"/>
+    <col min="13833" max="13855" width="9.1796875" style="29" bestFit="1"/>
     <col min="13856" max="13906" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="13907" max="14080" width="9.140625" style="29"/>
+    <col min="13907" max="14080" width="9.1796875" style="29"/>
     <col min="14081" max="14081" width="4" style="29" customWidth="1"/>
-    <col min="14082" max="14082" width="14.42578125" style="29" customWidth="1"/>
-    <col min="14083" max="14083" width="15.140625" style="29" customWidth="1"/>
+    <col min="14082" max="14082" width="14.453125" style="29" customWidth="1"/>
+    <col min="14083" max="14083" width="15.1796875" style="29" customWidth="1"/>
     <col min="14084" max="14084" width="53" style="29" customWidth="1"/>
-    <col min="14085" max="14086" width="13.140625" style="29" customWidth="1"/>
-    <col min="14087" max="14087" width="11.140625" style="29" customWidth="1"/>
-    <col min="14088" max="14088" width="4.28515625" style="29" customWidth="1"/>
-    <col min="14089" max="14111" width="9.140625" style="29" bestFit="1"/>
+    <col min="14085" max="14086" width="13.1796875" style="29" customWidth="1"/>
+    <col min="14087" max="14087" width="11.1796875" style="29" customWidth="1"/>
+    <col min="14088" max="14088" width="4.26953125" style="29" customWidth="1"/>
+    <col min="14089" max="14111" width="9.1796875" style="29" bestFit="1"/>
     <col min="14112" max="14162" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="14163" max="14336" width="9.140625" style="29"/>
+    <col min="14163" max="14336" width="9.1796875" style="29"/>
     <col min="14337" max="14337" width="4" style="29" customWidth="1"/>
-    <col min="14338" max="14338" width="14.42578125" style="29" customWidth="1"/>
-    <col min="14339" max="14339" width="15.140625" style="29" customWidth="1"/>
+    <col min="14338" max="14338" width="14.453125" style="29" customWidth="1"/>
+    <col min="14339" max="14339" width="15.1796875" style="29" customWidth="1"/>
     <col min="14340" max="14340" width="53" style="29" customWidth="1"/>
-    <col min="14341" max="14342" width="13.140625" style="29" customWidth="1"/>
-    <col min="14343" max="14343" width="11.140625" style="29" customWidth="1"/>
-    <col min="14344" max="14344" width="4.28515625" style="29" customWidth="1"/>
-    <col min="14345" max="14367" width="9.140625" style="29" bestFit="1"/>
+    <col min="14341" max="14342" width="13.1796875" style="29" customWidth="1"/>
+    <col min="14343" max="14343" width="11.1796875" style="29" customWidth="1"/>
+    <col min="14344" max="14344" width="4.26953125" style="29" customWidth="1"/>
+    <col min="14345" max="14367" width="9.1796875" style="29" bestFit="1"/>
     <col min="14368" max="14418" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="14419" max="14592" width="9.140625" style="29"/>
+    <col min="14419" max="14592" width="9.1796875" style="29"/>
     <col min="14593" max="14593" width="4" style="29" customWidth="1"/>
-    <col min="14594" max="14594" width="14.42578125" style="29" customWidth="1"/>
-    <col min="14595" max="14595" width="15.140625" style="29" customWidth="1"/>
+    <col min="14594" max="14594" width="14.453125" style="29" customWidth="1"/>
+    <col min="14595" max="14595" width="15.1796875" style="29" customWidth="1"/>
     <col min="14596" max="14596" width="53" style="29" customWidth="1"/>
-    <col min="14597" max="14598" width="13.140625" style="29" customWidth="1"/>
-    <col min="14599" max="14599" width="11.140625" style="29" customWidth="1"/>
-    <col min="14600" max="14600" width="4.28515625" style="29" customWidth="1"/>
-    <col min="14601" max="14623" width="9.140625" style="29" bestFit="1"/>
+    <col min="14597" max="14598" width="13.1796875" style="29" customWidth="1"/>
+    <col min="14599" max="14599" width="11.1796875" style="29" customWidth="1"/>
+    <col min="14600" max="14600" width="4.26953125" style="29" customWidth="1"/>
+    <col min="14601" max="14623" width="9.1796875" style="29" bestFit="1"/>
     <col min="14624" max="14674" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="14675" max="14848" width="9.140625" style="29"/>
+    <col min="14675" max="14848" width="9.1796875" style="29"/>
     <col min="14849" max="14849" width="4" style="29" customWidth="1"/>
-    <col min="14850" max="14850" width="14.42578125" style="29" customWidth="1"/>
-    <col min="14851" max="14851" width="15.140625" style="29" customWidth="1"/>
+    <col min="14850" max="14850" width="14.453125" style="29" customWidth="1"/>
+    <col min="14851" max="14851" width="15.1796875" style="29" customWidth="1"/>
     <col min="14852" max="14852" width="53" style="29" customWidth="1"/>
-    <col min="14853" max="14854" width="13.140625" style="29" customWidth="1"/>
-    <col min="14855" max="14855" width="11.140625" style="29" customWidth="1"/>
-    <col min="14856" max="14856" width="4.28515625" style="29" customWidth="1"/>
-    <col min="14857" max="14879" width="9.140625" style="29" bestFit="1"/>
+    <col min="14853" max="14854" width="13.1796875" style="29" customWidth="1"/>
+    <col min="14855" max="14855" width="11.1796875" style="29" customWidth="1"/>
+    <col min="14856" max="14856" width="4.26953125" style="29" customWidth="1"/>
+    <col min="14857" max="14879" width="9.1796875" style="29" bestFit="1"/>
     <col min="14880" max="14930" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="14931" max="15104" width="9.140625" style="29"/>
+    <col min="14931" max="15104" width="9.1796875" style="29"/>
     <col min="15105" max="15105" width="4" style="29" customWidth="1"/>
-    <col min="15106" max="15106" width="14.42578125" style="29" customWidth="1"/>
-    <col min="15107" max="15107" width="15.140625" style="29" customWidth="1"/>
+    <col min="15106" max="15106" width="14.453125" style="29" customWidth="1"/>
+    <col min="15107" max="15107" width="15.1796875" style="29" customWidth="1"/>
     <col min="15108" max="15108" width="53" style="29" customWidth="1"/>
-    <col min="15109" max="15110" width="13.140625" style="29" customWidth="1"/>
-    <col min="15111" max="15111" width="11.140625" style="29" customWidth="1"/>
-    <col min="15112" max="15112" width="4.28515625" style="29" customWidth="1"/>
-    <col min="15113" max="15135" width="9.140625" style="29" bestFit="1"/>
+    <col min="15109" max="15110" width="13.1796875" style="29" customWidth="1"/>
+    <col min="15111" max="15111" width="11.1796875" style="29" customWidth="1"/>
+    <col min="15112" max="15112" width="4.26953125" style="29" customWidth="1"/>
+    <col min="15113" max="15135" width="9.1796875" style="29" bestFit="1"/>
     <col min="15136" max="15186" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="15187" max="15360" width="9.140625" style="29"/>
+    <col min="15187" max="15360" width="9.1796875" style="29"/>
     <col min="15361" max="15361" width="4" style="29" customWidth="1"/>
-    <col min="15362" max="15362" width="14.42578125" style="29" customWidth="1"/>
-    <col min="15363" max="15363" width="15.140625" style="29" customWidth="1"/>
+    <col min="15362" max="15362" width="14.453125" style="29" customWidth="1"/>
+    <col min="15363" max="15363" width="15.1796875" style="29" customWidth="1"/>
     <col min="15364" max="15364" width="53" style="29" customWidth="1"/>
-    <col min="15365" max="15366" width="13.140625" style="29" customWidth="1"/>
-    <col min="15367" max="15367" width="11.140625" style="29" customWidth="1"/>
-    <col min="15368" max="15368" width="4.28515625" style="29" customWidth="1"/>
-    <col min="15369" max="15391" width="9.140625" style="29" bestFit="1"/>
+    <col min="15365" max="15366" width="13.1796875" style="29" customWidth="1"/>
+    <col min="15367" max="15367" width="11.1796875" style="29" customWidth="1"/>
+    <col min="15368" max="15368" width="4.26953125" style="29" customWidth="1"/>
+    <col min="15369" max="15391" width="9.1796875" style="29" bestFit="1"/>
     <col min="15392" max="15442" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="15443" max="15616" width="9.140625" style="29"/>
+    <col min="15443" max="15616" width="9.1796875" style="29"/>
     <col min="15617" max="15617" width="4" style="29" customWidth="1"/>
-    <col min="15618" max="15618" width="14.42578125" style="29" customWidth="1"/>
-    <col min="15619" max="15619" width="15.140625" style="29" customWidth="1"/>
+    <col min="15618" max="15618" width="14.453125" style="29" customWidth="1"/>
+    <col min="15619" max="15619" width="15.1796875" style="29" customWidth="1"/>
     <col min="15620" max="15620" width="53" style="29" customWidth="1"/>
-    <col min="15621" max="15622" width="13.140625" style="29" customWidth="1"/>
-    <col min="15623" max="15623" width="11.140625" style="29" customWidth="1"/>
-    <col min="15624" max="15624" width="4.28515625" style="29" customWidth="1"/>
-    <col min="15625" max="15647" width="9.140625" style="29" bestFit="1"/>
+    <col min="15621" max="15622" width="13.1796875" style="29" customWidth="1"/>
+    <col min="15623" max="15623" width="11.1796875" style="29" customWidth="1"/>
+    <col min="15624" max="15624" width="4.26953125" style="29" customWidth="1"/>
+    <col min="15625" max="15647" width="9.1796875" style="29" bestFit="1"/>
     <col min="15648" max="15698" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="15699" max="15872" width="9.140625" style="29"/>
+    <col min="15699" max="15872" width="9.1796875" style="29"/>
     <col min="15873" max="15873" width="4" style="29" customWidth="1"/>
-    <col min="15874" max="15874" width="14.42578125" style="29" customWidth="1"/>
-    <col min="15875" max="15875" width="15.140625" style="29" customWidth="1"/>
+    <col min="15874" max="15874" width="14.453125" style="29" customWidth="1"/>
+    <col min="15875" max="15875" width="15.1796875" style="29" customWidth="1"/>
     <col min="15876" max="15876" width="53" style="29" customWidth="1"/>
-    <col min="15877" max="15878" width="13.140625" style="29" customWidth="1"/>
-    <col min="15879" max="15879" width="11.140625" style="29" customWidth="1"/>
-    <col min="15880" max="15880" width="4.28515625" style="29" customWidth="1"/>
-    <col min="15881" max="15903" width="9.140625" style="29" bestFit="1"/>
+    <col min="15877" max="15878" width="13.1796875" style="29" customWidth="1"/>
+    <col min="15879" max="15879" width="11.1796875" style="29" customWidth="1"/>
+    <col min="15880" max="15880" width="4.26953125" style="29" customWidth="1"/>
+    <col min="15881" max="15903" width="9.1796875" style="29" bestFit="1"/>
     <col min="15904" max="15954" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="15955" max="16128" width="9.140625" style="29"/>
+    <col min="15955" max="16128" width="9.1796875" style="29"/>
     <col min="16129" max="16129" width="4" style="29" customWidth="1"/>
-    <col min="16130" max="16130" width="14.42578125" style="29" customWidth="1"/>
-    <col min="16131" max="16131" width="15.140625" style="29" customWidth="1"/>
+    <col min="16130" max="16130" width="14.453125" style="29" customWidth="1"/>
+    <col min="16131" max="16131" width="15.1796875" style="29" customWidth="1"/>
     <col min="16132" max="16132" width="53" style="29" customWidth="1"/>
-    <col min="16133" max="16134" width="13.140625" style="29" customWidth="1"/>
-    <col min="16135" max="16135" width="11.140625" style="29" customWidth="1"/>
-    <col min="16136" max="16136" width="4.28515625" style="29" customWidth="1"/>
-    <col min="16137" max="16159" width="9.140625" style="29" bestFit="1"/>
+    <col min="16133" max="16134" width="13.1796875" style="29" customWidth="1"/>
+    <col min="16135" max="16135" width="11.1796875" style="29" customWidth="1"/>
+    <col min="16136" max="16136" width="4.26953125" style="29" customWidth="1"/>
+    <col min="16137" max="16159" width="9.1796875" style="29" bestFit="1"/>
     <col min="16160" max="16210" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="16211" max="16384" width="9.140625" style="29"/>
+    <col min="16211" max="16384" width="9.1796875" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="116.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="89"/>
-    </row>
-    <row r="2" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
+    <row r="1" spans="1:8" ht="116.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="75"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="77"/>
+    </row>
+    <row r="2" spans="1:8" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="92"/>
-    </row>
-    <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="93" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="80"/>
+    </row>
+    <row r="3" spans="1:8" ht="23.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="95"/>
-    </row>
-    <row r="4" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="96" t="s">
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="83"/>
+    </row>
+    <row r="4" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="98"/>
-    </row>
-    <row r="5" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="86"/>
+    </row>
+    <row r="5" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="30"/>
       <c r="B5" s="72"/>
       <c r="C5" s="72"/>
@@ -3456,83 +3456,83 @@
       <c r="G5" s="72"/>
       <c r="H5" s="31"/>
     </row>
-    <row r="6" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30"/>
-      <c r="B6" s="99" t="s">
+      <c r="B6" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="100"/>
-      <c r="D6" s="101" t="s">
+      <c r="C6" s="88"/>
+      <c r="D6" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="103"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="91"/>
       <c r="H6" s="31"/>
     </row>
-    <row r="7" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="30"/>
-      <c r="B7" s="85" t="s">
+      <c r="B7" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="86"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="79"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="96"/>
       <c r="H7" s="31"/>
     </row>
-    <row r="8" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="30"/>
-      <c r="B8" s="75" t="s">
+      <c r="B8" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="76"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="79"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="96"/>
       <c r="H8" s="31"/>
     </row>
-    <row r="9" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="30"/>
-      <c r="B9" s="75" t="s">
+      <c r="B9" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="76"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="79"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="96"/>
       <c r="H9" s="31"/>
     </row>
-    <row r="10" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30"/>
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="76"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="79"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="96"/>
       <c r="H10" s="31"/>
     </row>
-    <row r="11" spans="1:8" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="30"/>
-      <c r="B11" s="80" t="s">
+      <c r="B11" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="81"/>
-      <c r="D11" s="82" t="s">
+      <c r="C11" s="98"/>
+      <c r="D11" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="84"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="101"/>
       <c r="H11" s="31"/>
     </row>
-    <row r="12" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="30"/>
       <c r="B12" s="73"/>
       <c r="C12" s="73"/>
@@ -3542,7 +3542,7 @@
       <c r="G12" s="74"/>
       <c r="H12" s="31"/>
     </row>
-    <row r="13" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="30"/>
       <c r="B13" s="73"/>
       <c r="C13" s="73"/>
@@ -3552,7 +3552,7 @@
       <c r="G13" s="74"/>
       <c r="H13" s="31"/>
     </row>
-    <row r="14" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="30"/>
       <c r="B14" s="73"/>
       <c r="C14" s="73"/>
@@ -3562,7 +3562,7 @@
       <c r="G14" s="74"/>
       <c r="H14" s="31"/>
     </row>
-    <row r="15" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="30"/>
       <c r="B15" s="73"/>
       <c r="C15" s="73"/>
@@ -3572,7 +3572,7 @@
       <c r="G15" s="74"/>
       <c r="H15" s="31"/>
     </row>
-    <row r="16" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="30"/>
       <c r="B16" s="73"/>
       <c r="C16" s="73"/>
@@ -3582,7 +3582,7 @@
       <c r="G16" s="74"/>
       <c r="H16" s="31"/>
     </row>
-    <row r="17" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="30"/>
       <c r="B17" s="73"/>
       <c r="C17" s="73"/>
@@ -3592,7 +3592,7 @@
       <c r="G17" s="74"/>
       <c r="H17" s="31"/>
     </row>
-    <row r="18" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="30"/>
       <c r="B18" s="73"/>
       <c r="C18" s="73"/>
@@ -3602,7 +3602,7 @@
       <c r="G18" s="74"/>
       <c r="H18" s="31"/>
     </row>
-    <row r="19" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="30"/>
       <c r="B19" s="73"/>
       <c r="C19" s="73"/>
@@ -3612,7 +3612,7 @@
       <c r="G19" s="74"/>
       <c r="H19" s="31"/>
     </row>
-    <row r="20" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="30"/>
       <c r="B20" s="73"/>
       <c r="C20" s="73"/>
@@ -3622,7 +3622,7 @@
       <c r="G20" s="74"/>
       <c r="H20" s="31"/>
     </row>
-    <row r="21" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="30"/>
       <c r="B21" s="73"/>
       <c r="C21" s="73"/>
@@ -3632,7 +3632,7 @@
       <c r="G21" s="74"/>
       <c r="H21" s="31"/>
     </row>
-    <row r="22" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="30"/>
       <c r="B22" s="33"/>
       <c r="C22" s="34"/>
@@ -3642,7 +3642,7 @@
       <c r="G22" s="35"/>
       <c r="H22" s="31"/>
     </row>
-    <row r="23" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="30"/>
       <c r="B23" s="36"/>
       <c r="C23" s="37"/>
@@ -3652,7 +3652,7 @@
       <c r="G23" s="39"/>
       <c r="H23" s="31"/>
     </row>
-    <row r="24" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="30"/>
       <c r="B24" s="36"/>
       <c r="C24" s="37"/>
@@ -3662,7 +3662,7 @@
       <c r="G24" s="39"/>
       <c r="H24" s="31"/>
     </row>
-    <row r="25" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="30"/>
       <c r="B25" s="36"/>
       <c r="C25" s="37"/>
@@ -3672,7 +3672,7 @@
       <c r="G25" s="39"/>
       <c r="H25" s="31"/>
     </row>
-    <row r="26" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="30"/>
       <c r="B26" s="36"/>
       <c r="C26" s="37"/>
@@ -3682,7 +3682,7 @@
       <c r="G26" s="39"/>
       <c r="H26" s="31"/>
     </row>
-    <row r="27" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="30"/>
       <c r="B27" s="36"/>
       <c r="C27" s="37"/>
@@ -3692,7 +3692,7 @@
       <c r="G27" s="39"/>
       <c r="H27" s="31"/>
     </row>
-    <row r="28" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="30"/>
       <c r="B28" s="36"/>
       <c r="C28" s="37"/>
@@ -3702,7 +3702,7 @@
       <c r="G28" s="39"/>
       <c r="H28" s="31"/>
     </row>
-    <row r="29" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" s="32" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="30"/>
       <c r="B29" s="36"/>
       <c r="C29" s="37"/>
@@ -3712,7 +3712,7 @@
       <c r="G29" s="39"/>
       <c r="H29" s="31"/>
     </row>
-    <row r="30" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="30"/>
       <c r="B30" s="36"/>
       <c r="C30" s="37"/>
@@ -3722,7 +3722,7 @@
       <c r="G30" s="39"/>
       <c r="H30" s="31"/>
     </row>
-    <row r="31" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="30"/>
       <c r="B31" s="36"/>
       <c r="C31" s="37"/>
@@ -3732,7 +3732,7 @@
       <c r="G31" s="39"/>
       <c r="H31" s="31"/>
     </row>
-    <row r="32" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="30"/>
       <c r="B32" s="40"/>
       <c r="C32" s="37"/>
@@ -3742,7 +3742,7 @@
       <c r="G32" s="39"/>
       <c r="H32" s="31"/>
     </row>
-    <row r="33" spans="1:32" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:32" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="30"/>
       <c r="B33" s="40" t="s">
         <v>11</v>
@@ -3756,7 +3756,7 @@
       <c r="G33" s="39"/>
       <c r="H33" s="31"/>
     </row>
-    <row r="34" spans="1:32" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:32" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="30"/>
       <c r="B34" s="42" t="s">
         <v>13</v>
@@ -3781,7 +3781,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="35" spans="1:32" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="45"/>
       <c r="B35" s="46"/>
       <c r="C35" s="46"/>
@@ -3793,12 +3793,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:G6"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:G10"/>
     <mergeCell ref="B11:C11"/>
@@ -3809,6 +3803,12 @@
     <mergeCell ref="D8:G8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:G9"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:G6"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="68" fitToHeight="100" orientation="portrait" r:id="rId1"/>
@@ -3820,34 +3820,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D222"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="H122" sqref="H122"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="38.140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="38.1796875" style="4" customWidth="1"/>
     <col min="5" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="104" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="135" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="106"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="107"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="109"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="137"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="138"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="140"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="110" t="s">
         <v>20</v>
@@ -3855,157 +3855,157 @@
       <c r="C3" s="111"/>
       <c r="D3" s="112"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="113"/>
-      <c r="D4" s="114"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="132"/>
+      <c r="D4" s="133"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="113"/>
-      <c r="D5" s="114"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="132"/>
+      <c r="D5" s="133"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="113"/>
-      <c r="D6" s="114"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="132"/>
+      <c r="D6" s="133"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="113"/>
-      <c r="D7" s="114"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="132"/>
+      <c r="D7" s="133"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="117"/>
-      <c r="D8" s="116"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="130"/>
+      <c r="D8" s="131"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="113"/>
-      <c r="D9" s="114"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="132"/>
+      <c r="D9" s="133"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="117"/>
-      <c r="D10" s="116"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="130"/>
+      <c r="D10" s="131"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="117"/>
-      <c r="D11" s="116"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="130"/>
+      <c r="D11" s="131"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="117"/>
-      <c r="D12" s="116"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="130"/>
+      <c r="D12" s="131"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="117"/>
-      <c r="D13" s="116"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="130"/>
+      <c r="D13" s="131"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="115"/>
-      <c r="D14" s="116"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="134"/>
+      <c r="D14" s="131"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="115"/>
-      <c r="D15" s="116"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="134"/>
+      <c r="D15" s="131"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="115"/>
-      <c r="D16" s="116"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="134"/>
+      <c r="D16" s="131"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="115"/>
-      <c r="D17" s="116"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="134"/>
+      <c r="D17" s="131"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>15</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="117"/>
-      <c r="D18" s="116"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="130"/>
+      <c r="D18" s="131"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="110" t="s">
         <v>36</v>
@@ -4013,57 +4013,57 @@
       <c r="C19" s="111"/>
       <c r="D19" s="112"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>16</v>
       </c>
       <c r="B20" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="117"/>
-      <c r="D20" s="116"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="130"/>
+      <c r="D20" s="131"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>17</v>
       </c>
       <c r="B21" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="113"/>
-      <c r="D21" s="114"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="132"/>
+      <c r="D21" s="133"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>18</v>
       </c>
       <c r="B22" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="117"/>
-      <c r="D22" s="116"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="130"/>
+      <c r="D22" s="131"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>19</v>
       </c>
       <c r="B23" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="117"/>
-      <c r="D23" s="116"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C23" s="130"/>
+      <c r="D23" s="131"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>20</v>
       </c>
       <c r="B24" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="113"/>
-      <c r="D24" s="114"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C24" s="132"/>
+      <c r="D24" s="133"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="110" t="s">
         <v>42</v>
@@ -4071,7 +4071,7 @@
       <c r="C25" s="111"/>
       <c r="D25" s="112"/>
     </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="28"/>
       <c r="B26" s="66" t="s">
         <v>43</v>
@@ -4083,7 +4083,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>21</v>
       </c>
@@ -4093,7 +4093,7 @@
       <c r="C27" s="61"/>
       <c r="D27" s="62"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>22</v>
       </c>
@@ -4103,7 +4103,7 @@
       <c r="C28" s="61"/>
       <c r="D28" s="62"/>
     </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>23</v>
       </c>
@@ -4113,7 +4113,7 @@
       <c r="C29" s="61"/>
       <c r="D29" s="62"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>24</v>
       </c>
@@ -4123,7 +4123,7 @@
       <c r="C30" s="61"/>
       <c r="D30" s="62"/>
     </row>
-    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>25</v>
       </c>
@@ -4133,7 +4133,7 @@
       <c r="C31" s="61"/>
       <c r="D31" s="62"/>
     </row>
-    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>26</v>
       </c>
@@ -4143,7 +4143,7 @@
       <c r="C32" s="61"/>
       <c r="D32" s="62"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>27</v>
       </c>
@@ -4153,7 +4153,7 @@
       <c r="C33" s="61"/>
       <c r="D33" s="62"/>
     </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>28</v>
       </c>
@@ -4163,7 +4163,7 @@
       <c r="C34" s="61"/>
       <c r="D34" s="62"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>29</v>
       </c>
@@ -4173,7 +4173,7 @@
       <c r="C35" s="61"/>
       <c r="D35" s="62"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>30</v>
       </c>
@@ -4183,7 +4183,7 @@
       <c r="C36" s="61"/>
       <c r="D36" s="62"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>31</v>
       </c>
@@ -4193,7 +4193,7 @@
       <c r="C37" s="61"/>
       <c r="D37" s="62"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>32</v>
       </c>
@@ -4203,7 +4203,7 @@
       <c r="C38" s="61"/>
       <c r="D38" s="62"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>33</v>
       </c>
@@ -4213,7 +4213,7 @@
       <c r="C39" s="61"/>
       <c r="D39" s="62"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="5">
         <v>34</v>
       </c>
@@ -4223,7 +4223,7 @@
       <c r="C40" s="48"/>
       <c r="D40" s="49"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>35</v>
       </c>
@@ -4233,7 +4233,7 @@
       <c r="C41" s="61"/>
       <c r="D41" s="62"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>36</v>
       </c>
@@ -4243,7 +4243,7 @@
       <c r="C42" s="61"/>
       <c r="D42" s="62"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>37</v>
       </c>
@@ -4253,7 +4253,7 @@
       <c r="C43" s="68"/>
       <c r="D43" s="62"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>38</v>
       </c>
@@ -4263,7 +4263,7 @@
       <c r="C44" s="69"/>
       <c r="D44" s="62"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>39</v>
       </c>
@@ -4273,7 +4273,7 @@
       <c r="C45" s="61"/>
       <c r="D45" s="62"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>40</v>
       </c>
@@ -4283,7 +4283,7 @@
       <c r="C46" s="61"/>
       <c r="D46" s="62"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>41</v>
       </c>
@@ -4293,7 +4293,7 @@
       <c r="C47" s="61"/>
       <c r="D47" s="62"/>
     </row>
-    <row r="48" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
       <c r="B48" s="110" t="s">
         <v>64</v>
@@ -4301,7 +4301,7 @@
       <c r="C48" s="111"/>
       <c r="D48" s="112"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
       <c r="B49" s="110" t="s">
         <v>65</v>
@@ -4309,77 +4309,77 @@
       <c r="C49" s="111"/>
       <c r="D49" s="112"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>42</v>
       </c>
       <c r="B50" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="C50" s="118"/>
-      <c r="D50" s="119"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C50" s="104"/>
+      <c r="D50" s="105"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>43</v>
       </c>
       <c r="B51" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="C51" s="118"/>
-      <c r="D51" s="119"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C51" s="104"/>
+      <c r="D51" s="105"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>44</v>
       </c>
       <c r="B52" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="C52" s="118"/>
-      <c r="D52" s="119"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C52" s="104"/>
+      <c r="D52" s="105"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>45</v>
       </c>
       <c r="B53" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="C53" s="118"/>
-      <c r="D53" s="119"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C53" s="104"/>
+      <c r="D53" s="105"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>46</v>
       </c>
       <c r="B54" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="C54" s="118"/>
-      <c r="D54" s="119"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C54" s="104"/>
+      <c r="D54" s="105"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>47</v>
       </c>
       <c r="B55" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="C55" s="118"/>
-      <c r="D55" s="119"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C55" s="104"/>
+      <c r="D55" s="105"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>48</v>
       </c>
       <c r="B56" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="C56" s="118"/>
-      <c r="D56" s="119"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C56" s="104"/>
+      <c r="D56" s="105"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
       <c r="B57" s="110" t="s">
         <v>73</v>
@@ -4387,7 +4387,7 @@
       <c r="C57" s="111"/>
       <c r="D57" s="112"/>
     </row>
-    <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
       <c r="B58" s="110" t="s">
         <v>74</v>
@@ -4395,17 +4395,17 @@
       <c r="C58" s="111"/>
       <c r="D58" s="112"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>49</v>
       </c>
       <c r="B59" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="C59" s="118"/>
-      <c r="D59" s="119"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C59" s="104"/>
+      <c r="D59" s="105"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="1"/>
       <c r="B60" s="110" t="s">
         <v>76</v>
@@ -4413,67 +4413,67 @@
       <c r="C60" s="111"/>
       <c r="D60" s="112"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>50</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C61" s="120"/>
-      <c r="D61" s="121"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C61" s="108"/>
+      <c r="D61" s="109"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>51</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C62" s="120"/>
-      <c r="D62" s="121"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C62" s="108"/>
+      <c r="D62" s="109"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>52</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C63" s="120"/>
-      <c r="D63" s="121"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C63" s="108"/>
+      <c r="D63" s="109"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>53</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C64" s="120"/>
-      <c r="D64" s="121"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C64" s="108"/>
+      <c r="D64" s="109"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>54</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C65" s="120"/>
-      <c r="D65" s="121"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C65" s="108"/>
+      <c r="D65" s="109"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>55</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C66" s="120"/>
-      <c r="D66" s="121"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C66" s="108"/>
+      <c r="D66" s="109"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="1"/>
       <c r="B67" s="110" t="s">
         <v>83</v>
@@ -4481,17 +4481,17 @@
       <c r="C67" s="111"/>
       <c r="D67" s="112"/>
     </row>
-    <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="12">
         <v>56</v>
       </c>
       <c r="B68" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="C68" s="118"/>
-      <c r="D68" s="119"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C68" s="104"/>
+      <c r="D68" s="105"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="1"/>
       <c r="B69" s="110" t="s">
         <v>85</v>
@@ -4499,203 +4499,203 @@
       <c r="C69" s="111"/>
       <c r="D69" s="112"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>57</v>
       </c>
       <c r="B70" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="C70" s="118"/>
-      <c r="D70" s="119"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C70" s="104"/>
+      <c r="D70" s="105"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>58</v>
       </c>
       <c r="B71" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="C71" s="118"/>
-      <c r="D71" s="119"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C71" s="104"/>
+      <c r="D71" s="105"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>59</v>
       </c>
       <c r="B72" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="C72" s="118"/>
-      <c r="D72" s="119"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C72" s="104"/>
+      <c r="D72" s="105"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>60</v>
       </c>
       <c r="B73" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="C73" s="118"/>
-      <c r="D73" s="119"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C73" s="104"/>
+      <c r="D73" s="105"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>61</v>
       </c>
       <c r="B74" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="C74" s="118"/>
-      <c r="D74" s="119"/>
-    </row>
-    <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C74" s="104"/>
+      <c r="D74" s="105"/>
+    </row>
+    <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1"/>
-      <c r="B75" s="122" t="s">
+      <c r="B75" s="128" t="s">
         <v>91</v>
       </c>
-      <c r="C75" s="122"/>
-      <c r="D75" s="123"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C75" s="128"/>
+      <c r="D75" s="129"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>62</v>
       </c>
       <c r="B76" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="C76" s="118"/>
-      <c r="D76" s="119"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C76" s="104"/>
+      <c r="D76" s="105"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>63</v>
       </c>
       <c r="B77" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="C77" s="118"/>
-      <c r="D77" s="119"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C77" s="104"/>
+      <c r="D77" s="105"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>64</v>
       </c>
       <c r="B78" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="C78" s="118"/>
-      <c r="D78" s="119"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C78" s="104"/>
+      <c r="D78" s="105"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>65</v>
       </c>
       <c r="B79" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="C79" s="118"/>
-      <c r="D79" s="119"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C79" s="104"/>
+      <c r="D79" s="105"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>66</v>
       </c>
       <c r="B80" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="C80" s="118"/>
-      <c r="D80" s="119"/>
-    </row>
-    <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C80" s="104"/>
+      <c r="D80" s="105"/>
+    </row>
+    <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1"/>
-      <c r="B81" s="122" t="s">
+      <c r="B81" s="128" t="s">
         <v>93</v>
       </c>
-      <c r="C81" s="122"/>
-      <c r="D81" s="123"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C81" s="128"/>
+      <c r="D81" s="129"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>67</v>
       </c>
       <c r="B82" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="C82" s="118"/>
-      <c r="D82" s="119"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C82" s="104"/>
+      <c r="D82" s="105"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>68</v>
       </c>
       <c r="B83" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="C83" s="118"/>
-      <c r="D83" s="119"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C83" s="104"/>
+      <c r="D83" s="105"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>69</v>
       </c>
       <c r="B84" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="C84" s="118"/>
-      <c r="D84" s="119"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C84" s="104"/>
+      <c r="D84" s="105"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>70</v>
       </c>
       <c r="B85" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="C85" s="118"/>
-      <c r="D85" s="119"/>
-    </row>
-    <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C85" s="104"/>
+      <c r="D85" s="105"/>
+    </row>
+    <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>71</v>
       </c>
       <c r="B86" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="C86" s="118"/>
-      <c r="D86" s="119"/>
-    </row>
-    <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C86" s="104"/>
+      <c r="D86" s="105"/>
+    </row>
+    <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>72</v>
       </c>
       <c r="B87" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C87" s="118"/>
-      <c r="D87" s="119"/>
-    </row>
-    <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C87" s="104"/>
+      <c r="D87" s="105"/>
+    </row>
+    <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>73</v>
       </c>
       <c r="B88" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="C88" s="118"/>
-      <c r="D88" s="119"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C88" s="104"/>
+      <c r="D88" s="105"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>74</v>
       </c>
       <c r="B89" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="C89" s="118"/>
-      <c r="D89" s="119"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C89" s="104"/>
+      <c r="D89" s="105"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="1"/>
       <c r="B90" s="110" t="s">
         <v>366</v>
@@ -4703,47 +4703,47 @@
       <c r="C90" s="111"/>
       <c r="D90" s="112"/>
     </row>
-    <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>75</v>
       </c>
       <c r="B91" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="C91" s="118"/>
-      <c r="D91" s="119"/>
-    </row>
-    <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C91" s="104"/>
+      <c r="D91" s="105"/>
+    </row>
+    <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>76</v>
       </c>
       <c r="B92" s="61" t="s">
         <v>99</v>
       </c>
-      <c r="C92" s="118"/>
-      <c r="D92" s="119"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C92" s="104"/>
+      <c r="D92" s="105"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>77</v>
       </c>
       <c r="B93" s="61" t="s">
         <v>100</v>
       </c>
-      <c r="C93" s="118"/>
-      <c r="D93" s="119"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C93" s="104"/>
+      <c r="D93" s="105"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>78</v>
       </c>
       <c r="B94" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="C94" s="118"/>
-      <c r="D94" s="119"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C94" s="104"/>
+      <c r="D94" s="105"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="1"/>
       <c r="B95" s="110" t="s">
         <v>367</v>
@@ -4751,57 +4751,57 @@
       <c r="C95" s="111"/>
       <c r="D95" s="112"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>79</v>
       </c>
       <c r="B96" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="C96" s="118"/>
-      <c r="D96" s="119"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C96" s="104"/>
+      <c r="D96" s="105"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>80</v>
       </c>
       <c r="B97" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="C97" s="120"/>
-      <c r="D97" s="121"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C97" s="108"/>
+      <c r="D97" s="109"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>81</v>
       </c>
       <c r="B98" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C98" s="118"/>
-      <c r="D98" s="119"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C98" s="104"/>
+      <c r="D98" s="105"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>82</v>
       </c>
       <c r="B99" s="61" t="s">
         <v>105</v>
       </c>
-      <c r="C99" s="118"/>
-      <c r="D99" s="119"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C99" s="104"/>
+      <c r="D99" s="105"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>83</v>
       </c>
       <c r="B100" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="C100" s="118"/>
-      <c r="D100" s="119"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C100" s="104"/>
+      <c r="D100" s="105"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="1"/>
       <c r="B101" s="110" t="s">
         <v>368</v>
@@ -4809,47 +4809,47 @@
       <c r="C101" s="111"/>
       <c r="D101" s="112"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>84</v>
       </c>
       <c r="B102" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="C102" s="120"/>
-      <c r="D102" s="121"/>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C102" s="108"/>
+      <c r="D102" s="109"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>85</v>
       </c>
       <c r="B103" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="C103" s="120"/>
-      <c r="D103" s="121"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C103" s="108"/>
+      <c r="D103" s="109"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>86</v>
       </c>
       <c r="B104" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="C104" s="120"/>
-      <c r="D104" s="121"/>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C104" s="108"/>
+      <c r="D104" s="109"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>87</v>
       </c>
       <c r="B105" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="C105" s="120"/>
-      <c r="D105" s="121"/>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C105" s="108"/>
+      <c r="D105" s="109"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" s="1"/>
       <c r="B106" s="110" t="s">
         <v>369</v>
@@ -4857,17 +4857,17 @@
       <c r="C106" s="111"/>
       <c r="D106" s="112"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>88</v>
       </c>
       <c r="B107" s="65" t="s">
         <v>111</v>
       </c>
-      <c r="C107" s="118"/>
-      <c r="D107" s="119"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C107" s="104"/>
+      <c r="D107" s="105"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" s="1"/>
       <c r="B108" s="110" t="s">
         <v>370</v>
@@ -4875,255 +4875,255 @@
       <c r="C108" s="111"/>
       <c r="D108" s="112"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>89</v>
       </c>
       <c r="B109" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="C109" s="118"/>
-      <c r="D109" s="119"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C109" s="104"/>
+      <c r="D109" s="105"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>90</v>
       </c>
       <c r="B110" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="C110" s="118"/>
-      <c r="D110" s="119"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C110" s="104"/>
+      <c r="D110" s="105"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>91</v>
       </c>
       <c r="B111" s="61" t="s">
         <v>114</v>
       </c>
-      <c r="C111" s="118"/>
-      <c r="D111" s="119"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C111" s="104"/>
+      <c r="D111" s="105"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>92</v>
       </c>
       <c r="B112" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="C112" s="118"/>
-      <c r="D112" s="119"/>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C112" s="104"/>
+      <c r="D112" s="105"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>93</v>
       </c>
       <c r="B113" s="61" t="s">
         <v>116</v>
       </c>
-      <c r="C113" s="118"/>
-      <c r="D113" s="119"/>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C113" s="104"/>
+      <c r="D113" s="105"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>94</v>
       </c>
       <c r="B114" s="61" t="s">
         <v>117</v>
       </c>
-      <c r="C114" s="118"/>
-      <c r="D114" s="119"/>
-    </row>
-    <row r="115" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C114" s="104"/>
+      <c r="D114" s="105"/>
+    </row>
+    <row r="115" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>95</v>
       </c>
       <c r="B115" s="61" t="s">
         <v>118</v>
       </c>
-      <c r="C115" s="118"/>
-      <c r="D115" s="119"/>
-    </row>
-    <row r="116" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C115" s="104"/>
+      <c r="D115" s="105"/>
+    </row>
+    <row r="116" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>96</v>
       </c>
       <c r="B116" s="61" t="s">
         <v>119</v>
       </c>
-      <c r="C116" s="118"/>
-      <c r="D116" s="119"/>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C116" s="104"/>
+      <c r="D116" s="105"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>97</v>
       </c>
       <c r="B117" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="C117" s="118"/>
-      <c r="D117" s="119"/>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C117" s="104"/>
+      <c r="D117" s="105"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>98</v>
       </c>
       <c r="B118" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="C118" s="118"/>
-      <c r="D118" s="119"/>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C118" s="104"/>
+      <c r="D118" s="105"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>99</v>
       </c>
       <c r="B119" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="C119" s="120"/>
-      <c r="D119" s="121"/>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C119" s="108"/>
+      <c r="D119" s="109"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>100</v>
       </c>
       <c r="B120" s="61" t="s">
         <v>123</v>
       </c>
-      <c r="C120" s="120"/>
-      <c r="D120" s="121"/>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C120" s="108"/>
+      <c r="D120" s="109"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>101</v>
       </c>
       <c r="B121" s="61" t="s">
         <v>371</v>
       </c>
-      <c r="C121" s="120"/>
-      <c r="D121" s="121"/>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C121" s="108"/>
+      <c r="D121" s="109"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>102</v>
       </c>
       <c r="B122" s="61" t="s">
         <v>372</v>
       </c>
-      <c r="C122" s="120"/>
-      <c r="D122" s="121"/>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C122" s="108"/>
+      <c r="D122" s="109"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>103</v>
       </c>
       <c r="B123" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="C123" s="118"/>
-      <c r="D123" s="119"/>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C123" s="104"/>
+      <c r="D123" s="105"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>104</v>
       </c>
       <c r="B124" s="70" t="s">
         <v>125</v>
       </c>
-      <c r="C124" s="120"/>
-      <c r="D124" s="121"/>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C124" s="108"/>
+      <c r="D124" s="109"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>105</v>
       </c>
       <c r="B125" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="C125" s="118"/>
-      <c r="D125" s="119"/>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C125" s="104"/>
+      <c r="D125" s="105"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>106</v>
       </c>
       <c r="B126" s="61" t="s">
         <v>127</v>
       </c>
-      <c r="C126" s="118"/>
-      <c r="D126" s="119"/>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C126" s="104"/>
+      <c r="D126" s="105"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" s="9"/>
       <c r="B127" s="110" t="s">
         <v>373</v>
       </c>
-      <c r="C127" s="124"/>
-      <c r="D127" s="125"/>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C127" s="126"/>
+      <c r="D127" s="127"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" s="9">
         <v>107</v>
       </c>
       <c r="B128" s="71" t="s">
         <v>374</v>
       </c>
-      <c r="C128" s="118"/>
-      <c r="D128" s="119"/>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C128" s="104"/>
+      <c r="D128" s="105"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" s="9">
         <v>108</v>
       </c>
       <c r="B129" s="71" t="s">
         <v>375</v>
       </c>
-      <c r="C129" s="120"/>
-      <c r="D129" s="121"/>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C129" s="108"/>
+      <c r="D129" s="109"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" s="9">
         <v>109</v>
       </c>
       <c r="B130" s="70" t="s">
         <v>129</v>
       </c>
-      <c r="C130" s="118"/>
-      <c r="D130" s="119"/>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C130" s="104"/>
+      <c r="D130" s="105"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" s="9">
         <v>110</v>
       </c>
       <c r="B131" s="71" t="s">
         <v>376</v>
       </c>
-      <c r="C131" s="118"/>
-      <c r="D131" s="119"/>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C131" s="104"/>
+      <c r="D131" s="105"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" s="9">
         <v>111</v>
       </c>
       <c r="B132" s="71" t="s">
         <v>377</v>
       </c>
-      <c r="C132" s="120"/>
-      <c r="D132" s="121"/>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C132" s="108"/>
+      <c r="D132" s="109"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" s="9">
         <v>112</v>
       </c>
       <c r="B133" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="C133" s="120"/>
-      <c r="D133" s="121"/>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C133" s="108"/>
+      <c r="D133" s="109"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" s="1"/>
       <c r="B134" s="110" t="s">
         <v>131</v>
@@ -5131,127 +5131,127 @@
       <c r="C134" s="111"/>
       <c r="D134" s="112"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>113</v>
       </c>
       <c r="B135" s="61" t="s">
         <v>132</v>
       </c>
-      <c r="C135" s="118"/>
-      <c r="D135" s="119"/>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C135" s="104"/>
+      <c r="D135" s="105"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>114</v>
       </c>
       <c r="B136" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="C136" s="118"/>
-      <c r="D136" s="119"/>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C136" s="104"/>
+      <c r="D136" s="105"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>115</v>
       </c>
       <c r="B137" s="58" t="s">
         <v>134</v>
       </c>
-      <c r="C137" s="120"/>
-      <c r="D137" s="121"/>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C137" s="108"/>
+      <c r="D137" s="109"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>116</v>
       </c>
       <c r="B138" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="C138" s="118"/>
-      <c r="D138" s="119"/>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C138" s="104"/>
+      <c r="D138" s="105"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>117</v>
       </c>
       <c r="B139" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="C139" s="118"/>
-      <c r="D139" s="119"/>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C139" s="104"/>
+      <c r="D139" s="105"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>118</v>
       </c>
       <c r="B140" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="C140" s="120"/>
-      <c r="D140" s="121"/>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C140" s="108"/>
+      <c r="D140" s="109"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>119</v>
       </c>
       <c r="B141" s="58" t="s">
         <v>138</v>
       </c>
-      <c r="C141" s="118"/>
-      <c r="D141" s="119"/>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C141" s="104"/>
+      <c r="D141" s="105"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>120</v>
       </c>
       <c r="B142" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="C142" s="118"/>
-      <c r="D142" s="119"/>
-    </row>
-    <row r="143" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C142" s="104"/>
+      <c r="D142" s="105"/>
+    </row>
+    <row r="143" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>121</v>
       </c>
       <c r="B143" s="58" t="s">
         <v>140</v>
       </c>
-      <c r="C143" s="120"/>
-      <c r="D143" s="121"/>
-    </row>
-    <row r="144" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C143" s="108"/>
+      <c r="D143" s="109"/>
+    </row>
+    <row r="144" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>122</v>
       </c>
       <c r="B144" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="C144" s="120"/>
-      <c r="D144" s="121"/>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C144" s="108"/>
+      <c r="D144" s="109"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>123</v>
       </c>
       <c r="B145" s="58" t="s">
         <v>142</v>
       </c>
-      <c r="C145" s="118"/>
-      <c r="D145" s="119"/>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C145" s="104"/>
+      <c r="D145" s="105"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>124</v>
       </c>
       <c r="B146" s="58" t="s">
         <v>143</v>
       </c>
-      <c r="C146" s="126"/>
-      <c r="D146" s="121"/>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C146" s="123"/>
+      <c r="D146" s="109"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" s="1"/>
       <c r="B147" s="110" t="s">
         <v>386</v>
@@ -5259,17 +5259,17 @@
       <c r="C147" s="111"/>
       <c r="D147" s="112"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>125</v>
       </c>
       <c r="B148" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="C148" s="127"/>
-      <c r="D148" s="128"/>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C148" s="124"/>
+      <c r="D148" s="125"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" s="1"/>
       <c r="B149" s="110" t="s">
         <v>145</v>
@@ -5277,37 +5277,37 @@
       <c r="C149" s="111"/>
       <c r="D149" s="112"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>126</v>
       </c>
       <c r="B150" s="61" t="s">
         <v>146</v>
       </c>
-      <c r="C150" s="118"/>
-      <c r="D150" s="119"/>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C150" s="104"/>
+      <c r="D150" s="105"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>127</v>
       </c>
       <c r="B151" s="61" t="s">
         <v>147</v>
       </c>
-      <c r="C151" s="118"/>
-      <c r="D151" s="119"/>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C151" s="104"/>
+      <c r="D151" s="105"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>128</v>
       </c>
       <c r="B152" s="61" t="s">
         <v>148</v>
       </c>
-      <c r="C152" s="118"/>
-      <c r="D152" s="119"/>
-    </row>
-    <row r="153" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C152" s="104"/>
+      <c r="D152" s="105"/>
+    </row>
+    <row r="153" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="1"/>
       <c r="B153" s="110" t="s">
         <v>149</v>
@@ -5315,7 +5315,7 @@
       <c r="C153" s="111"/>
       <c r="D153" s="112"/>
     </row>
-    <row r="154" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="1"/>
       <c r="B154" s="66" t="s">
         <v>150</v>
@@ -5327,7 +5327,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>129</v>
       </c>
@@ -5337,7 +5337,7 @@
       <c r="C155" s="61"/>
       <c r="D155" s="62"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>130</v>
       </c>
@@ -5347,7 +5347,7 @@
       <c r="C156" s="61"/>
       <c r="D156" s="62"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>131</v>
       </c>
@@ -5357,7 +5357,7 @@
       <c r="C157" s="61"/>
       <c r="D157" s="62"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>132</v>
       </c>
@@ -5367,7 +5367,7 @@
       <c r="C158" s="61"/>
       <c r="D158" s="62"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>133</v>
       </c>
@@ -5377,7 +5377,7 @@
       <c r="C159" s="61"/>
       <c r="D159" s="62"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>134</v>
       </c>
@@ -5387,7 +5387,7 @@
       <c r="C160" s="61"/>
       <c r="D160" s="62"/>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>135</v>
       </c>
@@ -5397,7 +5397,7 @@
       <c r="C161" s="61"/>
       <c r="D161" s="62"/>
     </row>
-    <row r="162" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="1"/>
       <c r="B162" s="110" t="s">
         <v>158</v>
@@ -5405,87 +5405,87 @@
       <c r="C162" s="111"/>
       <c r="D162" s="112"/>
     </row>
-    <row r="163" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>136</v>
       </c>
       <c r="B163" s="61" t="s">
         <v>132</v>
       </c>
-      <c r="C163" s="129"/>
-      <c r="D163" s="130"/>
-    </row>
-    <row r="164" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C163" s="121"/>
+      <c r="D163" s="122"/>
+    </row>
+    <row r="164" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>137</v>
       </c>
       <c r="B164" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="C164" s="129"/>
-      <c r="D164" s="130"/>
-    </row>
-    <row r="165" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C164" s="121"/>
+      <c r="D164" s="122"/>
+    </row>
+    <row r="165" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>138</v>
       </c>
       <c r="B165" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="C165" s="129"/>
-      <c r="D165" s="130"/>
-    </row>
-    <row r="166" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C165" s="121"/>
+      <c r="D165" s="122"/>
+    </row>
+    <row r="166" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>139</v>
       </c>
       <c r="B166" s="61" t="s">
         <v>159</v>
       </c>
-      <c r="C166" s="129"/>
-      <c r="D166" s="130"/>
-    </row>
-    <row r="167" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C166" s="121"/>
+      <c r="D166" s="122"/>
+    </row>
+    <row r="167" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>140</v>
       </c>
       <c r="B167" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="C167" s="129"/>
-      <c r="D167" s="130"/>
-    </row>
-    <row r="168" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C167" s="121"/>
+      <c r="D167" s="122"/>
+    </row>
+    <row r="168" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>141</v>
       </c>
       <c r="B168" s="61" t="s">
         <v>139</v>
       </c>
-      <c r="C168" s="129"/>
-      <c r="D168" s="130"/>
-    </row>
-    <row r="169" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C168" s="121"/>
+      <c r="D168" s="122"/>
+    </row>
+    <row r="169" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>142</v>
       </c>
       <c r="B169" s="61" t="s">
         <v>160</v>
       </c>
-      <c r="C169" s="129"/>
-      <c r="D169" s="130"/>
-    </row>
-    <row r="170" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C169" s="121"/>
+      <c r="D169" s="122"/>
+    </row>
+    <row r="170" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>143</v>
       </c>
       <c r="B170" s="61" t="s">
         <v>161</v>
       </c>
-      <c r="C170" s="129"/>
-      <c r="D170" s="130"/>
-    </row>
-    <row r="171" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C170" s="121"/>
+      <c r="D170" s="122"/>
+    </row>
+    <row r="171" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="1"/>
       <c r="B171" s="66" t="s">
         <v>150</v>
@@ -5497,7 +5497,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>144</v>
       </c>
@@ -5507,7 +5507,7 @@
       <c r="C172" s="61"/>
       <c r="D172" s="62"/>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>145</v>
       </c>
@@ -5517,7 +5517,7 @@
       <c r="C173" s="61"/>
       <c r="D173" s="62"/>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>146</v>
       </c>
@@ -5527,7 +5527,7 @@
       <c r="C174" s="61"/>
       <c r="D174" s="62"/>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>147</v>
       </c>
@@ -5537,7 +5537,7 @@
       <c r="C175" s="61"/>
       <c r="D175" s="62"/>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
         <v>148</v>
       </c>
@@ -5547,7 +5547,7 @@
       <c r="C176" s="61"/>
       <c r="D176" s="62"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>149</v>
       </c>
@@ -5557,7 +5557,7 @@
       <c r="C177" s="61"/>
       <c r="D177" s="62"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>150</v>
       </c>
@@ -5567,7 +5567,7 @@
       <c r="C178" s="61"/>
       <c r="D178" s="62"/>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" s="1"/>
       <c r="B179" s="110" t="s">
         <v>378</v>
@@ -5575,37 +5575,37 @@
       <c r="C179" s="111"/>
       <c r="D179" s="112"/>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>151</v>
       </c>
       <c r="B180" s="61" t="s">
         <v>163</v>
       </c>
-      <c r="C180" s="118"/>
-      <c r="D180" s="119"/>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C180" s="104"/>
+      <c r="D180" s="105"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <v>152</v>
       </c>
       <c r="B181" s="61" t="s">
         <v>164</v>
       </c>
-      <c r="C181" s="118"/>
-      <c r="D181" s="119"/>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C181" s="104"/>
+      <c r="D181" s="105"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>153</v>
       </c>
       <c r="B182" s="61" t="s">
         <v>165</v>
       </c>
-      <c r="C182" s="120"/>
-      <c r="D182" s="121"/>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C182" s="108"/>
+      <c r="D182" s="109"/>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183" s="1"/>
       <c r="B183" s="110" t="s">
         <v>379</v>
@@ -5613,27 +5613,27 @@
       <c r="C183" s="111"/>
       <c r="D183" s="112"/>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
         <v>154</v>
       </c>
       <c r="B184" s="61" t="s">
         <v>166</v>
       </c>
-      <c r="C184" s="118"/>
-      <c r="D184" s="119"/>
-    </row>
-    <row r="185" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C184" s="104"/>
+      <c r="D184" s="105"/>
+    </row>
+    <row r="185" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
         <v>155</v>
       </c>
       <c r="B185" s="61" t="s">
         <v>167</v>
       </c>
-      <c r="C185" s="118"/>
-      <c r="D185" s="119"/>
-    </row>
-    <row r="186" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C185" s="104"/>
+      <c r="D185" s="105"/>
+    </row>
+    <row r="186" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="12"/>
       <c r="B186" s="110" t="s">
         <v>168</v>
@@ -5641,187 +5641,187 @@
       <c r="C186" s="111"/>
       <c r="D186" s="112"/>
     </row>
-    <row r="187" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="12">
         <v>156</v>
       </c>
       <c r="B187" s="65" t="s">
         <v>380</v>
       </c>
-      <c r="C187" s="131"/>
-      <c r="D187" s="132"/>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C187" s="119"/>
+      <c r="D187" s="120"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
         <v>157</v>
       </c>
       <c r="B188" s="61" t="s">
         <v>169</v>
       </c>
-      <c r="C188" s="118"/>
-      <c r="D188" s="119"/>
-    </row>
-    <row r="189" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C188" s="104"/>
+      <c r="D188" s="105"/>
+    </row>
+    <row r="189" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="12">
         <v>158</v>
       </c>
       <c r="B189" s="61" t="s">
         <v>381</v>
       </c>
-      <c r="C189" s="118"/>
-      <c r="D189" s="119"/>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C189" s="104"/>
+      <c r="D189" s="105"/>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
         <v>159</v>
       </c>
       <c r="B190" s="61" t="s">
         <v>382</v>
       </c>
-      <c r="C190" s="118"/>
-      <c r="D190" s="119"/>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C190" s="104"/>
+      <c r="D190" s="105"/>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" s="12">
         <v>160</v>
       </c>
       <c r="B191" s="61" t="s">
         <v>383</v>
       </c>
-      <c r="C191" s="118"/>
-      <c r="D191" s="119"/>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C191" s="104"/>
+      <c r="D191" s="105"/>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
         <v>161</v>
       </c>
       <c r="B192" s="61" t="s">
         <v>384</v>
       </c>
-      <c r="C192" s="120"/>
-      <c r="D192" s="121"/>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C192" s="108"/>
+      <c r="D192" s="109"/>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193" s="12">
         <v>162</v>
       </c>
       <c r="B193" s="61" t="s">
         <v>385</v>
       </c>
-      <c r="C193" s="120"/>
-      <c r="D193" s="121"/>
-    </row>
-    <row r="194" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C193" s="108"/>
+      <c r="D193" s="109"/>
+    </row>
+    <row r="194" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
         <v>163</v>
       </c>
       <c r="B194" s="61" t="s">
         <v>170</v>
       </c>
-      <c r="C194" s="133"/>
-      <c r="D194" s="134"/>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C194" s="116"/>
+      <c r="D194" s="117"/>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195" s="12">
         <v>164</v>
       </c>
       <c r="B195" s="61" t="s">
         <v>171</v>
       </c>
-      <c r="C195" s="135"/>
-      <c r="D195" s="119"/>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C195" s="118"/>
+      <c r="D195" s="105"/>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
         <v>165</v>
       </c>
       <c r="B196" s="61" t="s">
         <v>172</v>
       </c>
-      <c r="C196" s="120"/>
-      <c r="D196" s="121"/>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C196" s="108"/>
+      <c r="D196" s="109"/>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" s="12">
         <v>166</v>
       </c>
       <c r="B197" s="61" t="s">
         <v>173</v>
       </c>
-      <c r="C197" s="118"/>
-      <c r="D197" s="119"/>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C197" s="104"/>
+      <c r="D197" s="105"/>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
         <v>167</v>
       </c>
       <c r="B198" s="61" t="s">
         <v>174</v>
       </c>
-      <c r="C198" s="118"/>
-      <c r="D198" s="119"/>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C198" s="104"/>
+      <c r="D198" s="105"/>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A199" s="12">
         <v>168</v>
       </c>
       <c r="B199" s="61" t="s">
         <v>175</v>
       </c>
-      <c r="C199" s="118"/>
-      <c r="D199" s="119"/>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C199" s="104"/>
+      <c r="D199" s="105"/>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
         <v>169</v>
       </c>
       <c r="B200" s="61" t="s">
         <v>176</v>
       </c>
-      <c r="C200" s="118"/>
-      <c r="D200" s="119"/>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C200" s="104"/>
+      <c r="D200" s="105"/>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201" s="12">
         <v>170</v>
       </c>
       <c r="B201" s="61" t="s">
         <v>177</v>
       </c>
-      <c r="C201" s="118"/>
-      <c r="D201" s="119"/>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C201" s="104"/>
+      <c r="D201" s="105"/>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
         <v>171</v>
       </c>
       <c r="B202" s="61" t="s">
         <v>178</v>
       </c>
-      <c r="C202" s="118"/>
-      <c r="D202" s="119"/>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C202" s="104"/>
+      <c r="D202" s="105"/>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" s="12">
         <v>172</v>
       </c>
       <c r="B203" s="61" t="s">
         <v>179</v>
       </c>
-      <c r="C203" s="118"/>
-      <c r="D203" s="119"/>
-    </row>
-    <row r="204" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C203" s="104"/>
+      <c r="D203" s="105"/>
+    </row>
+    <row r="204" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
         <v>173</v>
       </c>
       <c r="B204" s="61" t="s">
         <v>180</v>
       </c>
-      <c r="C204" s="118"/>
-      <c r="D204" s="119"/>
-    </row>
-    <row r="205" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C204" s="104"/>
+      <c r="D204" s="105"/>
+    </row>
+    <row r="205" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205" s="1"/>
       <c r="B205" s="110" t="s">
         <v>181</v>
@@ -5829,57 +5829,57 @@
       <c r="C205" s="111"/>
       <c r="D205" s="112"/>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
         <v>174</v>
       </c>
       <c r="B206" s="61" t="s">
         <v>182</v>
       </c>
-      <c r="C206" s="118"/>
-      <c r="D206" s="119"/>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C206" s="104"/>
+      <c r="D206" s="105"/>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
         <v>175</v>
       </c>
       <c r="B207" s="61" t="s">
         <v>183</v>
       </c>
-      <c r="C207" s="118"/>
-      <c r="D207" s="119"/>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C207" s="104"/>
+      <c r="D207" s="105"/>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208" s="1">
         <v>176</v>
       </c>
       <c r="B208" s="61" t="s">
         <v>184</v>
       </c>
-      <c r="C208" s="118"/>
-      <c r="D208" s="119"/>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C208" s="104"/>
+      <c r="D208" s="105"/>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209" s="1">
         <v>177</v>
       </c>
       <c r="B209" s="59" t="s">
         <v>185</v>
       </c>
-      <c r="C209" s="136"/>
-      <c r="D209" s="137"/>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C209" s="113"/>
+      <c r="D209" s="114"/>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
         <v>178</v>
       </c>
       <c r="B210" s="59" t="s">
         <v>186</v>
       </c>
-      <c r="C210" s="136"/>
-      <c r="D210" s="137"/>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C210" s="113"/>
+      <c r="D210" s="114"/>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211" s="1"/>
       <c r="B211" s="110" t="s">
         <v>187</v>
@@ -5887,67 +5887,67 @@
       <c r="C211" s="111"/>
       <c r="D211" s="112"/>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212" s="1">
         <v>179</v>
       </c>
       <c r="B212" s="61" t="s">
         <v>188</v>
       </c>
-      <c r="C212" s="118"/>
-      <c r="D212" s="119"/>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C212" s="104"/>
+      <c r="D212" s="105"/>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
         <v>180</v>
       </c>
       <c r="B213" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="C213" s="138"/>
-      <c r="D213" s="121"/>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C213" s="115"/>
+      <c r="D213" s="109"/>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214" s="1">
         <v>181</v>
       </c>
       <c r="B214" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="C214" s="120"/>
-      <c r="D214" s="121"/>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C214" s="108"/>
+      <c r="D214" s="109"/>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" s="1">
         <v>182</v>
       </c>
       <c r="B215" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="C215" s="120"/>
-      <c r="D215" s="121"/>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C215" s="108"/>
+      <c r="D215" s="109"/>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A216" s="1">
         <v>183</v>
       </c>
       <c r="B216" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="C216" s="120"/>
-      <c r="D216" s="121"/>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C216" s="108"/>
+      <c r="D216" s="109"/>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A217" s="1">
         <v>184</v>
       </c>
       <c r="B217" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="C217" s="120"/>
-      <c r="D217" s="121"/>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C217" s="108"/>
+      <c r="D217" s="109"/>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218" s="1"/>
       <c r="B218" s="110" t="s">
         <v>194</v>
@@ -5955,57 +5955,210 @@
       <c r="C218" s="111"/>
       <c r="D218" s="112"/>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A219" s="1">
         <v>185</v>
       </c>
       <c r="B219" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="C219" s="118"/>
-      <c r="D219" s="119"/>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C219" s="104"/>
+      <c r="D219" s="105"/>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A220" s="1">
         <v>186</v>
       </c>
       <c r="B220" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="C220" s="118"/>
-      <c r="D220" s="119"/>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C220" s="104"/>
+      <c r="D220" s="105"/>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221" s="1">
         <v>187</v>
       </c>
       <c r="B221" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="C221" s="118"/>
-      <c r="D221" s="119"/>
-    </row>
-    <row r="222" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C221" s="104"/>
+      <c r="D221" s="105"/>
+    </row>
+    <row r="222" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A222" s="27">
         <v>188</v>
       </c>
       <c r="B222" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="C222" s="139"/>
-      <c r="D222" s="140"/>
+      <c r="C222" s="106"/>
+      <c r="D222" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="183">
-    <mergeCell ref="C220:D220"/>
-    <mergeCell ref="C221:D221"/>
-    <mergeCell ref="C222:D222"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="C215:D215"/>
-    <mergeCell ref="C216:D216"/>
-    <mergeCell ref="C217:D217"/>
-    <mergeCell ref="B218:D218"/>
-    <mergeCell ref="C219:D219"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="B106:D106"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="C121:D121"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="C114:D114"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="C116:D116"/>
+    <mergeCell ref="C117:D117"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="C133:D133"/>
+    <mergeCell ref="B134:D134"/>
+    <mergeCell ref="C135:D135"/>
+    <mergeCell ref="C136:D136"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="B127:D127"/>
+    <mergeCell ref="C128:D128"/>
+    <mergeCell ref="C129:D129"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="C131:D131"/>
+    <mergeCell ref="C144:D144"/>
+    <mergeCell ref="C145:D145"/>
+    <mergeCell ref="C146:D146"/>
+    <mergeCell ref="B147:D147"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="B149:D149"/>
+    <mergeCell ref="C138:D138"/>
+    <mergeCell ref="C139:D139"/>
+    <mergeCell ref="C140:D140"/>
+    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="C142:D142"/>
+    <mergeCell ref="C143:D143"/>
+    <mergeCell ref="C164:D164"/>
+    <mergeCell ref="C165:D165"/>
+    <mergeCell ref="C166:D166"/>
+    <mergeCell ref="C167:D167"/>
+    <mergeCell ref="C168:D168"/>
+    <mergeCell ref="C169:D169"/>
+    <mergeCell ref="C150:D150"/>
+    <mergeCell ref="C151:D151"/>
+    <mergeCell ref="C152:D152"/>
+    <mergeCell ref="B153:D153"/>
+    <mergeCell ref="B162:D162"/>
+    <mergeCell ref="C163:D163"/>
+    <mergeCell ref="C184:D184"/>
+    <mergeCell ref="C185:D185"/>
+    <mergeCell ref="B186:D186"/>
+    <mergeCell ref="C187:D187"/>
+    <mergeCell ref="C188:D188"/>
+    <mergeCell ref="C189:D189"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="B179:D179"/>
+    <mergeCell ref="C180:D180"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="C182:D182"/>
+    <mergeCell ref="B183:D183"/>
+    <mergeCell ref="C196:D196"/>
+    <mergeCell ref="C197:D197"/>
+    <mergeCell ref="C198:D198"/>
+    <mergeCell ref="C199:D199"/>
+    <mergeCell ref="C200:D200"/>
+    <mergeCell ref="C201:D201"/>
+    <mergeCell ref="C190:D190"/>
+    <mergeCell ref="C191:D191"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="C193:D193"/>
+    <mergeCell ref="C194:D194"/>
+    <mergeCell ref="C195:D195"/>
     <mergeCell ref="C208:D208"/>
     <mergeCell ref="C209:D209"/>
     <mergeCell ref="C210:D210"/>
@@ -6018,168 +6171,15 @@
     <mergeCell ref="B205:D205"/>
     <mergeCell ref="C206:D206"/>
     <mergeCell ref="C207:D207"/>
-    <mergeCell ref="C196:D196"/>
-    <mergeCell ref="C197:D197"/>
-    <mergeCell ref="C198:D198"/>
-    <mergeCell ref="C199:D199"/>
-    <mergeCell ref="C200:D200"/>
-    <mergeCell ref="C201:D201"/>
-    <mergeCell ref="C190:D190"/>
-    <mergeCell ref="C191:D191"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="C193:D193"/>
-    <mergeCell ref="C194:D194"/>
-    <mergeCell ref="C195:D195"/>
-    <mergeCell ref="C184:D184"/>
-    <mergeCell ref="C185:D185"/>
-    <mergeCell ref="B186:D186"/>
-    <mergeCell ref="C187:D187"/>
-    <mergeCell ref="C188:D188"/>
-    <mergeCell ref="C189:D189"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="B179:D179"/>
-    <mergeCell ref="C180:D180"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="C182:D182"/>
-    <mergeCell ref="B183:D183"/>
-    <mergeCell ref="C164:D164"/>
-    <mergeCell ref="C165:D165"/>
-    <mergeCell ref="C166:D166"/>
-    <mergeCell ref="C167:D167"/>
-    <mergeCell ref="C168:D168"/>
-    <mergeCell ref="C169:D169"/>
-    <mergeCell ref="C150:D150"/>
-    <mergeCell ref="C151:D151"/>
-    <mergeCell ref="C152:D152"/>
-    <mergeCell ref="B153:D153"/>
-    <mergeCell ref="B162:D162"/>
-    <mergeCell ref="C163:D163"/>
-    <mergeCell ref="C144:D144"/>
-    <mergeCell ref="C145:D145"/>
-    <mergeCell ref="C146:D146"/>
-    <mergeCell ref="B147:D147"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="B149:D149"/>
-    <mergeCell ref="C138:D138"/>
-    <mergeCell ref="C139:D139"/>
-    <mergeCell ref="C140:D140"/>
-    <mergeCell ref="C141:D141"/>
-    <mergeCell ref="C142:D142"/>
-    <mergeCell ref="C143:D143"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="C133:D133"/>
-    <mergeCell ref="B134:D134"/>
-    <mergeCell ref="C135:D135"/>
-    <mergeCell ref="C136:D136"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="B127:D127"/>
-    <mergeCell ref="C128:D128"/>
-    <mergeCell ref="C129:D129"/>
-    <mergeCell ref="C130:D130"/>
-    <mergeCell ref="C131:D131"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="C121:D121"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="C123:D123"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="C125:D125"/>
-    <mergeCell ref="C114:D114"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="C116:D116"/>
-    <mergeCell ref="C117:D117"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="C119:D119"/>
-    <mergeCell ref="B108:D108"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="B106:D106"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="B101:D101"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="B95:D95"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C220:D220"/>
+    <mergeCell ref="C221:D221"/>
+    <mergeCell ref="C222:D222"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="C215:D215"/>
+    <mergeCell ref="C216:D216"/>
+    <mergeCell ref="C217:D217"/>
+    <mergeCell ref="B218:D218"/>
+    <mergeCell ref="C219:D219"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="68" fitToHeight="100" orientation="portrait" r:id="rId1"/>
@@ -6199,41 +6199,41 @@
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55.7109375" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="2.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.7265625" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="144" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="145"/>
       <c r="C1" s="146"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="147"/>
       <c r="B2" s="148"/>
       <c r="C2" s="149"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
       <c r="B3" s="141" t="s">
         <v>199</v>
       </c>
       <c r="C3" s="142"/>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15"/>
-      <c r="B4" s="122" t="s">
+      <c r="B4" s="128" t="s">
         <v>200</v>
       </c>
-      <c r="C4" s="123"/>
-    </row>
-    <row r="5" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="129"/>
+    </row>
+    <row r="5" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="50">
         <v>1</v>
       </c>
@@ -6242,7 +6242,7 @@
       </c>
       <c r="C5" s="16"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="50">
         <v>2</v>
       </c>
@@ -6251,7 +6251,7 @@
       </c>
       <c r="C6" s="16"/>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="50">
         <v>3</v>
       </c>
@@ -6260,7 +6260,7 @@
       </c>
       <c r="C7" s="16"/>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="50">
         <v>4</v>
       </c>
@@ -6269,7 +6269,7 @@
       </c>
       <c r="C8" s="16"/>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="50">
         <v>5</v>
       </c>
@@ -6278,7 +6278,7 @@
       </c>
       <c r="C9" s="16"/>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="50">
         <v>6</v>
       </c>
@@ -6287,7 +6287,7 @@
       </c>
       <c r="C10" s="16"/>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="50">
         <v>7</v>
       </c>
@@ -6296,7 +6296,7 @@
       </c>
       <c r="C11" s="16"/>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="50">
         <v>8</v>
       </c>
@@ -6305,7 +6305,7 @@
       </c>
       <c r="C12" s="16"/>
     </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="50">
         <v>9</v>
       </c>
@@ -6314,14 +6314,14 @@
       </c>
       <c r="C13" s="16"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="51"/>
-      <c r="B14" s="122" t="s">
+      <c r="B14" s="128" t="s">
         <v>209</v>
       </c>
-      <c r="C14" s="123"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="129"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>10</v>
       </c>
@@ -6330,7 +6330,7 @@
       </c>
       <c r="C15" s="62"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>11</v>
       </c>
@@ -6339,7 +6339,7 @@
       </c>
       <c r="C16" s="62"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
         <v>12</v>
       </c>
@@ -6348,14 +6348,14 @@
       </c>
       <c r="C17" s="62"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="12"/>
       <c r="B18" s="150" t="s">
         <v>210</v>
       </c>
       <c r="C18" s="151"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <v>13</v>
       </c>
@@ -6364,7 +6364,7 @@
       </c>
       <c r="C19" s="16"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
         <v>14</v>
       </c>
@@ -6373,7 +6373,7 @@
       </c>
       <c r="C20" s="16"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="12">
         <v>15</v>
       </c>
@@ -6382,14 +6382,14 @@
       </c>
       <c r="C21" s="16"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="12"/>
-      <c r="B22" s="122" t="s">
+      <c r="B22" s="128" t="s">
         <v>211</v>
       </c>
       <c r="C22" s="143"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="12">
         <v>16</v>
       </c>
@@ -6398,7 +6398,7 @@
       </c>
       <c r="C23" s="62"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="50">
         <v>17</v>
       </c>
@@ -6407,7 +6407,7 @@
       </c>
       <c r="C24" s="16"/>
     </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="12">
         <v>18</v>
       </c>
@@ -6416,7 +6416,7 @@
       </c>
       <c r="C25" s="16"/>
     </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="50">
         <v>19</v>
       </c>
@@ -6425,7 +6425,7 @@
       </c>
       <c r="C26" s="16"/>
     </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="12">
         <v>20</v>
       </c>
@@ -6434,7 +6434,7 @@
       </c>
       <c r="C27" s="16"/>
     </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="50">
         <v>21</v>
       </c>
@@ -6443,7 +6443,7 @@
       </c>
       <c r="C28" s="16"/>
     </row>
-    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="12">
         <v>22</v>
       </c>
@@ -6452,7 +6452,7 @@
       </c>
       <c r="C29" s="16"/>
     </row>
-    <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="50">
         <v>23</v>
       </c>
@@ -6461,7 +6461,7 @@
       </c>
       <c r="C30" s="16"/>
     </row>
-    <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="12">
         <v>24</v>
       </c>
@@ -6470,7 +6470,7 @@
       </c>
       <c r="C31" s="16"/>
     </row>
-    <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="50">
         <v>25</v>
       </c>
@@ -6479,7 +6479,7 @@
       </c>
       <c r="C32" s="16"/>
     </row>
-    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="12">
         <v>26</v>
       </c>
@@ -6488,7 +6488,7 @@
       </c>
       <c r="C33" s="17"/>
     </row>
-    <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="50">
         <v>27</v>
       </c>
@@ -6497,7 +6497,7 @@
       </c>
       <c r="C34" s="17"/>
     </row>
-    <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="12">
         <v>28</v>
       </c>
@@ -6506,7 +6506,7 @@
       </c>
       <c r="C35" s="16"/>
     </row>
-    <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="50">
         <v>29</v>
       </c>
@@ -6515,7 +6515,7 @@
       </c>
       <c r="C36" s="16"/>
     </row>
-    <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="12">
         <v>30</v>
       </c>
@@ -6524,7 +6524,7 @@
       </c>
       <c r="C37" s="16"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="50">
         <v>31</v>
       </c>
@@ -6533,7 +6533,7 @@
       </c>
       <c r="C38" s="16"/>
     </row>
-    <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="12">
         <v>32</v>
       </c>
@@ -6542,7 +6542,7 @@
       </c>
       <c r="C39" s="16"/>
     </row>
-    <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="50">
         <v>33</v>
       </c>
@@ -6551,7 +6551,7 @@
       </c>
       <c r="C40" s="16"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="12">
         <v>34</v>
       </c>
@@ -6560,7 +6560,7 @@
       </c>
       <c r="C41" s="16"/>
     </row>
-    <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="50">
         <v>35</v>
       </c>
@@ -6569,7 +6569,7 @@
       </c>
       <c r="C42" s="16"/>
     </row>
-    <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="12">
         <v>36</v>
       </c>
@@ -6578,14 +6578,14 @@
       </c>
       <c r="C43" s="16"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="51"/>
       <c r="B44" s="141" t="s">
         <v>232</v>
       </c>
       <c r="C44" s="142"/>
     </row>
-    <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="50">
         <v>37</v>
       </c>
@@ -6594,7 +6594,7 @@
       </c>
       <c r="C45" s="16"/>
     </row>
-    <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="50">
         <v>38</v>
       </c>
@@ -6603,7 +6603,7 @@
       </c>
       <c r="C46" s="16"/>
     </row>
-    <row r="47" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="50">
         <v>39</v>
       </c>
@@ -6612,7 +6612,7 @@
       </c>
       <c r="C47" s="16"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="50">
         <v>40</v>
       </c>
@@ -6621,7 +6621,7 @@
       </c>
       <c r="C48" s="16"/>
     </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="50">
         <v>41</v>
       </c>
@@ -6630,7 +6630,7 @@
       </c>
       <c r="C49" s="16"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="50">
         <v>42</v>
       </c>
@@ -6639,7 +6639,7 @@
       </c>
       <c r="C50" s="16"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="50">
         <v>43</v>
       </c>
@@ -6648,14 +6648,14 @@
       </c>
       <c r="C51" s="16"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="51"/>
       <c r="B52" s="141" t="s">
         <v>70</v>
       </c>
       <c r="C52" s="142"/>
     </row>
-    <row r="53" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="50">
         <v>44</v>
       </c>
@@ -6664,14 +6664,14 @@
       </c>
       <c r="C53" s="16"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="12"/>
-      <c r="B54" s="122" t="s">
+      <c r="B54" s="128" t="s">
         <v>241</v>
       </c>
-      <c r="C54" s="123"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C54" s="129"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="12">
         <v>45</v>
       </c>
@@ -6680,7 +6680,7 @@
       </c>
       <c r="C55" s="62"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="12">
         <v>46</v>
       </c>
@@ -6689,21 +6689,21 @@
       </c>
       <c r="C56" s="62"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="51"/>
       <c r="B57" s="141" t="s">
         <v>244</v>
       </c>
       <c r="C57" s="142"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="51"/>
       <c r="B58" s="141" t="s">
         <v>245</v>
       </c>
       <c r="C58" s="142"/>
     </row>
-    <row r="59" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="50">
         <v>47</v>
       </c>
@@ -6712,7 +6712,7 @@
       </c>
       <c r="C59" s="16"/>
     </row>
-    <row r="60" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="50">
         <v>48</v>
       </c>
@@ -6721,7 +6721,7 @@
       </c>
       <c r="C60" s="16"/>
     </row>
-    <row r="61" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="50">
         <v>49</v>
       </c>
@@ -6730,7 +6730,7 @@
       </c>
       <c r="C61" s="16"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="50">
         <v>50</v>
       </c>
@@ -6739,7 +6739,7 @@
       </c>
       <c r="C62" s="16"/>
     </row>
-    <row r="63" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="50">
         <v>51</v>
       </c>
@@ -6748,7 +6748,7 @@
       </c>
       <c r="C63" s="16"/>
     </row>
-    <row r="64" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="50">
         <v>52</v>
       </c>
@@ -6757,7 +6757,7 @@
       </c>
       <c r="C64" s="16"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="50">
         <v>53</v>
       </c>
@@ -6766,7 +6766,7 @@
       </c>
       <c r="C65" s="16"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="50">
         <v>54</v>
       </c>
@@ -6775,7 +6775,7 @@
       </c>
       <c r="C66" s="16"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="50">
         <v>55</v>
       </c>
@@ -6784,14 +6784,14 @@
       </c>
       <c r="C67" s="16"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="51"/>
       <c r="B68" s="141" t="s">
         <v>254</v>
       </c>
       <c r="C68" s="142"/>
     </row>
-    <row r="69" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="50">
         <v>56</v>
       </c>
@@ -6800,7 +6800,7 @@
       </c>
       <c r="C69" s="16"/>
     </row>
-    <row r="70" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="50">
         <v>57</v>
       </c>
@@ -6809,7 +6809,7 @@
       </c>
       <c r="C70" s="16"/>
     </row>
-    <row r="71" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="50">
         <v>58</v>
       </c>
@@ -6818,7 +6818,7 @@
       </c>
       <c r="C71" s="16"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="50">
         <v>59</v>
       </c>
@@ -6827,7 +6827,7 @@
       </c>
       <c r="C72" s="16"/>
     </row>
-    <row r="73" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="50">
         <v>60</v>
       </c>
@@ -6836,7 +6836,7 @@
       </c>
       <c r="C73" s="16"/>
     </row>
-    <row r="74" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="50">
         <v>61</v>
       </c>
@@ -6845,7 +6845,7 @@
       </c>
       <c r="C74" s="16"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="50">
         <v>62</v>
       </c>
@@ -6854,7 +6854,7 @@
       </c>
       <c r="C75" s="16"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="50">
         <v>63</v>
       </c>
@@ -6863,7 +6863,7 @@
       </c>
       <c r="C76" s="16"/>
     </row>
-    <row r="77" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="50">
         <v>64</v>
       </c>
@@ -6906,41 +6906,41 @@
       <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55.7109375" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="2.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.7265625" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="144" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="145"/>
       <c r="C1" s="146"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="147"/>
       <c r="B2" s="148"/>
       <c r="C2" s="149"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
       <c r="B3" s="141" t="s">
         <v>256</v>
       </c>
       <c r="C3" s="142"/>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15"/>
-      <c r="B4" s="122" t="s">
+      <c r="B4" s="128" t="s">
         <v>200</v>
       </c>
-      <c r="C4" s="123"/>
-    </row>
-    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="129"/>
+    </row>
+    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="50">
         <v>1</v>
       </c>
@@ -6949,7 +6949,7 @@
       </c>
       <c r="C5" s="16"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="50">
         <v>2</v>
       </c>
@@ -6958,7 +6958,7 @@
       </c>
       <c r="C6" s="16"/>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="50">
         <v>3</v>
       </c>
@@ -6967,7 +6967,7 @@
       </c>
       <c r="C7" s="16"/>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="50">
         <v>4</v>
       </c>
@@ -6976,7 +6976,7 @@
       </c>
       <c r="C8" s="16"/>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="50">
         <v>5</v>
       </c>
@@ -6985,7 +6985,7 @@
       </c>
       <c r="C9" s="16"/>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="50">
         <v>6</v>
       </c>
@@ -6994,7 +6994,7 @@
       </c>
       <c r="C10" s="16"/>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="50">
         <v>7</v>
       </c>
@@ -7003,7 +7003,7 @@
       </c>
       <c r="C11" s="16"/>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="50">
         <v>8</v>
       </c>
@@ -7012,7 +7012,7 @@
       </c>
       <c r="C12" s="16"/>
     </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="50">
         <v>9</v>
       </c>
@@ -7021,14 +7021,14 @@
       </c>
       <c r="C13" s="16"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="51"/>
-      <c r="B14" s="122" t="s">
+      <c r="B14" s="128" t="s">
         <v>209</v>
       </c>
-      <c r="C14" s="123"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="129"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>10</v>
       </c>
@@ -7037,7 +7037,7 @@
       </c>
       <c r="C15" s="62"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>11</v>
       </c>
@@ -7046,7 +7046,7 @@
       </c>
       <c r="C16" s="62"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
         <v>12</v>
       </c>
@@ -7055,14 +7055,14 @@
       </c>
       <c r="C17" s="62"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="12"/>
       <c r="B18" s="150" t="s">
         <v>210</v>
       </c>
       <c r="C18" s="151"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <v>13</v>
       </c>
@@ -7071,7 +7071,7 @@
       </c>
       <c r="C19" s="16"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
         <v>14</v>
       </c>
@@ -7080,7 +7080,7 @@
       </c>
       <c r="C20" s="16"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="12">
         <v>15</v>
       </c>
@@ -7089,14 +7089,14 @@
       </c>
       <c r="C21" s="16"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="12"/>
-      <c r="B22" s="122" t="s">
+      <c r="B22" s="128" t="s">
         <v>211</v>
       </c>
       <c r="C22" s="143"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="12">
         <v>16</v>
       </c>
@@ -7105,7 +7105,7 @@
       </c>
       <c r="C23" s="62"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="50">
         <v>17</v>
       </c>
@@ -7114,7 +7114,7 @@
       </c>
       <c r="C24" s="16"/>
     </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="12">
         <v>18</v>
       </c>
@@ -7123,7 +7123,7 @@
       </c>
       <c r="C25" s="16"/>
     </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="50">
         <v>19</v>
       </c>
@@ -7132,7 +7132,7 @@
       </c>
       <c r="C26" s="16"/>
     </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="12">
         <v>20</v>
       </c>
@@ -7141,7 +7141,7 @@
       </c>
       <c r="C27" s="16"/>
     </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="50">
         <v>21</v>
       </c>
@@ -7150,7 +7150,7 @@
       </c>
       <c r="C28" s="16"/>
     </row>
-    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="12">
         <v>22</v>
       </c>
@@ -7159,7 +7159,7 @@
       </c>
       <c r="C29" s="16"/>
     </row>
-    <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="50">
         <v>23</v>
       </c>
@@ -7168,7 +7168,7 @@
       </c>
       <c r="C30" s="16"/>
     </row>
-    <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="12">
         <v>24</v>
       </c>
@@ -7177,7 +7177,7 @@
       </c>
       <c r="C31" s="16"/>
     </row>
-    <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="50">
         <v>25</v>
       </c>
@@ -7186,7 +7186,7 @@
       </c>
       <c r="C32" s="16"/>
     </row>
-    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="12">
         <v>26</v>
       </c>
@@ -7195,7 +7195,7 @@
       </c>
       <c r="C33" s="17"/>
     </row>
-    <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="50">
         <v>27</v>
       </c>
@@ -7204,7 +7204,7 @@
       </c>
       <c r="C34" s="17"/>
     </row>
-    <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="12">
         <v>28</v>
       </c>
@@ -7213,7 +7213,7 @@
       </c>
       <c r="C35" s="16"/>
     </row>
-    <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="50">
         <v>29</v>
       </c>
@@ -7222,7 +7222,7 @@
       </c>
       <c r="C36" s="16"/>
     </row>
-    <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="12">
         <v>30</v>
       </c>
@@ -7231,7 +7231,7 @@
       </c>
       <c r="C37" s="16"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="50">
         <v>31</v>
       </c>
@@ -7240,7 +7240,7 @@
       </c>
       <c r="C38" s="16"/>
     </row>
-    <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="12">
         <v>32</v>
       </c>
@@ -7249,7 +7249,7 @@
       </c>
       <c r="C39" s="16"/>
     </row>
-    <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="50">
         <v>33</v>
       </c>
@@ -7258,7 +7258,7 @@
       </c>
       <c r="C40" s="16"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="12">
         <v>34</v>
       </c>
@@ -7267,7 +7267,7 @@
       </c>
       <c r="C41" s="16"/>
     </row>
-    <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="50">
         <v>35</v>
       </c>
@@ -7276,7 +7276,7 @@
       </c>
       <c r="C42" s="16"/>
     </row>
-    <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="12">
         <v>36</v>
       </c>
@@ -7285,14 +7285,14 @@
       </c>
       <c r="C43" s="16"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="51"/>
       <c r="B44" s="141" t="s">
         <v>232</v>
       </c>
       <c r="C44" s="142"/>
     </row>
-    <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="50">
         <v>37</v>
       </c>
@@ -7301,7 +7301,7 @@
       </c>
       <c r="C45" s="16"/>
     </row>
-    <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="50">
         <v>38</v>
       </c>
@@ -7310,7 +7310,7 @@
       </c>
       <c r="C46" s="16"/>
     </row>
-    <row r="47" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="50">
         <v>39</v>
       </c>
@@ -7319,7 +7319,7 @@
       </c>
       <c r="C47" s="16"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="50">
         <v>40</v>
       </c>
@@ -7328,7 +7328,7 @@
       </c>
       <c r="C48" s="16"/>
     </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="50">
         <v>41</v>
       </c>
@@ -7337,7 +7337,7 @@
       </c>
       <c r="C49" s="16"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="50">
         <v>42</v>
       </c>
@@ -7346,7 +7346,7 @@
       </c>
       <c r="C50" s="16"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="50">
         <v>43</v>
       </c>
@@ -7355,14 +7355,14 @@
       </c>
       <c r="C51" s="16"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="12"/>
-      <c r="B52" s="122" t="s">
+      <c r="B52" s="128" t="s">
         <v>241</v>
       </c>
-      <c r="C52" s="123"/>
-    </row>
-    <row r="53" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C52" s="129"/>
+    </row>
+    <row r="53" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="12">
         <v>44</v>
       </c>
@@ -7371,7 +7371,7 @@
       </c>
       <c r="C53" s="62"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="12">
         <v>45</v>
       </c>
@@ -7380,21 +7380,21 @@
       </c>
       <c r="C54" s="62"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="51"/>
       <c r="B55" s="141" t="s">
         <v>244</v>
       </c>
       <c r="C55" s="142"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="51"/>
       <c r="B56" s="141" t="s">
         <v>245</v>
       </c>
       <c r="C56" s="142"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="50">
         <v>46</v>
       </c>
@@ -7403,7 +7403,7 @@
       </c>
       <c r="C57" s="16"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="50">
         <v>47</v>
       </c>
@@ -7412,7 +7412,7 @@
       </c>
       <c r="C58" s="16"/>
     </row>
-    <row r="59" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="50">
         <v>48</v>
       </c>
@@ -7421,7 +7421,7 @@
       </c>
       <c r="C59" s="16"/>
     </row>
-    <row r="60" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="50">
         <v>49</v>
       </c>
@@ -7430,7 +7430,7 @@
       </c>
       <c r="C60" s="16"/>
     </row>
-    <row r="61" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="50">
         <v>50</v>
       </c>
@@ -7439,7 +7439,7 @@
       </c>
       <c r="C61" s="16"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="50">
         <v>51</v>
       </c>
@@ -7448,7 +7448,7 @@
       </c>
       <c r="C62" s="16"/>
     </row>
-    <row r="63" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="50">
         <v>52</v>
       </c>
@@ -7457,7 +7457,7 @@
       </c>
       <c r="C63" s="16"/>
     </row>
-    <row r="64" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="50">
         <v>53</v>
       </c>
@@ -7466,7 +7466,7 @@
       </c>
       <c r="C64" s="16"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="50">
         <v>54</v>
       </c>
@@ -7475,14 +7475,14 @@
       </c>
       <c r="C65" s="16"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="51"/>
       <c r="B66" s="141" t="s">
         <v>254</v>
       </c>
       <c r="C66" s="142"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="50">
         <v>55</v>
       </c>
@@ -7491,7 +7491,7 @@
       </c>
       <c r="C67" s="16"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="50">
         <v>56</v>
       </c>
@@ -7500,7 +7500,7 @@
       </c>
       <c r="C68" s="16"/>
     </row>
-    <row r="69" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="50">
         <v>57</v>
       </c>
@@ -7509,7 +7509,7 @@
       </c>
       <c r="C69" s="16"/>
     </row>
-    <row r="70" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="50">
         <v>58</v>
       </c>
@@ -7518,7 +7518,7 @@
       </c>
       <c r="C70" s="16"/>
     </row>
-    <row r="71" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="50">
         <v>59</v>
       </c>
@@ -7527,7 +7527,7 @@
       </c>
       <c r="C71" s="16"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="50">
         <v>60</v>
       </c>
@@ -7536,7 +7536,7 @@
       </c>
       <c r="C72" s="16"/>
     </row>
-    <row r="73" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="50">
         <v>61</v>
       </c>
@@ -7545,7 +7545,7 @@
       </c>
       <c r="C73" s="16"/>
     </row>
-    <row r="74" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="50">
         <v>62</v>
       </c>
@@ -7554,7 +7554,7 @@
       </c>
       <c r="C74" s="16"/>
     </row>
-    <row r="75" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="50">
         <v>63</v>
       </c>
@@ -7565,17 +7565,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B66:C66"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B66:C66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="87" fitToHeight="100" orientation="portrait" r:id="rId1"/>
@@ -7593,41 +7593,41 @@
       <selection activeCell="A213" sqref="A213:A221"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.42578125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="51.28515625" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="4"/>
+    <col min="2" max="2" width="40.453125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="51.26953125" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="144" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="145"/>
       <c r="C1" s="146"/>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="147"/>
       <c r="B2" s="148"/>
       <c r="C2" s="149"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="51"/>
       <c r="B3" s="141" t="s">
         <v>199</v>
       </c>
       <c r="C3" s="142"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="51"/>
-      <c r="B4" s="122" t="s">
+      <c r="B4" s="128" t="s">
         <v>200</v>
       </c>
-      <c r="C4" s="123"/>
-    </row>
-    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="129"/>
+    </row>
+    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="50">
         <v>1</v>
       </c>
@@ -7636,7 +7636,7 @@
       </c>
       <c r="C5" s="16"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="50">
         <v>2</v>
       </c>
@@ -7645,7 +7645,7 @@
       </c>
       <c r="C6" s="16"/>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="50">
         <v>3</v>
       </c>
@@ -7654,7 +7654,7 @@
       </c>
       <c r="C7" s="16"/>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="50">
         <v>4</v>
       </c>
@@ -7663,7 +7663,7 @@
       </c>
       <c r="C8" s="16"/>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="50">
         <v>5</v>
       </c>
@@ -7672,7 +7672,7 @@
       </c>
       <c r="C9" s="16"/>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="50">
         <v>6</v>
       </c>
@@ -7681,7 +7681,7 @@
       </c>
       <c r="C10" s="16"/>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="50">
         <v>7</v>
       </c>
@@ -7690,7 +7690,7 @@
       </c>
       <c r="C11" s="16"/>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="50">
         <v>8</v>
       </c>
@@ -7699,7 +7699,7 @@
       </c>
       <c r="C12" s="16"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="50">
         <v>9</v>
       </c>
@@ -7708,14 +7708,14 @@
       </c>
       <c r="C13" s="16"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="50"/>
       <c r="B14" s="150" t="s">
         <v>210</v>
       </c>
-      <c r="C14" s="163"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="152"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="50">
         <v>10</v>
       </c>
@@ -7724,7 +7724,7 @@
       </c>
       <c r="C15" s="16"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="50">
         <v>11</v>
       </c>
@@ -7733,7 +7733,7 @@
       </c>
       <c r="C16" s="16"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="50">
         <v>12</v>
       </c>
@@ -7742,14 +7742,14 @@
       </c>
       <c r="C17" s="16"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="51"/>
-      <c r="B18" s="122" t="s">
+      <c r="B18" s="128" t="s">
         <v>209</v>
       </c>
-      <c r="C18" s="123"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="129"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <v>13</v>
       </c>
@@ -7758,7 +7758,7 @@
       </c>
       <c r="C19" s="62"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
         <v>14</v>
       </c>
@@ -7767,7 +7767,7 @@
       </c>
       <c r="C20" s="62"/>
     </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="12">
         <v>15</v>
       </c>
@@ -7776,14 +7776,14 @@
       </c>
       <c r="C21" s="62"/>
     </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="12"/>
-      <c r="B22" s="122" t="s">
+      <c r="B22" s="128" t="s">
         <v>211</v>
       </c>
       <c r="C22" s="143"/>
     </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="12">
         <v>16</v>
       </c>
@@ -7792,7 +7792,7 @@
       </c>
       <c r="C23" s="62"/>
     </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="12">
         <v>17</v>
       </c>
@@ -7801,7 +7801,7 @@
       </c>
       <c r="C24" s="16"/>
     </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="12">
         <v>18</v>
       </c>
@@ -7810,7 +7810,7 @@
       </c>
       <c r="C25" s="16"/>
     </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="12">
         <v>19</v>
       </c>
@@ -7819,7 +7819,7 @@
       </c>
       <c r="C26" s="16"/>
     </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="12">
         <v>20</v>
       </c>
@@ -7828,7 +7828,7 @@
       </c>
       <c r="C27" s="16"/>
     </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="12">
         <v>21</v>
       </c>
@@ -7837,7 +7837,7 @@
       </c>
       <c r="C28" s="16"/>
     </row>
-    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="12">
         <v>22</v>
       </c>
@@ -7846,7 +7846,7 @@
       </c>
       <c r="C29" s="16"/>
     </row>
-    <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="12">
         <v>23</v>
       </c>
@@ -7855,7 +7855,7 @@
       </c>
       <c r="C30" s="16"/>
     </row>
-    <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="12">
         <v>24</v>
       </c>
@@ -7864,7 +7864,7 @@
       </c>
       <c r="C31" s="16"/>
     </row>
-    <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="12">
         <v>25</v>
       </c>
@@ -7873,7 +7873,7 @@
       </c>
       <c r="C32" s="16"/>
     </row>
-    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="12">
         <v>26</v>
       </c>
@@ -7882,7 +7882,7 @@
       </c>
       <c r="C33" s="17"/>
     </row>
-    <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="12">
         <v>27</v>
       </c>
@@ -7891,7 +7891,7 @@
       </c>
       <c r="C34" s="17"/>
     </row>
-    <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="12">
         <v>28</v>
       </c>
@@ -7900,7 +7900,7 @@
       </c>
       <c r="C35" s="16"/>
     </row>
-    <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="12">
         <v>29</v>
       </c>
@@ -7909,7 +7909,7 @@
       </c>
       <c r="C36" s="16"/>
     </row>
-    <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="12">
         <v>30</v>
       </c>
@@ -7918,7 +7918,7 @@
       </c>
       <c r="C37" s="16"/>
     </row>
-    <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="12">
         <v>31</v>
       </c>
@@ -7927,7 +7927,7 @@
       </c>
       <c r="C38" s="16"/>
     </row>
-    <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="12">
         <v>32</v>
       </c>
@@ -7936,7 +7936,7 @@
       </c>
       <c r="C39" s="16"/>
     </row>
-    <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="12">
         <v>33</v>
       </c>
@@ -7945,7 +7945,7 @@
       </c>
       <c r="C40" s="16"/>
     </row>
-    <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="12">
         <v>34</v>
       </c>
@@ -7954,7 +7954,7 @@
       </c>
       <c r="C41" s="16"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="12">
         <v>35</v>
       </c>
@@ -7963,7 +7963,7 @@
       </c>
       <c r="C42" s="16"/>
     </row>
-    <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="12">
         <v>36</v>
       </c>
@@ -7972,14 +7972,14 @@
       </c>
       <c r="C43" s="16"/>
     </row>
-    <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="51"/>
       <c r="B44" s="141" t="s">
         <v>232</v>
       </c>
       <c r="C44" s="142"/>
     </row>
-    <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="50">
         <v>37</v>
       </c>
@@ -7988,7 +7988,7 @@
       </c>
       <c r="C45" s="16"/>
     </row>
-    <row r="46" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="50">
         <v>38</v>
       </c>
@@ -7997,7 +7997,7 @@
       </c>
       <c r="C46" s="16"/>
     </row>
-    <row r="47" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="50">
         <v>39</v>
       </c>
@@ -8006,7 +8006,7 @@
       </c>
       <c r="C47" s="16"/>
     </row>
-    <row r="48" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="50">
         <v>40</v>
       </c>
@@ -8015,7 +8015,7 @@
       </c>
       <c r="C48" s="16"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="50">
         <v>41</v>
       </c>
@@ -8024,7 +8024,7 @@
       </c>
       <c r="C49" s="16"/>
     </row>
-    <row r="50" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="50">
         <v>42</v>
       </c>
@@ -8033,7 +8033,7 @@
       </c>
       <c r="C50" s="16"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="50">
         <v>43</v>
       </c>
@@ -8042,14 +8042,14 @@
       </c>
       <c r="C51" s="16"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="51"/>
       <c r="B52" s="141" t="s">
         <v>70</v>
       </c>
       <c r="C52" s="142"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="50">
         <v>44</v>
       </c>
@@ -8058,14 +8058,14 @@
       </c>
       <c r="C53" s="16"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="12"/>
-      <c r="B54" s="122" t="s">
+      <c r="B54" s="128" t="s">
         <v>241</v>
       </c>
-      <c r="C54" s="123"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C54" s="129"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="12">
         <v>45</v>
       </c>
@@ -8074,7 +8074,7 @@
       </c>
       <c r="C55" s="62"/>
     </row>
-    <row r="56" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="12">
         <v>46</v>
       </c>
@@ -8083,21 +8083,21 @@
       </c>
       <c r="C56" s="62"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="54"/>
       <c r="B57" s="141" t="s">
         <v>72</v>
       </c>
       <c r="C57" s="142"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="54"/>
       <c r="B58" s="141" t="s">
         <v>258</v>
       </c>
       <c r="C58" s="142"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="54">
         <v>47</v>
       </c>
@@ -8106,7 +8106,7 @@
       </c>
       <c r="C59" s="16"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="54">
         <v>48</v>
       </c>
@@ -8115,7 +8115,7 @@
       </c>
       <c r="C60" s="16"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="54">
         <v>49</v>
       </c>
@@ -8124,14 +8124,14 @@
       </c>
       <c r="C61" s="16"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="54"/>
       <c r="B62" s="141" t="s">
         <v>262</v>
       </c>
       <c r="C62" s="142"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="55">
         <v>50</v>
       </c>
@@ -8140,7 +8140,7 @@
       </c>
       <c r="C63" s="17"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="55">
         <v>51</v>
       </c>
@@ -8149,7 +8149,7 @@
       </c>
       <c r="C64" s="17"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="55">
         <v>52</v>
       </c>
@@ -8158,7 +8158,7 @@
       </c>
       <c r="C65" s="17"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="55">
         <v>53</v>
       </c>
@@ -8167,7 +8167,7 @@
       </c>
       <c r="C66" s="17"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="55">
         <v>54</v>
       </c>
@@ -8176,7 +8176,7 @@
       </c>
       <c r="C67" s="17"/>
     </row>
-    <row r="68" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="55">
         <v>55</v>
       </c>
@@ -8185,7 +8185,7 @@
       </c>
       <c r="C68" s="17"/>
     </row>
-    <row r="69" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="55">
         <v>56</v>
       </c>
@@ -8194,7 +8194,7 @@
       </c>
       <c r="C69" s="17"/>
     </row>
-    <row r="70" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="55">
         <v>57</v>
       </c>
@@ -8203,7 +8203,7 @@
       </c>
       <c r="C70" s="17"/>
     </row>
-    <row r="71" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="55">
         <v>58</v>
       </c>
@@ -8212,14 +8212,14 @@
       </c>
       <c r="C71" s="17"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="54"/>
       <c r="B72" s="141" t="s">
         <v>272</v>
       </c>
       <c r="C72" s="142"/>
     </row>
-    <row r="73" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="55">
         <v>59</v>
       </c>
@@ -8228,7 +8228,7 @@
       </c>
       <c r="C73" s="16"/>
     </row>
-    <row r="74" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="55">
         <v>60</v>
       </c>
@@ -8237,7 +8237,7 @@
       </c>
       <c r="C74" s="16"/>
     </row>
-    <row r="75" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="55">
         <v>61</v>
       </c>
@@ -8246,7 +8246,7 @@
       </c>
       <c r="C75" s="16"/>
     </row>
-    <row r="76" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="55">
         <v>62</v>
       </c>
@@ -8255,14 +8255,14 @@
       </c>
       <c r="C76" s="16"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="54"/>
-      <c r="B77" s="156" t="s">
+      <c r="B77" s="153" t="s">
         <v>277</v>
       </c>
-      <c r="C77" s="157"/>
-    </row>
-    <row r="78" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C77" s="154"/>
+    </row>
+    <row r="78" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="55">
         <v>63</v>
       </c>
@@ -8271,7 +8271,7 @@
       </c>
       <c r="C78" s="17"/>
     </row>
-    <row r="79" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="55">
         <v>64</v>
       </c>
@@ -8280,7 +8280,7 @@
       </c>
       <c r="C79" s="17"/>
     </row>
-    <row r="80" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="55">
         <v>65</v>
       </c>
@@ -8289,7 +8289,7 @@
       </c>
       <c r="C80" s="17"/>
     </row>
-    <row r="81" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="55">
         <v>66</v>
       </c>
@@ -8298,7 +8298,7 @@
       </c>
       <c r="C81" s="17"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="55">
         <v>67</v>
       </c>
@@ -8307,7 +8307,7 @@
       </c>
       <c r="C82" s="17"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="55">
         <v>68</v>
       </c>
@@ -8316,7 +8316,7 @@
       </c>
       <c r="C83" s="17"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="55">
         <v>69</v>
       </c>
@@ -8325,14 +8325,14 @@
       </c>
       <c r="C84" s="17"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="55"/>
-      <c r="B85" s="156" t="s">
+      <c r="B85" s="153" t="s">
         <v>285</v>
       </c>
-      <c r="C85" s="157"/>
-    </row>
-    <row r="86" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C85" s="154"/>
+    </row>
+    <row r="86" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="55">
         <v>70</v>
       </c>
@@ -8341,7 +8341,7 @@
       </c>
       <c r="C86" s="20"/>
     </row>
-    <row r="87" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="55">
         <v>71</v>
       </c>
@@ -8350,14 +8350,14 @@
       </c>
       <c r="C87" s="20"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="55"/>
       <c r="B88" s="141" t="s">
         <v>288</v>
       </c>
       <c r="C88" s="142"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="55">
         <v>72</v>
       </c>
@@ -8366,7 +8366,7 @@
       </c>
       <c r="C89" s="16"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" s="55">
         <v>73</v>
       </c>
@@ -8375,7 +8375,7 @@
       </c>
       <c r="C90" s="16"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" s="55">
         <v>74</v>
       </c>
@@ -8384,7 +8384,7 @@
       </c>
       <c r="C91" s="16"/>
     </row>
-    <row r="92" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="55">
         <v>75</v>
       </c>
@@ -8393,7 +8393,7 @@
       </c>
       <c r="C92" s="22"/>
     </row>
-    <row r="93" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="55">
         <v>76</v>
       </c>
@@ -8402,14 +8402,14 @@
       </c>
       <c r="C93" s="22"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" s="54"/>
-      <c r="B94" s="156" t="s">
+      <c r="B94" s="153" t="s">
         <v>294</v>
       </c>
-      <c r="C94" s="157"/>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C94" s="154"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" s="55">
         <v>77</v>
       </c>
@@ -8418,7 +8418,7 @@
       </c>
       <c r="C95" s="17"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" s="55">
         <v>78</v>
       </c>
@@ -8427,7 +8427,7 @@
       </c>
       <c r="C96" s="17"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" s="55">
         <v>79</v>
       </c>
@@ -8436,7 +8436,7 @@
       </c>
       <c r="C97" s="17"/>
     </row>
-    <row r="98" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="55">
         <v>80</v>
       </c>
@@ -8445,7 +8445,7 @@
       </c>
       <c r="C98" s="17"/>
     </row>
-    <row r="99" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="55">
         <v>81</v>
       </c>
@@ -8454,7 +8454,7 @@
       </c>
       <c r="C99" s="17"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" s="55">
         <v>82</v>
       </c>
@@ -8463,14 +8463,14 @@
       </c>
       <c r="C100" s="17"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" s="54"/>
-      <c r="B101" s="156" t="s">
+      <c r="B101" s="153" t="s">
         <v>301</v>
       </c>
-      <c r="C101" s="157"/>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C101" s="154"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" s="55">
         <v>83</v>
       </c>
@@ -8479,7 +8479,7 @@
       </c>
       <c r="C102" s="17"/>
     </row>
-    <row r="103" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="55">
         <v>84</v>
       </c>
@@ -8488,7 +8488,7 @@
       </c>
       <c r="C103" s="17"/>
     </row>
-    <row r="104" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="55">
         <v>85</v>
       </c>
@@ -8497,7 +8497,7 @@
       </c>
       <c r="C104" s="17"/>
     </row>
-    <row r="105" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="55">
         <v>86</v>
       </c>
@@ -8506,14 +8506,14 @@
       </c>
       <c r="C105" s="17"/>
     </row>
-    <row r="106" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="55"/>
-      <c r="B106" s="152" t="s">
+      <c r="B106" s="155" t="s">
         <v>303</v>
       </c>
-      <c r="C106" s="158"/>
-    </row>
-    <row r="107" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C106" s="156"/>
+    </row>
+    <row r="107" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="55">
         <v>87</v>
       </c>
@@ -8522,7 +8522,7 @@
       </c>
       <c r="C107" s="17"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" s="55">
         <v>88</v>
       </c>
@@ -8531,7 +8531,7 @@
       </c>
       <c r="C108" s="17"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" s="55">
         <v>89</v>
       </c>
@@ -8540,14 +8540,14 @@
       </c>
       <c r="C109" s="17"/>
     </row>
-    <row r="110" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="54"/>
-      <c r="B110" s="156" t="s">
+      <c r="B110" s="153" t="s">
         <v>306</v>
       </c>
-      <c r="C110" s="157"/>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C110" s="154"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" s="55">
         <v>90</v>
       </c>
@@ -8556,7 +8556,7 @@
       </c>
       <c r="C111" s="17"/>
     </row>
-    <row r="112" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="55">
         <v>91</v>
       </c>
@@ -8565,7 +8565,7 @@
       </c>
       <c r="C112" s="17"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" s="55">
         <v>92</v>
       </c>
@@ -8574,7 +8574,7 @@
       </c>
       <c r="C113" s="17"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" s="55">
         <v>93</v>
       </c>
@@ -8583,7 +8583,7 @@
       </c>
       <c r="C114" s="17"/>
     </row>
-    <row r="115" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="55">
         <v>94</v>
       </c>
@@ -8592,7 +8592,7 @@
       </c>
       <c r="C115" s="17"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" s="55">
         <v>95</v>
       </c>
@@ -8601,14 +8601,14 @@
       </c>
       <c r="C116" s="17"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" s="54"/>
-      <c r="B117" s="156" t="s">
+      <c r="B117" s="153" t="s">
         <v>308</v>
       </c>
-      <c r="C117" s="157"/>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C117" s="154"/>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" s="55">
         <v>96</v>
       </c>
@@ -8617,7 +8617,7 @@
       </c>
       <c r="C118" s="17"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" s="55">
         <v>97</v>
       </c>
@@ -8626,7 +8626,7 @@
       </c>
       <c r="C119" s="17"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" s="55">
         <v>98</v>
       </c>
@@ -8635,7 +8635,7 @@
       </c>
       <c r="C120" s="17"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" s="55">
         <v>99</v>
       </c>
@@ -8644,7 +8644,7 @@
       </c>
       <c r="C121" s="17"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" s="55">
         <v>100</v>
       </c>
@@ -8653,7 +8653,7 @@
       </c>
       <c r="C122" s="17"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" s="55">
         <v>101</v>
       </c>
@@ -8662,14 +8662,14 @@
       </c>
       <c r="C123" s="17"/>
     </row>
-    <row r="124" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="54"/>
-      <c r="B124" s="156" t="s">
+      <c r="B124" s="153" t="s">
         <v>310</v>
       </c>
-      <c r="C124" s="157"/>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C124" s="154"/>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" s="55">
         <v>102</v>
       </c>
@@ -8678,7 +8678,7 @@
       </c>
       <c r="C125" s="17"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" s="55">
         <v>103</v>
       </c>
@@ -8687,7 +8687,7 @@
       </c>
       <c r="C126" s="17"/>
     </row>
-    <row r="127" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="55">
         <v>104</v>
       </c>
@@ -8696,7 +8696,7 @@
       </c>
       <c r="C127" s="17"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" s="55">
         <v>105</v>
       </c>
@@ -8705,7 +8705,7 @@
       </c>
       <c r="C128" s="17"/>
     </row>
-    <row r="129" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="55">
         <v>106</v>
       </c>
@@ -8714,7 +8714,7 @@
       </c>
       <c r="C129" s="17"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" s="55">
         <v>107</v>
       </c>
@@ -8723,14 +8723,14 @@
       </c>
       <c r="C130" s="17"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" s="54"/>
-      <c r="B131" s="156" t="s">
+      <c r="B131" s="153" t="s">
         <v>311</v>
       </c>
-      <c r="C131" s="157"/>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C131" s="154"/>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" s="55">
         <v>108</v>
       </c>
@@ -8739,7 +8739,7 @@
       </c>
       <c r="C132" s="17"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" s="55">
         <v>109</v>
       </c>
@@ -8748,7 +8748,7 @@
       </c>
       <c r="C133" s="17"/>
     </row>
-    <row r="134" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="55">
         <v>110</v>
       </c>
@@ -8757,7 +8757,7 @@
       </c>
       <c r="C134" s="17"/>
     </row>
-    <row r="135" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="55">
         <v>111</v>
       </c>
@@ -8766,7 +8766,7 @@
       </c>
       <c r="C135" s="17"/>
     </row>
-    <row r="136" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="55">
         <v>112</v>
       </c>
@@ -8775,7 +8775,7 @@
       </c>
       <c r="C136" s="17"/>
     </row>
-    <row r="137" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="55">
         <v>113</v>
       </c>
@@ -8784,14 +8784,14 @@
       </c>
       <c r="C137" s="17"/>
     </row>
-    <row r="138" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="54"/>
-      <c r="B138" s="156" t="s">
+      <c r="B138" s="153" t="s">
         <v>312</v>
       </c>
-      <c r="C138" s="157"/>
-    </row>
-    <row r="139" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C138" s="154"/>
+    </row>
+    <row r="139" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="55">
         <v>114</v>
       </c>
@@ -8800,7 +8800,7 @@
       </c>
       <c r="C139" s="17"/>
     </row>
-    <row r="140" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="55">
         <v>115</v>
       </c>
@@ -8809,7 +8809,7 @@
       </c>
       <c r="C140" s="17"/>
     </row>
-    <row r="141" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="55">
         <v>116</v>
       </c>
@@ -8818,7 +8818,7 @@
       </c>
       <c r="C141" s="17"/>
     </row>
-    <row r="142" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="55">
         <v>117</v>
       </c>
@@ -8827,7 +8827,7 @@
       </c>
       <c r="C142" s="17"/>
     </row>
-    <row r="143" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="55">
         <v>118</v>
       </c>
@@ -8836,7 +8836,7 @@
       </c>
       <c r="C143" s="17"/>
     </row>
-    <row r="144" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="55">
         <v>119</v>
       </c>
@@ -8845,14 +8845,14 @@
       </c>
       <c r="C144" s="17"/>
     </row>
-    <row r="145" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="55"/>
-      <c r="B145" s="152" t="s">
+      <c r="B145" s="155" t="s">
         <v>128</v>
       </c>
-      <c r="C145" s="153"/>
-    </row>
-    <row r="146" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C145" s="157"/>
+    </row>
+    <row r="146" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="55">
         <v>120</v>
       </c>
@@ -8861,7 +8861,7 @@
       </c>
       <c r="C146" s="17"/>
     </row>
-    <row r="147" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="55">
         <v>121</v>
       </c>
@@ -8870,7 +8870,7 @@
       </c>
       <c r="C147" s="17"/>
     </row>
-    <row r="148" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="55">
         <v>122</v>
       </c>
@@ -8879,7 +8879,7 @@
       </c>
       <c r="C148" s="17"/>
     </row>
-    <row r="149" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="55">
         <v>123</v>
       </c>
@@ -8888,7 +8888,7 @@
       </c>
       <c r="C149" s="17"/>
     </row>
-    <row r="150" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="55">
         <v>124</v>
       </c>
@@ -8897,7 +8897,7 @@
       </c>
       <c r="C150" s="17"/>
     </row>
-    <row r="151" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="55">
         <v>125</v>
       </c>
@@ -8906,14 +8906,14 @@
       </c>
       <c r="C151" s="17"/>
     </row>
-    <row r="152" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="55"/>
-      <c r="B152" s="154" t="s">
+      <c r="B152" s="162" t="s">
         <v>319</v>
       </c>
-      <c r="C152" s="155"/>
-    </row>
-    <row r="153" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C152" s="163"/>
+    </row>
+    <row r="153" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="55">
         <v>126</v>
       </c>
@@ -8922,7 +8922,7 @@
       </c>
       <c r="C153" s="17"/>
     </row>
-    <row r="154" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="55">
         <v>127</v>
       </c>
@@ -8931,7 +8931,7 @@
       </c>
       <c r="C154" s="17"/>
     </row>
-    <row r="155" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="55">
         <v>128</v>
       </c>
@@ -8940,7 +8940,7 @@
       </c>
       <c r="C155" s="17"/>
     </row>
-    <row r="156" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="55">
         <v>129</v>
       </c>
@@ -8949,7 +8949,7 @@
       </c>
       <c r="C156" s="17"/>
     </row>
-    <row r="157" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="55">
         <v>130</v>
       </c>
@@ -8958,7 +8958,7 @@
       </c>
       <c r="C157" s="17"/>
     </row>
-    <row r="158" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="55">
         <v>131</v>
       </c>
@@ -8967,14 +8967,14 @@
       </c>
       <c r="C158" s="17"/>
     </row>
-    <row r="159" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="54"/>
-      <c r="B159" s="156" t="s">
+      <c r="B159" s="153" t="s">
         <v>326</v>
       </c>
-      <c r="C159" s="157"/>
-    </row>
-    <row r="160" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C159" s="154"/>
+    </row>
+    <row r="160" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="55">
         <v>132</v>
       </c>
@@ -8983,7 +8983,7 @@
       </c>
       <c r="C160" s="17"/>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" s="55">
         <v>133</v>
       </c>
@@ -8992,7 +8992,7 @@
       </c>
       <c r="C161" s="17"/>
     </row>
-    <row r="162" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="55">
         <v>134</v>
       </c>
@@ -9001,14 +9001,14 @@
       </c>
       <c r="C162" s="17"/>
     </row>
-    <row r="163" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="54"/>
-      <c r="B163" s="156" t="s">
+      <c r="B163" s="153" t="s">
         <v>330</v>
       </c>
-      <c r="C163" s="157"/>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C163" s="154"/>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" s="55">
         <v>135</v>
       </c>
@@ -9017,7 +9017,7 @@
       </c>
       <c r="C164" s="20"/>
     </row>
-    <row r="165" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="55">
         <v>136</v>
       </c>
@@ -9026,7 +9026,7 @@
       </c>
       <c r="C165" s="20"/>
     </row>
-    <row r="166" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="55">
         <v>137</v>
       </c>
@@ -9035,14 +9035,14 @@
       </c>
       <c r="C166" s="20"/>
     </row>
-    <row r="167" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="54"/>
-      <c r="B167" s="156" t="s">
+      <c r="B167" s="153" t="s">
         <v>334</v>
       </c>
-      <c r="C167" s="157"/>
-    </row>
-    <row r="168" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C167" s="154"/>
+    </row>
+    <row r="168" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="55">
         <v>138</v>
       </c>
@@ -9051,7 +9051,7 @@
       </c>
       <c r="C168" s="17"/>
     </row>
-    <row r="169" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="55">
         <v>139</v>
       </c>
@@ -9060,7 +9060,7 @@
       </c>
       <c r="C169" s="17"/>
     </row>
-    <row r="170" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="55">
         <v>140</v>
       </c>
@@ -9069,7 +9069,7 @@
       </c>
       <c r="C170" s="17"/>
     </row>
-    <row r="171" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="55">
         <v>141</v>
       </c>
@@ -9078,7 +9078,7 @@
       </c>
       <c r="C171" s="17"/>
     </row>
-    <row r="172" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" ht="26" x14ac:dyDescent="0.35">
       <c r="A172" s="55">
         <v>142</v>
       </c>
@@ -9087,7 +9087,7 @@
       </c>
       <c r="C172" s="17"/>
     </row>
-    <row r="173" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="55">
         <v>143</v>
       </c>
@@ -9096,7 +9096,7 @@
       </c>
       <c r="C173" s="17"/>
     </row>
-    <row r="174" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="55">
         <v>144</v>
       </c>
@@ -9105,7 +9105,7 @@
       </c>
       <c r="C174" s="17"/>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A175" s="55">
         <v>145</v>
       </c>
@@ -9114,7 +9114,7 @@
       </c>
       <c r="C175" s="17"/>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A176" s="55">
         <v>146</v>
       </c>
@@ -9123,7 +9123,7 @@
       </c>
       <c r="C176" s="17"/>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A177" s="55">
         <v>147</v>
       </c>
@@ -9132,7 +9132,7 @@
       </c>
       <c r="C177" s="17"/>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A178" s="55">
         <v>148</v>
       </c>
@@ -9141,7 +9141,7 @@
       </c>
       <c r="C178" s="17"/>
     </row>
-    <row r="179" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" ht="26" x14ac:dyDescent="0.35">
       <c r="A179" s="55">
         <v>149</v>
       </c>
@@ -9150,7 +9150,7 @@
       </c>
       <c r="C179" s="17"/>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A180" s="55">
         <v>150</v>
       </c>
@@ -9159,14 +9159,14 @@
       </c>
       <c r="C180" s="17"/>
     </row>
-    <row r="181" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="55"/>
-      <c r="B181" s="152" t="s">
+      <c r="B181" s="155" t="s">
         <v>348</v>
       </c>
-      <c r="C181" s="153"/>
-    </row>
-    <row r="182" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="C181" s="157"/>
+    </row>
+    <row r="182" spans="1:3" ht="26" x14ac:dyDescent="0.35">
       <c r="A182" s="55">
         <v>151</v>
       </c>
@@ -9175,7 +9175,7 @@
       </c>
       <c r="C182" s="16"/>
     </row>
-    <row r="183" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="55">
         <v>152</v>
       </c>
@@ -9184,7 +9184,7 @@
       </c>
       <c r="C183" s="16"/>
     </row>
-    <row r="184" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="55">
         <v>153</v>
       </c>
@@ -9193,7 +9193,7 @@
       </c>
       <c r="C184" s="16"/>
     </row>
-    <row r="185" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="55">
         <v>154</v>
       </c>
@@ -9202,7 +9202,7 @@
       </c>
       <c r="C185" s="16"/>
     </row>
-    <row r="186" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="55">
         <v>155</v>
       </c>
@@ -9211,7 +9211,7 @@
       </c>
       <c r="C186" s="16"/>
     </row>
-    <row r="187" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="55">
         <v>156</v>
       </c>
@@ -9220,7 +9220,7 @@
       </c>
       <c r="C187" s="16"/>
     </row>
-    <row r="188" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="55">
         <v>157</v>
       </c>
@@ -9229,7 +9229,7 @@
       </c>
       <c r="C188" s="16"/>
     </row>
-    <row r="189" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="55">
         <v>158</v>
       </c>
@@ -9238,7 +9238,7 @@
       </c>
       <c r="C189" s="16"/>
     </row>
-    <row r="190" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="55">
         <v>159</v>
       </c>
@@ -9247,7 +9247,7 @@
       </c>
       <c r="C190" s="16"/>
     </row>
-    <row r="191" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="55">
         <v>160</v>
       </c>
@@ -9256,14 +9256,14 @@
       </c>
       <c r="C191" s="16"/>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A192" s="55"/>
-      <c r="B192" s="159" t="s">
+      <c r="B192" s="158" t="s">
         <v>359</v>
       </c>
-      <c r="C192" s="160"/>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C192" s="159"/>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A193" s="55">
         <v>161</v>
       </c>
@@ -9272,7 +9272,7 @@
       </c>
       <c r="C193" s="17"/>
     </row>
-    <row r="194" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" ht="26" x14ac:dyDescent="0.35">
       <c r="A194" s="55">
         <v>162</v>
       </c>
@@ -9281,7 +9281,7 @@
       </c>
       <c r="C194" s="17"/>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A195" s="55">
         <v>163</v>
       </c>
@@ -9290,14 +9290,14 @@
       </c>
       <c r="C195" s="17"/>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A196" s="56"/>
-      <c r="B196" s="161" t="s">
+      <c r="B196" s="160" t="s">
         <v>363</v>
       </c>
-      <c r="C196" s="162"/>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C196" s="161"/>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A197" s="55">
         <v>164</v>
       </c>
@@ -9306,7 +9306,7 @@
       </c>
       <c r="C197" s="17"/>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A198" s="55">
         <v>165</v>
       </c>
@@ -9315,7 +9315,7 @@
       </c>
       <c r="C198" s="17"/>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A199" s="55">
         <v>166</v>
       </c>
@@ -9324,7 +9324,7 @@
       </c>
       <c r="C199" s="63"/>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A200" s="55">
         <v>167</v>
       </c>
@@ -9333,21 +9333,21 @@
       </c>
       <c r="C200" s="63"/>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A201" s="51"/>
       <c r="B201" s="141" t="s">
         <v>244</v>
       </c>
       <c r="C201" s="142"/>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A202" s="51"/>
       <c r="B202" s="141" t="s">
         <v>245</v>
       </c>
       <c r="C202" s="142"/>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A203" s="50">
         <v>168</v>
       </c>
@@ -9356,7 +9356,7 @@
       </c>
       <c r="C203" s="16"/>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A204" s="50">
         <v>169</v>
       </c>
@@ -9365,7 +9365,7 @@
       </c>
       <c r="C204" s="16"/>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A205" s="50">
         <v>170</v>
       </c>
@@ -9374,7 +9374,7 @@
       </c>
       <c r="C205" s="16"/>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A206" s="50">
         <v>171</v>
       </c>
@@ -9383,7 +9383,7 @@
       </c>
       <c r="C206" s="16"/>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A207" s="50">
         <v>172</v>
       </c>
@@ -9392,7 +9392,7 @@
       </c>
       <c r="C207" s="16"/>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A208" s="50">
         <v>173</v>
       </c>
@@ -9401,7 +9401,7 @@
       </c>
       <c r="C208" s="16"/>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A209" s="50">
         <v>174</v>
       </c>
@@ -9410,7 +9410,7 @@
       </c>
       <c r="C209" s="16"/>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A210" s="50">
         <v>175</v>
       </c>
@@ -9419,7 +9419,7 @@
       </c>
       <c r="C210" s="16"/>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A211" s="50">
         <v>176</v>
       </c>
@@ -9428,14 +9428,14 @@
       </c>
       <c r="C211" s="16"/>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A212" s="51"/>
       <c r="B212" s="141" t="s">
         <v>254</v>
       </c>
       <c r="C212" s="142"/>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A213" s="50">
         <v>177</v>
       </c>
@@ -9444,7 +9444,7 @@
       </c>
       <c r="C213" s="16"/>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A214" s="50">
         <v>178</v>
       </c>
@@ -9453,7 +9453,7 @@
       </c>
       <c r="C214" s="16"/>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A215" s="50">
         <v>179</v>
       </c>
@@ -9462,7 +9462,7 @@
       </c>
       <c r="C215" s="16"/>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A216" s="50">
         <v>180</v>
       </c>
@@ -9471,7 +9471,7 @@
       </c>
       <c r="C216" s="16"/>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A217" s="50">
         <v>181</v>
       </c>
@@ -9480,7 +9480,7 @@
       </c>
       <c r="C217" s="16"/>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A218" s="50">
         <v>182</v>
       </c>
@@ -9489,7 +9489,7 @@
       </c>
       <c r="C218" s="16"/>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A219" s="50">
         <v>183</v>
       </c>
@@ -9498,7 +9498,7 @@
       </c>
       <c r="C219" s="16"/>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A220" s="50">
         <v>184</v>
       </c>
@@ -9507,7 +9507,7 @@
       </c>
       <c r="C220" s="16"/>
     </row>
-    <row r="221" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A221" s="50">
         <v>185</v>
       </c>
@@ -9518,18 +9518,13 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B201:C201"/>
+    <mergeCell ref="B202:C202"/>
+    <mergeCell ref="B145:C145"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="B159:C159"/>
+    <mergeCell ref="B163:C163"/>
+    <mergeCell ref="B167:C167"/>
     <mergeCell ref="B212:C212"/>
     <mergeCell ref="B138:C138"/>
     <mergeCell ref="B72:C72"/>
@@ -9546,13 +9541,18 @@
     <mergeCell ref="B181:C181"/>
     <mergeCell ref="B192:C192"/>
     <mergeCell ref="B196:C196"/>
-    <mergeCell ref="B201:C201"/>
-    <mergeCell ref="B202:C202"/>
-    <mergeCell ref="B145:C145"/>
-    <mergeCell ref="B152:C152"/>
-    <mergeCell ref="B159:C159"/>
-    <mergeCell ref="B163:C163"/>
-    <mergeCell ref="B167:C167"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="87" fitToHeight="100" orientation="portrait" r:id="rId1"/>
